--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample07-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample07-from-config-file.xlsx
@@ -3245,7 +3245,7 @@
         <v>43496</v>
       </c>
       <c r="D2" s="10">
-        <v>9669.5791015625</v>
+        <v>4044.260986328125</v>
       </c>
     </row>
     <row r="3">
@@ -3259,7 +3259,7 @@
         <v>43497</v>
       </c>
       <c r="D3" s="11">
-        <v>5657.9794921875</v>
+        <v>8613.9169921875</v>
       </c>
     </row>
     <row r="4">
@@ -3273,7 +3273,7 @@
         <v>43498</v>
       </c>
       <c r="D4" s="10">
-        <v>7498.02294921875</v>
+        <v>4013.70068359375</v>
       </c>
     </row>
     <row r="5">
@@ -3287,7 +3287,7 @@
         <v>43499</v>
       </c>
       <c r="D5" s="11">
-        <v>7205.9619140625</v>
+        <v>8099.0986328125</v>
       </c>
     </row>
     <row r="6">
@@ -3301,7 +3301,7 @@
         <v>43500</v>
       </c>
       <c r="D6" s="10">
-        <v>8986.61328125</v>
+        <v>6514.5595703125</v>
       </c>
     </row>
     <row r="7">
@@ -3315,7 +3315,7 @@
         <v>43501</v>
       </c>
       <c r="D7" s="11">
-        <v>2147.987548828125</v>
+        <v>6710.533203125</v>
       </c>
     </row>
     <row r="8">
@@ -3329,7 +3329,7 @@
         <v>43502</v>
       </c>
       <c r="D8" s="10">
-        <v>659.14801025390625</v>
+        <v>1532.9991455078125</v>
       </c>
     </row>
     <row r="9">
@@ -3343,7 +3343,7 @@
         <v>43503</v>
       </c>
       <c r="D9" s="11">
-        <v>8765.341796875</v>
+        <v>8541.8076171875</v>
       </c>
     </row>
     <row r="10">
@@ -3357,7 +3357,7 @@
         <v>43504</v>
       </c>
       <c r="D10" s="10">
-        <v>3441.306396484375</v>
+        <v>5627.466796875</v>
       </c>
     </row>
     <row r="11">
@@ -3371,7 +3371,7 @@
         <v>43505</v>
       </c>
       <c r="D11" s="11">
-        <v>5304.83544921875</v>
+        <v>9144.6318359375</v>
       </c>
     </row>
     <row r="12">
@@ -3385,7 +3385,7 @@
         <v>43506</v>
       </c>
       <c r="D12" s="10">
-        <v>5799.4140625</v>
+        <v>7258.580078125</v>
       </c>
     </row>
     <row r="13">
@@ -3399,7 +3399,7 @@
         <v>43507</v>
       </c>
       <c r="D13" s="11">
-        <v>1680.9808349609375</v>
+        <v>6552.736328125</v>
       </c>
     </row>
     <row r="14">
@@ -3413,7 +3413,7 @@
         <v>43508</v>
       </c>
       <c r="D14" s="10">
-        <v>7913.27783203125</v>
+        <v>3935.56298828125</v>
       </c>
     </row>
     <row r="15">
@@ -3427,7 +3427,7 @@
         <v>43509</v>
       </c>
       <c r="D15" s="11">
-        <v>2006.8515625</v>
+        <v>1909.6878662109375</v>
       </c>
     </row>
     <row r="16">
@@ -3441,7 +3441,7 @@
         <v>43510</v>
       </c>
       <c r="D16" s="10">
-        <v>5951.76708984375</v>
+        <v>4197.37841796875</v>
       </c>
     </row>
     <row r="17">
@@ -3455,7 +3455,7 @@
         <v>43511</v>
       </c>
       <c r="D17" s="11">
-        <v>492.18777465820312</v>
+        <v>6469.94140625</v>
       </c>
     </row>
     <row r="18">
@@ -3469,7 +3469,7 @@
         <v>43512</v>
       </c>
       <c r="D18" s="10">
-        <v>6955.0927734375</v>
+        <v>5098.38525390625</v>
       </c>
     </row>
     <row r="19">
@@ -3483,7 +3483,7 @@
         <v>43513</v>
       </c>
       <c r="D19" s="11">
-        <v>1484.9354248046875</v>
+        <v>8206.41796875</v>
       </c>
     </row>
     <row r="20">
@@ -3497,7 +3497,7 @@
         <v>43514</v>
       </c>
       <c r="D20" s="10">
-        <v>5285.10791015625</v>
+        <v>8047.3759765625</v>
       </c>
     </row>
     <row r="21">
@@ -3511,7 +3511,7 @@
         <v>43515</v>
       </c>
       <c r="D21" s="11">
-        <v>1466.7164306640625</v>
+        <v>2508.937255859375</v>
       </c>
     </row>
     <row r="22">
@@ -3525,7 +3525,7 @@
         <v>43516</v>
       </c>
       <c r="D22" s="10">
-        <v>5097.88037109375</v>
+        <v>4432.25341796875</v>
       </c>
     </row>
     <row r="23">
@@ -3539,7 +3539,7 @@
         <v>43517</v>
       </c>
       <c r="D23" s="11">
-        <v>4624.38623046875</v>
+        <v>3230.795166015625</v>
       </c>
     </row>
     <row r="24">
@@ -3553,7 +3553,7 @@
         <v>43518</v>
       </c>
       <c r="D24" s="10">
-        <v>174.28834533691406</v>
+        <v>1004.09228515625</v>
       </c>
     </row>
     <row r="25">
@@ -3567,7 +3567,7 @@
         <v>43519</v>
       </c>
       <c r="D25" s="11">
-        <v>1234.158203125</v>
+        <v>5594.0732421875</v>
       </c>
     </row>
     <row r="26">
@@ -3581,7 +3581,7 @@
         <v>43520</v>
       </c>
       <c r="D26" s="10">
-        <v>7592.1728515625</v>
+        <v>3739.67236328125</v>
       </c>
     </row>
     <row r="27">
@@ -3595,7 +3595,7 @@
         <v>43521</v>
       </c>
       <c r="D27" s="11">
-        <v>9493.5517578125</v>
+        <v>5499.224609375</v>
       </c>
     </row>
     <row r="28">
@@ -3609,7 +3609,7 @@
         <v>43522</v>
       </c>
       <c r="D28" s="10">
-        <v>6443.2841796875</v>
+        <v>9956.0615234375</v>
       </c>
     </row>
     <row r="29">
@@ -3623,7 +3623,7 @@
         <v>43523</v>
       </c>
       <c r="D29" s="11">
-        <v>2613.279541015625</v>
+        <v>9691.2978515625</v>
       </c>
     </row>
     <row r="30">
@@ -3637,7 +3637,7 @@
         <v>43524</v>
       </c>
       <c r="D30" s="10">
-        <v>1904.2708740234375</v>
+        <v>8288.0830078125</v>
       </c>
     </row>
     <row r="31">
@@ -3651,7 +3651,7 @@
         <v>43525</v>
       </c>
       <c r="D31" s="11">
-        <v>611.84185791015625</v>
+        <v>4457.67578125</v>
       </c>
     </row>
     <row r="32">
@@ -3665,7 +3665,7 @@
         <v>43526</v>
       </c>
       <c r="D32" s="10">
-        <v>9921.7353515625</v>
+        <v>8227.896484375</v>
       </c>
     </row>
     <row r="33">
@@ -3679,7 +3679,7 @@
         <v>43527</v>
       </c>
       <c r="D33" s="11">
-        <v>7087.54296875</v>
+        <v>2568.923583984375</v>
       </c>
     </row>
     <row r="34">
@@ -3693,7 +3693,7 @@
         <v>43528</v>
       </c>
       <c r="D34" s="10">
-        <v>139.39677429199219</v>
+        <v>3683.112060546875</v>
       </c>
     </row>
     <row r="35">
@@ -3707,7 +3707,7 @@
         <v>43529</v>
       </c>
       <c r="D35" s="11">
-        <v>9178.79296875</v>
+        <v>5009.58642578125</v>
       </c>
     </row>
     <row r="36">
@@ -3721,7 +3721,7 @@
         <v>43530</v>
       </c>
       <c r="D36" s="10">
-        <v>271.57302856445312</v>
+        <v>7296.83056640625</v>
       </c>
     </row>
     <row r="37">
@@ -3735,7 +3735,7 @@
         <v>43531</v>
       </c>
       <c r="D37" s="11">
-        <v>2954.268310546875</v>
+        <v>4902.46875</v>
       </c>
     </row>
     <row r="38">
@@ -3749,7 +3749,7 @@
         <v>43532</v>
       </c>
       <c r="D38" s="10">
-        <v>9982.6591796875</v>
+        <v>2343.5673828125</v>
       </c>
     </row>
     <row r="39">
@@ -3763,7 +3763,7 @@
         <v>43533</v>
       </c>
       <c r="D39" s="11">
-        <v>8556.7626953125</v>
+        <v>5922.5</v>
       </c>
     </row>
     <row r="40">
@@ -3777,7 +3777,7 @@
         <v>43534</v>
       </c>
       <c r="D40" s="10">
-        <v>1062.0272216796875</v>
+        <v>6791.64306640625</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>43535</v>
       </c>
       <c r="D41" s="11">
-        <v>6657.6962890625</v>
+        <v>1668.3223876953125</v>
       </c>
     </row>
     <row r="42">
@@ -3805,7 +3805,7 @@
         <v>43536</v>
       </c>
       <c r="D42" s="10">
-        <v>2098.28271484375</v>
+        <v>9893.068359375</v>
       </c>
     </row>
     <row r="43">
@@ -3819,7 +3819,7 @@
         <v>43537</v>
       </c>
       <c r="D43" s="11">
-        <v>6627.5341796875</v>
+        <v>6478.86328125</v>
       </c>
     </row>
     <row r="44">
@@ -3833,7 +3833,7 @@
         <v>43538</v>
       </c>
       <c r="D44" s="10">
-        <v>8688.9716796875</v>
+        <v>2926.334228515625</v>
       </c>
     </row>
     <row r="45">
@@ -3847,7 +3847,7 @@
         <v>43539</v>
       </c>
       <c r="D45" s="11">
-        <v>879.59869384765625</v>
+        <v>6039.1171875</v>
       </c>
     </row>
     <row r="46">
@@ -3861,7 +3861,7 @@
         <v>43540</v>
       </c>
       <c r="D46" s="10">
-        <v>9798.517578125</v>
+        <v>6784.1455078125</v>
       </c>
     </row>
     <row r="47">
@@ -3875,7 +3875,7 @@
         <v>43541</v>
       </c>
       <c r="D47" s="11">
-        <v>2937.277099609375</v>
+        <v>8593.072265625</v>
       </c>
     </row>
     <row r="48">
@@ -3889,7 +3889,7 @@
         <v>43542</v>
       </c>
       <c r="D48" s="10">
-        <v>112.99684906005859</v>
+        <v>6275.400390625</v>
       </c>
     </row>
     <row r="49">
@@ -3903,7 +3903,7 @@
         <v>43543</v>
       </c>
       <c r="D49" s="11">
-        <v>9270.9775390625</v>
+        <v>7523.4765625</v>
       </c>
     </row>
     <row r="50">
@@ -3917,7 +3917,7 @@
         <v>43544</v>
       </c>
       <c r="D50" s="10">
-        <v>4614.97802734375</v>
+        <v>2708.480224609375</v>
       </c>
     </row>
     <row r="51">
@@ -3931,7 +3931,7 @@
         <v>43545</v>
       </c>
       <c r="D51" s="11">
-        <v>846.4173583984375</v>
+        <v>7812.4326171875</v>
       </c>
     </row>
     <row r="52">
@@ -3945,7 +3945,7 @@
         <v>43546</v>
       </c>
       <c r="D52" s="10">
-        <v>5340.43017578125</v>
+        <v>5177.09521484375</v>
       </c>
     </row>
     <row r="53">
@@ -3959,7 +3959,7 @@
         <v>43547</v>
       </c>
       <c r="D53" s="11">
-        <v>2227.337890625</v>
+        <v>2590.697998046875</v>
       </c>
     </row>
     <row r="54">
@@ -3973,7 +3973,7 @@
         <v>43548</v>
       </c>
       <c r="D54" s="10">
-        <v>7171.8955078125</v>
+        <v>8508.8701171875</v>
       </c>
     </row>
     <row r="55">
@@ -3987,7 +3987,7 @@
         <v>43549</v>
       </c>
       <c r="D55" s="11">
-        <v>7354.4248046875</v>
+        <v>6015.10986328125</v>
       </c>
     </row>
     <row r="56">
@@ -4001,7 +4001,7 @@
         <v>43550</v>
       </c>
       <c r="D56" s="10">
-        <v>9157.3798828125</v>
+        <v>5593.6572265625</v>
       </c>
     </row>
     <row r="57">
@@ -4015,7 +4015,7 @@
         <v>43551</v>
       </c>
       <c r="D57" s="11">
-        <v>5045.19287109375</v>
+        <v>813.46588134765625</v>
       </c>
     </row>
     <row r="58">
@@ -4029,7 +4029,7 @@
         <v>43552</v>
       </c>
       <c r="D58" s="10">
-        <v>5483.69091796875</v>
+        <v>7609.82421875</v>
       </c>
     </row>
     <row r="59">
@@ -4043,7 +4043,7 @@
         <v>43553</v>
       </c>
       <c r="D59" s="11">
-        <v>6263.86474609375</v>
+        <v>8419.626953125</v>
       </c>
     </row>
     <row r="60">
@@ -4057,7 +4057,7 @@
         <v>43554</v>
       </c>
       <c r="D60" s="10">
-        <v>9613.7890625</v>
+        <v>4359.42626953125</v>
       </c>
     </row>
     <row r="61">
@@ -4071,7 +4071,7 @@
         <v>43555</v>
       </c>
       <c r="D61" s="11">
-        <v>9493.0615234375</v>
+        <v>1015.3350219726563</v>
       </c>
     </row>
     <row r="62">
@@ -4085,7 +4085,7 @@
         <v>43556</v>
       </c>
       <c r="D62" s="10">
-        <v>5704.70361328125</v>
+        <v>6754.47119140625</v>
       </c>
     </row>
     <row r="63">
@@ -4099,7 +4099,7 @@
         <v>43557</v>
       </c>
       <c r="D63" s="11">
-        <v>8045.86865234375</v>
+        <v>1841.7012939453125</v>
       </c>
     </row>
     <row r="64">
@@ -4113,7 +4113,7 @@
         <v>43558</v>
       </c>
       <c r="D64" s="10">
-        <v>6861.07080078125</v>
+        <v>253.72401428222656</v>
       </c>
     </row>
     <row r="65">
@@ -4127,7 +4127,7 @@
         <v>43559</v>
       </c>
       <c r="D65" s="11">
-        <v>2829.46435546875</v>
+        <v>1169.7908935546875</v>
       </c>
     </row>
     <row r="66">
@@ -4141,7 +4141,7 @@
         <v>43560</v>
       </c>
       <c r="D66" s="10">
-        <v>5383.099609375</v>
+        <v>916.73553466796875</v>
       </c>
     </row>
     <row r="67">
@@ -4155,7 +4155,7 @@
         <v>43561</v>
       </c>
       <c r="D67" s="11">
-        <v>8711.87109375</v>
+        <v>4689.65625</v>
       </c>
     </row>
     <row r="68">
@@ -4169,7 +4169,7 @@
         <v>43562</v>
       </c>
       <c r="D68" s="10">
-        <v>1541.5841064453125</v>
+        <v>2869.62451171875</v>
       </c>
     </row>
     <row r="69">
@@ -4183,7 +4183,7 @@
         <v>43563</v>
       </c>
       <c r="D69" s="11">
-        <v>8734.4853515625</v>
+        <v>8925.9765625</v>
       </c>
     </row>
     <row r="70">
@@ -4197,7 +4197,7 @@
         <v>43564</v>
       </c>
       <c r="D70" s="10">
-        <v>1735.278564453125</v>
+        <v>4612.857421875</v>
       </c>
     </row>
     <row r="71">
@@ -4211,7 +4211,7 @@
         <v>43565</v>
       </c>
       <c r="D71" s="11">
-        <v>2997.4990234375</v>
+        <v>9294.91015625</v>
       </c>
     </row>
     <row r="72">
@@ -4225,7 +4225,7 @@
         <v>43566</v>
       </c>
       <c r="D72" s="10">
-        <v>509.5284423828125</v>
+        <v>4126.3740234375</v>
       </c>
     </row>
     <row r="73">
@@ -4239,7 +4239,7 @@
         <v>43567</v>
       </c>
       <c r="D73" s="11">
-        <v>8398.330078125</v>
+        <v>9175.884765625</v>
       </c>
     </row>
     <row r="74">
@@ -4253,7 +4253,7 @@
         <v>43568</v>
       </c>
       <c r="D74" s="10">
-        <v>422.90823364257812</v>
+        <v>1414.7747802734375</v>
       </c>
     </row>
     <row r="75">
@@ -4267,7 +4267,7 @@
         <v>43569</v>
       </c>
       <c r="D75" s="11">
-        <v>8627.4111328125</v>
+        <v>6379.05322265625</v>
       </c>
     </row>
     <row r="76">
@@ -4281,7 +4281,7 @@
         <v>43570</v>
       </c>
       <c r="D76" s="10">
-        <v>9368.43359375</v>
+        <v>2615.868896484375</v>
       </c>
     </row>
     <row r="77">
@@ -4295,7 +4295,7 @@
         <v>43571</v>
       </c>
       <c r="D77" s="11">
-        <v>8470.345703125</v>
+        <v>7953.39013671875</v>
       </c>
     </row>
     <row r="78">
@@ -4309,7 +4309,7 @@
         <v>43572</v>
       </c>
       <c r="D78" s="10">
-        <v>5935.41455078125</v>
+        <v>304.4609375</v>
       </c>
     </row>
     <row r="79">
@@ -4323,7 +4323,7 @@
         <v>43573</v>
       </c>
       <c r="D79" s="11">
-        <v>9294.689453125</v>
+        <v>4964.97509765625</v>
       </c>
     </row>
     <row r="80">
@@ -4337,7 +4337,7 @@
         <v>43574</v>
       </c>
       <c r="D80" s="10">
-        <v>1435.640869140625</v>
+        <v>8809.927734375</v>
       </c>
     </row>
     <row r="81">
@@ -4351,7 +4351,7 @@
         <v>43575</v>
       </c>
       <c r="D81" s="11">
-        <v>4654.8955078125</v>
+        <v>5146.60009765625</v>
       </c>
     </row>
     <row r="82">
@@ -4365,7 +4365,7 @@
         <v>43576</v>
       </c>
       <c r="D82" s="10">
-        <v>9380.5546875</v>
+        <v>9223.82421875</v>
       </c>
     </row>
     <row r="83">
@@ -4379,7 +4379,7 @@
         <v>43577</v>
       </c>
       <c r="D83" s="11">
-        <v>7172.30712890625</v>
+        <v>2432.58544921875</v>
       </c>
     </row>
     <row r="84">
@@ -4393,7 +4393,7 @@
         <v>43578</v>
       </c>
       <c r="D84" s="10">
-        <v>7998.30126953125</v>
+        <v>6982.8173828125</v>
       </c>
     </row>
     <row r="85">
@@ -4407,7 +4407,7 @@
         <v>43579</v>
       </c>
       <c r="D85" s="11">
-        <v>1057.853515625</v>
+        <v>475.65036010742188</v>
       </c>
     </row>
     <row r="86">
@@ -4421,7 +4421,7 @@
         <v>43580</v>
       </c>
       <c r="D86" s="10">
-        <v>5271.41162109375</v>
+        <v>9280.580078125</v>
       </c>
     </row>
     <row r="87">
@@ -4435,7 +4435,7 @@
         <v>43581</v>
       </c>
       <c r="D87" s="11">
-        <v>7694.39794921875</v>
+        <v>5637.1982421875</v>
       </c>
     </row>
     <row r="88">
@@ -4449,7 +4449,7 @@
         <v>43582</v>
       </c>
       <c r="D88" s="10">
-        <v>9915.6474609375</v>
+        <v>4060.053466796875</v>
       </c>
     </row>
     <row r="89">
@@ -4463,7 +4463,7 @@
         <v>43583</v>
       </c>
       <c r="D89" s="11">
-        <v>2784.97216796875</v>
+        <v>7668.001953125</v>
       </c>
     </row>
     <row r="90">
@@ -4477,7 +4477,7 @@
         <v>43584</v>
       </c>
       <c r="D90" s="10">
-        <v>21.412702560424805</v>
+        <v>9415.9287109375</v>
       </c>
     </row>
     <row r="91">
@@ -4491,7 +4491,7 @@
         <v>43585</v>
       </c>
       <c r="D91" s="11">
-        <v>5226.38037109375</v>
+        <v>6483.36474609375</v>
       </c>
     </row>
     <row r="92">
@@ -4505,7 +4505,7 @@
         <v>43586</v>
       </c>
       <c r="D92" s="10">
-        <v>7470.5771484375</v>
+        <v>7292.64453125</v>
       </c>
     </row>
     <row r="93">
@@ -4519,7 +4519,7 @@
         <v>43587</v>
       </c>
       <c r="D93" s="11">
-        <v>3718.79443359375</v>
+        <v>3923.940185546875</v>
       </c>
     </row>
     <row r="94">
@@ -4533,7 +4533,7 @@
         <v>43588</v>
       </c>
       <c r="D94" s="10">
-        <v>8942.9736328125</v>
+        <v>1563.0733642578125</v>
       </c>
     </row>
     <row r="95">
@@ -4547,7 +4547,7 @@
         <v>43589</v>
       </c>
       <c r="D95" s="11">
-        <v>1568.9658203125</v>
+        <v>5776.30810546875</v>
       </c>
     </row>
     <row r="96">
@@ -4561,7 +4561,7 @@
         <v>43590</v>
       </c>
       <c r="D96" s="10">
-        <v>952.99310302734375</v>
+        <v>4913.85107421875</v>
       </c>
     </row>
     <row r="97">
@@ -4575,7 +4575,7 @@
         <v>43591</v>
       </c>
       <c r="D97" s="11">
-        <v>4052.414306640625</v>
+        <v>8051.3671875</v>
       </c>
     </row>
     <row r="98">
@@ -4589,7 +4589,7 @@
         <v>43592</v>
       </c>
       <c r="D98" s="10">
-        <v>9766.462890625</v>
+        <v>6225.13916015625</v>
       </c>
     </row>
     <row r="99">
@@ -4603,7 +4603,7 @@
         <v>43593</v>
       </c>
       <c r="D99" s="11">
-        <v>5859.50732421875</v>
+        <v>1756.543212890625</v>
       </c>
     </row>
     <row r="100">
@@ -4617,7 +4617,7 @@
         <v>43594</v>
       </c>
       <c r="D100" s="10">
-        <v>5496.4990234375</v>
+        <v>5122.3818359375</v>
       </c>
     </row>
     <row r="101">
@@ -4631,7 +4631,7 @@
         <v>43595</v>
       </c>
       <c r="D101" s="11">
-        <v>1086.64599609375</v>
+        <v>2094.4892578125</v>
       </c>
     </row>
     <row r="102">
@@ -4645,7 +4645,7 @@
         <v>43596</v>
       </c>
       <c r="D102" s="10">
-        <v>1395.693115234375</v>
+        <v>5723.4482421875</v>
       </c>
     </row>
     <row r="103">
@@ -4659,7 +4659,7 @@
         <v>43597</v>
       </c>
       <c r="D103" s="11">
-        <v>1378.51171875</v>
+        <v>7349.42431640625</v>
       </c>
     </row>
     <row r="104">
@@ -4673,7 +4673,7 @@
         <v>43598</v>
       </c>
       <c r="D104" s="10">
-        <v>7535.69873046875</v>
+        <v>2910.618896484375</v>
       </c>
     </row>
     <row r="105">
@@ -4687,7 +4687,7 @@
         <v>43599</v>
       </c>
       <c r="D105" s="11">
-        <v>1617.479248046875</v>
+        <v>3413.570556640625</v>
       </c>
     </row>
     <row r="106">
@@ -4701,7 +4701,7 @@
         <v>43600</v>
       </c>
       <c r="D106" s="10">
-        <v>336.888916015625</v>
+        <v>3686.058837890625</v>
       </c>
     </row>
     <row r="107">
@@ -4715,7 +4715,7 @@
         <v>43601</v>
       </c>
       <c r="D107" s="11">
-        <v>6942.10009765625</v>
+        <v>6001.2099609375</v>
       </c>
     </row>
     <row r="108">
@@ -4729,7 +4729,7 @@
         <v>43602</v>
       </c>
       <c r="D108" s="10">
-        <v>1804.4295654296875</v>
+        <v>1175.92333984375</v>
       </c>
     </row>
     <row r="109">
@@ -4743,7 +4743,7 @@
         <v>43603</v>
       </c>
       <c r="D109" s="11">
-        <v>8544.484375</v>
+        <v>2129.816650390625</v>
       </c>
     </row>
     <row r="110">
@@ -4757,7 +4757,7 @@
         <v>43604</v>
       </c>
       <c r="D110" s="10">
-        <v>7985.99072265625</v>
+        <v>3399.240966796875</v>
       </c>
     </row>
     <row r="111">
@@ -4771,7 +4771,7 @@
         <v>43605</v>
       </c>
       <c r="D111" s="11">
-        <v>687.03424072265625</v>
+        <v>7640.26708984375</v>
       </c>
     </row>
     <row r="112">
@@ -4785,7 +4785,7 @@
         <v>43606</v>
       </c>
       <c r="D112" s="10">
-        <v>9109.7783203125</v>
+        <v>509.00494384765625</v>
       </c>
     </row>
     <row r="113">
@@ -4799,7 +4799,7 @@
         <v>43607</v>
       </c>
       <c r="D113" s="11">
-        <v>6189.00146484375</v>
+        <v>2644.849365234375</v>
       </c>
     </row>
     <row r="114">
@@ -4813,7 +4813,7 @@
         <v>43608</v>
       </c>
       <c r="D114" s="10">
-        <v>4828.22412109375</v>
+        <v>9609.69921875</v>
       </c>
     </row>
     <row r="115">
@@ -4827,7 +4827,7 @@
         <v>43609</v>
       </c>
       <c r="D115" s="11">
-        <v>4958.89404296875</v>
+        <v>9212.826171875</v>
       </c>
     </row>
     <row r="116">
@@ -4841,7 +4841,7 @@
         <v>43610</v>
       </c>
       <c r="D116" s="10">
-        <v>112.50669860839844</v>
+        <v>1791.510986328125</v>
       </c>
     </row>
     <row r="117">
@@ -4855,7 +4855,7 @@
         <v>43611</v>
       </c>
       <c r="D117" s="11">
-        <v>8532.396484375</v>
+        <v>4321.8857421875</v>
       </c>
     </row>
     <row r="118">
@@ -4869,7 +4869,7 @@
         <v>43612</v>
       </c>
       <c r="D118" s="10">
-        <v>47.567188262939453</v>
+        <v>4858.8837890625</v>
       </c>
     </row>
     <row r="119">
@@ -4883,7 +4883,7 @@
         <v>43613</v>
       </c>
       <c r="D119" s="11">
-        <v>5803.21728515625</v>
+        <v>9778.0732421875</v>
       </c>
     </row>
     <row r="120">
@@ -4897,7 +4897,7 @@
         <v>43614</v>
       </c>
       <c r="D120" s="10">
-        <v>7558.052734375</v>
+        <v>1889.21044921875</v>
       </c>
     </row>
     <row r="121">
@@ -4911,7 +4911,7 @@
         <v>43615</v>
       </c>
       <c r="D121" s="11">
-        <v>7688.70166015625</v>
+        <v>5279.537109375</v>
       </c>
     </row>
     <row r="122">
@@ -4925,7 +4925,7 @@
         <v>43616</v>
       </c>
       <c r="D122" s="10">
-        <v>8796.2236328125</v>
+        <v>629.60308837890625</v>
       </c>
     </row>
     <row r="123">
@@ -4939,7 +4939,7 @@
         <v>43617</v>
       </c>
       <c r="D123" s="11">
-        <v>8756.6123046875</v>
+        <v>5201.62255859375</v>
       </c>
     </row>
     <row r="124">
@@ -4953,7 +4953,7 @@
         <v>43618</v>
       </c>
       <c r="D124" s="10">
-        <v>8713.072265625</v>
+        <v>9510.046875</v>
       </c>
     </row>
     <row r="125">
@@ -4967,7 +4967,7 @@
         <v>43619</v>
       </c>
       <c r="D125" s="11">
-        <v>6508.8984375</v>
+        <v>8129.4931640625</v>
       </c>
     </row>
     <row r="126">
@@ -4981,7 +4981,7 @@
         <v>43620</v>
       </c>
       <c r="D126" s="10">
-        <v>5526.921875</v>
+        <v>2002.265380859375</v>
       </c>
     </row>
     <row r="127">
@@ -4995,7 +4995,7 @@
         <v>43621</v>
       </c>
       <c r="D127" s="11">
-        <v>6790.73388671875</v>
+        <v>202.43382263183594</v>
       </c>
     </row>
     <row r="128">
@@ -5009,7 +5009,7 @@
         <v>43622</v>
       </c>
       <c r="D128" s="10">
-        <v>9455.3564453125</v>
+        <v>7612.81201171875</v>
       </c>
     </row>
     <row r="129">
@@ -5023,7 +5023,7 @@
         <v>43623</v>
       </c>
       <c r="D129" s="11">
-        <v>8853.9423828125</v>
+        <v>5638.46630859375</v>
       </c>
     </row>
     <row r="130">
@@ -5037,7 +5037,7 @@
         <v>43624</v>
       </c>
       <c r="D130" s="10">
-        <v>7674.41796875</v>
+        <v>1465.202392578125</v>
       </c>
     </row>
     <row r="131">
@@ -5051,7 +5051,7 @@
         <v>43625</v>
       </c>
       <c r="D131" s="11">
-        <v>5316.01953125</v>
+        <v>4564.501953125</v>
       </c>
     </row>
     <row r="132">
@@ -5065,7 +5065,7 @@
         <v>43626</v>
       </c>
       <c r="D132" s="10">
-        <v>8703.8828125</v>
+        <v>1728.251220703125</v>
       </c>
     </row>
     <row r="133">
@@ -5079,7 +5079,7 @@
         <v>43627</v>
       </c>
       <c r="D133" s="11">
-        <v>75.907516479492188</v>
+        <v>8547.91796875</v>
       </c>
     </row>
     <row r="134">
@@ -5093,7 +5093,7 @@
         <v>43628</v>
       </c>
       <c r="D134" s="10">
-        <v>3798.1904296875</v>
+        <v>9842.5927734375</v>
       </c>
     </row>
     <row r="135">
@@ -5107,7 +5107,7 @@
         <v>43629</v>
       </c>
       <c r="D135" s="11">
-        <v>348.99484252929688</v>
+        <v>6715.4384765625</v>
       </c>
     </row>
     <row r="136">
@@ -5121,7 +5121,7 @@
         <v>43630</v>
       </c>
       <c r="D136" s="10">
-        <v>3259.202392578125</v>
+        <v>9423.15234375</v>
       </c>
     </row>
     <row r="137">
@@ -5135,7 +5135,7 @@
         <v>43631</v>
       </c>
       <c r="D137" s="11">
-        <v>8002.04296875</v>
+        <v>1874.399658203125</v>
       </c>
     </row>
     <row r="138">
@@ -5149,7 +5149,7 @@
         <v>43632</v>
       </c>
       <c r="D138" s="10">
-        <v>9636.6083984375</v>
+        <v>9521.966796875</v>
       </c>
     </row>
     <row r="139">
@@ -5163,7 +5163,7 @@
         <v>43633</v>
       </c>
       <c r="D139" s="11">
-        <v>6380.822265625</v>
+        <v>3569.246826171875</v>
       </c>
     </row>
     <row r="140">
@@ -5177,7 +5177,7 @@
         <v>43634</v>
       </c>
       <c r="D140" s="10">
-        <v>720.964599609375</v>
+        <v>6789.591796875</v>
       </c>
     </row>
     <row r="141">
@@ -5191,7 +5191,7 @@
         <v>43635</v>
       </c>
       <c r="D141" s="11">
-        <v>8329.3115234375</v>
+        <v>3279.370361328125</v>
       </c>
     </row>
     <row r="142">
@@ -5205,7 +5205,7 @@
         <v>43636</v>
       </c>
       <c r="D142" s="10">
-        <v>5889.96826171875</v>
+        <v>4461.27490234375</v>
       </c>
     </row>
     <row r="143">
@@ -5219,7 +5219,7 @@
         <v>43637</v>
       </c>
       <c r="D143" s="11">
-        <v>1371.162841796875</v>
+        <v>1930.2366943359375</v>
       </c>
     </row>
     <row r="144">
@@ -5233,7 +5233,7 @@
         <v>43638</v>
       </c>
       <c r="D144" s="10">
-        <v>4798.9814453125</v>
+        <v>4268.7607421875</v>
       </c>
     </row>
     <row r="145">
@@ -5247,7 +5247,7 @@
         <v>43639</v>
       </c>
       <c r="D145" s="11">
-        <v>9334.37890625</v>
+        <v>1775.6619873046875</v>
       </c>
     </row>
     <row r="146">
@@ -5261,7 +5261,7 @@
         <v>43640</v>
       </c>
       <c r="D146" s="10">
-        <v>6116.60205078125</v>
+        <v>5974.359375</v>
       </c>
     </row>
     <row r="147">
@@ -5275,7 +5275,7 @@
         <v>43641</v>
       </c>
       <c r="D147" s="11">
-        <v>1281.575927734375</v>
+        <v>4647.794921875</v>
       </c>
     </row>
     <row r="148">
@@ -5289,7 +5289,7 @@
         <v>43642</v>
       </c>
       <c r="D148" s="10">
-        <v>8890.5703125</v>
+        <v>4314.24072265625</v>
       </c>
     </row>
     <row r="149">
@@ -5303,7 +5303,7 @@
         <v>43643</v>
       </c>
       <c r="D149" s="11">
-        <v>3984.07958984375</v>
+        <v>2350.246826171875</v>
       </c>
     </row>
     <row r="150">
@@ -5317,7 +5317,7 @@
         <v>43644</v>
       </c>
       <c r="D150" s="10">
-        <v>1456.4591064453125</v>
+        <v>3984.797119140625</v>
       </c>
     </row>
     <row r="151">
@@ -5331,7 +5331,7 @@
         <v>43645</v>
       </c>
       <c r="D151" s="11">
-        <v>2420.5966796875</v>
+        <v>591.96527099609375</v>
       </c>
     </row>
     <row r="152">
@@ -5345,7 +5345,7 @@
         <v>43646</v>
       </c>
       <c r="D152" s="10">
-        <v>4004.84716796875</v>
+        <v>3192.483154296875</v>
       </c>
     </row>
     <row r="153">
@@ -5359,7 +5359,7 @@
         <v>43647</v>
       </c>
       <c r="D153" s="11">
-        <v>3963.245849609375</v>
+        <v>6447.0654296875</v>
       </c>
     </row>
     <row r="154">
@@ -5373,7 +5373,7 @@
         <v>43648</v>
       </c>
       <c r="D154" s="10">
-        <v>8301.4541015625</v>
+        <v>9867.3330078125</v>
       </c>
     </row>
     <row r="155">
@@ -5387,7 +5387,7 @@
         <v>43649</v>
       </c>
       <c r="D155" s="11">
-        <v>7807.79736328125</v>
+        <v>9842.8447265625</v>
       </c>
     </row>
     <row r="156">
@@ -5401,7 +5401,7 @@
         <v>43650</v>
       </c>
       <c r="D156" s="10">
-        <v>2290.421875</v>
+        <v>1464.8861083984375</v>
       </c>
     </row>
     <row r="157">
@@ -5415,7 +5415,7 @@
         <v>43651</v>
       </c>
       <c r="D157" s="11">
-        <v>2639.0810546875</v>
+        <v>521.82550048828125</v>
       </c>
     </row>
     <row r="158">
@@ -5429,7 +5429,7 @@
         <v>43652</v>
       </c>
       <c r="D158" s="10">
-        <v>2665.439208984375</v>
+        <v>7839.376953125</v>
       </c>
     </row>
     <row r="159">
@@ -5443,7 +5443,7 @@
         <v>43653</v>
       </c>
       <c r="D159" s="11">
-        <v>1026.8001708984375</v>
+        <v>4781.1259765625</v>
       </c>
     </row>
     <row r="160">
@@ -5457,7 +5457,7 @@
         <v>43654</v>
       </c>
       <c r="D160" s="10">
-        <v>6090.5576171875</v>
+        <v>1411.30517578125</v>
       </c>
     </row>
     <row r="161">
@@ -5471,7 +5471,7 @@
         <v>43655</v>
       </c>
       <c r="D161" s="11">
-        <v>3546.15478515625</v>
+        <v>3483.625</v>
       </c>
     </row>
     <row r="162">
@@ -5485,7 +5485,7 @@
         <v>43656</v>
       </c>
       <c r="D162" s="10">
-        <v>7486.74365234375</v>
+        <v>8388.3984375</v>
       </c>
     </row>
     <row r="163">
@@ -5499,7 +5499,7 @@
         <v>43657</v>
       </c>
       <c r="D163" s="11">
-        <v>2950.487060546875</v>
+        <v>5537.45703125</v>
       </c>
     </row>
     <row r="164">
@@ -5513,7 +5513,7 @@
         <v>43658</v>
       </c>
       <c r="D164" s="10">
-        <v>870.06622314453125</v>
+        <v>664.6143798828125</v>
       </c>
     </row>
     <row r="165">
@@ -5527,7 +5527,7 @@
         <v>43659</v>
       </c>
       <c r="D165" s="11">
-        <v>2669.9716796875</v>
+        <v>8834.7392578125</v>
       </c>
     </row>
     <row r="166">
@@ -5541,7 +5541,7 @@
         <v>43660</v>
       </c>
       <c r="D166" s="10">
-        <v>1983.151611328125</v>
+        <v>5912.01611328125</v>
       </c>
     </row>
     <row r="167">
@@ -5555,7 +5555,7 @@
         <v>43661</v>
       </c>
       <c r="D167" s="11">
-        <v>9033.87109375</v>
+        <v>1961.0872802734375</v>
       </c>
     </row>
     <row r="168">
@@ -5569,7 +5569,7 @@
         <v>43662</v>
       </c>
       <c r="D168" s="10">
-        <v>2390.810791015625</v>
+        <v>2802.25634765625</v>
       </c>
     </row>
     <row r="169">
@@ -5583,7 +5583,7 @@
         <v>43663</v>
       </c>
       <c r="D169" s="11">
-        <v>4479.22900390625</v>
+        <v>2894.260986328125</v>
       </c>
     </row>
     <row r="170">
@@ -5597,7 +5597,7 @@
         <v>43664</v>
       </c>
       <c r="D170" s="10">
-        <v>1699.69140625</v>
+        <v>9789.6748046875</v>
       </c>
     </row>
     <row r="171">
@@ -5611,7 +5611,7 @@
         <v>43665</v>
       </c>
       <c r="D171" s="11">
-        <v>2110.463623046875</v>
+        <v>9917.111328125</v>
       </c>
     </row>
     <row r="172">
@@ -5625,7 +5625,7 @@
         <v>43666</v>
       </c>
       <c r="D172" s="10">
-        <v>8895.7880859375</v>
+        <v>4799.9189453125</v>
       </c>
     </row>
     <row r="173">
@@ -5639,7 +5639,7 @@
         <v>43667</v>
       </c>
       <c r="D173" s="11">
-        <v>3666.7451171875</v>
+        <v>1289.6368408203125</v>
       </c>
     </row>
     <row r="174">
@@ -5653,7 +5653,7 @@
         <v>43668</v>
       </c>
       <c r="D174" s="10">
-        <v>5082.2529296875</v>
+        <v>2988.48193359375</v>
       </c>
     </row>
     <row r="175">
@@ -5667,7 +5667,7 @@
         <v>43669</v>
       </c>
       <c r="D175" s="11">
-        <v>9228.7421875</v>
+        <v>8609.83984375</v>
       </c>
     </row>
     <row r="176">
@@ -5681,7 +5681,7 @@
         <v>43670</v>
       </c>
       <c r="D176" s="10">
-        <v>1798.733642578125</v>
+        <v>818.26239013671875</v>
       </c>
     </row>
     <row r="177">
@@ -5695,7 +5695,7 @@
         <v>43671</v>
       </c>
       <c r="D177" s="11">
-        <v>7425.06103515625</v>
+        <v>8699.3662109375</v>
       </c>
     </row>
     <row r="178">
@@ -5709,7 +5709,7 @@
         <v>43672</v>
       </c>
       <c r="D178" s="10">
-        <v>3957.630615234375</v>
+        <v>932.86163330078125</v>
       </c>
     </row>
     <row r="179">
@@ -5723,7 +5723,7 @@
         <v>43673</v>
       </c>
       <c r="D179" s="11">
-        <v>9378.6943359375</v>
+        <v>7734.38525390625</v>
       </c>
     </row>
     <row r="180">
@@ -5737,7 +5737,7 @@
         <v>43674</v>
       </c>
       <c r="D180" s="10">
-        <v>392.29647827148438</v>
+        <v>2155.13330078125</v>
       </c>
     </row>
     <row r="181">
@@ -5751,7 +5751,7 @@
         <v>43675</v>
       </c>
       <c r="D181" s="11">
-        <v>4245.345703125</v>
+        <v>7354.47021484375</v>
       </c>
     </row>
     <row r="182">
@@ -5765,7 +5765,7 @@
         <v>43676</v>
       </c>
       <c r="D182" s="10">
-        <v>7900.16357421875</v>
+        <v>5888.193359375</v>
       </c>
     </row>
     <row r="183">
@@ -5779,7 +5779,7 @@
         <v>43677</v>
       </c>
       <c r="D183" s="11">
-        <v>5471.27734375</v>
+        <v>5262.56494140625</v>
       </c>
     </row>
     <row r="184">
@@ -5793,7 +5793,7 @@
         <v>43678</v>
       </c>
       <c r="D184" s="10">
-        <v>7397.4833984375</v>
+        <v>1653.6693115234375</v>
       </c>
     </row>
     <row r="185">
@@ -5807,7 +5807,7 @@
         <v>43679</v>
       </c>
       <c r="D185" s="11">
-        <v>5253.8212890625</v>
+        <v>873.23712158203125</v>
       </c>
     </row>
     <row r="186">
@@ -5821,7 +5821,7 @@
         <v>43680</v>
       </c>
       <c r="D186" s="10">
-        <v>1311.1722412109375</v>
+        <v>1372.018798828125</v>
       </c>
     </row>
     <row r="187">
@@ -5835,7 +5835,7 @@
         <v>43681</v>
       </c>
       <c r="D187" s="11">
-        <v>4740.63671875</v>
+        <v>5281.185546875</v>
       </c>
     </row>
     <row r="188">
@@ -5849,7 +5849,7 @@
         <v>43682</v>
       </c>
       <c r="D188" s="10">
-        <v>1774.453369140625</v>
+        <v>8680.5849609375</v>
       </c>
     </row>
     <row r="189">
@@ -5863,7 +5863,7 @@
         <v>43683</v>
       </c>
       <c r="D189" s="11">
-        <v>5990.39306640625</v>
+        <v>9999.7490234375</v>
       </c>
     </row>
     <row r="190">
@@ -5877,7 +5877,7 @@
         <v>43684</v>
       </c>
       <c r="D190" s="10">
-        <v>8058.57275390625</v>
+        <v>5250.55224609375</v>
       </c>
     </row>
     <row r="191">
@@ -5891,7 +5891,7 @@
         <v>43685</v>
       </c>
       <c r="D191" s="11">
-        <v>620.12127685546875</v>
+        <v>8901.326171875</v>
       </c>
     </row>
     <row r="192">
@@ -5905,7 +5905,7 @@
         <v>43686</v>
       </c>
       <c r="D192" s="10">
-        <v>5336.60400390625</v>
+        <v>4035.0224609375</v>
       </c>
     </row>
     <row r="193">
@@ -5919,7 +5919,7 @@
         <v>43687</v>
       </c>
       <c r="D193" s="11">
-        <v>8609.80859375</v>
+        <v>4740.84033203125</v>
       </c>
     </row>
     <row r="194">
@@ -5933,7 +5933,7 @@
         <v>43688</v>
       </c>
       <c r="D194" s="10">
-        <v>290.26446533203125</v>
+        <v>2157.94189453125</v>
       </c>
     </row>
     <row r="195">
@@ -5947,7 +5947,7 @@
         <v>43689</v>
       </c>
       <c r="D195" s="11">
-        <v>7174.8095703125</v>
+        <v>3305.966552734375</v>
       </c>
     </row>
     <row r="196">
@@ -5961,7 +5961,7 @@
         <v>43690</v>
       </c>
       <c r="D196" s="10">
-        <v>842.5677490234375</v>
+        <v>4890.97216796875</v>
       </c>
     </row>
     <row r="197">
@@ -5975,7 +5975,7 @@
         <v>43691</v>
       </c>
       <c r="D197" s="11">
-        <v>2939.481201171875</v>
+        <v>8923.818359375</v>
       </c>
     </row>
     <row r="198">
@@ -5989,7 +5989,7 @@
         <v>43692</v>
       </c>
       <c r="D198" s="10">
-        <v>501.09664916992188</v>
+        <v>1265.622314453125</v>
       </c>
     </row>
     <row r="199">
@@ -6003,7 +6003,7 @@
         <v>43693</v>
       </c>
       <c r="D199" s="11">
-        <v>2129.009765625</v>
+        <v>5434.02197265625</v>
       </c>
     </row>
     <row r="200">
@@ -6017,7 +6017,7 @@
         <v>43694</v>
       </c>
       <c r="D200" s="10">
-        <v>7351.22705078125</v>
+        <v>5863.64599609375</v>
       </c>
     </row>
     <row r="201">
@@ -6031,7 +6031,7 @@
         <v>43695</v>
       </c>
       <c r="D201" s="11">
-        <v>7082.7314453125</v>
+        <v>4013.272216796875</v>
       </c>
     </row>
     <row r="202">
@@ -6045,7 +6045,7 @@
         <v>43696</v>
       </c>
       <c r="D202" s="10">
-        <v>8890.7646484375</v>
+        <v>1845.5386962890625</v>
       </c>
     </row>
     <row r="203">
@@ -6059,7 +6059,7 @@
         <v>43697</v>
       </c>
       <c r="D203" s="11">
-        <v>4411.34130859375</v>
+        <v>1419.9796142578125</v>
       </c>
     </row>
     <row r="204">
@@ -6073,7 +6073,7 @@
         <v>43698</v>
       </c>
       <c r="D204" s="10">
-        <v>2284.38818359375</v>
+        <v>2560.572021484375</v>
       </c>
     </row>
     <row r="205">
@@ -6087,7 +6087,7 @@
         <v>43699</v>
       </c>
       <c r="D205" s="11">
-        <v>9345.9951171875</v>
+        <v>4067.685791015625</v>
       </c>
     </row>
     <row r="206">
@@ -6101,7 +6101,7 @@
         <v>43700</v>
       </c>
       <c r="D206" s="10">
-        <v>3524.808349609375</v>
+        <v>5792.0458984375</v>
       </c>
     </row>
     <row r="207">
@@ -6115,7 +6115,7 @@
         <v>43701</v>
       </c>
       <c r="D207" s="11">
-        <v>338.10195922851562</v>
+        <v>1902.8463134765625</v>
       </c>
     </row>
     <row r="208">
@@ -6129,7 +6129,7 @@
         <v>43702</v>
       </c>
       <c r="D208" s="10">
-        <v>8880.9931640625</v>
+        <v>3458.58349609375</v>
       </c>
     </row>
     <row r="209">
@@ -6143,7 +6143,7 @@
         <v>43703</v>
       </c>
       <c r="D209" s="11">
-        <v>9072.712890625</v>
+        <v>1257.4927978515625</v>
       </c>
     </row>
     <row r="210">
@@ -6157,7 +6157,7 @@
         <v>43704</v>
       </c>
       <c r="D210" s="10">
-        <v>6009.0634765625</v>
+        <v>9024.58203125</v>
       </c>
     </row>
     <row r="211">
@@ -6171,7 +6171,7 @@
         <v>43705</v>
       </c>
       <c r="D211" s="11">
-        <v>4865.36083984375</v>
+        <v>2765.51953125</v>
       </c>
     </row>
     <row r="212">
@@ -6185,7 +6185,7 @@
         <v>43706</v>
       </c>
       <c r="D212" s="10">
-        <v>8681.4501953125</v>
+        <v>9588.9638671875</v>
       </c>
     </row>
     <row r="213">
@@ -6199,7 +6199,7 @@
         <v>43707</v>
       </c>
       <c r="D213" s="11">
-        <v>3286.745361328125</v>
+        <v>104.99200439453125</v>
       </c>
     </row>
     <row r="214">
@@ -6213,7 +6213,7 @@
         <v>43708</v>
       </c>
       <c r="D214" s="10">
-        <v>634.50372314453125</v>
+        <v>2625.99267578125</v>
       </c>
     </row>
     <row r="215">
@@ -6227,7 +6227,7 @@
         <v>43709</v>
       </c>
       <c r="D215" s="11">
-        <v>1845.2117919921875</v>
+        <v>4056.834716796875</v>
       </c>
     </row>
     <row r="216">
@@ -6241,7 +6241,7 @@
         <v>43710</v>
       </c>
       <c r="D216" s="10">
-        <v>5645.9912109375</v>
+        <v>7595.431640625</v>
       </c>
     </row>
     <row r="217">
@@ -6255,7 +6255,7 @@
         <v>43711</v>
       </c>
       <c r="D217" s="11">
-        <v>2015.4661865234375</v>
+        <v>3125.8330078125</v>
       </c>
     </row>
     <row r="218">
@@ -6269,7 +6269,7 @@
         <v>43712</v>
       </c>
       <c r="D218" s="10">
-        <v>5553.00390625</v>
+        <v>3883.787353515625</v>
       </c>
     </row>
     <row r="219">
@@ -6283,7 +6283,7 @@
         <v>43713</v>
       </c>
       <c r="D219" s="11">
-        <v>5616.24462890625</v>
+        <v>9791.376953125</v>
       </c>
     </row>
     <row r="220">
@@ -6297,7 +6297,7 @@
         <v>43714</v>
       </c>
       <c r="D220" s="10">
-        <v>1358.79931640625</v>
+        <v>7462.72021484375</v>
       </c>
     </row>
     <row r="221">
@@ -6311,7 +6311,7 @@
         <v>43715</v>
       </c>
       <c r="D221" s="11">
-        <v>7242.5146484375</v>
+        <v>630.8302001953125</v>
       </c>
     </row>
     <row r="222">
@@ -6325,7 +6325,7 @@
         <v>43716</v>
       </c>
       <c r="D222" s="10">
-        <v>7259.41748046875</v>
+        <v>3280.50244140625</v>
       </c>
     </row>
     <row r="223">
@@ -6339,7 +6339,7 @@
         <v>43717</v>
       </c>
       <c r="D223" s="11">
-        <v>6400.41748046875</v>
+        <v>2802.507568359375</v>
       </c>
     </row>
     <row r="224">
@@ -6353,7 +6353,7 @@
         <v>43718</v>
       </c>
       <c r="D224" s="10">
-        <v>6420.65625</v>
+        <v>7643.70849609375</v>
       </c>
     </row>
     <row r="225">
@@ -6367,7 +6367,7 @@
         <v>43719</v>
       </c>
       <c r="D225" s="11">
-        <v>1079.5701904296875</v>
+        <v>888.34832763671875</v>
       </c>
     </row>
     <row r="226">
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="D226" s="10">
-        <v>6773.85986328125</v>
+        <v>5882.0888671875</v>
       </c>
     </row>
     <row r="227">
@@ -6395,7 +6395,7 @@
         <v>43721</v>
       </c>
       <c r="D227" s="11">
-        <v>285.98001098632812</v>
+        <v>59.078609466552734</v>
       </c>
     </row>
     <row r="228">
@@ -6409,7 +6409,7 @@
         <v>43722</v>
       </c>
       <c r="D228" s="10">
-        <v>3376.480712890625</v>
+        <v>9131.6953125</v>
       </c>
     </row>
     <row r="229">
@@ -6423,7 +6423,7 @@
         <v>43723</v>
       </c>
       <c r="D229" s="11">
-        <v>7907.443359375</v>
+        <v>9682.515625</v>
       </c>
     </row>
     <row r="230">
@@ -6437,7 +6437,7 @@
         <v>43724</v>
       </c>
       <c r="D230" s="10">
-        <v>8386.173828125</v>
+        <v>3718.867919921875</v>
       </c>
     </row>
     <row r="231">
@@ -6451,7 +6451,7 @@
         <v>43725</v>
       </c>
       <c r="D231" s="11">
-        <v>8859.2529296875</v>
+        <v>1894.4442138671875</v>
       </c>
     </row>
     <row r="232">
@@ -6465,7 +6465,7 @@
         <v>43726</v>
       </c>
       <c r="D232" s="10">
-        <v>6923.96435546875</v>
+        <v>7433.744140625</v>
       </c>
     </row>
     <row r="233">
@@ -6479,7 +6479,7 @@
         <v>43727</v>
       </c>
       <c r="D233" s="11">
-        <v>1828.6209716796875</v>
+        <v>5498.83984375</v>
       </c>
     </row>
     <row r="234">
@@ -6493,7 +6493,7 @@
         <v>43728</v>
       </c>
       <c r="D234" s="10">
-        <v>2027.4671630859375</v>
+        <v>1870.739013671875</v>
       </c>
     </row>
     <row r="235">
@@ -6507,7 +6507,7 @@
         <v>43729</v>
       </c>
       <c r="D235" s="11">
-        <v>3309.565185546875</v>
+        <v>8141.86083984375</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         <v>43730</v>
       </c>
       <c r="D236" s="10">
-        <v>5354.58056640625</v>
+        <v>5508.931640625</v>
       </c>
     </row>
     <row r="237">
@@ -6535,7 +6535,7 @@
         <v>43731</v>
       </c>
       <c r="D237" s="11">
-        <v>3488.822509765625</v>
+        <v>4468.21337890625</v>
       </c>
     </row>
     <row r="238">
@@ -6549,7 +6549,7 @@
         <v>43732</v>
       </c>
       <c r="D238" s="10">
-        <v>3186.88916015625</v>
+        <v>2701.9931640625</v>
       </c>
     </row>
     <row r="239">
@@ -6563,7 +6563,7 @@
         <v>43733</v>
       </c>
       <c r="D239" s="11">
-        <v>8051.48779296875</v>
+        <v>7585.9833984375</v>
       </c>
     </row>
     <row r="240">
@@ -6577,7 +6577,7 @@
         <v>43734</v>
       </c>
       <c r="D240" s="10">
-        <v>1729.0130615234375</v>
+        <v>5081.19091796875</v>
       </c>
     </row>
     <row r="241">
@@ -6591,7 +6591,7 @@
         <v>43735</v>
       </c>
       <c r="D241" s="11">
-        <v>973.0703125</v>
+        <v>9469.1728515625</v>
       </c>
     </row>
     <row r="242">
@@ -6605,7 +6605,7 @@
         <v>43736</v>
       </c>
       <c r="D242" s="10">
-        <v>5859.64404296875</v>
+        <v>1822.602294921875</v>
       </c>
     </row>
     <row r="243">
@@ -6619,7 +6619,7 @@
         <v>43737</v>
       </c>
       <c r="D243" s="11">
-        <v>2701.74072265625</v>
+        <v>7423.09228515625</v>
       </c>
     </row>
     <row r="244">
@@ -6633,7 +6633,7 @@
         <v>43738</v>
       </c>
       <c r="D244" s="10">
-        <v>9981.330078125</v>
+        <v>975.16644287109375</v>
       </c>
     </row>
     <row r="245">
@@ -6647,7 +6647,7 @@
         <v>43739</v>
       </c>
       <c r="D245" s="11">
-        <v>3193.212158203125</v>
+        <v>2485.032958984375</v>
       </c>
     </row>
     <row r="246">
@@ -6661,7 +6661,7 @@
         <v>43740</v>
       </c>
       <c r="D246" s="10">
-        <v>1938.6707763671875</v>
+        <v>9312.3623046875</v>
       </c>
     </row>
     <row r="247">
@@ -6675,7 +6675,7 @@
         <v>43741</v>
       </c>
       <c r="D247" s="11">
-        <v>2049.8583984375</v>
+        <v>3930.030517578125</v>
       </c>
     </row>
     <row r="248">
@@ -6689,7 +6689,7 @@
         <v>43742</v>
       </c>
       <c r="D248" s="10">
-        <v>7975.3046875</v>
+        <v>2114.847900390625</v>
       </c>
     </row>
     <row r="249">
@@ -6703,7 +6703,7 @@
         <v>43743</v>
       </c>
       <c r="D249" s="11">
-        <v>8445.052734375</v>
+        <v>8101.10693359375</v>
       </c>
     </row>
     <row r="250">
@@ -6717,7 +6717,7 @@
         <v>43744</v>
       </c>
       <c r="D250" s="10">
-        <v>1528.8184814453125</v>
+        <v>5710.53466796875</v>
       </c>
     </row>
     <row r="251">
@@ -6731,7 +6731,7 @@
         <v>43745</v>
       </c>
       <c r="D251" s="11">
-        <v>8827.1015625</v>
+        <v>1765.1390380859375</v>
       </c>
     </row>
     <row r="252">
@@ -6745,7 +6745,7 @@
         <v>43746</v>
       </c>
       <c r="D252" s="10">
-        <v>7386.4775390625</v>
+        <v>5040.03076171875</v>
       </c>
     </row>
     <row r="253">
@@ -6759,7 +6759,7 @@
         <v>43747</v>
       </c>
       <c r="D253" s="11">
-        <v>4884.85205078125</v>
+        <v>1474.2449951171875</v>
       </c>
     </row>
     <row r="254">
@@ -6773,7 +6773,7 @@
         <v>43748</v>
       </c>
       <c r="D254" s="10">
-        <v>770.21038818359375</v>
+        <v>7971.30126953125</v>
       </c>
     </row>
     <row r="255">
@@ -6787,7 +6787,7 @@
         <v>43749</v>
       </c>
       <c r="D255" s="11">
-        <v>108.71207427978516</v>
+        <v>5232.81591796875</v>
       </c>
     </row>
     <row r="256">
@@ -6801,7 +6801,7 @@
         <v>43750</v>
       </c>
       <c r="D256" s="10">
-        <v>9823.3134765625</v>
+        <v>732.76983642578125</v>
       </c>
     </row>
     <row r="257">
@@ -6815,7 +6815,7 @@
         <v>43751</v>
       </c>
       <c r="D257" s="11">
-        <v>2490.347412109375</v>
+        <v>9043.03125</v>
       </c>
     </row>
     <row r="258">
@@ -6829,7 +6829,7 @@
         <v>43752</v>
       </c>
       <c r="D258" s="10">
-        <v>7990.68505859375</v>
+        <v>3776.271240234375</v>
       </c>
     </row>
     <row r="259">
@@ -6843,7 +6843,7 @@
         <v>43753</v>
       </c>
       <c r="D259" s="11">
-        <v>1204.8179931640625</v>
+        <v>1672.2236328125</v>
       </c>
     </row>
     <row r="260">
@@ -6857,7 +6857,7 @@
         <v>43754</v>
       </c>
       <c r="D260" s="10">
-        <v>2572.135498046875</v>
+        <v>8185.59716796875</v>
       </c>
     </row>
     <row r="261">
@@ -6871,7 +6871,7 @@
         <v>43755</v>
       </c>
       <c r="D261" s="11">
-        <v>3238.828369140625</v>
+        <v>5732.96728515625</v>
       </c>
     </row>
     <row r="262">
@@ -6885,7 +6885,7 @@
         <v>43756</v>
       </c>
       <c r="D262" s="10">
-        <v>6961.62109375</v>
+        <v>2771.151123046875</v>
       </c>
     </row>
     <row r="263">
@@ -6899,7 +6899,7 @@
         <v>43757</v>
       </c>
       <c r="D263" s="11">
-        <v>973.5498046875</v>
+        <v>3776.068115234375</v>
       </c>
     </row>
     <row r="264">
@@ -6913,7 +6913,7 @@
         <v>43758</v>
       </c>
       <c r="D264" s="10">
-        <v>686.53851318359375</v>
+        <v>7538.625</v>
       </c>
     </row>
     <row r="265">
@@ -6927,7 +6927,7 @@
         <v>43759</v>
       </c>
       <c r="D265" s="11">
-        <v>7149.81103515625</v>
+        <v>7130.1376953125</v>
       </c>
     </row>
     <row r="266">
@@ -6941,7 +6941,7 @@
         <v>43760</v>
       </c>
       <c r="D266" s="10">
-        <v>7941.39599609375</v>
+        <v>5331.775390625</v>
       </c>
     </row>
     <row r="267">
@@ -6955,7 +6955,7 @@
         <v>43761</v>
       </c>
       <c r="D267" s="11">
-        <v>6852.82958984375</v>
+        <v>4090.1240234375</v>
       </c>
     </row>
     <row r="268">
@@ -6969,7 +6969,7 @@
         <v>43762</v>
       </c>
       <c r="D268" s="10">
-        <v>1259.2781982421875</v>
+        <v>8234.2529296875</v>
       </c>
     </row>
     <row r="269">
@@ -6983,7 +6983,7 @@
         <v>43763</v>
       </c>
       <c r="D269" s="11">
-        <v>7324.9384765625</v>
+        <v>4484.1318359375</v>
       </c>
     </row>
     <row r="270">
@@ -6997,7 +6997,7 @@
         <v>43764</v>
       </c>
       <c r="D270" s="10">
-        <v>6490.630859375</v>
+        <v>8547.9033203125</v>
       </c>
     </row>
     <row r="271">
@@ -7011,7 +7011,7 @@
         <v>43765</v>
       </c>
       <c r="D271" s="11">
-        <v>2157.1689453125</v>
+        <v>3127.21826171875</v>
       </c>
     </row>
     <row r="272">
@@ -7025,7 +7025,7 @@
         <v>43766</v>
       </c>
       <c r="D272" s="10">
-        <v>8828.5771484375</v>
+        <v>423.8399658203125</v>
       </c>
     </row>
     <row r="273">
@@ -7039,7 +7039,7 @@
         <v>43767</v>
       </c>
       <c r="D273" s="11">
-        <v>7501.515625</v>
+        <v>6297.80419921875</v>
       </c>
     </row>
     <row r="274">
@@ -7053,7 +7053,7 @@
         <v>43768</v>
       </c>
       <c r="D274" s="10">
-        <v>3887.231689453125</v>
+        <v>4710.18603515625</v>
       </c>
     </row>
     <row r="275">
@@ -7067,7 +7067,7 @@
         <v>43769</v>
       </c>
       <c r="D275" s="11">
-        <v>385.72900390625</v>
+        <v>7993.5478515625</v>
       </c>
     </row>
     <row r="276">
@@ -7081,7 +7081,7 @@
         <v>43770</v>
       </c>
       <c r="D276" s="10">
-        <v>1382.870849609375</v>
+        <v>8808.2275390625</v>
       </c>
     </row>
     <row r="277">
@@ -7095,7 +7095,7 @@
         <v>43771</v>
       </c>
       <c r="D277" s="11">
-        <v>4557.6767578125</v>
+        <v>5857.41064453125</v>
       </c>
     </row>
     <row r="278">
@@ -7109,7 +7109,7 @@
         <v>43772</v>
       </c>
       <c r="D278" s="10">
-        <v>6419.087890625</v>
+        <v>1827.3411865234375</v>
       </c>
     </row>
     <row r="279">
@@ -7123,7 +7123,7 @@
         <v>43773</v>
       </c>
       <c r="D279" s="11">
-        <v>3227.4443359375</v>
+        <v>5158.67578125</v>
       </c>
     </row>
     <row r="280">
@@ -7137,7 +7137,7 @@
         <v>43774</v>
       </c>
       <c r="D280" s="10">
-        <v>9140.8994140625</v>
+        <v>1575.98583984375</v>
       </c>
     </row>
     <row r="281">
@@ -7151,7 +7151,7 @@
         <v>43775</v>
       </c>
       <c r="D281" s="11">
-        <v>4724.00146484375</v>
+        <v>1952.0582275390625</v>
       </c>
     </row>
     <row r="282">
@@ -7165,7 +7165,7 @@
         <v>43776</v>
       </c>
       <c r="D282" s="10">
-        <v>2310.675537109375</v>
+        <v>7944.23046875</v>
       </c>
     </row>
     <row r="283">
@@ -7179,7 +7179,7 @@
         <v>43777</v>
       </c>
       <c r="D283" s="11">
-        <v>4931.427734375</v>
+        <v>1030.5880126953125</v>
       </c>
     </row>
     <row r="284">
@@ -7193,7 +7193,7 @@
         <v>43778</v>
       </c>
       <c r="D284" s="10">
-        <v>6378.62451171875</v>
+        <v>3971.98046875</v>
       </c>
     </row>
     <row r="285">
@@ -7207,7 +7207,7 @@
         <v>43779</v>
       </c>
       <c r="D285" s="11">
-        <v>9559.072265625</v>
+        <v>1953.72900390625</v>
       </c>
     </row>
     <row r="286">
@@ -7221,7 +7221,7 @@
         <v>43780</v>
       </c>
       <c r="D286" s="10">
-        <v>1472.7752685546875</v>
+        <v>6854.41357421875</v>
       </c>
     </row>
     <row r="287">
@@ -7235,7 +7235,7 @@
         <v>43781</v>
       </c>
       <c r="D287" s="11">
-        <v>2039.112548828125</v>
+        <v>5959.4990234375</v>
       </c>
     </row>
     <row r="288">
@@ -7249,7 +7249,7 @@
         <v>43782</v>
       </c>
       <c r="D288" s="10">
-        <v>1058.41064453125</v>
+        <v>7527.53857421875</v>
       </c>
     </row>
     <row r="289">
@@ -7263,7 +7263,7 @@
         <v>43783</v>
       </c>
       <c r="D289" s="11">
-        <v>1918.7550048828125</v>
+        <v>6637.92333984375</v>
       </c>
     </row>
     <row r="290">
@@ -7277,7 +7277,7 @@
         <v>43784</v>
       </c>
       <c r="D290" s="10">
-        <v>3486.25146484375</v>
+        <v>7409.09130859375</v>
       </c>
     </row>
     <row r="291">
@@ -7291,7 +7291,7 @@
         <v>43785</v>
       </c>
       <c r="D291" s="11">
-        <v>2864.233154296875</v>
+        <v>6465.900390625</v>
       </c>
     </row>
     <row r="292">
@@ -7305,7 +7305,7 @@
         <v>43786</v>
       </c>
       <c r="D292" s="10">
-        <v>5498.1376953125</v>
+        <v>691.94232177734375</v>
       </c>
     </row>
     <row r="293">
@@ -7319,7 +7319,7 @@
         <v>43787</v>
       </c>
       <c r="D293" s="11">
-        <v>1982.0712890625</v>
+        <v>1029.76953125</v>
       </c>
     </row>
     <row r="294">
@@ -7333,7 +7333,7 @@
         <v>43788</v>
       </c>
       <c r="D294" s="10">
-        <v>5479.3525390625</v>
+        <v>9400.38671875</v>
       </c>
     </row>
     <row r="295">
@@ -7347,7 +7347,7 @@
         <v>43789</v>
       </c>
       <c r="D295" s="11">
-        <v>8490.1845703125</v>
+        <v>9348.2236328125</v>
       </c>
     </row>
     <row r="296">
@@ -7361,7 +7361,7 @@
         <v>43790</v>
       </c>
       <c r="D296" s="10">
-        <v>4011.448974609375</v>
+        <v>6698.021484375</v>
       </c>
     </row>
     <row r="297">
@@ -7375,7 +7375,7 @@
         <v>43791</v>
       </c>
       <c r="D297" s="11">
-        <v>4886.09423828125</v>
+        <v>8046.5341796875</v>
       </c>
     </row>
     <row r="298">
@@ -7389,7 +7389,7 @@
         <v>43792</v>
       </c>
       <c r="D298" s="10">
-        <v>2015.2022705078125</v>
+        <v>9884.4677734375</v>
       </c>
     </row>
     <row r="299">
@@ -7403,7 +7403,7 @@
         <v>43793</v>
       </c>
       <c r="D299" s="11">
-        <v>2831.5185546875</v>
+        <v>3845.028564453125</v>
       </c>
     </row>
     <row r="300">
@@ -7417,7 +7417,7 @@
         <v>43794</v>
       </c>
       <c r="D300" s="10">
-        <v>5251.81591796875</v>
+        <v>7153.25732421875</v>
       </c>
     </row>
     <row r="301">
@@ -7431,7 +7431,7 @@
         <v>43795</v>
       </c>
       <c r="D301" s="11">
-        <v>5085.84130859375</v>
+        <v>5222.23876953125</v>
       </c>
     </row>
     <row r="302">
@@ -7445,7 +7445,7 @@
         <v>43796</v>
       </c>
       <c r="D302" s="10">
-        <v>790.58038330078125</v>
+        <v>5695.77783203125</v>
       </c>
     </row>
     <row r="303">
@@ -7459,7 +7459,7 @@
         <v>43797</v>
       </c>
       <c r="D303" s="11">
-        <v>650.36602783203125</v>
+        <v>7630.71630859375</v>
       </c>
     </row>
     <row r="304">
@@ -7473,7 +7473,7 @@
         <v>43798</v>
       </c>
       <c r="D304" s="10">
-        <v>1954.4217529296875</v>
+        <v>9553.2041015625</v>
       </c>
     </row>
     <row r="305">
@@ -7487,7 +7487,7 @@
         <v>43799</v>
       </c>
       <c r="D305" s="11">
-        <v>9371.6494140625</v>
+        <v>2583.316650390625</v>
       </c>
     </row>
     <row r="306">
@@ -7501,7 +7501,7 @@
         <v>43800</v>
       </c>
       <c r="D306" s="10">
-        <v>9998.5244140625</v>
+        <v>1341.299072265625</v>
       </c>
     </row>
     <row r="307">
@@ -7515,7 +7515,7 @@
         <v>43801</v>
       </c>
       <c r="D307" s="11">
-        <v>9884.9619140625</v>
+        <v>8742.2265625</v>
       </c>
     </row>
     <row r="308">
@@ -7529,7 +7529,7 @@
         <v>43802</v>
       </c>
       <c r="D308" s="10">
-        <v>997.620361328125</v>
+        <v>6764.05908203125</v>
       </c>
     </row>
     <row r="309">
@@ -7543,7 +7543,7 @@
         <v>43803</v>
       </c>
       <c r="D309" s="11">
-        <v>384.48135375976562</v>
+        <v>9977.75390625</v>
       </c>
     </row>
     <row r="310">
@@ -7557,7 +7557,7 @@
         <v>43804</v>
       </c>
       <c r="D310" s="10">
-        <v>8725.8408203125</v>
+        <v>6424.587890625</v>
       </c>
     </row>
     <row r="311">
@@ -7571,7 +7571,7 @@
         <v>43805</v>
       </c>
       <c r="D311" s="11">
-        <v>5265.63720703125</v>
+        <v>4875.359375</v>
       </c>
     </row>
     <row r="312">
@@ -7585,7 +7585,7 @@
         <v>43806</v>
       </c>
       <c r="D312" s="10">
-        <v>6071.259765625</v>
+        <v>7215.68994140625</v>
       </c>
     </row>
     <row r="313">
@@ -7599,7 +7599,7 @@
         <v>43807</v>
       </c>
       <c r="D313" s="11">
-        <v>4763.24072265625</v>
+        <v>8617.595703125</v>
       </c>
     </row>
     <row r="314">
@@ -7613,7 +7613,7 @@
         <v>43808</v>
       </c>
       <c r="D314" s="10">
-        <v>2063.918701171875</v>
+        <v>96.23785400390625</v>
       </c>
     </row>
     <row r="315">
@@ -7627,7 +7627,7 @@
         <v>43809</v>
       </c>
       <c r="D315" s="11">
-        <v>7848.13427734375</v>
+        <v>6233.5390625</v>
       </c>
     </row>
     <row r="316">
@@ -7641,7 +7641,7 @@
         <v>43810</v>
       </c>
       <c r="D316" s="10">
-        <v>928.15289306640625</v>
+        <v>7788.73681640625</v>
       </c>
     </row>
     <row r="317">
@@ -7655,7 +7655,7 @@
         <v>43811</v>
       </c>
       <c r="D317" s="11">
-        <v>2030.193359375</v>
+        <v>1740.563232421875</v>
       </c>
     </row>
     <row r="318">
@@ -7669,7 +7669,7 @@
         <v>43812</v>
       </c>
       <c r="D318" s="10">
-        <v>4594.92529296875</v>
+        <v>9804.087890625</v>
       </c>
     </row>
     <row r="319">
@@ -7683,7 +7683,7 @@
         <v>43813</v>
       </c>
       <c r="D319" s="11">
-        <v>1127.4661865234375</v>
+        <v>5584.8955078125</v>
       </c>
     </row>
     <row r="320">
@@ -7697,7 +7697,7 @@
         <v>43814</v>
       </c>
       <c r="D320" s="10">
-        <v>5677.03564453125</v>
+        <v>275.7242431640625</v>
       </c>
     </row>
     <row r="321">
@@ -7711,7 +7711,7 @@
         <v>43815</v>
       </c>
       <c r="D321" s="11">
-        <v>5902.28369140625</v>
+        <v>9372.2763671875</v>
       </c>
     </row>
     <row r="322">
@@ -7725,7 +7725,7 @@
         <v>43816</v>
       </c>
       <c r="D322" s="10">
-        <v>5794.4189453125</v>
+        <v>6562.58544921875</v>
       </c>
     </row>
     <row r="323">
@@ -7739,7 +7739,7 @@
         <v>43817</v>
       </c>
       <c r="D323" s="11">
-        <v>9340.5234375</v>
+        <v>1596.329833984375</v>
       </c>
     </row>
     <row r="324">
@@ -7753,7 +7753,7 @@
         <v>43818</v>
       </c>
       <c r="D324" s="10">
-        <v>3838.68701171875</v>
+        <v>7075.04052734375</v>
       </c>
     </row>
     <row r="325">
@@ -7767,7 +7767,7 @@
         <v>43819</v>
       </c>
       <c r="D325" s="11">
-        <v>3626.397705078125</v>
+        <v>2082.00244140625</v>
       </c>
     </row>
     <row r="326">
@@ -7781,7 +7781,7 @@
         <v>43820</v>
       </c>
       <c r="D326" s="10">
-        <v>6659.03125</v>
+        <v>2435.27587890625</v>
       </c>
     </row>
     <row r="327">
@@ -7795,7 +7795,7 @@
         <v>43821</v>
       </c>
       <c r="D327" s="11">
-        <v>6846.505859375</v>
+        <v>9394.0703125</v>
       </c>
     </row>
     <row r="328">
@@ -7809,7 +7809,7 @@
         <v>43822</v>
       </c>
       <c r="D328" s="10">
-        <v>2022.163330078125</v>
+        <v>6897.41748046875</v>
       </c>
     </row>
     <row r="329">
@@ -7823,7 +7823,7 @@
         <v>43823</v>
       </c>
       <c r="D329" s="11">
-        <v>5397.046875</v>
+        <v>5361.96240234375</v>
       </c>
     </row>
     <row r="330">
@@ -7837,7 +7837,7 @@
         <v>43824</v>
       </c>
       <c r="D330" s="10">
-        <v>6374.27978515625</v>
+        <v>1295.5262451171875</v>
       </c>
     </row>
     <row r="331">
@@ -7851,7 +7851,7 @@
         <v>43825</v>
       </c>
       <c r="D331" s="11">
-        <v>6496.77685546875</v>
+        <v>761.69354248046875</v>
       </c>
     </row>
     <row r="332">
@@ -7865,7 +7865,7 @@
         <v>43826</v>
       </c>
       <c r="D332" s="10">
-        <v>2542.47412109375</v>
+        <v>5972.94287109375</v>
       </c>
     </row>
     <row r="333">
@@ -7879,7 +7879,7 @@
         <v>43827</v>
       </c>
       <c r="D333" s="11">
-        <v>3587.5693359375</v>
+        <v>7982.3125</v>
       </c>
     </row>
     <row r="334">
@@ -7893,7 +7893,7 @@
         <v>43828</v>
       </c>
       <c r="D334" s="10">
-        <v>7975.62841796875</v>
+        <v>8005.41845703125</v>
       </c>
     </row>
     <row r="335">
@@ -7907,7 +7907,7 @@
         <v>43829</v>
       </c>
       <c r="D335" s="11">
-        <v>4055.05810546875</v>
+        <v>6353.7470703125</v>
       </c>
     </row>
     <row r="336">
@@ -7921,7 +7921,7 @@
         <v>43830</v>
       </c>
       <c r="D336" s="10">
-        <v>3933.421142578125</v>
+        <v>6256.28076171875</v>
       </c>
     </row>
     <row r="337">
@@ -7935,7 +7935,7 @@
         <v>43831</v>
       </c>
       <c r="D337" s="11">
-        <v>1660.3095703125</v>
+        <v>313.514404296875</v>
       </c>
     </row>
     <row r="338">
@@ -7949,7 +7949,7 @@
         <v>43832</v>
       </c>
       <c r="D338" s="10">
-        <v>2977.00634765625</v>
+        <v>1477.3839111328125</v>
       </c>
     </row>
     <row r="339">
@@ -7963,7 +7963,7 @@
         <v>43833</v>
       </c>
       <c r="D339" s="11">
-        <v>7006.97509765625</v>
+        <v>1388.663818359375</v>
       </c>
     </row>
     <row r="340">
@@ -7977,7 +7977,7 @@
         <v>43834</v>
       </c>
       <c r="D340" s="10">
-        <v>9560.5478515625</v>
+        <v>612.42999267578125</v>
       </c>
     </row>
     <row r="341">
@@ -7991,7 +7991,7 @@
         <v>43835</v>
       </c>
       <c r="D341" s="11">
-        <v>1587.813720703125</v>
+        <v>8112.18701171875</v>
       </c>
     </row>
     <row r="342">
@@ -8005,7 +8005,7 @@
         <v>43836</v>
       </c>
       <c r="D342" s="10">
-        <v>1041.4921875</v>
+        <v>9195.4404296875</v>
       </c>
     </row>
     <row r="343">
@@ -8019,7 +8019,7 @@
         <v>43837</v>
       </c>
       <c r="D343" s="11">
-        <v>673.9293212890625</v>
+        <v>7549.78466796875</v>
       </c>
     </row>
     <row r="344">
@@ -8033,7 +8033,7 @@
         <v>43838</v>
       </c>
       <c r="D344" s="10">
-        <v>3192.913818359375</v>
+        <v>213.33506774902344</v>
       </c>
     </row>
     <row r="345">
@@ -8047,7 +8047,7 @@
         <v>43839</v>
       </c>
       <c r="D345" s="11">
-        <v>8220.6142578125</v>
+        <v>2533.731689453125</v>
       </c>
     </row>
     <row r="346">
@@ -8061,7 +8061,7 @@
         <v>43840</v>
       </c>
       <c r="D346" s="10">
-        <v>6792.9736328125</v>
+        <v>9250.2109375</v>
       </c>
     </row>
     <row r="347">
@@ -8075,7 +8075,7 @@
         <v>43841</v>
       </c>
       <c r="D347" s="11">
-        <v>734.89691162109375</v>
+        <v>2074.346923828125</v>
       </c>
     </row>
     <row r="348">
@@ -8089,7 +8089,7 @@
         <v>43842</v>
       </c>
       <c r="D348" s="10">
-        <v>9918.15234375</v>
+        <v>933.53167724609375</v>
       </c>
     </row>
     <row r="349">
@@ -8103,7 +8103,7 @@
         <v>43843</v>
       </c>
       <c r="D349" s="11">
-        <v>7631.21826171875</v>
+        <v>3166.84765625</v>
       </c>
     </row>
     <row r="350">
@@ -8117,7 +8117,7 @@
         <v>43844</v>
       </c>
       <c r="D350" s="10">
-        <v>7562.03173828125</v>
+        <v>1559.48681640625</v>
       </c>
     </row>
     <row r="351">
@@ -8131,7 +8131,7 @@
         <v>43845</v>
       </c>
       <c r="D351" s="11">
-        <v>1981.255615234375</v>
+        <v>4957.4580078125</v>
       </c>
     </row>
     <row r="352">
@@ -8145,7 +8145,7 @@
         <v>43846</v>
       </c>
       <c r="D352" s="10">
-        <v>291.16888427734375</v>
+        <v>8242.4462890625</v>
       </c>
     </row>
     <row r="353">
@@ -8159,7 +8159,7 @@
         <v>43847</v>
       </c>
       <c r="D353" s="11">
-        <v>887.7362060546875</v>
+        <v>4299.57177734375</v>
       </c>
     </row>
     <row r="354">
@@ -8173,7 +8173,7 @@
         <v>43848</v>
       </c>
       <c r="D354" s="10">
-        <v>7154.48291015625</v>
+        <v>3569.304443359375</v>
       </c>
     </row>
     <row r="355">
@@ -8187,7 +8187,7 @@
         <v>43849</v>
       </c>
       <c r="D355" s="11">
-        <v>9349.5322265625</v>
+        <v>7780.98095703125</v>
       </c>
     </row>
     <row r="356">
@@ -8201,7 +8201,7 @@
         <v>43850</v>
       </c>
       <c r="D356" s="10">
-        <v>9291.4228515625</v>
+        <v>8659.6533203125</v>
       </c>
     </row>
     <row r="357">
@@ -8215,7 +8215,7 @@
         <v>43851</v>
       </c>
       <c r="D357" s="11">
-        <v>1450.0572509765625</v>
+        <v>4099.44775390625</v>
       </c>
     </row>
     <row r="358">
@@ -8229,7 +8229,7 @@
         <v>43852</v>
       </c>
       <c r="D358" s="10">
-        <v>6811.67919921875</v>
+        <v>555.67584228515625</v>
       </c>
     </row>
     <row r="359">
@@ -8243,7 +8243,7 @@
         <v>43853</v>
       </c>
       <c r="D359" s="11">
-        <v>8328.0244140625</v>
+        <v>7471.20166015625</v>
       </c>
     </row>
     <row r="360">
@@ -8257,7 +8257,7 @@
         <v>43854</v>
       </c>
       <c r="D360" s="10">
-        <v>2712.618408203125</v>
+        <v>148.04072570800781</v>
       </c>
     </row>
     <row r="361">
@@ -8271,7 +8271,7 @@
         <v>43855</v>
       </c>
       <c r="D361" s="11">
-        <v>3152.018798828125</v>
+        <v>1947.228515625</v>
       </c>
     </row>
     <row r="362">
@@ -8285,7 +8285,7 @@
         <v>43856</v>
       </c>
       <c r="D362" s="10">
-        <v>7862.7978515625</v>
+        <v>1844.80908203125</v>
       </c>
     </row>
     <row r="363">
@@ -8299,7 +8299,7 @@
         <v>43857</v>
       </c>
       <c r="D363" s="11">
-        <v>5600.5732421875</v>
+        <v>1402.0963134765625</v>
       </c>
     </row>
     <row r="364">
@@ -8313,7 +8313,7 @@
         <v>43858</v>
       </c>
       <c r="D364" s="10">
-        <v>4010.201416015625</v>
+        <v>8682.2275390625</v>
       </c>
     </row>
     <row r="365">
@@ -8327,7 +8327,7 @@
         <v>43859</v>
       </c>
       <c r="D365" s="11">
-        <v>2229.064453125</v>
+        <v>5662.89453125</v>
       </c>
     </row>
     <row r="366">
@@ -8341,7 +8341,7 @@
         <v>43860</v>
       </c>
       <c r="D366" s="10">
-        <v>2723.1630859375</v>
+        <v>8902.416015625</v>
       </c>
     </row>
     <row r="367">
@@ -8355,7 +8355,7 @@
         <v>43861</v>
       </c>
       <c r="D367" s="11">
-        <v>2483.690185546875</v>
+        <v>9233.376953125</v>
       </c>
     </row>
     <row r="368">
@@ -8369,7 +8369,7 @@
         <v>43862</v>
       </c>
       <c r="D368" s="10">
-        <v>6787.6123046875</v>
+        <v>612.17724609375</v>
       </c>
     </row>
     <row r="369">
@@ -8383,7 +8383,7 @@
         <v>43863</v>
       </c>
       <c r="D369" s="11">
-        <v>8008.8603515625</v>
+        <v>3742.49072265625</v>
       </c>
     </row>
     <row r="370">
@@ -8397,7 +8397,7 @@
         <v>43864</v>
       </c>
       <c r="D370" s="10">
-        <v>3914.713134765625</v>
+        <v>9977.2578125</v>
       </c>
     </row>
     <row r="371">
@@ -8411,7 +8411,7 @@
         <v>43865</v>
       </c>
       <c r="D371" s="11">
-        <v>9267.84375</v>
+        <v>7475.22216796875</v>
       </c>
     </row>
     <row r="372">
@@ -8425,7 +8425,7 @@
         <v>43866</v>
       </c>
       <c r="D372" s="10">
-        <v>9053.1875</v>
+        <v>263.17929077148438</v>
       </c>
     </row>
     <row r="373">
@@ -8439,7 +8439,7 @@
         <v>43867</v>
       </c>
       <c r="D373" s="11">
-        <v>7587.9501953125</v>
+        <v>8415.423828125</v>
       </c>
     </row>
     <row r="374">
@@ -8453,7 +8453,7 @@
         <v>43868</v>
       </c>
       <c r="D374" s="10">
-        <v>1566.91845703125</v>
+        <v>4972.4658203125</v>
       </c>
     </row>
     <row r="375">
@@ -8467,7 +8467,7 @@
         <v>43869</v>
       </c>
       <c r="D375" s="11">
-        <v>4089.22216796875</v>
+        <v>2163.537109375</v>
       </c>
     </row>
     <row r="376">
@@ -8481,7 +8481,7 @@
         <v>43870</v>
       </c>
       <c r="D376" s="10">
-        <v>4860.79150390625</v>
+        <v>176.83598327636719</v>
       </c>
     </row>
     <row r="377">
@@ -8495,7 +8495,7 @@
         <v>43871</v>
       </c>
       <c r="D377" s="11">
-        <v>5120.48974609375</v>
+        <v>9012.80078125</v>
       </c>
     </row>
     <row r="378">
@@ -8509,7 +8509,7 @@
         <v>43872</v>
       </c>
       <c r="D378" s="10">
-        <v>6147.609375</v>
+        <v>1382.9947509765625</v>
       </c>
     </row>
     <row r="379">
@@ -8523,7 +8523,7 @@
         <v>43873</v>
       </c>
       <c r="D379" s="11">
-        <v>5618.07275390625</v>
+        <v>4541.30859375</v>
       </c>
     </row>
     <row r="380">
@@ -8537,7 +8537,7 @@
         <v>43874</v>
       </c>
       <c r="D380" s="10">
-        <v>6833.42431640625</v>
+        <v>2831.791748046875</v>
       </c>
     </row>
     <row r="381">
@@ -8551,7 +8551,7 @@
         <v>43875</v>
       </c>
       <c r="D381" s="11">
-        <v>5924.13427734375</v>
+        <v>360.92904663085938</v>
       </c>
     </row>
     <row r="382">
@@ -8565,7 +8565,7 @@
         <v>43876</v>
       </c>
       <c r="D382" s="10">
-        <v>6928.35302734375</v>
+        <v>8460.5390625</v>
       </c>
     </row>
     <row r="383">
@@ -8579,7 +8579,7 @@
         <v>43877</v>
       </c>
       <c r="D383" s="11">
-        <v>4390.94482421875</v>
+        <v>3730.570068359375</v>
       </c>
     </row>
     <row r="384">
@@ -8593,7 +8593,7 @@
         <v>43878</v>
       </c>
       <c r="D384" s="10">
-        <v>7835.01513671875</v>
+        <v>3802.4755859375</v>
       </c>
     </row>
     <row r="385">
@@ -8607,7 +8607,7 @@
         <v>43879</v>
       </c>
       <c r="D385" s="11">
-        <v>4393.0244140625</v>
+        <v>6338.068359375</v>
       </c>
     </row>
     <row r="386">
@@ -8621,7 +8621,7 @@
         <v>43880</v>
       </c>
       <c r="D386" s="10">
-        <v>6205.60791015625</v>
+        <v>2519.246826171875</v>
       </c>
     </row>
     <row r="387">
@@ -8635,7 +8635,7 @@
         <v>43881</v>
       </c>
       <c r="D387" s="11">
-        <v>1654.738037109375</v>
+        <v>1673.37158203125</v>
       </c>
     </row>
     <row r="388">
@@ -8649,7 +8649,7 @@
         <v>43882</v>
       </c>
       <c r="D388" s="10">
-        <v>6433.08642578125</v>
+        <v>4413.00830078125</v>
       </c>
     </row>
     <row r="389">
@@ -8663,7 +8663,7 @@
         <v>43883</v>
       </c>
       <c r="D389" s="11">
-        <v>8626.095703125</v>
+        <v>224.43704223632813</v>
       </c>
     </row>
     <row r="390">
@@ -8677,7 +8677,7 @@
         <v>43884</v>
       </c>
       <c r="D390" s="10">
-        <v>4763.6357421875</v>
+        <v>7694.09423828125</v>
       </c>
     </row>
     <row r="391">
@@ -8691,7 +8691,7 @@
         <v>43885</v>
       </c>
       <c r="D391" s="11">
-        <v>2483.36376953125</v>
+        <v>2156.832763671875</v>
       </c>
     </row>
     <row r="392">
@@ -8705,7 +8705,7 @@
         <v>43886</v>
       </c>
       <c r="D392" s="10">
-        <v>4848.63037109375</v>
+        <v>9757.8388671875</v>
       </c>
     </row>
     <row r="393">
@@ -8719,7 +8719,7 @@
         <v>43887</v>
       </c>
       <c r="D393" s="11">
-        <v>4648.982421875</v>
+        <v>4006.182373046875</v>
       </c>
     </row>
     <row r="394">
@@ -8733,7 +8733,7 @@
         <v>43888</v>
       </c>
       <c r="D394" s="10">
-        <v>4294.3564453125</v>
+        <v>1240.623046875</v>
       </c>
     </row>
     <row r="395">
@@ -8747,7 +8747,7 @@
         <v>43889</v>
       </c>
       <c r="D395" s="11">
-        <v>6408.52880859375</v>
+        <v>8665.201171875</v>
       </c>
     </row>
     <row r="396">
@@ -8761,7 +8761,7 @@
         <v>43890</v>
       </c>
       <c r="D396" s="10">
-        <v>3725.015625</v>
+        <v>6267.3779296875</v>
       </c>
     </row>
     <row r="397">
@@ -8775,7 +8775,7 @@
         <v>43891</v>
       </c>
       <c r="D397" s="11">
-        <v>5440.9189453125</v>
+        <v>7793.34375</v>
       </c>
     </row>
     <row r="398">
@@ -8789,7 +8789,7 @@
         <v>43892</v>
       </c>
       <c r="D398" s="10">
-        <v>6663.72802734375</v>
+        <v>8867.556640625</v>
       </c>
     </row>
     <row r="399">
@@ -8803,7 +8803,7 @@
         <v>43893</v>
       </c>
       <c r="D399" s="11">
-        <v>963.8494873046875</v>
+        <v>4550.4404296875</v>
       </c>
     </row>
     <row r="400">
@@ -8817,7 +8817,7 @@
         <v>43894</v>
       </c>
       <c r="D400" s="10">
-        <v>5497.451171875</v>
+        <v>3631.3154296875</v>
       </c>
     </row>
     <row r="401">
@@ -8831,7 +8831,7 @@
         <v>43895</v>
       </c>
       <c r="D401" s="11">
-        <v>4309.283203125</v>
+        <v>16.833297729492188</v>
       </c>
     </row>
     <row r="402">
@@ -8845,7 +8845,7 @@
         <v>43896</v>
       </c>
       <c r="D402" s="10">
-        <v>3947.28466796875</v>
+        <v>1462.1695556640625</v>
       </c>
     </row>
     <row r="403">
@@ -8859,7 +8859,7 @@
         <v>43897</v>
       </c>
       <c r="D403" s="11">
-        <v>1909.2921142578125</v>
+        <v>7191.041015625</v>
       </c>
     </row>
     <row r="404">
@@ -8873,7 +8873,7 @@
         <v>43898</v>
       </c>
       <c r="D404" s="10">
-        <v>3716.50537109375</v>
+        <v>3189.58935546875</v>
       </c>
     </row>
     <row r="405">
@@ -8887,7 +8887,7 @@
         <v>43899</v>
       </c>
       <c r="D405" s="11">
-        <v>8294.1884765625</v>
+        <v>4084.2646484375</v>
       </c>
     </row>
     <row r="406">
@@ -8901,7 +8901,7 @@
         <v>43900</v>
       </c>
       <c r="D406" s="10">
-        <v>2928.068603515625</v>
+        <v>4694.27880859375</v>
       </c>
     </row>
     <row r="407">
@@ -8915,7 +8915,7 @@
         <v>43901</v>
       </c>
       <c r="D407" s="11">
-        <v>2703.21875</v>
+        <v>9827.0224609375</v>
       </c>
     </row>
     <row r="408">
@@ -8929,7 +8929,7 @@
         <v>43902</v>
       </c>
       <c r="D408" s="10">
-        <v>9320.8173828125</v>
+        <v>9327.10546875</v>
       </c>
     </row>
     <row r="409">
@@ -8943,7 +8943,7 @@
         <v>43903</v>
       </c>
       <c r="D409" s="11">
-        <v>3065.2607421875</v>
+        <v>1405.76708984375</v>
       </c>
     </row>
     <row r="410">
@@ -8957,7 +8957,7 @@
         <v>43904</v>
       </c>
       <c r="D410" s="10">
-        <v>4488.74072265625</v>
+        <v>7604.14501953125</v>
       </c>
     </row>
     <row r="411">
@@ -8971,7 +8971,7 @@
         <v>43905</v>
       </c>
       <c r="D411" s="11">
-        <v>4170.93310546875</v>
+        <v>9646.8525390625</v>
       </c>
     </row>
     <row r="412">
@@ -8985,7 +8985,7 @@
         <v>43906</v>
       </c>
       <c r="D412" s="10">
-        <v>5302.4482421875</v>
+        <v>2716.453125</v>
       </c>
     </row>
     <row r="413">
@@ -8999,7 +8999,7 @@
         <v>43907</v>
       </c>
       <c r="D413" s="11">
-        <v>1193.606201171875</v>
+        <v>6014.3671875</v>
       </c>
     </row>
     <row r="414">
@@ -9013,7 +9013,7 @@
         <v>43908</v>
       </c>
       <c r="D414" s="10">
-        <v>1494.599853515625</v>
+        <v>4639.40966796875</v>
       </c>
     </row>
     <row r="415">
@@ -9027,7 +9027,7 @@
         <v>43909</v>
       </c>
       <c r="D415" s="11">
-        <v>6788.48388671875</v>
+        <v>9787.111328125</v>
       </c>
     </row>
     <row r="416">
@@ -9041,7 +9041,7 @@
         <v>43910</v>
       </c>
       <c r="D416" s="10">
-        <v>6223.666015625</v>
+        <v>3486.689697265625</v>
       </c>
     </row>
     <row r="417">
@@ -9055,7 +9055,7 @@
         <v>43911</v>
       </c>
       <c r="D417" s="11">
-        <v>3471.85302734375</v>
+        <v>8114.23876953125</v>
       </c>
     </row>
     <row r="418">
@@ -9069,7 +9069,7 @@
         <v>43912</v>
       </c>
       <c r="D418" s="10">
-        <v>7765.55810546875</v>
+        <v>7599.62060546875</v>
       </c>
     </row>
     <row r="419">
@@ -9083,7 +9083,7 @@
         <v>43913</v>
       </c>
       <c r="D419" s="11">
-        <v>9617.1767578125</v>
+        <v>2344.159423828125</v>
       </c>
     </row>
     <row r="420">
@@ -9097,7 +9097,7 @@
         <v>43914</v>
       </c>
       <c r="D420" s="10">
-        <v>6023.45654296875</v>
+        <v>3143.647705078125</v>
       </c>
     </row>
     <row r="421">
@@ -9111,7 +9111,7 @@
         <v>43915</v>
       </c>
       <c r="D421" s="11">
-        <v>1068.425048828125</v>
+        <v>7229.044921875</v>
       </c>
     </row>
     <row r="422">
@@ -9125,7 +9125,7 @@
         <v>43916</v>
       </c>
       <c r="D422" s="10">
-        <v>6050.603515625</v>
+        <v>4820.369140625</v>
       </c>
     </row>
     <row r="423">
@@ -9139,7 +9139,7 @@
         <v>43917</v>
       </c>
       <c r="D423" s="11">
-        <v>8161.51611328125</v>
+        <v>387.740234375</v>
       </c>
     </row>
     <row r="424">
@@ -9153,7 +9153,7 @@
         <v>43918</v>
       </c>
       <c r="D424" s="10">
-        <v>3245.22509765625</v>
+        <v>6048.396484375</v>
       </c>
     </row>
     <row r="425">
@@ -9167,7 +9167,7 @@
         <v>43919</v>
       </c>
       <c r="D425" s="11">
-        <v>1431.3492431640625</v>
+        <v>7820.42529296875</v>
       </c>
     </row>
     <row r="426">
@@ -9181,7 +9181,7 @@
         <v>43920</v>
       </c>
       <c r="D426" s="10">
-        <v>4419.212890625</v>
+        <v>7717.3837890625</v>
       </c>
     </row>
     <row r="427">
@@ -9195,7 +9195,7 @@
         <v>43921</v>
       </c>
       <c r="D427" s="11">
-        <v>4404.20458984375</v>
+        <v>6256.9970703125</v>
       </c>
     </row>
     <row r="428">
@@ -9209,7 +9209,7 @@
         <v>43922</v>
       </c>
       <c r="D428" s="10">
-        <v>3293.593505859375</v>
+        <v>7174.80078125</v>
       </c>
     </row>
     <row r="429">
@@ -9223,7 +9223,7 @@
         <v>43923</v>
       </c>
       <c r="D429" s="11">
-        <v>5158.3896484375</v>
+        <v>6307.26416015625</v>
       </c>
     </row>
     <row r="430">
@@ -9237,7 +9237,7 @@
         <v>43924</v>
       </c>
       <c r="D430" s="10">
-        <v>364.20639038085938</v>
+        <v>5896.1591796875</v>
       </c>
     </row>
     <row r="431">
@@ -9251,7 +9251,7 @@
         <v>43925</v>
       </c>
       <c r="D431" s="11">
-        <v>9419.873046875</v>
+        <v>2383.4921875</v>
       </c>
     </row>
     <row r="432">
@@ -9265,7 +9265,7 @@
         <v>43926</v>
       </c>
       <c r="D432" s="10">
-        <v>8456.76171875</v>
+        <v>145.24385070800781</v>
       </c>
     </row>
     <row r="433">
@@ -9279,7 +9279,7 @@
         <v>43927</v>
       </c>
       <c r="D433" s="11">
-        <v>5183.759765625</v>
+        <v>6832.55419921875</v>
       </c>
     </row>
     <row r="434">
@@ -9293,7 +9293,7 @@
         <v>43928</v>
       </c>
       <c r="D434" s="10">
-        <v>120.62174987792969</v>
+        <v>909.9932861328125</v>
       </c>
     </row>
     <row r="435">
@@ -9307,7 +9307,7 @@
         <v>43929</v>
       </c>
       <c r="D435" s="11">
-        <v>2524.140869140625</v>
+        <v>2814.95849609375</v>
       </c>
     </row>
     <row r="436">
@@ -9321,7 +9321,7 @@
         <v>43930</v>
       </c>
       <c r="D436" s="10">
-        <v>1976.8497314453125</v>
+        <v>8898.759765625</v>
       </c>
     </row>
     <row r="437">
@@ -9335,7 +9335,7 @@
         <v>43931</v>
       </c>
       <c r="D437" s="11">
-        <v>5019.06103515625</v>
+        <v>1269.497802734375</v>
       </c>
     </row>
     <row r="438">
@@ -9349,7 +9349,7 @@
         <v>43932</v>
       </c>
       <c r="D438" s="10">
-        <v>674.43963623046875</v>
+        <v>540.98077392578125</v>
       </c>
     </row>
     <row r="439">
@@ -9363,7 +9363,7 @@
         <v>43933</v>
       </c>
       <c r="D439" s="11">
-        <v>9540.826171875</v>
+        <v>9718.2109375</v>
       </c>
     </row>
     <row r="440">
@@ -9377,7 +9377,7 @@
         <v>43934</v>
       </c>
       <c r="D440" s="10">
-        <v>1464.955810546875</v>
+        <v>1643.789306640625</v>
       </c>
     </row>
     <row r="441">
@@ -9391,7 +9391,7 @@
         <v>43935</v>
       </c>
       <c r="D441" s="11">
-        <v>3502.38916015625</v>
+        <v>2692.223876953125</v>
       </c>
     </row>
     <row r="442">
@@ -9405,7 +9405,7 @@
         <v>43936</v>
       </c>
       <c r="D442" s="10">
-        <v>2333.920166015625</v>
+        <v>2346.265869140625</v>
       </c>
     </row>
     <row r="443">
@@ -9419,7 +9419,7 @@
         <v>43937</v>
       </c>
       <c r="D443" s="11">
-        <v>3367.825927734375</v>
+        <v>3007.2412109375</v>
       </c>
     </row>
     <row r="444">
@@ -9433,7 +9433,7 @@
         <v>43938</v>
       </c>
       <c r="D444" s="10">
-        <v>4137.35546875</v>
+        <v>2620.291748046875</v>
       </c>
     </row>
     <row r="445">
@@ -9447,7 +9447,7 @@
         <v>43939</v>
       </c>
       <c r="D445" s="11">
-        <v>592.70257568359375</v>
+        <v>8047.24169921875</v>
       </c>
     </row>
     <row r="446">
@@ -9461,7 +9461,7 @@
         <v>43940</v>
       </c>
       <c r="D446" s="10">
-        <v>7180.91552734375</v>
+        <v>9440.3798828125</v>
       </c>
     </row>
     <row r="447">
@@ -9475,7 +9475,7 @@
         <v>43941</v>
       </c>
       <c r="D447" s="11">
-        <v>3655.0244140625</v>
+        <v>3743.471435546875</v>
       </c>
     </row>
     <row r="448">
@@ -9489,7 +9489,7 @@
         <v>43942</v>
       </c>
       <c r="D448" s="10">
-        <v>3154.38232421875</v>
+        <v>9366.7724609375</v>
       </c>
     </row>
     <row r="449">
@@ -9503,7 +9503,7 @@
         <v>43943</v>
       </c>
       <c r="D449" s="11">
-        <v>7505.87255859375</v>
+        <v>1453.5113525390625</v>
       </c>
     </row>
     <row r="450">
@@ -9517,7 +9517,7 @@
         <v>43944</v>
       </c>
       <c r="D450" s="10">
-        <v>184.86299133300781</v>
+        <v>5178.51171875</v>
       </c>
     </row>
     <row r="451">
@@ -9531,7 +9531,7 @@
         <v>43945</v>
       </c>
       <c r="D451" s="11">
-        <v>253.16261291503906</v>
+        <v>8153.13916015625</v>
       </c>
     </row>
     <row r="452">
@@ -9545,7 +9545,7 @@
         <v>43946</v>
       </c>
       <c r="D452" s="10">
-        <v>7675.3603515625</v>
+        <v>193.72320556640625</v>
       </c>
     </row>
     <row r="453">
@@ -9559,7 +9559,7 @@
         <v>43947</v>
       </c>
       <c r="D453" s="11">
-        <v>7046.55126953125</v>
+        <v>6523.3974609375</v>
       </c>
     </row>
     <row r="454">
@@ -9573,7 +9573,7 @@
         <v>43948</v>
       </c>
       <c r="D454" s="10">
-        <v>4940.39306640625</v>
+        <v>1406.7928466796875</v>
       </c>
     </row>
     <row r="455">
@@ -9587,7 +9587,7 @@
         <v>43949</v>
       </c>
       <c r="D455" s="11">
-        <v>4429.02587890625</v>
+        <v>6402.2705078125</v>
       </c>
     </row>
     <row r="456">
@@ -9601,7 +9601,7 @@
         <v>43950</v>
       </c>
       <c r="D456" s="10">
-        <v>8258.6796875</v>
+        <v>5196.46435546875</v>
       </c>
     </row>
     <row r="457">
@@ -9615,7 +9615,7 @@
         <v>43951</v>
       </c>
       <c r="D457" s="11">
-        <v>5785.7685546875</v>
+        <v>1074.4293212890625</v>
       </c>
     </row>
     <row r="458">
@@ -9629,7 +9629,7 @@
         <v>43952</v>
       </c>
       <c r="D458" s="10">
-        <v>8664.0673828125</v>
+        <v>1142.6444091796875</v>
       </c>
     </row>
     <row r="459">
@@ -9643,7 +9643,7 @@
         <v>43953</v>
       </c>
       <c r="D459" s="11">
-        <v>2285.156005859375</v>
+        <v>5369.1640625</v>
       </c>
     </row>
     <row r="460">
@@ -9657,7 +9657,7 @@
         <v>43954</v>
       </c>
       <c r="D460" s="10">
-        <v>3874.9755859375</v>
+        <v>6366.880859375</v>
       </c>
     </row>
     <row r="461">
@@ -9671,7 +9671,7 @@
         <v>43955</v>
       </c>
       <c r="D461" s="11">
-        <v>8523.86328125</v>
+        <v>8437.2822265625</v>
       </c>
     </row>
     <row r="462">
@@ -9685,7 +9685,7 @@
         <v>43956</v>
       </c>
       <c r="D462" s="10">
-        <v>9409.625</v>
+        <v>2652.22216796875</v>
       </c>
     </row>
     <row r="463">
@@ -9699,7 +9699,7 @@
         <v>43957</v>
       </c>
       <c r="D463" s="11">
-        <v>4162.42822265625</v>
+        <v>3019.841552734375</v>
       </c>
     </row>
     <row r="464">
@@ -9713,7 +9713,7 @@
         <v>43958</v>
       </c>
       <c r="D464" s="10">
-        <v>2701.05419921875</v>
+        <v>5509.60791015625</v>
       </c>
     </row>
     <row r="465">
@@ -9727,7 +9727,7 @@
         <v>43959</v>
       </c>
       <c r="D465" s="11">
-        <v>5068.8681640625</v>
+        <v>5220.6533203125</v>
       </c>
     </row>
     <row r="466">
@@ -9741,7 +9741,7 @@
         <v>43960</v>
       </c>
       <c r="D466" s="10">
-        <v>5714.17138671875</v>
+        <v>9501.6083984375</v>
       </c>
     </row>
     <row r="467">
@@ -9755,7 +9755,7 @@
         <v>43961</v>
       </c>
       <c r="D467" s="11">
-        <v>118.68833923339844</v>
+        <v>5883.89892578125</v>
       </c>
     </row>
     <row r="468">
@@ -9769,7 +9769,7 @@
         <v>43962</v>
       </c>
       <c r="D468" s="10">
-        <v>1072.984375</v>
+        <v>5104.3740234375</v>
       </c>
     </row>
     <row r="469">
@@ -9783,7 +9783,7 @@
         <v>43963</v>
       </c>
       <c r="D469" s="11">
-        <v>8970.458984375</v>
+        <v>1824.451416015625</v>
       </c>
     </row>
     <row r="470">
@@ -9797,7 +9797,7 @@
         <v>43964</v>
       </c>
       <c r="D470" s="10">
-        <v>4811.63427734375</v>
+        <v>888.35223388671875</v>
       </c>
     </row>
     <row r="471">
@@ -9811,7 +9811,7 @@
         <v>43965</v>
       </c>
       <c r="D471" s="11">
-        <v>1204.6048583984375</v>
+        <v>2217.19189453125</v>
       </c>
     </row>
     <row r="472">
@@ -9825,7 +9825,7 @@
         <v>43966</v>
       </c>
       <c r="D472" s="10">
-        <v>2797.413330078125</v>
+        <v>7573.25830078125</v>
       </c>
     </row>
     <row r="473">
@@ -9839,7 +9839,7 @@
         <v>43967</v>
       </c>
       <c r="D473" s="11">
-        <v>8224.7314453125</v>
+        <v>7881.40966796875</v>
       </c>
     </row>
     <row r="474">
@@ -9853,7 +9853,7 @@
         <v>43968</v>
       </c>
       <c r="D474" s="10">
-        <v>8152.22119140625</v>
+        <v>700.37017822265625</v>
       </c>
     </row>
     <row r="475">
@@ -9867,7 +9867,7 @@
         <v>43969</v>
       </c>
       <c r="D475" s="11">
-        <v>2521.067138671875</v>
+        <v>451.42376708984375</v>
       </c>
     </row>
     <row r="476">
@@ -9881,7 +9881,7 @@
         <v>43970</v>
       </c>
       <c r="D476" s="10">
-        <v>8734.5048828125</v>
+        <v>4882.77880859375</v>
       </c>
     </row>
     <row r="477">
@@ -9895,7 +9895,7 @@
         <v>43971</v>
       </c>
       <c r="D477" s="11">
-        <v>2682.77783203125</v>
+        <v>1813.1279296875</v>
       </c>
     </row>
     <row r="478">
@@ -9909,7 +9909,7 @@
         <v>43972</v>
       </c>
       <c r="D478" s="10">
-        <v>4024.160888671875</v>
+        <v>7767.4482421875</v>
       </c>
     </row>
     <row r="479">
@@ -9923,7 +9923,7 @@
         <v>43973</v>
       </c>
       <c r="D479" s="11">
-        <v>2652.5224609375</v>
+        <v>8001.15478515625</v>
       </c>
     </row>
     <row r="480">
@@ -9937,7 +9937,7 @@
         <v>43974</v>
       </c>
       <c r="D480" s="10">
-        <v>4250.43359375</v>
+        <v>8380.0458984375</v>
       </c>
     </row>
     <row r="481">
@@ -9951,7 +9951,7 @@
         <v>43975</v>
       </c>
       <c r="D481" s="11">
-        <v>764.1884765625</v>
+        <v>3973.912353515625</v>
       </c>
     </row>
     <row r="482">
@@ -9965,7 +9965,7 @@
         <v>43976</v>
       </c>
       <c r="D482" s="10">
-        <v>1249.8223876953125</v>
+        <v>6890.224609375</v>
       </c>
     </row>
     <row r="483">
@@ -9979,7 +9979,7 @@
         <v>43977</v>
       </c>
       <c r="D483" s="11">
-        <v>5787.72119140625</v>
+        <v>5721.2890625</v>
       </c>
     </row>
     <row r="484">
@@ -9993,7 +9993,7 @@
         <v>43978</v>
       </c>
       <c r="D484" s="10">
-        <v>4973.5263671875</v>
+        <v>1128.752685546875</v>
       </c>
     </row>
     <row r="485">
@@ -10007,7 +10007,7 @@
         <v>43979</v>
       </c>
       <c r="D485" s="11">
-        <v>111.04376983642578</v>
+        <v>7743.02001953125</v>
       </c>
     </row>
     <row r="486">
@@ -10021,7 +10021,7 @@
         <v>43980</v>
       </c>
       <c r="D486" s="10">
-        <v>1744.5120849609375</v>
+        <v>2189.768798828125</v>
       </c>
     </row>
     <row r="487">
@@ -10035,7 +10035,7 @@
         <v>43981</v>
       </c>
       <c r="D487" s="11">
-        <v>1410.21044921875</v>
+        <v>3621.84619140625</v>
       </c>
     </row>
     <row r="488">
@@ -10049,7 +10049,7 @@
         <v>43982</v>
       </c>
       <c r="D488" s="10">
-        <v>243.36669921875</v>
+        <v>5425.76123046875</v>
       </c>
     </row>
     <row r="489">
@@ -10063,7 +10063,7 @@
         <v>43983</v>
       </c>
       <c r="D489" s="11">
-        <v>5691.595703125</v>
+        <v>4507.72265625</v>
       </c>
     </row>
     <row r="490">
@@ -10077,7 +10077,7 @@
         <v>43984</v>
       </c>
       <c r="D490" s="10">
-        <v>4265.4609375</v>
+        <v>7618.494140625</v>
       </c>
     </row>
     <row r="491">
@@ -10091,7 +10091,7 @@
         <v>43985</v>
       </c>
       <c r="D491" s="11">
-        <v>6191.0810546875</v>
+        <v>7824.330078125</v>
       </c>
     </row>
     <row r="492">
@@ -10105,7 +10105,7 @@
         <v>43986</v>
       </c>
       <c r="D492" s="10">
-        <v>6354.994140625</v>
+        <v>126.85343933105469</v>
       </c>
     </row>
     <row r="493">
@@ -10119,7 +10119,7 @@
         <v>43987</v>
       </c>
       <c r="D493" s="11">
-        <v>8389.283203125</v>
+        <v>5171.81689453125</v>
       </c>
     </row>
     <row r="494">
@@ -10133,7 +10133,7 @@
         <v>43988</v>
       </c>
       <c r="D494" s="10">
-        <v>5665.85107421875</v>
+        <v>3351.330322265625</v>
       </c>
     </row>
     <row r="495">
@@ -10147,7 +10147,7 @@
         <v>43989</v>
       </c>
       <c r="D495" s="11">
-        <v>2941.092041015625</v>
+        <v>3206.50732421875</v>
       </c>
     </row>
     <row r="496">
@@ -10161,7 +10161,7 @@
         <v>43990</v>
       </c>
       <c r="D496" s="10">
-        <v>4092.76416015625</v>
+        <v>40.001766204833984</v>
       </c>
     </row>
     <row r="497">
@@ -10175,7 +10175,7 @@
         <v>43991</v>
       </c>
       <c r="D497" s="11">
-        <v>8171.4921875</v>
+        <v>9326.423828125</v>
       </c>
     </row>
     <row r="498">
@@ -10189,7 +10189,7 @@
         <v>43992</v>
       </c>
       <c r="D498" s="10">
-        <v>666.7716064453125</v>
+        <v>7497.63330078125</v>
       </c>
     </row>
     <row r="499">
@@ -10203,7 +10203,7 @@
         <v>43993</v>
       </c>
       <c r="D499" s="11">
-        <v>9068.4873046875</v>
+        <v>7399.638671875</v>
       </c>
     </row>
     <row r="500">
@@ -10217,7 +10217,7 @@
         <v>43994</v>
       </c>
       <c r="D500" s="10">
-        <v>4878.53125</v>
+        <v>8545.6337890625</v>
       </c>
     </row>
     <row r="501">
@@ -10231,7 +10231,7 @@
         <v>43995</v>
       </c>
       <c r="D501" s="11">
-        <v>7062.2275390625</v>
+        <v>3556.48095703125</v>
       </c>
     </row>
     <row r="502">
@@ -10245,7 +10245,7 @@
         <v>43996</v>
       </c>
       <c r="D502" s="10">
-        <v>2582.039794921875</v>
+        <v>8639.09765625</v>
       </c>
     </row>
     <row r="503">
@@ -10259,7 +10259,7 @@
         <v>43997</v>
       </c>
       <c r="D503" s="11">
-        <v>4183.92333984375</v>
+        <v>7542.32080078125</v>
       </c>
     </row>
     <row r="504">
@@ -10273,7 +10273,7 @@
         <v>43998</v>
       </c>
       <c r="D504" s="10">
-        <v>2694.238525390625</v>
+        <v>565.1591796875</v>
       </c>
     </row>
     <row r="505">
@@ -10287,7 +10287,7 @@
         <v>43999</v>
       </c>
       <c r="D505" s="11">
-        <v>8980.2578125</v>
+        <v>2961.31982421875</v>
       </c>
     </row>
     <row r="506">
@@ -10301,7 +10301,7 @@
         <v>44000</v>
       </c>
       <c r="D506" s="10">
-        <v>7455.7490234375</v>
+        <v>579.88079833984375</v>
       </c>
     </row>
     <row r="507">
@@ -10315,7 +10315,7 @@
         <v>44001</v>
       </c>
       <c r="D507" s="11">
-        <v>9450.62890625</v>
+        <v>2312.313720703125</v>
       </c>
     </row>
     <row r="508">
@@ -10329,7 +10329,7 @@
         <v>44002</v>
       </c>
       <c r="D508" s="10">
-        <v>8894.330078125</v>
+        <v>5823.02734375</v>
       </c>
     </row>
     <row r="509">
@@ -10343,7 +10343,7 @@
         <v>44003</v>
       </c>
       <c r="D509" s="11">
-        <v>2419.325927734375</v>
+        <v>955.36907958984375</v>
       </c>
     </row>
     <row r="510">
@@ -10357,7 +10357,7 @@
         <v>44004</v>
       </c>
       <c r="D510" s="10">
-        <v>5694.521484375</v>
+        <v>1519.4915771484375</v>
       </c>
     </row>
     <row r="511">
@@ -10371,7 +10371,7 @@
         <v>44005</v>
       </c>
       <c r="D511" s="11">
-        <v>5575.90185546875</v>
+        <v>3383.336181640625</v>
       </c>
     </row>
     <row r="512">
@@ -10385,7 +10385,7 @@
         <v>44006</v>
       </c>
       <c r="D512" s="10">
-        <v>1761.6077880859375</v>
+        <v>3306.98095703125</v>
       </c>
     </row>
     <row r="513">
@@ -10399,7 +10399,7 @@
         <v>44007</v>
       </c>
       <c r="D513" s="11">
-        <v>6011.54443359375</v>
+        <v>3141.48974609375</v>
       </c>
     </row>
     <row r="514">
@@ -10413,7 +10413,7 @@
         <v>44008</v>
       </c>
       <c r="D514" s="10">
-        <v>8034.72265625</v>
+        <v>6989.1181640625</v>
       </c>
     </row>
     <row r="515">
@@ -10427,7 +10427,7 @@
         <v>44009</v>
       </c>
       <c r="D515" s="11">
-        <v>3110.787109375</v>
+        <v>2392.96826171875</v>
       </c>
     </row>
     <row r="516">
@@ -10441,7 +10441,7 @@
         <v>44010</v>
       </c>
       <c r="D516" s="10">
-        <v>7274.04150390625</v>
+        <v>1547.05712890625</v>
       </c>
     </row>
     <row r="517">
@@ -10455,7 +10455,7 @@
         <v>44011</v>
       </c>
       <c r="D517" s="11">
-        <v>3621.904052734375</v>
+        <v>6930.93310546875</v>
       </c>
     </row>
     <row r="518">
@@ -10469,7 +10469,7 @@
         <v>44012</v>
       </c>
       <c r="D518" s="10">
-        <v>9188.9013671875</v>
+        <v>1891.0887451171875</v>
       </c>
     </row>
     <row r="519">
@@ -10483,7 +10483,7 @@
         <v>44013</v>
       </c>
       <c r="D519" s="11">
-        <v>2590.010498046875</v>
+        <v>7766.587890625</v>
       </c>
     </row>
     <row r="520">
@@ -10497,7 +10497,7 @@
         <v>44014</v>
       </c>
       <c r="D520" s="10">
-        <v>3324.356201171875</v>
+        <v>3030.88427734375</v>
       </c>
     </row>
     <row r="521">
@@ -10511,7 +10511,7 @@
         <v>44015</v>
       </c>
       <c r="D521" s="11">
-        <v>4303.9609375</v>
+        <v>5879.76220703125</v>
       </c>
     </row>
     <row r="522">
@@ -10525,7 +10525,7 @@
         <v>44016</v>
       </c>
       <c r="D522" s="10">
-        <v>9875.3212890625</v>
+        <v>458.13735961914062</v>
       </c>
     </row>
     <row r="523">
@@ -10539,7 +10539,7 @@
         <v>44017</v>
       </c>
       <c r="D523" s="11">
-        <v>5381.388671875</v>
+        <v>596.6512451171875</v>
       </c>
     </row>
     <row r="524">
@@ -10553,7 +10553,7 @@
         <v>44018</v>
       </c>
       <c r="D524" s="10">
-        <v>4704.998046875</v>
+        <v>4205.95703125</v>
       </c>
     </row>
     <row r="525">
@@ -10567,7 +10567,7 @@
         <v>44019</v>
       </c>
       <c r="D525" s="11">
-        <v>8620.552734375</v>
+        <v>3064.022216796875</v>
       </c>
     </row>
     <row r="526">
@@ -10581,7 +10581,7 @@
         <v>44020</v>
       </c>
       <c r="D526" s="10">
-        <v>4849.61083984375</v>
+        <v>2090.338623046875</v>
       </c>
     </row>
     <row r="527">
@@ -10595,7 +10595,7 @@
         <v>44021</v>
       </c>
       <c r="D527" s="11">
-        <v>4408.1298828125</v>
+        <v>2401.44140625</v>
       </c>
     </row>
     <row r="528">
@@ -10609,7 +10609,7 @@
         <v>44022</v>
       </c>
       <c r="D528" s="10">
-        <v>2558.880615234375</v>
+        <v>4530.0791015625</v>
       </c>
     </row>
     <row r="529">
@@ -10623,7 +10623,7 @@
         <v>44023</v>
       </c>
       <c r="D529" s="11">
-        <v>5211.12890625</v>
+        <v>7493.86279296875</v>
       </c>
     </row>
     <row r="530">
@@ -10637,7 +10637,7 @@
         <v>44024</v>
       </c>
       <c r="D530" s="10">
-        <v>8428.302734375</v>
+        <v>411.4219970703125</v>
       </c>
     </row>
     <row r="531">
@@ -10651,7 +10651,7 @@
         <v>44025</v>
       </c>
       <c r="D531" s="11">
-        <v>563.01263427734375</v>
+        <v>5556.3544921875</v>
       </c>
     </row>
     <row r="532">
@@ -10665,7 +10665,7 @@
         <v>44026</v>
       </c>
       <c r="D532" s="10">
-        <v>2016.0062255859375</v>
+        <v>4315.49462890625</v>
       </c>
     </row>
     <row r="533">
@@ -10679,7 +10679,7 @@
         <v>44027</v>
       </c>
       <c r="D533" s="11">
-        <v>4955.673828125</v>
+        <v>367.80966186523438</v>
       </c>
     </row>
     <row r="534">
@@ -10693,7 +10693,7 @@
         <v>44028</v>
       </c>
       <c r="D534" s="10">
-        <v>7773.9912109375</v>
+        <v>9455.521484375</v>
       </c>
     </row>
     <row r="535">
@@ -10707,7 +10707,7 @@
         <v>44029</v>
       </c>
       <c r="D535" s="11">
-        <v>7188.2060546875</v>
+        <v>4823.564453125</v>
       </c>
     </row>
     <row r="536">
@@ -10721,7 +10721,7 @@
         <v>44030</v>
       </c>
       <c r="D536" s="10">
-        <v>8182.1484375</v>
+        <v>5334.81494140625</v>
       </c>
     </row>
     <row r="537">
@@ -10735,7 +10735,7 @@
         <v>44031</v>
       </c>
       <c r="D537" s="11">
-        <v>7065.89892578125</v>
+        <v>9347.9033203125</v>
       </c>
     </row>
     <row r="538">
@@ -10749,7 +10749,7 @@
         <v>44032</v>
       </c>
       <c r="D538" s="10">
-        <v>3093.482666015625</v>
+        <v>5156.1298828125</v>
       </c>
     </row>
     <row r="539">
@@ -10763,7 +10763,7 @@
         <v>44033</v>
       </c>
       <c r="D539" s="11">
-        <v>5993.2685546875</v>
+        <v>8167.43310546875</v>
       </c>
     </row>
     <row r="540">
@@ -10777,7 +10777,7 @@
         <v>44034</v>
       </c>
       <c r="D540" s="10">
-        <v>2655.294677734375</v>
+        <v>7163.13916015625</v>
       </c>
     </row>
     <row r="541">
@@ -10791,7 +10791,7 @@
         <v>44035</v>
       </c>
       <c r="D541" s="11">
-        <v>2293.88330078125</v>
+        <v>9877.455078125</v>
       </c>
     </row>
     <row r="542">
@@ -10805,7 +10805,7 @@
         <v>44036</v>
       </c>
       <c r="D542" s="10">
-        <v>2515.880615234375</v>
+        <v>7798.81884765625</v>
       </c>
     </row>
     <row r="543">
@@ -10819,7 +10819,7 @@
         <v>44037</v>
       </c>
       <c r="D543" s="11">
-        <v>7824.041015625</v>
+        <v>4470.392578125</v>
       </c>
     </row>
     <row r="544">
@@ -10833,7 +10833,7 @@
         <v>44038</v>
       </c>
       <c r="D544" s="10">
-        <v>9997.07421875</v>
+        <v>2988.23095703125</v>
       </c>
     </row>
     <row r="545">
@@ -10847,7 +10847,7 @@
         <v>44039</v>
       </c>
       <c r="D545" s="11">
-        <v>8689.5595703125</v>
+        <v>4235.158203125</v>
       </c>
     </row>
     <row r="546">
@@ -10861,7 +10861,7 @@
         <v>44040</v>
       </c>
       <c r="D546" s="10">
-        <v>4429.47314453125</v>
+        <v>4517.34912109375</v>
       </c>
     </row>
     <row r="547">
@@ -10875,7 +10875,7 @@
         <v>44041</v>
       </c>
       <c r="D547" s="11">
-        <v>343.44931030273438</v>
+        <v>6985.36376953125</v>
       </c>
     </row>
     <row r="548">
@@ -10889,7 +10889,7 @@
         <v>44042</v>
       </c>
       <c r="D548" s="10">
-        <v>354.5609130859375</v>
+        <v>8182.69873046875</v>
       </c>
     </row>
     <row r="549">
@@ -10903,7 +10903,7 @@
         <v>44043</v>
       </c>
       <c r="D549" s="11">
-        <v>2555.063720703125</v>
+        <v>958.36199951171875</v>
       </c>
     </row>
     <row r="550">
@@ -10917,7 +10917,7 @@
         <v>44044</v>
       </c>
       <c r="D550" s="10">
-        <v>5667.05078125</v>
+        <v>1659.4501953125</v>
       </c>
     </row>
     <row r="551">
@@ -10931,7 +10931,7 @@
         <v>44045</v>
       </c>
       <c r="D551" s="11">
-        <v>470.86016845703125</v>
+        <v>3109.06884765625</v>
       </c>
     </row>
     <row r="552">
@@ -10945,7 +10945,7 @@
         <v>44046</v>
       </c>
       <c r="D552" s="10">
-        <v>8982.5908203125</v>
+        <v>7435.33544921875</v>
       </c>
     </row>
     <row r="553">
@@ -10959,7 +10959,7 @@
         <v>44047</v>
       </c>
       <c r="D553" s="11">
-        <v>8076.76123046875</v>
+        <v>9731.0458984375</v>
       </c>
     </row>
     <row r="554">
@@ -10973,7 +10973,7 @@
         <v>44048</v>
       </c>
       <c r="D554" s="10">
-        <v>5744.130859375</v>
+        <v>4368.75439453125</v>
       </c>
     </row>
     <row r="555">
@@ -10987,7 +10987,7 @@
         <v>44049</v>
       </c>
       <c r="D555" s="11">
-        <v>574.570068359375</v>
+        <v>2665.871337890625</v>
       </c>
     </row>
     <row r="556">
@@ -11001,7 +11001,7 @@
         <v>44050</v>
       </c>
       <c r="D556" s="10">
-        <v>7186.90576171875</v>
+        <v>3098.343505859375</v>
       </c>
     </row>
     <row r="557">
@@ -11015,7 +11015,7 @@
         <v>44051</v>
       </c>
       <c r="D557" s="11">
-        <v>7200.6513671875</v>
+        <v>8042.4462890625</v>
       </c>
     </row>
     <row r="558">
@@ -11029,7 +11029,7 @@
         <v>44052</v>
       </c>
       <c r="D558" s="10">
-        <v>9478.92578125</v>
+        <v>3336.364013671875</v>
       </c>
     </row>
     <row r="559">
@@ -11043,7 +11043,7 @@
         <v>44053</v>
       </c>
       <c r="D559" s="11">
-        <v>4073.685302734375</v>
+        <v>7501.13720703125</v>
       </c>
     </row>
     <row r="560">
@@ -11057,7 +11057,7 @@
         <v>44054</v>
       </c>
       <c r="D560" s="10">
-        <v>4130.6474609375</v>
+        <v>870.981201171875</v>
       </c>
     </row>
     <row r="561">
@@ -11071,7 +11071,7 @@
         <v>44055</v>
       </c>
       <c r="D561" s="11">
-        <v>3047.619140625</v>
+        <v>8178.439453125</v>
       </c>
     </row>
     <row r="562">
@@ -11085,7 +11085,7 @@
         <v>44056</v>
       </c>
       <c r="D562" s="10">
-        <v>6891.748046875</v>
+        <v>7782.234375</v>
       </c>
     </row>
     <row r="563">
@@ -11099,7 +11099,7 @@
         <v>44057</v>
       </c>
       <c r="D563" s="11">
-        <v>3683.20068359375</v>
+        <v>8329.1650390625</v>
       </c>
     </row>
     <row r="564">
@@ -11113,7 +11113,7 @@
         <v>44058</v>
       </c>
       <c r="D564" s="10">
-        <v>3991.02294921875</v>
+        <v>543.94708251953125</v>
       </c>
     </row>
     <row r="565">
@@ -11127,7 +11127,7 @@
         <v>44059</v>
       </c>
       <c r="D565" s="11">
-        <v>5131.5087890625</v>
+        <v>5963.13671875</v>
       </c>
     </row>
     <row r="566">
@@ -11141,7 +11141,7 @@
         <v>44060</v>
       </c>
       <c r="D566" s="10">
-        <v>3559.8955078125</v>
+        <v>9067.841796875</v>
       </c>
     </row>
     <row r="567">
@@ -11155,7 +11155,7 @@
         <v>44061</v>
       </c>
       <c r="D567" s="11">
-        <v>6805.93408203125</v>
+        <v>2939.17138671875</v>
       </c>
     </row>
     <row r="568">
@@ -11169,7 +11169,7 @@
         <v>44062</v>
       </c>
       <c r="D568" s="10">
-        <v>8237.5537109375</v>
+        <v>3685.968505859375</v>
       </c>
     </row>
     <row r="569">
@@ -11183,7 +11183,7 @@
         <v>44063</v>
       </c>
       <c r="D569" s="11">
-        <v>846.5164794921875</v>
+        <v>2165.553466796875</v>
       </c>
     </row>
     <row r="570">
@@ -11197,7 +11197,7 @@
         <v>44064</v>
       </c>
       <c r="D570" s="10">
-        <v>4928.638671875</v>
+        <v>7058.1533203125</v>
       </c>
     </row>
     <row r="571">
@@ -11211,7 +11211,7 @@
         <v>44065</v>
       </c>
       <c r="D571" s="11">
-        <v>208.14236450195313</v>
+        <v>2199.153564453125</v>
       </c>
     </row>
     <row r="572">
@@ -11225,7 +11225,7 @@
         <v>44066</v>
       </c>
       <c r="D572" s="10">
-        <v>528.4215087890625</v>
+        <v>1774.802734375</v>
       </c>
     </row>
     <row r="573">
@@ -11239,7 +11239,7 @@
         <v>44067</v>
       </c>
       <c r="D573" s="11">
-        <v>3195.633056640625</v>
+        <v>3723.65576171875</v>
       </c>
     </row>
     <row r="574">
@@ -11253,7 +11253,7 @@
         <v>44068</v>
       </c>
       <c r="D574" s="10">
-        <v>9934.7158203125</v>
+        <v>603.44830322265625</v>
       </c>
     </row>
     <row r="575">
@@ -11267,7 +11267,7 @@
         <v>44069</v>
       </c>
       <c r="D575" s="11">
-        <v>1030.4727783203125</v>
+        <v>3153.428955078125</v>
       </c>
     </row>
     <row r="576">
@@ -11281,7 +11281,7 @@
         <v>44070</v>
       </c>
       <c r="D576" s="10">
-        <v>1788.0804443359375</v>
+        <v>8080.943359375</v>
       </c>
     </row>
     <row r="577">
@@ -11295,7 +11295,7 @@
         <v>44071</v>
       </c>
       <c r="D577" s="11">
-        <v>2051.28076171875</v>
+        <v>5987.7451171875</v>
       </c>
     </row>
     <row r="578">
@@ -11309,7 +11309,7 @@
         <v>44072</v>
       </c>
       <c r="D578" s="10">
-        <v>5384.314453125</v>
+        <v>7608.42041015625</v>
       </c>
     </row>
     <row r="579">
@@ -11323,7 +11323,7 @@
         <v>44073</v>
       </c>
       <c r="D579" s="11">
-        <v>6015.4384765625</v>
+        <v>9970.798828125</v>
       </c>
     </row>
     <row r="580">
@@ -11337,7 +11337,7 @@
         <v>44074</v>
       </c>
       <c r="D580" s="10">
-        <v>4191.07958984375</v>
+        <v>8546.6728515625</v>
       </c>
     </row>
     <row r="581">
@@ -11351,7 +11351,7 @@
         <v>44075</v>
       </c>
       <c r="D581" s="11">
-        <v>4506.16162109375</v>
+        <v>5104.974609375</v>
       </c>
     </row>
     <row r="582">
@@ -11365,7 +11365,7 @@
         <v>44076</v>
       </c>
       <c r="D582" s="10">
-        <v>4053.569091796875</v>
+        <v>4218.74267578125</v>
       </c>
     </row>
     <row r="583">
@@ -11379,7 +11379,7 @@
         <v>44077</v>
       </c>
       <c r="D583" s="11">
-        <v>3.8168485164642334</v>
+        <v>3571.71728515625</v>
       </c>
     </row>
     <row r="584">
@@ -11393,7 +11393,7 @@
         <v>44078</v>
       </c>
       <c r="D584" s="10">
-        <v>9544.078125</v>
+        <v>5834.41259765625</v>
       </c>
     </row>
     <row r="585">
@@ -11407,7 +11407,7 @@
         <v>44079</v>
       </c>
       <c r="D585" s="11">
-        <v>7957.44287109375</v>
+        <v>7302.35302734375</v>
       </c>
     </row>
     <row r="586">
@@ -11421,7 +11421,7 @@
         <v>44080</v>
       </c>
       <c r="D586" s="10">
-        <v>1580.422119140625</v>
+        <v>8121.01904296875</v>
       </c>
     </row>
     <row r="587">
@@ -11435,7 +11435,7 @@
         <v>44081</v>
       </c>
       <c r="D587" s="11">
-        <v>3939.2451171875</v>
+        <v>4584.44921875</v>
       </c>
     </row>
     <row r="588">
@@ -11449,7 +11449,7 @@
         <v>44082</v>
       </c>
       <c r="D588" s="10">
-        <v>9211.54296875</v>
+        <v>5999.05517578125</v>
       </c>
     </row>
     <row r="589">
@@ -11463,7 +11463,7 @@
         <v>44083</v>
       </c>
       <c r="D589" s="11">
-        <v>7199.42138671875</v>
+        <v>6789.64990234375</v>
       </c>
     </row>
     <row r="590">
@@ -11477,7 +11477,7 @@
         <v>44084</v>
       </c>
       <c r="D590" s="10">
-        <v>1.3004103899002075</v>
+        <v>1725.2210693359375</v>
       </c>
     </row>
     <row r="591">
@@ -11491,7 +11491,7 @@
         <v>44085</v>
       </c>
       <c r="D591" s="11">
-        <v>981.4974365234375</v>
+        <v>7292.36865234375</v>
       </c>
     </row>
     <row r="592">
@@ -11505,7 +11505,7 @@
         <v>44086</v>
       </c>
       <c r="D592" s="10">
-        <v>7586.9736328125</v>
+        <v>6011.53955078125</v>
       </c>
     </row>
     <row r="593">
@@ -11519,7 +11519,7 @@
         <v>44087</v>
       </c>
       <c r="D593" s="11">
-        <v>9019.796875</v>
+        <v>7654.9931640625</v>
       </c>
     </row>
     <row r="594">
@@ -11533,7 +11533,7 @@
         <v>44088</v>
       </c>
       <c r="D594" s="10">
-        <v>1862.62109375</v>
+        <v>7296.45166015625</v>
       </c>
     </row>
     <row r="595">
@@ -11547,7 +11547,7 @@
         <v>44089</v>
       </c>
       <c r="D595" s="11">
-        <v>9607.67578125</v>
+        <v>8984.7001953125</v>
       </c>
     </row>
     <row r="596">
@@ -11561,7 +11561,7 @@
         <v>44090</v>
       </c>
       <c r="D596" s="10">
-        <v>5402.13525390625</v>
+        <v>2095.220947265625</v>
       </c>
     </row>
     <row r="597">
@@ -11575,7 +11575,7 @@
         <v>44091</v>
       </c>
       <c r="D597" s="11">
-        <v>8832.6796875</v>
+        <v>9469.654296875</v>
       </c>
     </row>
     <row r="598">
@@ -11589,7 +11589,7 @@
         <v>44092</v>
       </c>
       <c r="D598" s="10">
-        <v>3833.01806640625</v>
+        <v>3926.4453125</v>
       </c>
     </row>
     <row r="599">
@@ -11603,7 +11603,7 @@
         <v>44093</v>
       </c>
       <c r="D599" s="11">
-        <v>4865.5654296875</v>
+        <v>7025.09423828125</v>
       </c>
     </row>
     <row r="600">
@@ -11617,7 +11617,7 @@
         <v>44094</v>
       </c>
       <c r="D600" s="10">
-        <v>5129.66357421875</v>
+        <v>5167.31640625</v>
       </c>
     </row>
     <row r="601">
@@ -11631,7 +11631,7 @@
         <v>44095</v>
       </c>
       <c r="D601" s="11">
-        <v>7623.5390625</v>
+        <v>1578.177734375</v>
       </c>
     </row>
     <row r="602">
@@ -11645,7 +11645,7 @@
         <v>44096</v>
       </c>
       <c r="D602" s="10">
-        <v>2105.89599609375</v>
+        <v>3299.395263671875</v>
       </c>
     </row>
     <row r="603">
@@ -11659,7 +11659,7 @@
         <v>44097</v>
       </c>
       <c r="D603" s="11">
-        <v>9508.044921875</v>
+        <v>6017.14501953125</v>
       </c>
     </row>
     <row r="604">
@@ -11673,7 +11673,7 @@
         <v>44098</v>
       </c>
       <c r="D604" s="10">
-        <v>7626.42529296875</v>
+        <v>3900.20849609375</v>
       </c>
     </row>
     <row r="605">
@@ -11687,7 +11687,7 @@
         <v>44099</v>
       </c>
       <c r="D605" s="11">
-        <v>5458.908203125</v>
+        <v>9460.296875</v>
       </c>
     </row>
     <row r="606">
@@ -11701,7 +11701,7 @@
         <v>44100</v>
       </c>
       <c r="D606" s="10">
-        <v>9942.4384765625</v>
+        <v>1334.26611328125</v>
       </c>
     </row>
     <row r="607">
@@ -11715,7 +11715,7 @@
         <v>44101</v>
       </c>
       <c r="D607" s="11">
-        <v>5786.95751953125</v>
+        <v>3711.6796875</v>
       </c>
     </row>
     <row r="608">
@@ -11729,7 +11729,7 @@
         <v>44102</v>
       </c>
       <c r="D608" s="10">
-        <v>8142.04541015625</v>
+        <v>9127.59765625</v>
       </c>
     </row>
     <row r="609">
@@ -11743,7 +11743,7 @@
         <v>44103</v>
       </c>
       <c r="D609" s="11">
-        <v>4713.658203125</v>
+        <v>1215.325439453125</v>
       </c>
     </row>
     <row r="610">
@@ -11757,7 +11757,7 @@
         <v>44104</v>
       </c>
       <c r="D610" s="10">
-        <v>8786.4892578125</v>
+        <v>4584.92822265625</v>
       </c>
     </row>
     <row r="611">
@@ -11771,7 +11771,7 @@
         <v>44105</v>
       </c>
       <c r="D611" s="11">
-        <v>5135.625</v>
+        <v>7110.5986328125</v>
       </c>
     </row>
     <row r="612">
@@ -11785,7 +11785,7 @@
         <v>44106</v>
       </c>
       <c r="D612" s="10">
-        <v>1816.336669921875</v>
+        <v>434.02603149414062</v>
       </c>
     </row>
     <row r="613">
@@ -11799,7 +11799,7 @@
         <v>44107</v>
       </c>
       <c r="D613" s="11">
-        <v>3463.486572265625</v>
+        <v>3365.564697265625</v>
       </c>
     </row>
     <row r="614">
@@ -11813,7 +11813,7 @@
         <v>44108</v>
       </c>
       <c r="D614" s="10">
-        <v>9882.60546875</v>
+        <v>8954.4638671875</v>
       </c>
     </row>
     <row r="615">
@@ -11827,7 +11827,7 @@
         <v>44109</v>
       </c>
       <c r="D615" s="11">
-        <v>9624.4853515625</v>
+        <v>5766.00634765625</v>
       </c>
     </row>
     <row r="616">
@@ -11841,7 +11841,7 @@
         <v>44110</v>
       </c>
       <c r="D616" s="10">
-        <v>8994.0498046875</v>
+        <v>3959.69677734375</v>
       </c>
     </row>
     <row r="617">
@@ -11855,7 +11855,7 @@
         <v>44111</v>
       </c>
       <c r="D617" s="11">
-        <v>6887.93115234375</v>
+        <v>4210.51708984375</v>
       </c>
     </row>
     <row r="618">
@@ -11869,7 +11869,7 @@
         <v>44112</v>
       </c>
       <c r="D618" s="10">
-        <v>4139.1220703125</v>
+        <v>2494.752197265625</v>
       </c>
     </row>
     <row r="619">
@@ -11883,7 +11883,7 @@
         <v>44113</v>
       </c>
       <c r="D619" s="11">
-        <v>6033.580078125</v>
+        <v>3241.593994140625</v>
       </c>
     </row>
     <row r="620">
@@ -11897,7 +11897,7 @@
         <v>44114</v>
       </c>
       <c r="D620" s="10">
-        <v>3551.086669921875</v>
+        <v>7842.11767578125</v>
       </c>
     </row>
     <row r="621">
@@ -11911,7 +11911,7 @@
         <v>44115</v>
       </c>
       <c r="D621" s="11">
-        <v>9620.650390625</v>
+        <v>4483.392578125</v>
       </c>
     </row>
     <row r="622">
@@ -11925,7 +11925,7 @@
         <v>44116</v>
       </c>
       <c r="D622" s="10">
-        <v>7594.39111328125</v>
+        <v>6940.1162109375</v>
       </c>
     </row>
     <row r="623">
@@ -11939,7 +11939,7 @@
         <v>44117</v>
       </c>
       <c r="D623" s="11">
-        <v>1038.132080078125</v>
+        <v>6896.31884765625</v>
       </c>
     </row>
     <row r="624">
@@ -11953,7 +11953,7 @@
         <v>44118</v>
       </c>
       <c r="D624" s="10">
-        <v>845.216064453125</v>
+        <v>440.33251953125</v>
       </c>
     </row>
     <row r="625">
@@ -11967,7 +11967,7 @@
         <v>44119</v>
       </c>
       <c r="D625" s="11">
-        <v>3947.14111328125</v>
+        <v>9765.78515625</v>
       </c>
     </row>
     <row r="626">
@@ -11981,7 +11981,7 @@
         <v>44120</v>
       </c>
       <c r="D626" s="10">
-        <v>2621.168701171875</v>
+        <v>6187.61376953125</v>
       </c>
     </row>
     <row r="627">
@@ -11995,7 +11995,7 @@
         <v>44121</v>
       </c>
       <c r="D627" s="11">
-        <v>1508.624267578125</v>
+        <v>4119.8095703125</v>
       </c>
     </row>
     <row r="628">
@@ -12009,7 +12009,7 @@
         <v>44122</v>
       </c>
       <c r="D628" s="10">
-        <v>1333.0120849609375</v>
+        <v>6427.2041015625</v>
       </c>
     </row>
     <row r="629">
@@ -12023,7 +12023,7 @@
         <v>44123</v>
       </c>
       <c r="D629" s="11">
-        <v>327.04058837890625</v>
+        <v>1618.7484130859375</v>
       </c>
     </row>
     <row r="630">
@@ -12037,7 +12037,7 @@
         <v>44124</v>
       </c>
       <c r="D630" s="10">
-        <v>5628.33740234375</v>
+        <v>1058.208251953125</v>
       </c>
     </row>
     <row r="631">
@@ -12051,7 +12051,7 @@
         <v>44125</v>
       </c>
       <c r="D631" s="11">
-        <v>2955.400634765625</v>
+        <v>8611.2890625</v>
       </c>
     </row>
     <row r="632">
@@ -12065,7 +12065,7 @@
         <v>44126</v>
       </c>
       <c r="D632" s="10">
-        <v>8218.2626953125</v>
+        <v>2061.2998046875</v>
       </c>
     </row>
     <row r="633">
@@ -12079,7 +12079,7 @@
         <v>44127</v>
       </c>
       <c r="D633" s="11">
-        <v>518.74884033203125</v>
+        <v>583.3260498046875</v>
       </c>
     </row>
     <row r="634">
@@ -12093,7 +12093,7 @@
         <v>44128</v>
       </c>
       <c r="D634" s="10">
-        <v>885.77496337890625</v>
+        <v>4803.48291015625</v>
       </c>
     </row>
     <row r="635">
@@ -12107,7 +12107,7 @@
         <v>44129</v>
       </c>
       <c r="D635" s="11">
-        <v>6567.54052734375</v>
+        <v>6968.4951171875</v>
       </c>
     </row>
     <row r="636">
@@ -12121,7 +12121,7 @@
         <v>44130</v>
       </c>
       <c r="D636" s="10">
-        <v>2400.265625</v>
+        <v>1805.57958984375</v>
       </c>
     </row>
     <row r="637">
@@ -12135,7 +12135,7 @@
         <v>44131</v>
       </c>
       <c r="D637" s="11">
-        <v>4545.5244140625</v>
+        <v>8201.59765625</v>
       </c>
     </row>
     <row r="638">
@@ -12149,7 +12149,7 @@
         <v>44132</v>
       </c>
       <c r="D638" s="10">
-        <v>2377.3916015625</v>
+        <v>9671.5087890625</v>
       </c>
     </row>
     <row r="639">
@@ -12163,7 +12163,7 @@
         <v>44133</v>
       </c>
       <c r="D639" s="11">
-        <v>4085.170166015625</v>
+        <v>6374.11572265625</v>
       </c>
     </row>
     <row r="640">
@@ -12177,7 +12177,7 @@
         <v>44134</v>
       </c>
       <c r="D640" s="10">
-        <v>8015.00390625</v>
+        <v>5968.0869140625</v>
       </c>
     </row>
     <row r="641">
@@ -12191,7 +12191,7 @@
         <v>44135</v>
       </c>
       <c r="D641" s="11">
-        <v>5793.46484375</v>
+        <v>4409.33935546875</v>
       </c>
     </row>
     <row r="642">
@@ -12205,7 +12205,7 @@
         <v>44136</v>
       </c>
       <c r="D642" s="10">
-        <v>5797.19970703125</v>
+        <v>5456.85205078125</v>
       </c>
     </row>
     <row r="643">
@@ -12219,7 +12219,7 @@
         <v>44137</v>
       </c>
       <c r="D643" s="11">
-        <v>4497.884765625</v>
+        <v>4783.72998046875</v>
       </c>
     </row>
     <row r="644">
@@ -12233,7 +12233,7 @@
         <v>44138</v>
       </c>
       <c r="D644" s="10">
-        <v>8412.931640625</v>
+        <v>2204.7216796875</v>
       </c>
     </row>
     <row r="645">
@@ -12247,7 +12247,7 @@
         <v>44139</v>
       </c>
       <c r="D645" s="11">
-        <v>4865.67529296875</v>
+        <v>4614.62255859375</v>
       </c>
     </row>
     <row r="646">
@@ -12261,7 +12261,7 @@
         <v>44140</v>
       </c>
       <c r="D646" s="10">
-        <v>9165.1611328125</v>
+        <v>6858.3427734375</v>
       </c>
     </row>
     <row r="647">
@@ -12275,7 +12275,7 @@
         <v>44141</v>
       </c>
       <c r="D647" s="11">
-        <v>4123.48681640625</v>
+        <v>2645.974853515625</v>
       </c>
     </row>
     <row r="648">
@@ -12289,7 +12289,7 @@
         <v>44142</v>
       </c>
       <c r="D648" s="10">
-        <v>9137.19140625</v>
+        <v>8700.529296875</v>
       </c>
     </row>
     <row r="649">
@@ -12303,7 +12303,7 @@
         <v>44143</v>
       </c>
       <c r="D649" s="11">
-        <v>2238.13525390625</v>
+        <v>1530.4453125</v>
       </c>
     </row>
     <row r="650">
@@ -12317,7 +12317,7 @@
         <v>44144</v>
       </c>
       <c r="D650" s="10">
-        <v>613.62506103515625</v>
+        <v>5025.0029296875</v>
       </c>
     </row>
     <row r="651">
@@ -12331,7 +12331,7 @@
         <v>44145</v>
       </c>
       <c r="D651" s="11">
-        <v>8514.2041015625</v>
+        <v>7884.70361328125</v>
       </c>
     </row>
     <row r="652">
@@ -12345,7 +12345,7 @@
         <v>44146</v>
       </c>
       <c r="D652" s="10">
-        <v>4693.5576171875</v>
+        <v>6974.90185546875</v>
       </c>
     </row>
     <row r="653">
@@ -12359,7 +12359,7 @@
         <v>44147</v>
       </c>
       <c r="D653" s="11">
-        <v>7799.43798828125</v>
+        <v>684.85137939453125</v>
       </c>
     </row>
     <row r="654">
@@ -12373,7 +12373,7 @@
         <v>44148</v>
       </c>
       <c r="D654" s="10">
-        <v>1314.47900390625</v>
+        <v>9182.9765625</v>
       </c>
     </row>
     <row r="655">
@@ -12387,7 +12387,7 @@
         <v>44149</v>
       </c>
       <c r="D655" s="11">
-        <v>5509.01318359375</v>
+        <v>683.92401123046875</v>
       </c>
     </row>
     <row r="656">
@@ -12401,7 +12401,7 @@
         <v>44150</v>
       </c>
       <c r="D656" s="10">
-        <v>29.148086547851562</v>
+        <v>4638.0615234375</v>
       </c>
     </row>
     <row r="657">
@@ -12415,7 +12415,7 @@
         <v>44151</v>
       </c>
       <c r="D657" s="11">
-        <v>1067.763916015625</v>
+        <v>6403.076171875</v>
       </c>
     </row>
     <row r="658">
@@ -12429,7 +12429,7 @@
         <v>44152</v>
       </c>
       <c r="D658" s="10">
-        <v>8662.828125</v>
+        <v>5576.8125</v>
       </c>
     </row>
     <row r="659">
@@ -12443,7 +12443,7 @@
         <v>44153</v>
       </c>
       <c r="D659" s="11">
-        <v>3679.2841796875</v>
+        <v>4134.423828125</v>
       </c>
     </row>
     <row r="660">
@@ -12457,7 +12457,7 @@
         <v>44154</v>
       </c>
       <c r="D660" s="10">
-        <v>2837.73974609375</v>
+        <v>3272.682861328125</v>
       </c>
     </row>
     <row r="661">
@@ -12471,7 +12471,7 @@
         <v>44155</v>
       </c>
       <c r="D661" s="11">
-        <v>8433.814453125</v>
+        <v>7214.45654296875</v>
       </c>
     </row>
     <row r="662">
@@ -12485,7 +12485,7 @@
         <v>44156</v>
       </c>
       <c r="D662" s="10">
-        <v>4453.9453125</v>
+        <v>7284.4755859375</v>
       </c>
     </row>
     <row r="663">
@@ -12499,7 +12499,7 @@
         <v>44157</v>
       </c>
       <c r="D663" s="11">
-        <v>7815.00439453125</v>
+        <v>7508.8486328125</v>
       </c>
     </row>
     <row r="664">
@@ -12513,7 +12513,7 @@
         <v>44158</v>
       </c>
       <c r="D664" s="10">
-        <v>9085.3203125</v>
+        <v>157.11717224121094</v>
       </c>
     </row>
     <row r="665">
@@ -12527,7 +12527,7 @@
         <v>44159</v>
       </c>
       <c r="D665" s="11">
-        <v>5831.0888671875</v>
+        <v>5973.638671875</v>
       </c>
     </row>
     <row r="666">
@@ -12541,7 +12541,7 @@
         <v>44160</v>
       </c>
       <c r="D666" s="10">
-        <v>6917.3623046875</v>
+        <v>5049.298828125</v>
       </c>
     </row>
     <row r="667">
@@ -12555,7 +12555,7 @@
         <v>44161</v>
       </c>
       <c r="D667" s="11">
-        <v>1297.587890625</v>
+        <v>9850.7001953125</v>
       </c>
     </row>
     <row r="668">
@@ -12569,7 +12569,7 @@
         <v>44162</v>
       </c>
       <c r="D668" s="10">
-        <v>2577.711669921875</v>
+        <v>8562.08203125</v>
       </c>
     </row>
     <row r="669">
@@ -12583,7 +12583,7 @@
         <v>44163</v>
       </c>
       <c r="D669" s="11">
-        <v>3315.06494140625</v>
+        <v>1985.9686279296875</v>
       </c>
     </row>
     <row r="670">
@@ -12597,7 +12597,7 @@
         <v>44164</v>
       </c>
       <c r="D670" s="10">
-        <v>7224.22021484375</v>
+        <v>3960.4267578125</v>
       </c>
     </row>
     <row r="671">
@@ -12611,7 +12611,7 @@
         <v>44165</v>
       </c>
       <c r="D671" s="11">
-        <v>4448.52587890625</v>
+        <v>5758.09912109375</v>
       </c>
     </row>
     <row r="672">
@@ -12625,7 +12625,7 @@
         <v>44166</v>
       </c>
       <c r="D672" s="10">
-        <v>4510.53955078125</v>
+        <v>4539.00830078125</v>
       </c>
     </row>
     <row r="673">
@@ -12639,7 +12639,7 @@
         <v>44167</v>
       </c>
       <c r="D673" s="11">
-        <v>53.952102661132812</v>
+        <v>6120.63623046875</v>
       </c>
     </row>
     <row r="674">
@@ -12653,7 +12653,7 @@
         <v>44168</v>
       </c>
       <c r="D674" s="10">
-        <v>8018.57568359375</v>
+        <v>7273.5068359375</v>
       </c>
     </row>
     <row r="675">
@@ -12667,7 +12667,7 @@
         <v>44169</v>
       </c>
       <c r="D675" s="11">
-        <v>7757.6220703125</v>
+        <v>3432.7783203125</v>
       </c>
     </row>
     <row r="676">
@@ -12681,7 +12681,7 @@
         <v>44170</v>
       </c>
       <c r="D676" s="10">
-        <v>3823.45068359375</v>
+        <v>9026.5400390625</v>
       </c>
     </row>
     <row r="677">
@@ -12695,7 +12695,7 @@
         <v>44171</v>
       </c>
       <c r="D677" s="11">
-        <v>3096.506591796875</v>
+        <v>2156.38623046875</v>
       </c>
     </row>
     <row r="678">
@@ -12709,7 +12709,7 @@
         <v>44172</v>
       </c>
       <c r="D678" s="10">
-        <v>2625.200439453125</v>
+        <v>4691.59716796875</v>
       </c>
     </row>
     <row r="679">
@@ -12723,7 +12723,7 @@
         <v>44173</v>
       </c>
       <c r="D679" s="11">
-        <v>5979.54052734375</v>
+        <v>5825.7099609375</v>
       </c>
     </row>
     <row r="680">
@@ -12737,7 +12737,7 @@
         <v>44174</v>
       </c>
       <c r="D680" s="10">
-        <v>4781.98046875</v>
+        <v>2907.442138671875</v>
       </c>
     </row>
     <row r="681">
@@ -12751,7 +12751,7 @@
         <v>44175</v>
       </c>
       <c r="D681" s="11">
-        <v>8497.681640625</v>
+        <v>3541.638916015625</v>
       </c>
     </row>
     <row r="682">
@@ -12765,7 +12765,7 @@
         <v>44176</v>
       </c>
       <c r="D682" s="10">
-        <v>2371.4326171875</v>
+        <v>5419.28076171875</v>
       </c>
     </row>
     <row r="683">
@@ -12779,7 +12779,7 @@
         <v>44177</v>
       </c>
       <c r="D683" s="11">
-        <v>9094.876953125</v>
+        <v>4896.7587890625</v>
       </c>
     </row>
     <row r="684">
@@ -12793,7 +12793,7 @@
         <v>44178</v>
       </c>
       <c r="D684" s="10">
-        <v>9713.4150390625</v>
+        <v>6593.74560546875</v>
       </c>
     </row>
     <row r="685">
@@ -12807,7 +12807,7 @@
         <v>44179</v>
       </c>
       <c r="D685" s="11">
-        <v>7114.13330078125</v>
+        <v>3173.504638671875</v>
       </c>
     </row>
     <row r="686">
@@ -12821,7 +12821,7 @@
         <v>44180</v>
       </c>
       <c r="D686" s="10">
-        <v>8261.8427734375</v>
+        <v>1636.3878173828125</v>
       </c>
     </row>
     <row r="687">
@@ -12835,7 +12835,7 @@
         <v>44181</v>
       </c>
       <c r="D687" s="11">
-        <v>418.82476806640625</v>
+        <v>1376.4483642578125</v>
       </c>
     </row>
     <row r="688">
@@ -12849,7 +12849,7 @@
         <v>44182</v>
       </c>
       <c r="D688" s="10">
-        <v>9204.26953125</v>
+        <v>1400.349609375</v>
       </c>
     </row>
     <row r="689">
@@ -12863,7 +12863,7 @@
         <v>44183</v>
       </c>
       <c r="D689" s="11">
-        <v>5376.76171875</v>
+        <v>4119.55859375</v>
       </c>
     </row>
     <row r="690">
@@ -12877,7 +12877,7 @@
         <v>44184</v>
       </c>
       <c r="D690" s="10">
-        <v>6538.392578125</v>
+        <v>2330.43359375</v>
       </c>
     </row>
     <row r="691">
@@ -12891,7 +12891,7 @@
         <v>44185</v>
       </c>
       <c r="D691" s="11">
-        <v>1332.5015869140625</v>
+        <v>5402.50341796875</v>
       </c>
     </row>
     <row r="692">
@@ -12905,7 +12905,7 @@
         <v>44186</v>
       </c>
       <c r="D692" s="10">
-        <v>5882.6962890625</v>
+        <v>2624.784912109375</v>
       </c>
     </row>
     <row r="693">
@@ -12919,7 +12919,7 @@
         <v>44187</v>
       </c>
       <c r="D693" s="11">
-        <v>8698.107421875</v>
+        <v>5537.0849609375</v>
       </c>
     </row>
     <row r="694">
@@ -12933,7 +12933,7 @@
         <v>44188</v>
       </c>
       <c r="D694" s="10">
-        <v>1247.4305419921875</v>
+        <v>3101.432861328125</v>
       </c>
     </row>
     <row r="695">
@@ -12947,7 +12947,7 @@
         <v>44189</v>
       </c>
       <c r="D695" s="11">
-        <v>9581.189453125</v>
+        <v>8753.630859375</v>
       </c>
     </row>
     <row r="696">
@@ -12961,7 +12961,7 @@
         <v>44190</v>
       </c>
       <c r="D696" s="10">
-        <v>1339.5194091796875</v>
+        <v>7124.86376953125</v>
       </c>
     </row>
     <row r="697">
@@ -12975,7 +12975,7 @@
         <v>44191</v>
       </c>
       <c r="D697" s="11">
-        <v>7982.1953125</v>
+        <v>7948.00341796875</v>
       </c>
     </row>
     <row r="698">
@@ -12989,7 +12989,7 @@
         <v>44192</v>
       </c>
       <c r="D698" s="10">
-        <v>5412.56396484375</v>
+        <v>4626.61279296875</v>
       </c>
     </row>
     <row r="699">
@@ -13003,7 +13003,7 @@
         <v>44193</v>
       </c>
       <c r="D699" s="11">
-        <v>2581.842529296875</v>
+        <v>6231.0830078125</v>
       </c>
     </row>
     <row r="700">
@@ -13017,7 +13017,7 @@
         <v>44194</v>
       </c>
       <c r="D700" s="10">
-        <v>7948.31298828125</v>
+        <v>9565.3232421875</v>
       </c>
     </row>
     <row r="701">
@@ -13031,7 +13031,7 @@
         <v>44195</v>
       </c>
       <c r="D701" s="11">
-        <v>7867.57275390625</v>
+        <v>7007.642578125</v>
       </c>
     </row>
     <row r="702">
@@ -13045,7 +13045,7 @@
         <v>44196</v>
       </c>
       <c r="D702" s="10">
-        <v>1545.7752685546875</v>
+        <v>4083.892822265625</v>
       </c>
     </row>
     <row r="703">
@@ -13059,7 +13059,7 @@
         <v>44197</v>
       </c>
       <c r="D703" s="11">
-        <v>5822.126953125</v>
+        <v>6714.560546875</v>
       </c>
     </row>
     <row r="704">
@@ -13073,7 +13073,7 @@
         <v>44198</v>
       </c>
       <c r="D704" s="10">
-        <v>5013.9150390625</v>
+        <v>7570.0185546875</v>
       </c>
     </row>
     <row r="705">
@@ -13087,7 +13087,7 @@
         <v>44199</v>
       </c>
       <c r="D705" s="11">
-        <v>6165.09912109375</v>
+        <v>9266.9033203125</v>
       </c>
     </row>
     <row r="706">
@@ -13101,7 +13101,7 @@
         <v>44200</v>
       </c>
       <c r="D706" s="10">
-        <v>4003.66455078125</v>
+        <v>3345.6953125</v>
       </c>
     </row>
     <row r="707">
@@ -13115,7 +13115,7 @@
         <v>44201</v>
       </c>
       <c r="D707" s="11">
-        <v>4639.60546875</v>
+        <v>854.26519775390625</v>
       </c>
     </row>
     <row r="708">
@@ -13129,7 +13129,7 @@
         <v>44202</v>
       </c>
       <c r="D708" s="10">
-        <v>9780.8623046875</v>
+        <v>3411.344482421875</v>
       </c>
     </row>
     <row r="709">
@@ -13143,7 +13143,7 @@
         <v>44203</v>
       </c>
       <c r="D709" s="11">
-        <v>3556.85693359375</v>
+        <v>5750.1982421875</v>
       </c>
     </row>
     <row r="710">
@@ -13157,7 +13157,7 @@
         <v>44204</v>
       </c>
       <c r="D710" s="10">
-        <v>1685.5625</v>
+        <v>1657.3836669921875</v>
       </c>
     </row>
     <row r="711">
@@ -13171,7 +13171,7 @@
         <v>44205</v>
       </c>
       <c r="D711" s="11">
-        <v>6932.6416015625</v>
+        <v>2481.67529296875</v>
       </c>
     </row>
     <row r="712">
@@ -13185,7 +13185,7 @@
         <v>44206</v>
       </c>
       <c r="D712" s="10">
-        <v>8442.5634765625</v>
+        <v>1711.4791259765625</v>
       </c>
     </row>
     <row r="713">
@@ -13199,7 +13199,7 @@
         <v>44207</v>
       </c>
       <c r="D713" s="11">
-        <v>2683.287841796875</v>
+        <v>9751.1025390625</v>
       </c>
     </row>
     <row r="714">
@@ -13213,7 +13213,7 @@
         <v>44208</v>
       </c>
       <c r="D714" s="10">
-        <v>8897.3037109375</v>
+        <v>1226.981689453125</v>
       </c>
     </row>
     <row r="715">
@@ -13227,7 +13227,7 @@
         <v>44209</v>
       </c>
       <c r="D715" s="11">
-        <v>4340.05810546875</v>
+        <v>9731.0439453125</v>
       </c>
     </row>
     <row r="716">
@@ -13241,7 +13241,7 @@
         <v>44210</v>
       </c>
       <c r="D716" s="10">
-        <v>6062.3818359375</v>
+        <v>1795.1756591796875</v>
       </c>
     </row>
     <row r="717">
@@ -13255,7 +13255,7 @@
         <v>44211</v>
       </c>
       <c r="D717" s="11">
-        <v>5359.068359375</v>
+        <v>2387.717041015625</v>
       </c>
     </row>
     <row r="718">
@@ -13269,7 +13269,7 @@
         <v>44212</v>
       </c>
       <c r="D718" s="10">
-        <v>8101.5888671875</v>
+        <v>915.10333251953125</v>
       </c>
     </row>
     <row r="719">
@@ -13283,7 +13283,7 @@
         <v>44213</v>
       </c>
       <c r="D719" s="11">
-        <v>1971.1873779296875</v>
+        <v>6983.61279296875</v>
       </c>
     </row>
     <row r="720">
@@ -13297,7 +13297,7 @@
         <v>44214</v>
       </c>
       <c r="D720" s="10">
-        <v>7569.24560546875</v>
+        <v>4337.25048828125</v>
       </c>
     </row>
     <row r="721">
@@ -13311,7 +13311,7 @@
         <v>44215</v>
       </c>
       <c r="D721" s="11">
-        <v>6498.53759765625</v>
+        <v>3672.8505859375</v>
       </c>
     </row>
     <row r="722">
@@ -13325,7 +13325,7 @@
         <v>44216</v>
       </c>
       <c r="D722" s="10">
-        <v>2093.31787109375</v>
+        <v>8450.3505859375</v>
       </c>
     </row>
     <row r="723">
@@ -13339,7 +13339,7 @@
         <v>44217</v>
       </c>
       <c r="D723" s="11">
-        <v>7200.9501953125</v>
+        <v>4442.5234375</v>
       </c>
     </row>
     <row r="724">
@@ -13353,7 +13353,7 @@
         <v>44218</v>
       </c>
       <c r="D724" s="10">
-        <v>6776.67236328125</v>
+        <v>9655.53515625</v>
       </c>
     </row>
     <row r="725">
@@ -13367,7 +13367,7 @@
         <v>44219</v>
       </c>
       <c r="D725" s="11">
-        <v>5891.71875</v>
+        <v>8557.923828125</v>
       </c>
     </row>
     <row r="726">
@@ -13381,7 +13381,7 @@
         <v>44220</v>
       </c>
       <c r="D726" s="10">
-        <v>8565.830078125</v>
+        <v>3133.314453125</v>
       </c>
     </row>
     <row r="727">
@@ -13395,7 +13395,7 @@
         <v>44221</v>
       </c>
       <c r="D727" s="11">
-        <v>5812.43212890625</v>
+        <v>9001.923828125</v>
       </c>
     </row>
     <row r="728">
@@ -13409,7 +13409,7 @@
         <v>44222</v>
       </c>
       <c r="D728" s="10">
-        <v>8806.521484375</v>
+        <v>3019.203369140625</v>
       </c>
     </row>
     <row r="729">
@@ -13423,7 +13423,7 @@
         <v>44223</v>
       </c>
       <c r="D729" s="11">
-        <v>8437.3857421875</v>
+        <v>8519.8759765625</v>
       </c>
     </row>
     <row r="730">
@@ -13437,7 +13437,7 @@
         <v>44224</v>
       </c>
       <c r="D730" s="10">
-        <v>6418.1025390625</v>
+        <v>6307.91455078125</v>
       </c>
     </row>
     <row r="731">
@@ -13451,7 +13451,7 @@
         <v>44225</v>
       </c>
       <c r="D731" s="11">
-        <v>5841.25537109375</v>
+        <v>1078.5369873046875</v>
       </c>
     </row>
     <row r="732">
@@ -13465,7 +13465,7 @@
         <v>44226</v>
       </c>
       <c r="D732" s="10">
-        <v>7683.9423828125</v>
+        <v>7529.7734375</v>
       </c>
     </row>
     <row r="733">
@@ -13479,7 +13479,7 @@
         <v>44227</v>
       </c>
       <c r="D733" s="11">
-        <v>43.357936859130859</v>
+        <v>8460.513671875</v>
       </c>
     </row>
     <row r="734">
@@ -13493,7 +13493,7 @@
         <v>44228</v>
       </c>
       <c r="D734" s="10">
-        <v>8031.2275390625</v>
+        <v>6260.38671875</v>
       </c>
     </row>
     <row r="735">
@@ -13507,7 +13507,7 @@
         <v>44229</v>
       </c>
       <c r="D735" s="11">
-        <v>6914.40771484375</v>
+        <v>5899.79931640625</v>
       </c>
     </row>
     <row r="736">
@@ -13521,7 +13521,7 @@
         <v>44230</v>
       </c>
       <c r="D736" s="10">
-        <v>6951.90625</v>
+        <v>9457.74609375</v>
       </c>
     </row>
     <row r="737">
@@ -13535,7 +13535,7 @@
         <v>44231</v>
       </c>
       <c r="D737" s="11">
-        <v>6549.3056640625</v>
+        <v>8704.720703125</v>
       </c>
     </row>
     <row r="738">
@@ -13549,7 +13549,7 @@
         <v>44232</v>
       </c>
       <c r="D738" s="10">
-        <v>4080.961669921875</v>
+        <v>7326.740234375</v>
       </c>
     </row>
     <row r="739">
@@ -13563,7 +13563,7 @@
         <v>44233</v>
       </c>
       <c r="D739" s="11">
-        <v>3548.316162109375</v>
+        <v>7326.841796875</v>
       </c>
     </row>
     <row r="740">
@@ -13577,7 +13577,7 @@
         <v>44234</v>
       </c>
       <c r="D740" s="10">
-        <v>3110.468994140625</v>
+        <v>9827.8095703125</v>
       </c>
     </row>
     <row r="741">
@@ -13591,7 +13591,7 @@
         <v>44235</v>
       </c>
       <c r="D741" s="11">
-        <v>3622.23779296875</v>
+        <v>782.12261962890625</v>
       </c>
     </row>
     <row r="742">
@@ -13605,7 +13605,7 @@
         <v>44236</v>
       </c>
       <c r="D742" s="10">
-        <v>637.96270751953125</v>
+        <v>7965.10400390625</v>
       </c>
     </row>
     <row r="743">
@@ -13619,7 +13619,7 @@
         <v>44237</v>
       </c>
       <c r="D743" s="11">
-        <v>5647.4130859375</v>
+        <v>5650.1513671875</v>
       </c>
     </row>
     <row r="744">
@@ -13633,7 +13633,7 @@
         <v>44238</v>
       </c>
       <c r="D744" s="10">
-        <v>3691.19921875</v>
+        <v>2462.175048828125</v>
       </c>
     </row>
     <row r="745">
@@ -13647,7 +13647,7 @@
         <v>44239</v>
       </c>
       <c r="D745" s="11">
-        <v>9605.7509765625</v>
+        <v>9848.7578125</v>
       </c>
     </row>
     <row r="746">
@@ -13661,7 +13661,7 @@
         <v>44240</v>
       </c>
       <c r="D746" s="10">
-        <v>2889.938232421875</v>
+        <v>3691.024169921875</v>
       </c>
     </row>
     <row r="747">
@@ -13675,7 +13675,7 @@
         <v>44241</v>
       </c>
       <c r="D747" s="11">
-        <v>3199.408203125</v>
+        <v>2873.682373046875</v>
       </c>
     </row>
     <row r="748">
@@ -13689,7 +13689,7 @@
         <v>44242</v>
       </c>
       <c r="D748" s="10">
-        <v>9800.8037109375</v>
+        <v>4310.10302734375</v>
       </c>
     </row>
     <row r="749">
@@ -13703,7 +13703,7 @@
         <v>44243</v>
       </c>
       <c r="D749" s="11">
-        <v>6907.37255859375</v>
+        <v>3370.388916015625</v>
       </c>
     </row>
     <row r="750">
@@ -13717,7 +13717,7 @@
         <v>44244</v>
       </c>
       <c r="D750" s="10">
-        <v>3518.807861328125</v>
+        <v>6958.455078125</v>
       </c>
     </row>
     <row r="751">
@@ -13731,7 +13731,7 @@
         <v>44245</v>
       </c>
       <c r="D751" s="11">
-        <v>5980.45068359375</v>
+        <v>4737.146484375</v>
       </c>
     </row>
     <row r="752">
@@ -13745,7 +13745,7 @@
         <v>44246</v>
       </c>
       <c r="D752" s="10">
-        <v>9880.6064453125</v>
+        <v>7032.89990234375</v>
       </c>
     </row>
     <row r="753">
@@ -13759,7 +13759,7 @@
         <v>44247</v>
       </c>
       <c r="D753" s="11">
-        <v>3441.376708984375</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="754">
@@ -13773,7 +13773,7 @@
         <v>44248</v>
       </c>
       <c r="D754" s="10">
-        <v>5012.5966796875</v>
+        <v>1893.83251953125</v>
       </c>
     </row>
     <row r="755">
@@ -13787,7 +13787,7 @@
         <v>44249</v>
       </c>
       <c r="D755" s="11">
-        <v>1449.7757568359375</v>
+        <v>5892.47314453125</v>
       </c>
     </row>
     <row r="756">
@@ -13801,7 +13801,7 @@
         <v>44250</v>
       </c>
       <c r="D756" s="10">
-        <v>5774.2548828125</v>
+        <v>8557.2919921875</v>
       </c>
     </row>
     <row r="757">
@@ -13815,7 +13815,7 @@
         <v>44251</v>
       </c>
       <c r="D757" s="11">
-        <v>4344.8251953125</v>
+        <v>9641.369140625</v>
       </c>
     </row>
     <row r="758">
@@ -13829,7 +13829,7 @@
         <v>44252</v>
       </c>
       <c r="D758" s="10">
-        <v>9045.4541015625</v>
+        <v>7059.025390625</v>
       </c>
     </row>
     <row r="759">
@@ -13843,7 +13843,7 @@
         <v>44253</v>
       </c>
       <c r="D759" s="11">
-        <v>9122.1962890625</v>
+        <v>9012.0947265625</v>
       </c>
     </row>
     <row r="760">
@@ -13857,7 +13857,7 @@
         <v>44254</v>
       </c>
       <c r="D760" s="10">
-        <v>7599.26953125</v>
+        <v>6133.58935546875</v>
       </c>
     </row>
     <row r="761">
@@ -13871,7 +13871,7 @@
         <v>44255</v>
       </c>
       <c r="D761" s="11">
-        <v>8191.232421875</v>
+        <v>4343.771484375</v>
       </c>
     </row>
     <row r="762">
@@ -13885,7 +13885,7 @@
         <v>44256</v>
       </c>
       <c r="D762" s="10">
-        <v>5833.083984375</v>
+        <v>7835.0615234375</v>
       </c>
     </row>
     <row r="763">
@@ -13899,7 +13899,7 @@
         <v>44257</v>
       </c>
       <c r="D763" s="11">
-        <v>1343.4759521484375</v>
+        <v>4891.46826171875</v>
       </c>
     </row>
     <row r="764">
@@ -13913,7 +13913,7 @@
         <v>44258</v>
       </c>
       <c r="D764" s="10">
-        <v>7138.75439453125</v>
+        <v>9442.283203125</v>
       </c>
     </row>
     <row r="765">
@@ -13927,7 +13927,7 @@
         <v>44259</v>
       </c>
       <c r="D765" s="11">
-        <v>5844.30712890625</v>
+        <v>578.84661865234375</v>
       </c>
     </row>
     <row r="766">
@@ -13941,7 +13941,7 @@
         <v>44260</v>
       </c>
       <c r="D766" s="10">
-        <v>9248.69921875</v>
+        <v>4951.90185546875</v>
       </c>
     </row>
     <row r="767">
@@ -13955,7 +13955,7 @@
         <v>44261</v>
       </c>
       <c r="D767" s="11">
-        <v>8399.205078125</v>
+        <v>3250.965087890625</v>
       </c>
     </row>
     <row r="768">
@@ -13969,7 +13969,7 @@
         <v>44262</v>
       </c>
       <c r="D768" s="10">
-        <v>4652.060546875</v>
+        <v>3490.716064453125</v>
       </c>
     </row>
     <row r="769">
@@ -13983,7 +13983,7 @@
         <v>44263</v>
       </c>
       <c r="D769" s="11">
-        <v>1982.89599609375</v>
+        <v>5327.18212890625</v>
       </c>
     </row>
     <row r="770">
@@ -13997,7 +13997,7 @@
         <v>44264</v>
       </c>
       <c r="D770" s="10">
-        <v>7388.15185546875</v>
+        <v>273.29803466796875</v>
       </c>
     </row>
     <row r="771">
@@ -14011,7 +14011,7 @@
         <v>44265</v>
       </c>
       <c r="D771" s="11">
-        <v>9513.076171875</v>
+        <v>3090.455322265625</v>
       </c>
     </row>
     <row r="772">
@@ -14025,7 +14025,7 @@
         <v>44266</v>
       </c>
       <c r="D772" s="10">
-        <v>1278.10693359375</v>
+        <v>5060.97705078125</v>
       </c>
     </row>
     <row r="773">
@@ -14039,7 +14039,7 @@
         <v>44267</v>
       </c>
       <c r="D773" s="11">
-        <v>4553.27294921875</v>
+        <v>3588.26171875</v>
       </c>
     </row>
     <row r="774">
@@ -14053,7 +14053,7 @@
         <v>44268</v>
       </c>
       <c r="D774" s="10">
-        <v>8860.71875</v>
+        <v>7155.80322265625</v>
       </c>
     </row>
     <row r="775">
@@ -14067,7 +14067,7 @@
         <v>44269</v>
       </c>
       <c r="D775" s="11">
-        <v>3947.008056640625</v>
+        <v>3555.1279296875</v>
       </c>
     </row>
     <row r="776">
@@ -14081,7 +14081,7 @@
         <v>44270</v>
       </c>
       <c r="D776" s="10">
-        <v>5860.57470703125</v>
+        <v>5707.74658203125</v>
       </c>
     </row>
     <row r="777">
@@ -14095,7 +14095,7 @@
         <v>44271</v>
       </c>
       <c r="D777" s="11">
-        <v>6445.9052734375</v>
+        <v>2800.19873046875</v>
       </c>
     </row>
     <row r="778">
@@ -14109,7 +14109,7 @@
         <v>44272</v>
       </c>
       <c r="D778" s="10">
-        <v>3509.750732421875</v>
+        <v>1980.3482666015625</v>
       </c>
     </row>
     <row r="779">
@@ -14123,7 +14123,7 @@
         <v>44273</v>
       </c>
       <c r="D779" s="11">
-        <v>7170.921875</v>
+        <v>9806.7763671875</v>
       </c>
     </row>
     <row r="780">
@@ -14137,7 +14137,7 @@
         <v>44274</v>
       </c>
       <c r="D780" s="10">
-        <v>3001.7802734375</v>
+        <v>4866.8994140625</v>
       </c>
     </row>
     <row r="781">
@@ -14151,7 +14151,7 @@
         <v>44275</v>
       </c>
       <c r="D781" s="11">
-        <v>5366.42138671875</v>
+        <v>259.63192749023438</v>
       </c>
     </row>
     <row r="782">
@@ -14165,7 +14165,7 @@
         <v>44276</v>
       </c>
       <c r="D782" s="10">
-        <v>6011.6279296875</v>
+        <v>4691.8203125</v>
       </c>
     </row>
     <row r="783">
@@ -14179,7 +14179,7 @@
         <v>44277</v>
       </c>
       <c r="D783" s="11">
-        <v>1899.14892578125</v>
+        <v>9648.814453125</v>
       </c>
     </row>
     <row r="784">
@@ -14193,7 +14193,7 @@
         <v>44278</v>
       </c>
       <c r="D784" s="10">
-        <v>4918.578125</v>
+        <v>1561.421142578125</v>
       </c>
     </row>
     <row r="785">
@@ -14207,7 +14207,7 @@
         <v>44279</v>
       </c>
       <c r="D785" s="11">
-        <v>437.65167236328125</v>
+        <v>1570.76806640625</v>
       </c>
     </row>
     <row r="786">
@@ -14221,7 +14221,7 @@
         <v>44280</v>
       </c>
       <c r="D786" s="10">
-        <v>5960.6494140625</v>
+        <v>4045.636962890625</v>
       </c>
     </row>
     <row r="787">
@@ -14235,7 +14235,7 @@
         <v>44281</v>
       </c>
       <c r="D787" s="11">
-        <v>4242.56591796875</v>
+        <v>9886.7734375</v>
       </c>
     </row>
     <row r="788">
@@ -14249,7 +14249,7 @@
         <v>44282</v>
       </c>
       <c r="D788" s="10">
-        <v>5030.76123046875</v>
+        <v>6566.681640625</v>
       </c>
     </row>
     <row r="789">
@@ -14263,7 +14263,7 @@
         <v>44283</v>
       </c>
       <c r="D789" s="11">
-        <v>6581.45166015625</v>
+        <v>367.91360473632812</v>
       </c>
     </row>
     <row r="790">
@@ -14277,7 +14277,7 @@
         <v>44284</v>
       </c>
       <c r="D790" s="10">
-        <v>1140.15283203125</v>
+        <v>7342.5068359375</v>
       </c>
     </row>
     <row r="791">
@@ -14291,7 +14291,7 @@
         <v>44285</v>
       </c>
       <c r="D791" s="11">
-        <v>2607.0810546875</v>
+        <v>9816.3759765625</v>
       </c>
     </row>
     <row r="792">
@@ -14305,7 +14305,7 @@
         <v>44286</v>
       </c>
       <c r="D792" s="10">
-        <v>7503.8515625</v>
+        <v>1645.6949462890625</v>
       </c>
     </row>
     <row r="793">
@@ -14319,7 +14319,7 @@
         <v>44287</v>
       </c>
       <c r="D793" s="11">
-        <v>4958.76513671875</v>
+        <v>8314.6455078125</v>
       </c>
     </row>
     <row r="794">
@@ -14333,7 +14333,7 @@
         <v>44288</v>
       </c>
       <c r="D794" s="10">
-        <v>5949.04638671875</v>
+        <v>1193.25244140625</v>
       </c>
     </row>
     <row r="795">
@@ -14347,7 +14347,7 @@
         <v>44289</v>
       </c>
       <c r="D795" s="11">
-        <v>4919.23681640625</v>
+        <v>5484.03759765625</v>
       </c>
     </row>
     <row r="796">
@@ -14361,7 +14361,7 @@
         <v>44290</v>
       </c>
       <c r="D796" s="10">
-        <v>7789.15380859375</v>
+        <v>2947.06103515625</v>
       </c>
     </row>
     <row r="797">
@@ -14375,7 +14375,7 @@
         <v>44291</v>
       </c>
       <c r="D797" s="11">
-        <v>9294.486328125</v>
+        <v>3073.6357421875</v>
       </c>
     </row>
     <row r="798">
@@ -14389,7 +14389,7 @@
         <v>44292</v>
       </c>
       <c r="D798" s="10">
-        <v>8508.658203125</v>
+        <v>6207.8681640625</v>
       </c>
     </row>
     <row r="799">
@@ -14403,7 +14403,7 @@
         <v>44293</v>
       </c>
       <c r="D799" s="11">
-        <v>7846.89208984375</v>
+        <v>1883.328369140625</v>
       </c>
     </row>
     <row r="800">
@@ -14417,7 +14417,7 @@
         <v>44294</v>
       </c>
       <c r="D800" s="10">
-        <v>357.05184936523438</v>
+        <v>4896.8564453125</v>
       </c>
     </row>
     <row r="801">
@@ -14431,7 +14431,7 @@
         <v>44295</v>
       </c>
       <c r="D801" s="11">
-        <v>4490.73291015625</v>
+        <v>440.05911254882812</v>
       </c>
     </row>
     <row r="802">
@@ -14445,7 +14445,7 @@
         <v>44296</v>
       </c>
       <c r="D802" s="10">
-        <v>8547.34765625</v>
+        <v>9382.966796875</v>
       </c>
     </row>
     <row r="803">
@@ -14459,7 +14459,7 @@
         <v>44297</v>
       </c>
       <c r="D803" s="11">
-        <v>7817.908203125</v>
+        <v>8982.9208984375</v>
       </c>
     </row>
     <row r="804">
@@ -14473,7 +14473,7 @@
         <v>44298</v>
       </c>
       <c r="D804" s="10">
-        <v>9519.220703125</v>
+        <v>3097.091064453125</v>
       </c>
     </row>
     <row r="805">
@@ -14487,7 +14487,7 @@
         <v>44299</v>
       </c>
       <c r="D805" s="11">
-        <v>4005.731689453125</v>
+        <v>3867.999755859375</v>
       </c>
     </row>
     <row r="806">
@@ -14501,7 +14501,7 @@
         <v>44300</v>
       </c>
       <c r="D806" s="10">
-        <v>4702.34375</v>
+        <v>9676.169921875</v>
       </c>
     </row>
     <row r="807">
@@ -14515,7 +14515,7 @@
         <v>44301</v>
       </c>
       <c r="D807" s="11">
-        <v>5327.33349609375</v>
+        <v>3444.638427734375</v>
       </c>
     </row>
     <row r="808">
@@ -14529,7 +14529,7 @@
         <v>44302</v>
       </c>
       <c r="D808" s="10">
-        <v>4580.658203125</v>
+        <v>487.19668579101562</v>
       </c>
     </row>
     <row r="809">
@@ -14543,7 +14543,7 @@
         <v>44303</v>
       </c>
       <c r="D809" s="11">
-        <v>1065.5888671875</v>
+        <v>8338.7041015625</v>
       </c>
     </row>
     <row r="810">
@@ -14557,7 +14557,7 @@
         <v>44304</v>
       </c>
       <c r="D810" s="10">
-        <v>5589.201171875</v>
+        <v>184.72628784179688</v>
       </c>
     </row>
     <row r="811">
@@ -14571,7 +14571,7 @@
         <v>44305</v>
       </c>
       <c r="D811" s="11">
-        <v>9328.349609375</v>
+        <v>5757.09375</v>
       </c>
     </row>
     <row r="812">
@@ -14585,7 +14585,7 @@
         <v>44306</v>
       </c>
       <c r="D812" s="10">
-        <v>835.0745849609375</v>
+        <v>7661.021484375</v>
       </c>
     </row>
     <row r="813">
@@ -14599,7 +14599,7 @@
         <v>44307</v>
       </c>
       <c r="D813" s="11">
-        <v>1874.5323486328125</v>
+        <v>7252.24853515625</v>
       </c>
     </row>
     <row r="814">
@@ -14613,7 +14613,7 @@
         <v>44308</v>
       </c>
       <c r="D814" s="10">
-        <v>6120.41650390625</v>
+        <v>4145.1953125</v>
       </c>
     </row>
     <row r="815">
@@ -14627,7 +14627,7 @@
         <v>44309</v>
       </c>
       <c r="D815" s="11">
-        <v>2232.84814453125</v>
+        <v>5873.95751953125</v>
       </c>
     </row>
     <row r="816">
@@ -14641,7 +14641,7 @@
         <v>44310</v>
       </c>
       <c r="D816" s="10">
-        <v>2179.604248046875</v>
+        <v>9651.951171875</v>
       </c>
     </row>
     <row r="817">
@@ -14655,7 +14655,7 @@
         <v>44311</v>
       </c>
       <c r="D817" s="11">
-        <v>3933.934814453125</v>
+        <v>8186.2470703125</v>
       </c>
     </row>
     <row r="818">
@@ -14669,7 +14669,7 @@
         <v>44312</v>
       </c>
       <c r="D818" s="10">
-        <v>6424.8974609375</v>
+        <v>3330.046875</v>
       </c>
     </row>
     <row r="819">
@@ -14683,7 +14683,7 @@
         <v>44313</v>
       </c>
       <c r="D819" s="11">
-        <v>6701.10302734375</v>
+        <v>7871.515625</v>
       </c>
     </row>
     <row r="820">
@@ -14697,7 +14697,7 @@
         <v>44314</v>
       </c>
       <c r="D820" s="10">
-        <v>9883.658203125</v>
+        <v>6533.20947265625</v>
       </c>
     </row>
     <row r="821">
@@ -14711,7 +14711,7 @@
         <v>44315</v>
       </c>
       <c r="D821" s="11">
-        <v>5006.1328125</v>
+        <v>5065.12841796875</v>
       </c>
     </row>
     <row r="822">
@@ -14725,7 +14725,7 @@
         <v>44316</v>
       </c>
       <c r="D822" s="10">
-        <v>3368.4443359375</v>
+        <v>6684.28369140625</v>
       </c>
     </row>
     <row r="823">
@@ -14739,7 +14739,7 @@
         <v>44317</v>
       </c>
       <c r="D823" s="11">
-        <v>8070.60888671875</v>
+        <v>3122.80224609375</v>
       </c>
     </row>
     <row r="824">
@@ -14753,7 +14753,7 @@
         <v>44318</v>
       </c>
       <c r="D824" s="10">
-        <v>842.7431640625</v>
+        <v>7984.67529296875</v>
       </c>
     </row>
     <row r="825">
@@ -14767,7 +14767,7 @@
         <v>44319</v>
       </c>
       <c r="D825" s="11">
-        <v>4781.07080078125</v>
+        <v>456.92169189453125</v>
       </c>
     </row>
     <row r="826">
@@ -14781,7 +14781,7 @@
         <v>44320</v>
       </c>
       <c r="D826" s="10">
-        <v>2009.2244873046875</v>
+        <v>1444.7603759765625</v>
       </c>
     </row>
     <row r="827">
@@ -14795,7 +14795,7 @@
         <v>44321</v>
       </c>
       <c r="D827" s="11">
-        <v>6319.341796875</v>
+        <v>6746.33154296875</v>
       </c>
     </row>
     <row r="828">
@@ -14809,7 +14809,7 @@
         <v>44322</v>
       </c>
       <c r="D828" s="10">
-        <v>8604.2265625</v>
+        <v>2395.00927734375</v>
       </c>
     </row>
     <row r="829">
@@ -14823,7 +14823,7 @@
         <v>44323</v>
       </c>
       <c r="D829" s="11">
-        <v>3941.48193359375</v>
+        <v>1671.7657470703125</v>
       </c>
     </row>
     <row r="830">
@@ -14837,7 +14837,7 @@
         <v>44324</v>
       </c>
       <c r="D830" s="10">
-        <v>6157.85400390625</v>
+        <v>608.06707763671875</v>
       </c>
     </row>
     <row r="831">
@@ -14851,7 +14851,7 @@
         <v>44325</v>
       </c>
       <c r="D831" s="11">
-        <v>6566.087890625</v>
+        <v>2634.11083984375</v>
       </c>
     </row>
     <row r="832">
@@ -14865,7 +14865,7 @@
         <v>44326</v>
       </c>
       <c r="D832" s="10">
-        <v>7937.2470703125</v>
+        <v>6592.3310546875</v>
       </c>
     </row>
     <row r="833">
@@ -14879,7 +14879,7 @@
         <v>44327</v>
       </c>
       <c r="D833" s="11">
-        <v>5662.85888671875</v>
+        <v>97.019943237304688</v>
       </c>
     </row>
     <row r="834">
@@ -14893,7 +14893,7 @@
         <v>44328</v>
       </c>
       <c r="D834" s="10">
-        <v>6813.8701171875</v>
+        <v>4909.92041015625</v>
       </c>
     </row>
     <row r="835">
@@ -14907,7 +14907,7 @@
         <v>44329</v>
       </c>
       <c r="D835" s="11">
-        <v>8511.0478515625</v>
+        <v>4426.84033203125</v>
       </c>
     </row>
     <row r="836">
@@ -14921,7 +14921,7 @@
         <v>44330</v>
       </c>
       <c r="D836" s="10">
-        <v>6819.07373046875</v>
+        <v>876.6654052734375</v>
       </c>
     </row>
     <row r="837">
@@ -14935,7 +14935,7 @@
         <v>44331</v>
       </c>
       <c r="D837" s="11">
-        <v>8193.7197265625</v>
+        <v>5708.8994140625</v>
       </c>
     </row>
     <row r="838">
@@ -14949,7 +14949,7 @@
         <v>44332</v>
       </c>
       <c r="D838" s="10">
-        <v>2379.927978515625</v>
+        <v>6551.7236328125</v>
       </c>
     </row>
     <row r="839">
@@ -14963,7 +14963,7 @@
         <v>44333</v>
       </c>
       <c r="D839" s="11">
-        <v>912.84661865234375</v>
+        <v>7693.42138671875</v>
       </c>
     </row>
     <row r="840">
@@ -14977,7 +14977,7 @@
         <v>44334</v>
       </c>
       <c r="D840" s="10">
-        <v>5735.3076171875</v>
+        <v>1894.598388671875</v>
       </c>
     </row>
     <row r="841">
@@ -14991,7 +14991,7 @@
         <v>44335</v>
       </c>
       <c r="D841" s="11">
-        <v>633.31591796875</v>
+        <v>600.99871826171875</v>
       </c>
     </row>
     <row r="842">
@@ -15005,7 +15005,7 @@
         <v>44336</v>
       </c>
       <c r="D842" s="10">
-        <v>9661.908203125</v>
+        <v>9399.5771484375</v>
       </c>
     </row>
     <row r="843">
@@ -15019,7 +15019,7 @@
         <v>44337</v>
       </c>
       <c r="D843" s="11">
-        <v>3965.17236328125</v>
+        <v>8227.9775390625</v>
       </c>
     </row>
     <row r="844">
@@ -15033,7 +15033,7 @@
         <v>44338</v>
       </c>
       <c r="D844" s="10">
-        <v>992.25054931640625</v>
+        <v>183.18731689453125</v>
       </c>
     </row>
     <row r="845">
@@ -15047,7 +15047,7 @@
         <v>44339</v>
       </c>
       <c r="D845" s="11">
-        <v>1811.8031005859375</v>
+        <v>1585.4134521484375</v>
       </c>
     </row>
     <row r="846">
@@ -15061,7 +15061,7 @@
         <v>44340</v>
       </c>
       <c r="D846" s="10">
-        <v>1772.0064697265625</v>
+        <v>2155.35498046875</v>
       </c>
     </row>
     <row r="847">
@@ -15075,7 +15075,7 @@
         <v>44341</v>
       </c>
       <c r="D847" s="11">
-        <v>5629.3193359375</v>
+        <v>4393.4462890625</v>
       </c>
     </row>
     <row r="848">
@@ -15089,7 +15089,7 @@
         <v>44342</v>
       </c>
       <c r="D848" s="10">
-        <v>8838.3486328125</v>
+        <v>4169.44970703125</v>
       </c>
     </row>
     <row r="849">
@@ -15103,7 +15103,7 @@
         <v>44343</v>
       </c>
       <c r="D849" s="11">
-        <v>3716.1982421875</v>
+        <v>5319.294921875</v>
       </c>
     </row>
     <row r="850">
@@ -15117,7 +15117,7 @@
         <v>44344</v>
       </c>
       <c r="D850" s="10">
-        <v>2739.63232421875</v>
+        <v>5832.08642578125</v>
       </c>
     </row>
     <row r="851">
@@ -15131,7 +15131,7 @@
         <v>44345</v>
       </c>
       <c r="D851" s="11">
-        <v>3855.218994140625</v>
+        <v>4760.8134765625</v>
       </c>
     </row>
     <row r="852">
@@ -15145,7 +15145,7 @@
         <v>44346</v>
       </c>
       <c r="D852" s="10">
-        <v>2869.58935546875</v>
+        <v>9743.5888671875</v>
       </c>
     </row>
     <row r="853">
@@ -15159,7 +15159,7 @@
         <v>44347</v>
       </c>
       <c r="D853" s="11">
-        <v>1807.555419921875</v>
+        <v>8336.3525390625</v>
       </c>
     </row>
     <row r="854">
@@ -15173,7 +15173,7 @@
         <v>44348</v>
       </c>
       <c r="D854" s="10">
-        <v>7963.23388671875</v>
+        <v>5350.11865234375</v>
       </c>
     </row>
     <row r="855">
@@ -15187,7 +15187,7 @@
         <v>44349</v>
       </c>
       <c r="D855" s="11">
-        <v>5350.9189453125</v>
+        <v>9831.728515625</v>
       </c>
     </row>
     <row r="856">
@@ -15201,7 +15201,7 @@
         <v>44350</v>
       </c>
       <c r="D856" s="10">
-        <v>1122.2884521484375</v>
+        <v>3755.775634765625</v>
       </c>
     </row>
     <row r="857">
@@ -15215,7 +15215,7 @@
         <v>44351</v>
       </c>
       <c r="D857" s="11">
-        <v>476.73898315429688</v>
+        <v>6260.1640625</v>
       </c>
     </row>
     <row r="858">
@@ -15229,7 +15229,7 @@
         <v>44352</v>
       </c>
       <c r="D858" s="10">
-        <v>6975.1650390625</v>
+        <v>998.24560546875</v>
       </c>
     </row>
     <row r="859">
@@ -15243,7 +15243,7 @@
         <v>44353</v>
       </c>
       <c r="D859" s="11">
-        <v>4738.150390625</v>
+        <v>2640.169189453125</v>
       </c>
     </row>
     <row r="860">
@@ -15257,7 +15257,7 @@
         <v>44354</v>
       </c>
       <c r="D860" s="10">
-        <v>1996.5072021484375</v>
+        <v>2423.2392578125</v>
       </c>
     </row>
     <row r="861">
@@ -15271,7 +15271,7 @@
         <v>44355</v>
       </c>
       <c r="D861" s="11">
-        <v>8383.001953125</v>
+        <v>2929.837890625</v>
       </c>
     </row>
     <row r="862">
@@ -15285,7 +15285,7 @@
         <v>44356</v>
       </c>
       <c r="D862" s="10">
-        <v>6723.10693359375</v>
+        <v>1049.629150390625</v>
       </c>
     </row>
     <row r="863">
@@ -15299,7 +15299,7 @@
         <v>44357</v>
       </c>
       <c r="D863" s="11">
-        <v>639.1763916015625</v>
+        <v>8815.4306640625</v>
       </c>
     </row>
     <row r="864">
@@ -15313,7 +15313,7 @@
         <v>44358</v>
       </c>
       <c r="D864" s="10">
-        <v>4907.73486328125</v>
+        <v>7730.63720703125</v>
       </c>
     </row>
     <row r="865">
@@ -15327,7 +15327,7 @@
         <v>44359</v>
       </c>
       <c r="D865" s="11">
-        <v>9023.11328125</v>
+        <v>7550.615234375</v>
       </c>
     </row>
     <row r="866">
@@ -15341,7 +15341,7 @@
         <v>44360</v>
       </c>
       <c r="D866" s="10">
-        <v>1391.1029052734375</v>
+        <v>9164.7626953125</v>
       </c>
     </row>
     <row r="867">
@@ -15355,7 +15355,7 @@
         <v>44361</v>
       </c>
       <c r="D867" s="11">
-        <v>5172.2158203125</v>
+        <v>7564.00146484375</v>
       </c>
     </row>
     <row r="868">
@@ -15369,7 +15369,7 @@
         <v>44362</v>
       </c>
       <c r="D868" s="10">
-        <v>5060.66259765625</v>
+        <v>2342.328369140625</v>
       </c>
     </row>
     <row r="869">
@@ -15383,7 +15383,7 @@
         <v>44363</v>
       </c>
       <c r="D869" s="11">
-        <v>7609.36865234375</v>
+        <v>9718.35546875</v>
       </c>
     </row>
     <row r="870">
@@ -15397,7 +15397,7 @@
         <v>44364</v>
       </c>
       <c r="D870" s="10">
-        <v>5413.7744140625</v>
+        <v>4997.2919921875</v>
       </c>
     </row>
     <row r="871">
@@ -15411,7 +15411,7 @@
         <v>44365</v>
       </c>
       <c r="D871" s="11">
-        <v>3985.884033203125</v>
+        <v>3943.052001953125</v>
       </c>
     </row>
     <row r="872">
@@ -15425,7 +15425,7 @@
         <v>44366</v>
       </c>
       <c r="D872" s="10">
-        <v>1554.0068359375</v>
+        <v>1634.523681640625</v>
       </c>
     </row>
     <row r="873">
@@ -15439,7 +15439,7 @@
         <v>44367</v>
       </c>
       <c r="D873" s="11">
-        <v>5512.05078125</v>
+        <v>5636.62548828125</v>
       </c>
     </row>
     <row r="874">
@@ -15453,7 +15453,7 @@
         <v>44368</v>
       </c>
       <c r="D874" s="10">
-        <v>965.7950439453125</v>
+        <v>5976.9169921875</v>
       </c>
     </row>
     <row r="875">
@@ -15467,7 +15467,7 @@
         <v>44369</v>
       </c>
       <c r="D875" s="11">
-        <v>9250.341796875</v>
+        <v>5932.2109375</v>
       </c>
     </row>
     <row r="876">
@@ -15481,7 +15481,7 @@
         <v>44370</v>
       </c>
       <c r="D876" s="10">
-        <v>5344.22509765625</v>
+        <v>5665.55126953125</v>
       </c>
     </row>
     <row r="877">
@@ -15495,7 +15495,7 @@
         <v>44371</v>
       </c>
       <c r="D877" s="11">
-        <v>9403.2724609375</v>
+        <v>8456.306640625</v>
       </c>
     </row>
     <row r="878">
@@ -15509,7 +15509,7 @@
         <v>44372</v>
       </c>
       <c r="D878" s="10">
-        <v>7078.3583984375</v>
+        <v>2939.614990234375</v>
       </c>
     </row>
     <row r="879">
@@ -15523,7 +15523,7 @@
         <v>44373</v>
       </c>
       <c r="D879" s="11">
-        <v>9030.9404296875</v>
+        <v>6399.26171875</v>
       </c>
     </row>
     <row r="880">
@@ -15537,7 +15537,7 @@
         <v>44374</v>
       </c>
       <c r="D880" s="10">
-        <v>3009.064208984375</v>
+        <v>8301.56640625</v>
       </c>
     </row>
     <row r="881">
@@ -15551,7 +15551,7 @@
         <v>44375</v>
       </c>
       <c r="D881" s="11">
-        <v>6379.9052734375</v>
+        <v>7051.31396484375</v>
       </c>
     </row>
     <row r="882">
@@ -15565,7 +15565,7 @@
         <v>44376</v>
       </c>
       <c r="D882" s="10">
-        <v>7480.9931640625</v>
+        <v>2576.8818359375</v>
       </c>
     </row>
     <row r="883">
@@ -15579,7 +15579,7 @@
         <v>44377</v>
       </c>
       <c r="D883" s="11">
-        <v>4888.02783203125</v>
+        <v>7075.71435546875</v>
       </c>
     </row>
     <row r="884">
@@ -15593,7 +15593,7 @@
         <v>44378</v>
       </c>
       <c r="D884" s="10">
-        <v>1201.849365234375</v>
+        <v>5839.67919921875</v>
       </c>
     </row>
     <row r="885">
@@ -15607,7 +15607,7 @@
         <v>44379</v>
       </c>
       <c r="D885" s="11">
-        <v>2302.634765625</v>
+        <v>5847.25341796875</v>
       </c>
     </row>
     <row r="886">
@@ -15621,7 +15621,7 @@
         <v>44380</v>
       </c>
       <c r="D886" s="10">
-        <v>3696.498779296875</v>
+        <v>2890.522216796875</v>
       </c>
     </row>
     <row r="887">
@@ -15635,7 +15635,7 @@
         <v>44381</v>
       </c>
       <c r="D887" s="11">
-        <v>6129.69140625</v>
+        <v>8255.978515625</v>
       </c>
     </row>
     <row r="888">
@@ -15649,7 +15649,7 @@
         <v>44382</v>
       </c>
       <c r="D888" s="10">
-        <v>7699.625</v>
+        <v>4746.9013671875</v>
       </c>
     </row>
     <row r="889">
@@ -15663,7 +15663,7 @@
         <v>44383</v>
       </c>
       <c r="D889" s="11">
-        <v>1462.9510498046875</v>
+        <v>5078.1923828125</v>
       </c>
     </row>
     <row r="890">
@@ -15677,7 +15677,7 @@
         <v>44384</v>
       </c>
       <c r="D890" s="10">
-        <v>7388.75927734375</v>
+        <v>671.06463623046875</v>
       </c>
     </row>
     <row r="891">
@@ -15691,7 +15691,7 @@
         <v>44385</v>
       </c>
       <c r="D891" s="11">
-        <v>6342.33447265625</v>
+        <v>4616.50146484375</v>
       </c>
     </row>
     <row r="892">
@@ -15705,7 +15705,7 @@
         <v>44386</v>
       </c>
       <c r="D892" s="10">
-        <v>1218.5552978515625</v>
+        <v>4710.65380859375</v>
       </c>
     </row>
     <row r="893">
@@ -15719,7 +15719,7 @@
         <v>44387</v>
       </c>
       <c r="D893" s="11">
-        <v>7641.77783203125</v>
+        <v>3911.55419921875</v>
       </c>
     </row>
     <row r="894">
@@ -15733,7 +15733,7 @@
         <v>44388</v>
       </c>
       <c r="D894" s="10">
-        <v>8916.33984375</v>
+        <v>5270.18212890625</v>
       </c>
     </row>
     <row r="895">
@@ -15747,7 +15747,7 @@
         <v>44389</v>
       </c>
       <c r="D895" s="11">
-        <v>7352.30615234375</v>
+        <v>8964.7607421875</v>
       </c>
     </row>
     <row r="896">
@@ -15761,7 +15761,7 @@
         <v>44390</v>
       </c>
       <c r="D896" s="10">
-        <v>3910.208984375</v>
+        <v>9551.369140625</v>
       </c>
     </row>
     <row r="897">
@@ -15775,7 +15775,7 @@
         <v>44391</v>
       </c>
       <c r="D897" s="11">
-        <v>9022.7314453125</v>
+        <v>584.1458740234375</v>
       </c>
     </row>
     <row r="898">
@@ -15789,7 +15789,7 @@
         <v>44392</v>
       </c>
       <c r="D898" s="10">
-        <v>9057.4375</v>
+        <v>497.33978271484375</v>
       </c>
     </row>
     <row r="899">
@@ -15803,7 +15803,7 @@
         <v>44393</v>
       </c>
       <c r="D899" s="11">
-        <v>1969.137451171875</v>
+        <v>2632.572021484375</v>
       </c>
     </row>
     <row r="900">
@@ -15817,7 +15817,7 @@
         <v>44394</v>
       </c>
       <c r="D900" s="10">
-        <v>420.7001953125</v>
+        <v>2420.65087890625</v>
       </c>
     </row>
     <row r="901">
@@ -15831,7 +15831,7 @@
         <v>44395</v>
       </c>
       <c r="D901" s="11">
-        <v>6599.79052734375</v>
+        <v>4591.353515625</v>
       </c>
     </row>
     <row r="902">
@@ -15845,7 +15845,7 @@
         <v>44396</v>
       </c>
       <c r="D902" s="10">
-        <v>568.65679931640625</v>
+        <v>2051.117919921875</v>
       </c>
     </row>
     <row r="903">
@@ -15859,7 +15859,7 @@
         <v>44397</v>
       </c>
       <c r="D903" s="11">
-        <v>1228.97998046875</v>
+        <v>4451.0947265625</v>
       </c>
     </row>
     <row r="904">
@@ -15873,7 +15873,7 @@
         <v>44398</v>
       </c>
       <c r="D904" s="10">
-        <v>8302.423828125</v>
+        <v>322.00302124023438</v>
       </c>
     </row>
     <row r="905">
@@ -15887,7 +15887,7 @@
         <v>44399</v>
       </c>
       <c r="D905" s="11">
-        <v>8753.748046875</v>
+        <v>1889.034423828125</v>
       </c>
     </row>
     <row r="906">
@@ -15901,7 +15901,7 @@
         <v>44400</v>
       </c>
       <c r="D906" s="10">
-        <v>2301.21240234375</v>
+        <v>3126.2900390625</v>
       </c>
     </row>
     <row r="907">
@@ -15915,7 +15915,7 @@
         <v>44401</v>
       </c>
       <c r="D907" s="11">
-        <v>7357.5380859375</v>
+        <v>4106.96337890625</v>
       </c>
     </row>
     <row r="908">
@@ -15929,7 +15929,7 @@
         <v>44402</v>
       </c>
       <c r="D908" s="10">
-        <v>841.76043701171875</v>
+        <v>2359.435302734375</v>
       </c>
     </row>
     <row r="909">
@@ -15943,7 +15943,7 @@
         <v>44403</v>
       </c>
       <c r="D909" s="11">
-        <v>8712.8916015625</v>
+        <v>9417.908203125</v>
       </c>
     </row>
     <row r="910">
@@ -15957,7 +15957,7 @@
         <v>44404</v>
       </c>
       <c r="D910" s="10">
-        <v>6.6935644149780273</v>
+        <v>4166.1767578125</v>
       </c>
     </row>
     <row r="911">
@@ -15971,7 +15971,7 @@
         <v>44405</v>
       </c>
       <c r="D911" s="11">
-        <v>1719.0164794921875</v>
+        <v>5299.46923828125</v>
       </c>
     </row>
     <row r="912">
@@ -15985,7 +15985,7 @@
         <v>44406</v>
       </c>
       <c r="D912" s="10">
-        <v>3398.380615234375</v>
+        <v>3320.549072265625</v>
       </c>
     </row>
     <row r="913">
@@ -15999,7 +15999,7 @@
         <v>44407</v>
       </c>
       <c r="D913" s="11">
-        <v>7944.224609375</v>
+        <v>4598.98388671875</v>
       </c>
     </row>
     <row r="914">
@@ -16013,7 +16013,7 @@
         <v>44408</v>
       </c>
       <c r="D914" s="10">
-        <v>1729.0859375</v>
+        <v>4338.6025390625</v>
       </c>
     </row>
     <row r="915">
@@ -16027,7 +16027,7 @@
         <v>44409</v>
       </c>
       <c r="D915" s="11">
-        <v>5616.60205078125</v>
+        <v>5371.92529296875</v>
       </c>
     </row>
     <row r="916">
@@ -16041,7 +16041,7 @@
         <v>44410</v>
       </c>
       <c r="D916" s="10">
-        <v>902.0086669921875</v>
+        <v>352.9560546875</v>
       </c>
     </row>
     <row r="917">
@@ -16055,7 +16055,7 @@
         <v>44411</v>
       </c>
       <c r="D917" s="11">
-        <v>1835.0789794921875</v>
+        <v>3973.914794921875</v>
       </c>
     </row>
     <row r="918">
@@ -16069,7 +16069,7 @@
         <v>44412</v>
       </c>
       <c r="D918" s="10">
-        <v>9437.3271484375</v>
+        <v>2975.75146484375</v>
       </c>
     </row>
     <row r="919">
@@ -16083,7 +16083,7 @@
         <v>44413</v>
       </c>
       <c r="D919" s="11">
-        <v>2605.10009765625</v>
+        <v>1883.3839111328125</v>
       </c>
     </row>
     <row r="920">
@@ -16097,7 +16097,7 @@
         <v>44414</v>
       </c>
       <c r="D920" s="10">
-        <v>5326.6142578125</v>
+        <v>4660.09326171875</v>
       </c>
     </row>
     <row r="921">
@@ -16111,7 +16111,7 @@
         <v>44415</v>
       </c>
       <c r="D921" s="11">
-        <v>5261.41162109375</v>
+        <v>908.7841796875</v>
       </c>
     </row>
     <row r="922">
@@ -16125,7 +16125,7 @@
         <v>44416</v>
       </c>
       <c r="D922" s="10">
-        <v>7472.5908203125</v>
+        <v>2817.10009765625</v>
       </c>
     </row>
     <row r="923">
@@ -16139,7 +16139,7 @@
         <v>44417</v>
       </c>
       <c r="D923" s="11">
-        <v>3597.71142578125</v>
+        <v>7264.13623046875</v>
       </c>
     </row>
     <row r="924">
@@ -16153,7 +16153,7 @@
         <v>44418</v>
       </c>
       <c r="D924" s="10">
-        <v>220.60971069335938</v>
+        <v>9047.291015625</v>
       </c>
     </row>
     <row r="925">
@@ -16167,7 +16167,7 @@
         <v>44419</v>
       </c>
       <c r="D925" s="11">
-        <v>9071.4404296875</v>
+        <v>380.79071044921875</v>
       </c>
     </row>
     <row r="926">
@@ -16181,7 +16181,7 @@
         <v>44420</v>
       </c>
       <c r="D926" s="10">
-        <v>2767.32861328125</v>
+        <v>9232.3984375</v>
       </c>
     </row>
     <row r="927">
@@ -16195,7 +16195,7 @@
         <v>44421</v>
       </c>
       <c r="D927" s="11">
-        <v>3912.22900390625</v>
+        <v>7722.96923828125</v>
       </c>
     </row>
     <row r="928">
@@ -16209,7 +16209,7 @@
         <v>44422</v>
       </c>
       <c r="D928" s="10">
-        <v>6595.71142578125</v>
+        <v>366.44332885742188</v>
       </c>
     </row>
     <row r="929">
@@ -16223,7 +16223,7 @@
         <v>44423</v>
       </c>
       <c r="D929" s="11">
-        <v>3613.489013671875</v>
+        <v>7012.15673828125</v>
       </c>
     </row>
     <row r="930">
@@ -16237,7 +16237,7 @@
         <v>44424</v>
       </c>
       <c r="D930" s="10">
-        <v>5340.13330078125</v>
+        <v>6380.84130859375</v>
       </c>
     </row>
     <row r="931">
@@ -16251,7 +16251,7 @@
         <v>44425</v>
       </c>
       <c r="D931" s="11">
-        <v>6321.49365234375</v>
+        <v>5081.40576171875</v>
       </c>
     </row>
     <row r="932">
@@ -16265,7 +16265,7 @@
         <v>44426</v>
       </c>
       <c r="D932" s="10">
-        <v>345.83453369140625</v>
+        <v>7958.966796875</v>
       </c>
     </row>
     <row r="933">
@@ -16279,7 +16279,7 @@
         <v>44427</v>
       </c>
       <c r="D933" s="11">
-        <v>5109.220703125</v>
+        <v>307.0430908203125</v>
       </c>
     </row>
     <row r="934">
@@ -16293,7 +16293,7 @@
         <v>44428</v>
       </c>
       <c r="D934" s="10">
-        <v>8610.240234375</v>
+        <v>3978.61083984375</v>
       </c>
     </row>
     <row r="935">
@@ -16307,7 +16307,7 @@
         <v>44429</v>
       </c>
       <c r="D935" s="11">
-        <v>6409.2734375</v>
+        <v>3710.212890625</v>
       </c>
     </row>
     <row r="936">
@@ -16321,7 +16321,7 @@
         <v>44430</v>
       </c>
       <c r="D936" s="10">
-        <v>5811.24853515625</v>
+        <v>5000.19580078125</v>
       </c>
     </row>
     <row r="937">
@@ -16335,7 +16335,7 @@
         <v>44431</v>
       </c>
       <c r="D937" s="11">
-        <v>6252.01318359375</v>
+        <v>8125.78759765625</v>
       </c>
     </row>
     <row r="938">
@@ -16349,7 +16349,7 @@
         <v>44432</v>
       </c>
       <c r="D938" s="10">
-        <v>6585.6044921875</v>
+        <v>6753.71142578125</v>
       </c>
     </row>
     <row r="939">
@@ -16363,7 +16363,7 @@
         <v>44433</v>
       </c>
       <c r="D939" s="11">
-        <v>2448.10107421875</v>
+        <v>3950.64501953125</v>
       </c>
     </row>
     <row r="940">
@@ -16377,7 +16377,7 @@
         <v>44434</v>
       </c>
       <c r="D940" s="10">
-        <v>1.4225766658782959</v>
+        <v>2720.96337890625</v>
       </c>
     </row>
     <row r="941">
@@ -16391,7 +16391,7 @@
         <v>44435</v>
       </c>
       <c r="D941" s="11">
-        <v>6338.96044921875</v>
+        <v>8783.55859375</v>
       </c>
     </row>
     <row r="942">
@@ -16405,7 +16405,7 @@
         <v>44436</v>
       </c>
       <c r="D942" s="10">
-        <v>5287.93115234375</v>
+        <v>5896.54296875</v>
       </c>
     </row>
     <row r="943">
@@ -16419,7 +16419,7 @@
         <v>44437</v>
       </c>
       <c r="D943" s="11">
-        <v>8986.732421875</v>
+        <v>5328.9931640625</v>
       </c>
     </row>
     <row r="944">
@@ -16433,7 +16433,7 @@
         <v>44438</v>
       </c>
       <c r="D944" s="10">
-        <v>1456.257568359375</v>
+        <v>912.015625</v>
       </c>
     </row>
     <row r="945">
@@ -16447,7 +16447,7 @@
         <v>44439</v>
       </c>
       <c r="D945" s="11">
-        <v>5669.74267578125</v>
+        <v>5371.59521484375</v>
       </c>
     </row>
     <row r="946">
@@ -16461,7 +16461,7 @@
         <v>44440</v>
       </c>
       <c r="D946" s="10">
-        <v>2943.953857421875</v>
+        <v>1295.9521484375</v>
       </c>
     </row>
     <row r="947">
@@ -16475,7 +16475,7 @@
         <v>44441</v>
       </c>
       <c r="D947" s="11">
-        <v>3274.33056640625</v>
+        <v>111.67000579833984</v>
       </c>
     </row>
     <row r="948">
@@ -16489,7 +16489,7 @@
         <v>44442</v>
       </c>
       <c r="D948" s="10">
-        <v>5912.69189453125</v>
+        <v>9572.9521484375</v>
       </c>
     </row>
     <row r="949">
@@ -16503,7 +16503,7 @@
         <v>44443</v>
       </c>
       <c r="D949" s="11">
-        <v>3299.7373046875</v>
+        <v>9898.2568359375</v>
       </c>
     </row>
     <row r="950">
@@ -16517,7 +16517,7 @@
         <v>44444</v>
       </c>
       <c r="D950" s="10">
-        <v>6450.29736328125</v>
+        <v>8611.8046875</v>
       </c>
     </row>
     <row r="951">
@@ -16531,7 +16531,7 @@
         <v>44445</v>
       </c>
       <c r="D951" s="11">
-        <v>2075.130126953125</v>
+        <v>5577.45458984375</v>
       </c>
     </row>
     <row r="952">
@@ -16545,7 +16545,7 @@
         <v>44446</v>
       </c>
       <c r="D952" s="10">
-        <v>9585.404296875</v>
+        <v>7608.39453125</v>
       </c>
     </row>
     <row r="953">
@@ -16559,7 +16559,7 @@
         <v>44447</v>
       </c>
       <c r="D953" s="11">
-        <v>6452.33740234375</v>
+        <v>8613.9560546875</v>
       </c>
     </row>
     <row r="954">
@@ -16573,7 +16573,7 @@
         <v>44448</v>
       </c>
       <c r="D954" s="10">
-        <v>6642.52294921875</v>
+        <v>7972.478515625</v>
       </c>
     </row>
     <row r="955">
@@ -16587,7 +16587,7 @@
         <v>44449</v>
       </c>
       <c r="D955" s="11">
-        <v>5159.28857421875</v>
+        <v>1511.86669921875</v>
       </c>
     </row>
     <row r="956">
@@ -16601,7 +16601,7 @@
         <v>44450</v>
       </c>
       <c r="D956" s="10">
-        <v>9127.19921875</v>
+        <v>1774.2535400390625</v>
       </c>
     </row>
     <row r="957">
@@ -16615,7 +16615,7 @@
         <v>44451</v>
       </c>
       <c r="D957" s="11">
-        <v>6970.9453125</v>
+        <v>4786.98193359375</v>
       </c>
     </row>
     <row r="958">
@@ -16629,7 +16629,7 @@
         <v>44452</v>
       </c>
       <c r="D958" s="10">
-        <v>1008.3703002929688</v>
+        <v>5403.80419921875</v>
       </c>
     </row>
     <row r="959">
@@ -16643,7 +16643,7 @@
         <v>44453</v>
       </c>
       <c r="D959" s="11">
-        <v>9230.9833984375</v>
+        <v>9941.2119140625</v>
       </c>
     </row>
     <row r="960">
@@ -16657,7 +16657,7 @@
         <v>44454</v>
       </c>
       <c r="D960" s="10">
-        <v>5986.41943359375</v>
+        <v>2656.63623046875</v>
       </c>
     </row>
     <row r="961">
@@ -16671,7 +16671,7 @@
         <v>44455</v>
       </c>
       <c r="D961" s="11">
-        <v>8388.9833984375</v>
+        <v>5403.32080078125</v>
       </c>
     </row>
     <row r="962">
@@ -16685,7 +16685,7 @@
         <v>44456</v>
       </c>
       <c r="D962" s="10">
-        <v>761.82666015625</v>
+        <v>3740.52001953125</v>
       </c>
     </row>
     <row r="963">
@@ -16699,7 +16699,7 @@
         <v>44457</v>
       </c>
       <c r="D963" s="11">
-        <v>7228.271484375</v>
+        <v>5347.2783203125</v>
       </c>
     </row>
     <row r="964">
@@ -16713,7 +16713,7 @@
         <v>44458</v>
       </c>
       <c r="D964" s="10">
-        <v>3372.7587890625</v>
+        <v>3037.066650390625</v>
       </c>
     </row>
     <row r="965">
@@ -16727,7 +16727,7 @@
         <v>44459</v>
       </c>
       <c r="D965" s="11">
-        <v>3685.19970703125</v>
+        <v>9084.7705078125</v>
       </c>
     </row>
     <row r="966">
@@ -16741,7 +16741,7 @@
         <v>44460</v>
       </c>
       <c r="D966" s="10">
-        <v>1373.1820068359375</v>
+        <v>7340.5029296875</v>
       </c>
     </row>
     <row r="967">
@@ -16755,7 +16755,7 @@
         <v>44461</v>
       </c>
       <c r="D967" s="11">
-        <v>8289.16015625</v>
+        <v>3013.506103515625</v>
       </c>
     </row>
     <row r="968">
@@ -16769,7 +16769,7 @@
         <v>44462</v>
       </c>
       <c r="D968" s="10">
-        <v>9333.9853515625</v>
+        <v>620.3729248046875</v>
       </c>
     </row>
     <row r="969">
@@ -16783,7 +16783,7 @@
         <v>44463</v>
       </c>
       <c r="D969" s="11">
-        <v>5319.8125</v>
+        <v>628.3896484375</v>
       </c>
     </row>
     <row r="970">
@@ -16797,7 +16797,7 @@
         <v>44464</v>
       </c>
       <c r="D970" s="10">
-        <v>9805.353515625</v>
+        <v>371.729248046875</v>
       </c>
     </row>
     <row r="971">
@@ -16811,7 +16811,7 @@
         <v>44465</v>
       </c>
       <c r="D971" s="11">
-        <v>4649.99560546875</v>
+        <v>2227.168701171875</v>
       </c>
     </row>
     <row r="972">
@@ -16825,7 +16825,7 @@
         <v>44466</v>
       </c>
       <c r="D972" s="10">
-        <v>5249.474609375</v>
+        <v>7220.20361328125</v>
       </c>
     </row>
     <row r="973">
@@ -16839,7 +16839,7 @@
         <v>44467</v>
       </c>
       <c r="D973" s="11">
-        <v>6989.22607421875</v>
+        <v>9025.1064453125</v>
       </c>
     </row>
     <row r="974">
@@ -16853,7 +16853,7 @@
         <v>44468</v>
       </c>
       <c r="D974" s="10">
-        <v>2603.677490234375</v>
+        <v>9162.4208984375</v>
       </c>
     </row>
     <row r="975">
@@ -16867,7 +16867,7 @@
         <v>44469</v>
       </c>
       <c r="D975" s="11">
-        <v>8987.654296875</v>
+        <v>5876.5341796875</v>
       </c>
     </row>
     <row r="976">
@@ -16881,7 +16881,7 @@
         <v>44470</v>
       </c>
       <c r="D976" s="10">
-        <v>9973.48046875</v>
+        <v>5012.2412109375</v>
       </c>
     </row>
     <row r="977">
@@ -16895,7 +16895,7 @@
         <v>44471</v>
       </c>
       <c r="D977" s="11">
-        <v>8485.8583984375</v>
+        <v>7488.10693359375</v>
       </c>
     </row>
     <row r="978">
@@ -16909,7 +16909,7 @@
         <v>44472</v>
       </c>
       <c r="D978" s="10">
-        <v>2141.453857421875</v>
+        <v>6352.12060546875</v>
       </c>
     </row>
     <row r="979">
@@ -16923,7 +16923,7 @@
         <v>44473</v>
       </c>
       <c r="D979" s="11">
-        <v>4550.8671875</v>
+        <v>3675.6953125</v>
       </c>
     </row>
     <row r="980">
@@ -16937,7 +16937,7 @@
         <v>44474</v>
       </c>
       <c r="D980" s="10">
-        <v>6127.48583984375</v>
+        <v>9084.8388671875</v>
       </c>
     </row>
     <row r="981">
@@ -16951,7 +16951,7 @@
         <v>44475</v>
       </c>
       <c r="D981" s="11">
-        <v>9492.998046875</v>
+        <v>9120.728515625</v>
       </c>
     </row>
     <row r="982">
@@ -16965,7 +16965,7 @@
         <v>44476</v>
       </c>
       <c r="D982" s="10">
-        <v>7999.537109375</v>
+        <v>8150.017578125</v>
       </c>
     </row>
     <row r="983">
@@ -16979,7 +16979,7 @@
         <v>44477</v>
       </c>
       <c r="D983" s="11">
-        <v>3295.974365234375</v>
+        <v>468.18643188476562</v>
       </c>
     </row>
     <row r="984">
@@ -16993,7 +16993,7 @@
         <v>44478</v>
       </c>
       <c r="D984" s="10">
-        <v>7163.19189453125</v>
+        <v>8400.3525390625</v>
       </c>
     </row>
     <row r="985">
@@ -17007,7 +17007,7 @@
         <v>44479</v>
       </c>
       <c r="D985" s="11">
-        <v>3265.0029296875</v>
+        <v>803.38653564453125</v>
       </c>
     </row>
     <row r="986">
@@ -17021,7 +17021,7 @@
         <v>44480</v>
       </c>
       <c r="D986" s="10">
-        <v>6736.08935546875</v>
+        <v>7473.01123046875</v>
       </c>
     </row>
     <row r="987">
@@ -17035,7 +17035,7 @@
         <v>44481</v>
       </c>
       <c r="D987" s="11">
-        <v>3893.4970703125</v>
+        <v>9345.0107421875</v>
       </c>
     </row>
     <row r="988">
@@ -17049,7 +17049,7 @@
         <v>44482</v>
       </c>
       <c r="D988" s="10">
-        <v>8466.6982421875</v>
+        <v>2334.564453125</v>
       </c>
     </row>
     <row r="989">
@@ -17063,7 +17063,7 @@
         <v>44483</v>
       </c>
       <c r="D989" s="11">
-        <v>3450.951171875</v>
+        <v>2466.744140625</v>
       </c>
     </row>
     <row r="990">
@@ -17077,7 +17077,7 @@
         <v>44484</v>
       </c>
       <c r="D990" s="10">
-        <v>7282.07421875</v>
+        <v>1935.95947265625</v>
       </c>
     </row>
     <row r="991">
@@ -17091,7 +17091,7 @@
         <v>44485</v>
       </c>
       <c r="D991" s="11">
-        <v>8840.302734375</v>
+        <v>213.21400451660156</v>
       </c>
     </row>
     <row r="992">
@@ -17105,7 +17105,7 @@
         <v>44486</v>
       </c>
       <c r="D992" s="10">
-        <v>5243.64306640625</v>
+        <v>2721.9833984375</v>
       </c>
     </row>
     <row r="993">
@@ -17119,7 +17119,7 @@
         <v>44487</v>
       </c>
       <c r="D993" s="11">
-        <v>7354.62060546875</v>
+        <v>6812.4990234375</v>
       </c>
     </row>
     <row r="994">
@@ -17133,7 +17133,7 @@
         <v>44488</v>
       </c>
       <c r="D994" s="10">
-        <v>6461.68115234375</v>
+        <v>1294.0086669921875</v>
       </c>
     </row>
     <row r="995">
@@ -17147,7 +17147,7 @@
         <v>44489</v>
       </c>
       <c r="D995" s="11">
-        <v>1612.439208984375</v>
+        <v>7317.642578125</v>
       </c>
     </row>
     <row r="996">
@@ -17161,7 +17161,7 @@
         <v>44490</v>
       </c>
       <c r="D996" s="10">
-        <v>5577.1337890625</v>
+        <v>5043.0390625</v>
       </c>
     </row>
     <row r="997">
@@ -17175,7 +17175,7 @@
         <v>44491</v>
       </c>
       <c r="D997" s="11">
-        <v>8059.65966796875</v>
+        <v>549.26470947265625</v>
       </c>
     </row>
     <row r="998">
@@ -17189,7 +17189,7 @@
         <v>44492</v>
       </c>
       <c r="D998" s="10">
-        <v>5613.97412109375</v>
+        <v>2291.926513671875</v>
       </c>
     </row>
     <row r="999">
@@ -17203,7 +17203,7 @@
         <v>44493</v>
       </c>
       <c r="D999" s="11">
-        <v>7771.0576171875</v>
+        <v>1827.24462890625</v>
       </c>
     </row>
     <row r="1000">
@@ -17217,7 +17217,7 @@
         <v>44494</v>
       </c>
       <c r="D1000" s="10">
-        <v>4296.560546875</v>
+        <v>8031.0927734375</v>
       </c>
     </row>
     <row r="1001">
@@ -17231,7 +17231,7 @@
         <v>44495</v>
       </c>
       <c r="D1001" s="11">
-        <v>4654.79443359375</v>
+        <v>8282.4462890625</v>
       </c>
     </row>
     <row r="1002">

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample07-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample07-from-config-file.xlsx
@@ -3245,7 +3245,7 @@
         <v>43498</v>
       </c>
       <c r="D2" s="10">
-        <v>3260.976806640625</v>
+        <v>3385.79638671875</v>
       </c>
     </row>
     <row r="3">
@@ -3259,7 +3259,7 @@
         <v>43499</v>
       </c>
       <c r="D3" s="11">
-        <v>5880.916015625</v>
+        <v>3306.17822265625</v>
       </c>
     </row>
     <row r="4">
@@ -3273,7 +3273,7 @@
         <v>43500</v>
       </c>
       <c r="D4" s="10">
-        <v>9262.3056640625</v>
+        <v>7688.4716796875</v>
       </c>
     </row>
     <row r="5">
@@ -3287,7 +3287,7 @@
         <v>43501</v>
       </c>
       <c r="D5" s="11">
-        <v>6730.3837890625</v>
+        <v>8594.2529296875</v>
       </c>
     </row>
     <row r="6">
@@ -3301,7 +3301,7 @@
         <v>43502</v>
       </c>
       <c r="D6" s="10">
-        <v>1499.6817626953125</v>
+        <v>4191.30419921875</v>
       </c>
     </row>
     <row r="7">
@@ -3315,7 +3315,7 @@
         <v>43503</v>
       </c>
       <c r="D7" s="11">
-        <v>2688.3466796875</v>
+        <v>6014.3359375</v>
       </c>
     </row>
     <row r="8">
@@ -3329,7 +3329,7 @@
         <v>43504</v>
       </c>
       <c r="D8" s="10">
-        <v>1907.0416259765625</v>
+        <v>6707.37939453125</v>
       </c>
     </row>
     <row r="9">
@@ -3343,7 +3343,7 @@
         <v>43505</v>
       </c>
       <c r="D9" s="11">
-        <v>6336.79345703125</v>
+        <v>709.04351806640625</v>
       </c>
     </row>
     <row r="10">
@@ -3357,7 +3357,7 @@
         <v>43506</v>
       </c>
       <c r="D10" s="10">
-        <v>6181.88818359375</v>
+        <v>9433.025390625</v>
       </c>
     </row>
     <row r="11">
@@ -3371,7 +3371,7 @@
         <v>43507</v>
       </c>
       <c r="D11" s="11">
-        <v>2242.8544921875</v>
+        <v>3351.990478515625</v>
       </c>
     </row>
     <row r="12">
@@ -3385,7 +3385,7 @@
         <v>43508</v>
       </c>
       <c r="D12" s="10">
-        <v>442.4769287109375</v>
+        <v>5240.58447265625</v>
       </c>
     </row>
     <row r="13">
@@ -3399,7 +3399,7 @@
         <v>43509</v>
       </c>
       <c r="D13" s="11">
-        <v>3681.345947265625</v>
+        <v>2777.3876953125</v>
       </c>
     </row>
     <row r="14">
@@ -3413,7 +3413,7 @@
         <v>43510</v>
       </c>
       <c r="D14" s="10">
-        <v>6641.2060546875</v>
+        <v>6736.21484375</v>
       </c>
     </row>
     <row r="15">
@@ -3427,7 +3427,7 @@
         <v>43511</v>
       </c>
       <c r="D15" s="11">
-        <v>4855.57861328125</v>
+        <v>6621.6650390625</v>
       </c>
     </row>
     <row r="16">
@@ -3441,7 +3441,7 @@
         <v>43512</v>
       </c>
       <c r="D16" s="10">
-        <v>516.198974609375</v>
+        <v>8637.3095703125</v>
       </c>
     </row>
     <row r="17">
@@ -3455,7 +3455,7 @@
         <v>43513</v>
       </c>
       <c r="D17" s="11">
-        <v>5735.28759765625</v>
+        <v>2566.318359375</v>
       </c>
     </row>
     <row r="18">
@@ -3469,7 +3469,7 @@
         <v>43514</v>
       </c>
       <c r="D18" s="10">
-        <v>2496.073974609375</v>
+        <v>5552.23486328125</v>
       </c>
     </row>
     <row r="19">
@@ -3483,7 +3483,7 @@
         <v>43515</v>
       </c>
       <c r="D19" s="11">
-        <v>1938.7652587890625</v>
+        <v>4943.8505859375</v>
       </c>
     </row>
     <row r="20">
@@ -3497,7 +3497,7 @@
         <v>43516</v>
       </c>
       <c r="D20" s="10">
-        <v>2896.60205078125</v>
+        <v>7558.150390625</v>
       </c>
     </row>
     <row r="21">
@@ -3511,7 +3511,7 @@
         <v>43517</v>
       </c>
       <c r="D21" s="11">
-        <v>6952.8896484375</v>
+        <v>3818.647216796875</v>
       </c>
     </row>
     <row r="22">
@@ -3525,7 +3525,7 @@
         <v>43518</v>
       </c>
       <c r="D22" s="10">
-        <v>4873.244140625</v>
+        <v>4333.4384765625</v>
       </c>
     </row>
     <row r="23">
@@ -3539,7 +3539,7 @@
         <v>43519</v>
       </c>
       <c r="D23" s="11">
-        <v>8525.1806640625</v>
+        <v>673.36395263671875</v>
       </c>
     </row>
     <row r="24">
@@ -3553,7 +3553,7 @@
         <v>43520</v>
       </c>
       <c r="D24" s="10">
-        <v>2954.01708984375</v>
+        <v>9967.173828125</v>
       </c>
     </row>
     <row r="25">
@@ -3567,7 +3567,7 @@
         <v>43521</v>
       </c>
       <c r="D25" s="11">
-        <v>9049.392578125</v>
+        <v>3647.6328125</v>
       </c>
     </row>
     <row r="26">
@@ -3581,7 +3581,7 @@
         <v>43522</v>
       </c>
       <c r="D26" s="10">
-        <v>9753.619140625</v>
+        <v>3322.673828125</v>
       </c>
     </row>
     <row r="27">
@@ -3595,7 +3595,7 @@
         <v>43523</v>
       </c>
       <c r="D27" s="11">
-        <v>3523.96142578125</v>
+        <v>9284.2685546875</v>
       </c>
     </row>
     <row r="28">
@@ -3609,7 +3609,7 @@
         <v>43524</v>
       </c>
       <c r="D28" s="10">
-        <v>2144.615966796875</v>
+        <v>7167.5078125</v>
       </c>
     </row>
     <row r="29">
@@ -3623,7 +3623,7 @@
         <v>43525</v>
       </c>
       <c r="D29" s="11">
-        <v>519.47735595703125</v>
+        <v>3419.3427734375</v>
       </c>
     </row>
     <row r="30">
@@ -3637,7 +3637,7 @@
         <v>43526</v>
       </c>
       <c r="D30" s="10">
-        <v>7612.22412109375</v>
+        <v>1984.2603759765625</v>
       </c>
     </row>
     <row r="31">
@@ -3651,7 +3651,7 @@
         <v>43527</v>
       </c>
       <c r="D31" s="11">
-        <v>4090.193359375</v>
+        <v>8797.6826171875</v>
       </c>
     </row>
     <row r="32">
@@ -3665,7 +3665,7 @@
         <v>43528</v>
       </c>
       <c r="D32" s="10">
-        <v>2496.271240234375</v>
+        <v>5089.0126953125</v>
       </c>
     </row>
     <row r="33">
@@ -3679,7 +3679,7 @@
         <v>43529</v>
       </c>
       <c r="D33" s="11">
-        <v>5914.54296875</v>
+        <v>645.24462890625</v>
       </c>
     </row>
     <row r="34">
@@ -3693,7 +3693,7 @@
         <v>43530</v>
       </c>
       <c r="D34" s="10">
-        <v>5836.00146484375</v>
+        <v>810.56585693359375</v>
       </c>
     </row>
     <row r="35">
@@ -3707,7 +3707,7 @@
         <v>43531</v>
       </c>
       <c r="D35" s="11">
-        <v>9407.3125</v>
+        <v>6708.66552734375</v>
       </c>
     </row>
     <row r="36">
@@ -3721,7 +3721,7 @@
         <v>43532</v>
       </c>
       <c r="D36" s="10">
-        <v>6872.482421875</v>
+        <v>7800.15966796875</v>
       </c>
     </row>
     <row r="37">
@@ -3735,7 +3735,7 @@
         <v>43533</v>
       </c>
       <c r="D37" s="11">
-        <v>2188.89794921875</v>
+        <v>2621.727294921875</v>
       </c>
     </row>
     <row r="38">
@@ -3749,7 +3749,7 @@
         <v>43534</v>
       </c>
       <c r="D38" s="10">
-        <v>2609.38427734375</v>
+        <v>3859.29541015625</v>
       </c>
     </row>
     <row r="39">
@@ -3763,7 +3763,7 @@
         <v>43535</v>
       </c>
       <c r="D39" s="11">
-        <v>2036.1075439453125</v>
+        <v>2197.739013671875</v>
       </c>
     </row>
     <row r="40">
@@ -3777,7 +3777,7 @@
         <v>43536</v>
       </c>
       <c r="D40" s="10">
-        <v>3768.32861328125</v>
+        <v>2882.912353515625</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>43537</v>
       </c>
       <c r="D41" s="11">
-        <v>5484.4091796875</v>
+        <v>5085.78759765625</v>
       </c>
     </row>
     <row r="42">
@@ -3805,7 +3805,7 @@
         <v>43538</v>
       </c>
       <c r="D42" s="10">
-        <v>9017.0732421875</v>
+        <v>3186.6943359375</v>
       </c>
     </row>
     <row r="43">
@@ -3819,7 +3819,7 @@
         <v>43539</v>
       </c>
       <c r="D43" s="11">
-        <v>5745.93896484375</v>
+        <v>9875.466796875</v>
       </c>
     </row>
     <row r="44">
@@ -3833,7 +3833,7 @@
         <v>43540</v>
       </c>
       <c r="D44" s="10">
-        <v>8195.37109375</v>
+        <v>4716.30615234375</v>
       </c>
     </row>
     <row r="45">
@@ -3847,7 +3847,7 @@
         <v>43541</v>
       </c>
       <c r="D45" s="11">
-        <v>7135.83740234375</v>
+        <v>864.9686279296875</v>
       </c>
     </row>
     <row r="46">
@@ -3861,7 +3861,7 @@
         <v>43542</v>
       </c>
       <c r="D46" s="10">
-        <v>9445.4443359375</v>
+        <v>246.57374572753906</v>
       </c>
     </row>
     <row r="47">
@@ -3875,7 +3875,7 @@
         <v>43543</v>
       </c>
       <c r="D47" s="11">
-        <v>7946.62890625</v>
+        <v>4212.20263671875</v>
       </c>
     </row>
     <row r="48">
@@ -3889,7 +3889,7 @@
         <v>43544</v>
       </c>
       <c r="D48" s="10">
-        <v>6552.2666015625</v>
+        <v>3424.852783203125</v>
       </c>
     </row>
     <row r="49">
@@ -3903,7 +3903,7 @@
         <v>43545</v>
       </c>
       <c r="D49" s="11">
-        <v>972.00665283203125</v>
+        <v>1374.032958984375</v>
       </c>
     </row>
     <row r="50">
@@ -3917,7 +3917,7 @@
         <v>43546</v>
       </c>
       <c r="D50" s="10">
-        <v>9103.0166015625</v>
+        <v>430.24966430664062</v>
       </c>
     </row>
     <row r="51">
@@ -3931,7 +3931,7 @@
         <v>43547</v>
       </c>
       <c r="D51" s="11">
-        <v>9984.705078125</v>
+        <v>3425.08349609375</v>
       </c>
     </row>
     <row r="52">
@@ -3945,7 +3945,7 @@
         <v>43548</v>
       </c>
       <c r="D52" s="10">
-        <v>6522.79931640625</v>
+        <v>8007.427734375</v>
       </c>
     </row>
     <row r="53">
@@ -3959,7 +3959,7 @@
         <v>43549</v>
       </c>
       <c r="D53" s="11">
-        <v>5842.65966796875</v>
+        <v>3144.17578125</v>
       </c>
     </row>
     <row r="54">
@@ -3973,7 +3973,7 @@
         <v>43550</v>
       </c>
       <c r="D54" s="10">
-        <v>8988.84765625</v>
+        <v>6599.919921875</v>
       </c>
     </row>
     <row r="55">
@@ -3987,7 +3987,7 @@
         <v>43551</v>
       </c>
       <c r="D55" s="11">
-        <v>8139.24951171875</v>
+        <v>9114.1806640625</v>
       </c>
     </row>
     <row r="56">
@@ -4001,7 +4001,7 @@
         <v>43552</v>
       </c>
       <c r="D56" s="10">
-        <v>5613.66650390625</v>
+        <v>5896.7919921875</v>
       </c>
     </row>
     <row r="57">
@@ -4015,7 +4015,7 @@
         <v>43553</v>
       </c>
       <c r="D57" s="11">
-        <v>4735.79638671875</v>
+        <v>2712.432373046875</v>
       </c>
     </row>
     <row r="58">
@@ -4029,7 +4029,7 @@
         <v>43554</v>
       </c>
       <c r="D58" s="10">
-        <v>2926.89892578125</v>
+        <v>3339.00439453125</v>
       </c>
     </row>
     <row r="59">
@@ -4043,7 +4043,7 @@
         <v>43555</v>
       </c>
       <c r="D59" s="11">
-        <v>212.91255187988281</v>
+        <v>4040.838623046875</v>
       </c>
     </row>
     <row r="60">
@@ -4057,7 +4057,7 @@
         <v>43556</v>
       </c>
       <c r="D60" s="10">
-        <v>6976.7646484375</v>
+        <v>5271.5791015625</v>
       </c>
     </row>
     <row r="61">
@@ -4071,7 +4071,7 @@
         <v>43557</v>
       </c>
       <c r="D61" s="11">
-        <v>7975.72021484375</v>
+        <v>4907.03564453125</v>
       </c>
     </row>
     <row r="62">
@@ -4085,7 +4085,7 @@
         <v>43558</v>
       </c>
       <c r="D62" s="10">
-        <v>543.73065185546875</v>
+        <v>8846.828125</v>
       </c>
     </row>
     <row r="63">
@@ -4099,7 +4099,7 @@
         <v>43559</v>
       </c>
       <c r="D63" s="11">
-        <v>1387.5643310546875</v>
+        <v>3288.036376953125</v>
       </c>
     </row>
     <row r="64">
@@ -4113,7 +4113,7 @@
         <v>43560</v>
       </c>
       <c r="D64" s="10">
-        <v>8724.5693359375</v>
+        <v>8724.783203125</v>
       </c>
     </row>
     <row r="65">
@@ -4127,7 +4127,7 @@
         <v>43561</v>
       </c>
       <c r="D65" s="11">
-        <v>2091.69482421875</v>
+        <v>635.3427734375</v>
       </c>
     </row>
     <row r="66">
@@ -4141,7 +4141,7 @@
         <v>43562</v>
       </c>
       <c r="D66" s="10">
-        <v>9746.5830078125</v>
+        <v>8262.9775390625</v>
       </c>
     </row>
     <row r="67">
@@ -4155,7 +4155,7 @@
         <v>43563</v>
       </c>
       <c r="D67" s="11">
-        <v>4527.93408203125</v>
+        <v>4595.33984375</v>
       </c>
     </row>
     <row r="68">
@@ -4169,7 +4169,7 @@
         <v>43564</v>
       </c>
       <c r="D68" s="10">
-        <v>7845.34423828125</v>
+        <v>1966.82177734375</v>
       </c>
     </row>
     <row r="69">
@@ -4183,7 +4183,7 @@
         <v>43565</v>
       </c>
       <c r="D69" s="11">
-        <v>7233.89404296875</v>
+        <v>27.549089431762695</v>
       </c>
     </row>
     <row r="70">
@@ -4197,7 +4197,7 @@
         <v>43566</v>
       </c>
       <c r="D70" s="10">
-        <v>7983.09619140625</v>
+        <v>8821.505859375</v>
       </c>
     </row>
     <row r="71">
@@ -4211,7 +4211,7 @@
         <v>43567</v>
       </c>
       <c r="D71" s="11">
-        <v>8327.30078125</v>
+        <v>6015.58203125</v>
       </c>
     </row>
     <row r="72">
@@ -4225,7 +4225,7 @@
         <v>43568</v>
       </c>
       <c r="D72" s="10">
-        <v>3125.9033203125</v>
+        <v>8707.0234375</v>
       </c>
     </row>
     <row r="73">
@@ -4239,7 +4239,7 @@
         <v>43569</v>
       </c>
       <c r="D73" s="11">
-        <v>459.96633911132812</v>
+        <v>3354.495849609375</v>
       </c>
     </row>
     <row r="74">
@@ -4253,7 +4253,7 @@
         <v>43570</v>
       </c>
       <c r="D74" s="10">
-        <v>8170.4365234375</v>
+        <v>2060.938232421875</v>
       </c>
     </row>
     <row r="75">
@@ -4267,7 +4267,7 @@
         <v>43571</v>
       </c>
       <c r="D75" s="11">
-        <v>7412.19287109375</v>
+        <v>2472.36328125</v>
       </c>
     </row>
     <row r="76">
@@ -4281,7 +4281,7 @@
         <v>43572</v>
       </c>
       <c r="D76" s="10">
-        <v>7935.81640625</v>
+        <v>631.95269775390625</v>
       </c>
     </row>
     <row r="77">
@@ -4295,7 +4295,7 @@
         <v>43573</v>
       </c>
       <c r="D77" s="11">
-        <v>9127.3056640625</v>
+        <v>4457.9716796875</v>
       </c>
     </row>
     <row r="78">
@@ -4309,7 +4309,7 @@
         <v>43574</v>
       </c>
       <c r="D78" s="10">
-        <v>329.80908203125</v>
+        <v>5957.05810546875</v>
       </c>
     </row>
     <row r="79">
@@ -4323,7 +4323,7 @@
         <v>43575</v>
       </c>
       <c r="D79" s="11">
-        <v>5818.1796875</v>
+        <v>9102.205078125</v>
       </c>
     </row>
     <row r="80">
@@ -4337,7 +4337,7 @@
         <v>43576</v>
       </c>
       <c r="D80" s="10">
-        <v>9603.94921875</v>
+        <v>3401.05908203125</v>
       </c>
     </row>
     <row r="81">
@@ -4351,7 +4351,7 @@
         <v>43577</v>
       </c>
       <c r="D81" s="11">
-        <v>1806.990234375</v>
+        <v>9110.4716796875</v>
       </c>
     </row>
     <row r="82">
@@ -4365,7 +4365,7 @@
         <v>43578</v>
       </c>
       <c r="D82" s="10">
-        <v>6971.69482421875</v>
+        <v>5859.416015625</v>
       </c>
     </row>
     <row r="83">
@@ -4379,7 +4379,7 @@
         <v>43579</v>
       </c>
       <c r="D83" s="11">
-        <v>1172.609375</v>
+        <v>5793.47509765625</v>
       </c>
     </row>
     <row r="84">
@@ -4393,7 +4393,7 @@
         <v>43580</v>
       </c>
       <c r="D84" s="10">
-        <v>1416.461181640625</v>
+        <v>2989.093017578125</v>
       </c>
     </row>
     <row r="85">
@@ -4407,7 +4407,7 @@
         <v>43581</v>
       </c>
       <c r="D85" s="11">
-        <v>7627.51904296875</v>
+        <v>8559.1767578125</v>
       </c>
     </row>
     <row r="86">
@@ -4421,7 +4421,7 @@
         <v>43582</v>
       </c>
       <c r="D86" s="10">
-        <v>7567.39404296875</v>
+        <v>790.2547607421875</v>
       </c>
     </row>
     <row r="87">
@@ -4435,7 +4435,7 @@
         <v>43583</v>
       </c>
       <c r="D87" s="11">
-        <v>6653.61181640625</v>
+        <v>1944.8370361328125</v>
       </c>
     </row>
     <row r="88">
@@ -4449,7 +4449,7 @@
         <v>43584</v>
       </c>
       <c r="D88" s="10">
-        <v>6925.6953125</v>
+        <v>4045.324462890625</v>
       </c>
     </row>
     <row r="89">
@@ -4463,7 +4463,7 @@
         <v>43585</v>
       </c>
       <c r="D89" s="11">
-        <v>7696.751953125</v>
+        <v>1696.3851318359375</v>
       </c>
     </row>
     <row r="90">
@@ -4477,7 +4477,7 @@
         <v>43586</v>
       </c>
       <c r="D90" s="10">
-        <v>3793.645751953125</v>
+        <v>811.8739013671875</v>
       </c>
     </row>
     <row r="91">
@@ -4491,7 +4491,7 @@
         <v>43587</v>
       </c>
       <c r="D91" s="11">
-        <v>2136.685791015625</v>
+        <v>5087.72705078125</v>
       </c>
     </row>
     <row r="92">
@@ -4505,7 +4505,7 @@
         <v>43588</v>
       </c>
       <c r="D92" s="10">
-        <v>9261.9990234375</v>
+        <v>9282.72265625</v>
       </c>
     </row>
     <row r="93">
@@ -4519,7 +4519,7 @@
         <v>43589</v>
       </c>
       <c r="D93" s="11">
-        <v>2396.471923828125</v>
+        <v>9818.45703125</v>
       </c>
     </row>
     <row r="94">
@@ -4533,7 +4533,7 @@
         <v>43590</v>
       </c>
       <c r="D94" s="10">
-        <v>5059.3427734375</v>
+        <v>6926.15966796875</v>
       </c>
     </row>
     <row r="95">
@@ -4547,7 +4547,7 @@
         <v>43591</v>
       </c>
       <c r="D95" s="11">
-        <v>5792.6083984375</v>
+        <v>7975.876953125</v>
       </c>
     </row>
     <row r="96">
@@ -4561,7 +4561,7 @@
         <v>43592</v>
       </c>
       <c r="D96" s="10">
-        <v>4940.67822265625</v>
+        <v>6238.95947265625</v>
       </c>
     </row>
     <row r="97">
@@ -4575,7 +4575,7 @@
         <v>43593</v>
       </c>
       <c r="D97" s="11">
-        <v>7629.50927734375</v>
+        <v>9898.658203125</v>
       </c>
     </row>
     <row r="98">
@@ -4589,7 +4589,7 @@
         <v>43594</v>
       </c>
       <c r="D98" s="10">
-        <v>7021.369140625</v>
+        <v>1150.6839599609375</v>
       </c>
     </row>
     <row r="99">
@@ -4603,7 +4603,7 @@
         <v>43595</v>
       </c>
       <c r="D99" s="11">
-        <v>6103.67626953125</v>
+        <v>4080.96337890625</v>
       </c>
     </row>
     <row r="100">
@@ -4617,7 +4617,7 @@
         <v>43596</v>
       </c>
       <c r="D100" s="10">
-        <v>7389.25439453125</v>
+        <v>2601.990966796875</v>
       </c>
     </row>
     <row r="101">
@@ -4631,7 +4631,7 @@
         <v>43597</v>
       </c>
       <c r="D101" s="11">
-        <v>4917.51025390625</v>
+        <v>5651.23388671875</v>
       </c>
     </row>
     <row r="102">
@@ -4645,7 +4645,7 @@
         <v>43598</v>
       </c>
       <c r="D102" s="10">
-        <v>101.28456878662109</v>
+        <v>2245.380859375</v>
       </c>
     </row>
     <row r="103">
@@ -4659,7 +4659,7 @@
         <v>43599</v>
       </c>
       <c r="D103" s="11">
-        <v>9318.373046875</v>
+        <v>3397.303466796875</v>
       </c>
     </row>
     <row r="104">
@@ -4673,7 +4673,7 @@
         <v>43600</v>
       </c>
       <c r="D104" s="10">
-        <v>2988.910400390625</v>
+        <v>2552.527587890625</v>
       </c>
     </row>
     <row r="105">
@@ -4687,7 +4687,7 @@
         <v>43601</v>
       </c>
       <c r="D105" s="11">
-        <v>775.71502685546875</v>
+        <v>4414.66748046875</v>
       </c>
     </row>
     <row r="106">
@@ -4701,7 +4701,7 @@
         <v>43602</v>
       </c>
       <c r="D106" s="10">
-        <v>6858.8017578125</v>
+        <v>4718.060546875</v>
       </c>
     </row>
     <row r="107">
@@ -4715,7 +4715,7 @@
         <v>43603</v>
       </c>
       <c r="D107" s="11">
-        <v>6062.8330078125</v>
+        <v>4652.931640625</v>
       </c>
     </row>
     <row r="108">
@@ -4729,7 +4729,7 @@
         <v>43604</v>
       </c>
       <c r="D108" s="10">
-        <v>7672.22314453125</v>
+        <v>1083.237548828125</v>
       </c>
     </row>
     <row r="109">
@@ -4743,7 +4743,7 @@
         <v>43605</v>
       </c>
       <c r="D109" s="11">
-        <v>1576.654541015625</v>
+        <v>4127.55712890625</v>
       </c>
     </row>
     <row r="110">
@@ -4757,7 +4757,7 @@
         <v>43606</v>
       </c>
       <c r="D110" s="10">
-        <v>203.43321228027344</v>
+        <v>8482.2275390625</v>
       </c>
     </row>
     <row r="111">
@@ -4771,7 +4771,7 @@
         <v>43607</v>
       </c>
       <c r="D111" s="11">
-        <v>6486.36083984375</v>
+        <v>1438.8201904296875</v>
       </c>
     </row>
     <row r="112">
@@ -4785,7 +4785,7 @@
         <v>43608</v>
       </c>
       <c r="D112" s="10">
-        <v>4405.9873046875</v>
+        <v>6755.37451171875</v>
       </c>
     </row>
     <row r="113">
@@ -4799,7 +4799,7 @@
         <v>43609</v>
       </c>
       <c r="D113" s="11">
-        <v>7108.71923828125</v>
+        <v>4236.79931640625</v>
       </c>
     </row>
     <row r="114">
@@ -4813,7 +4813,7 @@
         <v>43610</v>
       </c>
       <c r="D114" s="10">
-        <v>608.9637451171875</v>
+        <v>639.77960205078125</v>
       </c>
     </row>
     <row r="115">
@@ -4827,7 +4827,7 @@
         <v>43611</v>
       </c>
       <c r="D115" s="11">
-        <v>5169.7744140625</v>
+        <v>6161.10791015625</v>
       </c>
     </row>
     <row r="116">
@@ -4841,7 +4841,7 @@
         <v>43612</v>
       </c>
       <c r="D116" s="10">
-        <v>1004.0254516601563</v>
+        <v>9047.6201171875</v>
       </c>
     </row>
     <row r="117">
@@ -4855,7 +4855,7 @@
         <v>43613</v>
       </c>
       <c r="D117" s="11">
-        <v>9371.12109375</v>
+        <v>3053.35302734375</v>
       </c>
     </row>
     <row r="118">
@@ -4869,7 +4869,7 @@
         <v>43614</v>
       </c>
       <c r="D118" s="10">
-        <v>9971.103515625</v>
+        <v>298.94345092773438</v>
       </c>
     </row>
     <row r="119">
@@ -4883,7 +4883,7 @@
         <v>43615</v>
       </c>
       <c r="D119" s="11">
-        <v>1097.0506591796875</v>
+        <v>165.60615539550781</v>
       </c>
     </row>
     <row r="120">
@@ -4897,7 +4897,7 @@
         <v>43616</v>
       </c>
       <c r="D120" s="10">
-        <v>4524.30078125</v>
+        <v>9845.087890625</v>
       </c>
     </row>
     <row r="121">
@@ -4911,7 +4911,7 @@
         <v>43617</v>
       </c>
       <c r="D121" s="11">
-        <v>3092.971435546875</v>
+        <v>6318.140625</v>
       </c>
     </row>
     <row r="122">
@@ -4925,7 +4925,7 @@
         <v>43618</v>
       </c>
       <c r="D122" s="10">
-        <v>7602.23876953125</v>
+        <v>550.01531982421875</v>
       </c>
     </row>
     <row r="123">
@@ -4939,7 +4939,7 @@
         <v>43619</v>
       </c>
       <c r="D123" s="11">
-        <v>148.59220886230469</v>
+        <v>270.43667602539062</v>
       </c>
     </row>
     <row r="124">
@@ -4953,7 +4953,7 @@
         <v>43620</v>
       </c>
       <c r="D124" s="10">
-        <v>3440.248046875</v>
+        <v>9215.6748046875</v>
       </c>
     </row>
     <row r="125">
@@ -4967,7 +4967,7 @@
         <v>43621</v>
       </c>
       <c r="D125" s="11">
-        <v>5846.41064453125</v>
+        <v>3733.778564453125</v>
       </c>
     </row>
     <row r="126">
@@ -4981,7 +4981,7 @@
         <v>43622</v>
       </c>
       <c r="D126" s="10">
-        <v>9065.302734375</v>
+        <v>6732.85888671875</v>
       </c>
     </row>
     <row r="127">
@@ -4995,7 +4995,7 @@
         <v>43623</v>
       </c>
       <c r="D127" s="11">
-        <v>729.4315185546875</v>
+        <v>8888.56640625</v>
       </c>
     </row>
     <row r="128">
@@ -5009,7 +5009,7 @@
         <v>43624</v>
       </c>
       <c r="D128" s="10">
-        <v>5400.62353515625</v>
+        <v>6428.3359375</v>
       </c>
     </row>
     <row r="129">
@@ -5023,7 +5023,7 @@
         <v>43625</v>
       </c>
       <c r="D129" s="11">
-        <v>2377.828369140625</v>
+        <v>4085.0615234375</v>
       </c>
     </row>
     <row r="130">
@@ -5037,7 +5037,7 @@
         <v>43626</v>
       </c>
       <c r="D130" s="10">
-        <v>2471.5146484375</v>
+        <v>6233.40380859375</v>
       </c>
     </row>
     <row r="131">
@@ -5051,7 +5051,7 @@
         <v>43627</v>
       </c>
       <c r="D131" s="11">
-        <v>306.30722045898438</v>
+        <v>733.29473876953125</v>
       </c>
     </row>
     <row r="132">
@@ -5065,7 +5065,7 @@
         <v>43628</v>
       </c>
       <c r="D132" s="10">
-        <v>2105.93603515625</v>
+        <v>3307.28759765625</v>
       </c>
     </row>
     <row r="133">
@@ -5079,7 +5079,7 @@
         <v>43629</v>
       </c>
       <c r="D133" s="11">
-        <v>4226.1328125</v>
+        <v>1876.0947265625</v>
       </c>
     </row>
     <row r="134">
@@ -5093,7 +5093,7 @@
         <v>43630</v>
       </c>
       <c r="D134" s="10">
-        <v>8428.92578125</v>
+        <v>6500.21435546875</v>
       </c>
     </row>
     <row r="135">
@@ -5107,7 +5107,7 @@
         <v>43631</v>
       </c>
       <c r="D135" s="11">
-        <v>4686.4384765625</v>
+        <v>7749.8251953125</v>
       </c>
     </row>
     <row r="136">
@@ -5121,7 +5121,7 @@
         <v>43632</v>
       </c>
       <c r="D136" s="10">
-        <v>1705.7056884765625</v>
+        <v>6865.09033203125</v>
       </c>
     </row>
     <row r="137">
@@ -5135,7 +5135,7 @@
         <v>43633</v>
       </c>
       <c r="D137" s="11">
-        <v>7653.322265625</v>
+        <v>2462.1123046875</v>
       </c>
     </row>
     <row r="138">
@@ -5149,7 +5149,7 @@
         <v>43634</v>
       </c>
       <c r="D138" s="10">
-        <v>8183.69873046875</v>
+        <v>3240.947509765625</v>
       </c>
     </row>
     <row r="139">
@@ -5163,7 +5163,7 @@
         <v>43635</v>
       </c>
       <c r="D139" s="11">
-        <v>640.74615478515625</v>
+        <v>8574.42578125</v>
       </c>
     </row>
     <row r="140">
@@ -5177,7 +5177,7 @@
         <v>43636</v>
       </c>
       <c r="D140" s="10">
-        <v>768.7174072265625</v>
+        <v>3841.116455078125</v>
       </c>
     </row>
     <row r="141">
@@ -5191,7 +5191,7 @@
         <v>43637</v>
       </c>
       <c r="D141" s="11">
-        <v>1504.560791015625</v>
+        <v>6137.3232421875</v>
       </c>
     </row>
     <row r="142">
@@ -5205,7 +5205,7 @@
         <v>43638</v>
       </c>
       <c r="D142" s="10">
-        <v>8981.388671875</v>
+        <v>861.59954833984375</v>
       </c>
     </row>
     <row r="143">
@@ -5219,7 +5219,7 @@
         <v>43639</v>
       </c>
       <c r="D143" s="11">
-        <v>5349.041015625</v>
+        <v>9917.767578125</v>
       </c>
     </row>
     <row r="144">
@@ -5233,7 +5233,7 @@
         <v>43640</v>
       </c>
       <c r="D144" s="10">
-        <v>7493.31884765625</v>
+        <v>3214.1572265625</v>
       </c>
     </row>
     <row r="145">
@@ -5247,7 +5247,7 @@
         <v>43641</v>
       </c>
       <c r="D145" s="11">
-        <v>7307.28466796875</v>
+        <v>9373.0537109375</v>
       </c>
     </row>
     <row r="146">
@@ -5261,7 +5261,7 @@
         <v>43642</v>
       </c>
       <c r="D146" s="10">
-        <v>7730.6982421875</v>
+        <v>8332.3525390625</v>
       </c>
     </row>
     <row r="147">
@@ -5275,7 +5275,7 @@
         <v>43643</v>
       </c>
       <c r="D147" s="11">
-        <v>2153.279296875</v>
+        <v>5045.92333984375</v>
       </c>
     </row>
     <row r="148">
@@ -5289,7 +5289,7 @@
         <v>43644</v>
       </c>
       <c r="D148" s="10">
-        <v>1787.5081787109375</v>
+        <v>9178.6767578125</v>
       </c>
     </row>
     <row r="149">
@@ -5303,7 +5303,7 @@
         <v>43645</v>
       </c>
       <c r="D149" s="11">
-        <v>9889.568359375</v>
+        <v>765.0517578125</v>
       </c>
     </row>
     <row r="150">
@@ -5317,7 +5317,7 @@
         <v>43646</v>
       </c>
       <c r="D150" s="10">
-        <v>4788.5830078125</v>
+        <v>8928.2568359375</v>
       </c>
     </row>
     <row r="151">
@@ -5331,7 +5331,7 @@
         <v>43647</v>
       </c>
       <c r="D151" s="11">
-        <v>5569.55712890625</v>
+        <v>3185.6064453125</v>
       </c>
     </row>
     <row r="152">
@@ -5345,7 +5345,7 @@
         <v>43648</v>
       </c>
       <c r="D152" s="10">
-        <v>7658.40576171875</v>
+        <v>9599.71484375</v>
       </c>
     </row>
     <row r="153">
@@ -5359,7 +5359,7 @@
         <v>43649</v>
       </c>
       <c r="D153" s="11">
-        <v>5924.31884765625</v>
+        <v>985.077880859375</v>
       </c>
     </row>
     <row r="154">
@@ -5373,7 +5373,7 @@
         <v>43650</v>
       </c>
       <c r="D154" s="10">
-        <v>1579.3756103515625</v>
+        <v>4235.87548828125</v>
       </c>
     </row>
     <row r="155">
@@ -5387,7 +5387,7 @@
         <v>43651</v>
       </c>
       <c r="D155" s="11">
-        <v>4296.28271484375</v>
+        <v>6283.85009765625</v>
       </c>
     </row>
     <row r="156">
@@ -5401,7 +5401,7 @@
         <v>43652</v>
       </c>
       <c r="D156" s="10">
-        <v>7315.271484375</v>
+        <v>5101.21875</v>
       </c>
     </row>
     <row r="157">
@@ -5415,7 +5415,7 @@
         <v>43653</v>
       </c>
       <c r="D157" s="11">
-        <v>9952.6923828125</v>
+        <v>1974.9442138671875</v>
       </c>
     </row>
     <row r="158">
@@ -5429,7 +5429,7 @@
         <v>43654</v>
       </c>
       <c r="D158" s="10">
-        <v>5878.12451171875</v>
+        <v>4181.62841796875</v>
       </c>
     </row>
     <row r="159">
@@ -5443,7 +5443,7 @@
         <v>43655</v>
       </c>
       <c r="D159" s="11">
-        <v>7142.5</v>
+        <v>8818.7490234375</v>
       </c>
     </row>
     <row r="160">
@@ -5457,7 +5457,7 @@
         <v>43656</v>
       </c>
       <c r="D160" s="10">
-        <v>1710.4127197265625</v>
+        <v>7681.80859375</v>
       </c>
     </row>
     <row r="161">
@@ -5471,7 +5471,7 @@
         <v>43657</v>
       </c>
       <c r="D161" s="11">
-        <v>6129.3701171875</v>
+        <v>5829.494140625</v>
       </c>
     </row>
     <row r="162">
@@ -5485,7 +5485,7 @@
         <v>43658</v>
       </c>
       <c r="D162" s="10">
-        <v>662.20965576171875</v>
+        <v>8224.595703125</v>
       </c>
     </row>
     <row r="163">
@@ -5499,7 +5499,7 @@
         <v>43659</v>
       </c>
       <c r="D163" s="11">
-        <v>5294.39453125</v>
+        <v>6998.17578125</v>
       </c>
     </row>
     <row r="164">
@@ -5513,7 +5513,7 @@
         <v>43660</v>
       </c>
       <c r="D164" s="10">
-        <v>9105.1396484375</v>
+        <v>7894.1533203125</v>
       </c>
     </row>
     <row r="165">
@@ -5527,7 +5527,7 @@
         <v>43661</v>
       </c>
       <c r="D165" s="11">
-        <v>9897.1259765625</v>
+        <v>7748.93310546875</v>
       </c>
     </row>
     <row r="166">
@@ -5541,7 +5541,7 @@
         <v>43662</v>
       </c>
       <c r="D166" s="10">
-        <v>4380.4248046875</v>
+        <v>8131.53271484375</v>
       </c>
     </row>
     <row r="167">
@@ -5555,7 +5555,7 @@
         <v>43663</v>
       </c>
       <c r="D167" s="11">
-        <v>179.8548583984375</v>
+        <v>4879.27978515625</v>
       </c>
     </row>
     <row r="168">
@@ -5569,7 +5569,7 @@
         <v>43664</v>
       </c>
       <c r="D168" s="10">
-        <v>8679.7939453125</v>
+        <v>7736.58544921875</v>
       </c>
     </row>
     <row r="169">
@@ -5583,7 +5583,7 @@
         <v>43665</v>
       </c>
       <c r="D169" s="11">
-        <v>5922.52490234375</v>
+        <v>2889.954345703125</v>
       </c>
     </row>
     <row r="170">
@@ -5597,7 +5597,7 @@
         <v>43666</v>
       </c>
       <c r="D170" s="10">
-        <v>3464.068603515625</v>
+        <v>9296.017578125</v>
       </c>
     </row>
     <row r="171">
@@ -5611,7 +5611,7 @@
         <v>43667</v>
       </c>
       <c r="D171" s="11">
-        <v>3350.703369140625</v>
+        <v>6585.50732421875</v>
       </c>
     </row>
     <row r="172">
@@ -5625,7 +5625,7 @@
         <v>43668</v>
       </c>
       <c r="D172" s="10">
-        <v>1187.42236328125</v>
+        <v>9812.4052734375</v>
       </c>
     </row>
     <row r="173">
@@ -5639,7 +5639,7 @@
         <v>43669</v>
       </c>
       <c r="D173" s="11">
-        <v>9330.357421875</v>
+        <v>1724.51806640625</v>
       </c>
     </row>
     <row r="174">
@@ -5653,7 +5653,7 @@
         <v>43670</v>
       </c>
       <c r="D174" s="10">
-        <v>328.333251953125</v>
+        <v>6324.48974609375</v>
       </c>
     </row>
     <row r="175">
@@ -5667,7 +5667,7 @@
         <v>43671</v>
       </c>
       <c r="D175" s="11">
-        <v>3019.739990234375</v>
+        <v>3707.764892578125</v>
       </c>
     </row>
     <row r="176">
@@ -5681,7 +5681,7 @@
         <v>43672</v>
       </c>
       <c r="D176" s="10">
-        <v>4111.5830078125</v>
+        <v>5456.541015625</v>
       </c>
     </row>
     <row r="177">
@@ -5695,7 +5695,7 @@
         <v>43673</v>
       </c>
       <c r="D177" s="11">
-        <v>2253.19775390625</v>
+        <v>632.2476806640625</v>
       </c>
     </row>
     <row r="178">
@@ -5709,7 +5709,7 @@
         <v>43674</v>
       </c>
       <c r="D178" s="10">
-        <v>2655.273193359375</v>
+        <v>7056.279296875</v>
       </c>
     </row>
     <row r="179">
@@ -5723,7 +5723,7 @@
         <v>43675</v>
       </c>
       <c r="D179" s="11">
-        <v>6132.96337890625</v>
+        <v>9842.62109375</v>
       </c>
     </row>
     <row r="180">
@@ -5737,7 +5737,7 @@
         <v>43676</v>
       </c>
       <c r="D180" s="10">
-        <v>8115.71240234375</v>
+        <v>5401.42578125</v>
       </c>
     </row>
     <row r="181">
@@ -5751,7 +5751,7 @@
         <v>43677</v>
       </c>
       <c r="D181" s="11">
-        <v>6912.02294921875</v>
+        <v>1686.9356689453125</v>
       </c>
     </row>
     <row r="182">
@@ -5765,7 +5765,7 @@
         <v>43678</v>
       </c>
       <c r="D182" s="10">
-        <v>8941.923828125</v>
+        <v>9709.8896484375</v>
       </c>
     </row>
     <row r="183">
@@ -5779,7 +5779,7 @@
         <v>43679</v>
       </c>
       <c r="D183" s="11">
-        <v>5511.0546875</v>
+        <v>5663.2841796875</v>
       </c>
     </row>
     <row r="184">
@@ -5793,7 +5793,7 @@
         <v>43680</v>
       </c>
       <c r="D184" s="10">
-        <v>7589.24560546875</v>
+        <v>5156.80419921875</v>
       </c>
     </row>
     <row r="185">
@@ -5807,7 +5807,7 @@
         <v>43681</v>
       </c>
       <c r="D185" s="11">
-        <v>6901.95751953125</v>
+        <v>3047.797119140625</v>
       </c>
     </row>
     <row r="186">
@@ -5821,7 +5821,7 @@
         <v>43682</v>
       </c>
       <c r="D186" s="10">
-        <v>2647.9013671875</v>
+        <v>1133.5802001953125</v>
       </c>
     </row>
     <row r="187">
@@ -5835,7 +5835,7 @@
         <v>43683</v>
       </c>
       <c r="D187" s="11">
-        <v>6181.6171875</v>
+        <v>2322.209716796875</v>
       </c>
     </row>
     <row r="188">
@@ -5849,7 +5849,7 @@
         <v>43684</v>
       </c>
       <c r="D188" s="10">
-        <v>2646.757080078125</v>
+        <v>7640.21923828125</v>
       </c>
     </row>
     <row r="189">
@@ -5863,7 +5863,7 @@
         <v>43685</v>
       </c>
       <c r="D189" s="11">
-        <v>4132.642578125</v>
+        <v>216.36384582519531</v>
       </c>
     </row>
     <row r="190">
@@ -5877,7 +5877,7 @@
         <v>43686</v>
       </c>
       <c r="D190" s="10">
-        <v>7371.1669921875</v>
+        <v>2648.606689453125</v>
       </c>
     </row>
     <row r="191">
@@ -5891,7 +5891,7 @@
         <v>43687</v>
       </c>
       <c r="D191" s="11">
-        <v>1753.0133056640625</v>
+        <v>4890.146484375</v>
       </c>
     </row>
     <row r="192">
@@ -5905,7 +5905,7 @@
         <v>43688</v>
       </c>
       <c r="D192" s="10">
-        <v>1775.1973876953125</v>
+        <v>8280.4833984375</v>
       </c>
     </row>
     <row r="193">
@@ -5919,7 +5919,7 @@
         <v>43689</v>
       </c>
       <c r="D193" s="11">
-        <v>1041.198974609375</v>
+        <v>4422.1982421875</v>
       </c>
     </row>
     <row r="194">
@@ -5933,7 +5933,7 @@
         <v>43690</v>
       </c>
       <c r="D194" s="10">
-        <v>8930.3330078125</v>
+        <v>892.6168212890625</v>
       </c>
     </row>
     <row r="195">
@@ -5947,7 +5947,7 @@
         <v>43691</v>
       </c>
       <c r="D195" s="11">
-        <v>4639.34716796875</v>
+        <v>8011.62255859375</v>
       </c>
     </row>
     <row r="196">
@@ -5961,7 +5961,7 @@
         <v>43692</v>
       </c>
       <c r="D196" s="10">
-        <v>842.3511962890625</v>
+        <v>7912.7275390625</v>
       </c>
     </row>
     <row r="197">
@@ -5975,7 +5975,7 @@
         <v>43693</v>
       </c>
       <c r="D197" s="11">
-        <v>3686.994140625</v>
+        <v>3863.423583984375</v>
       </c>
     </row>
     <row r="198">
@@ -5989,7 +5989,7 @@
         <v>43694</v>
       </c>
       <c r="D198" s="10">
-        <v>6243.90087890625</v>
+        <v>2023.6143798828125</v>
       </c>
     </row>
     <row r="199">
@@ -6003,7 +6003,7 @@
         <v>43695</v>
       </c>
       <c r="D199" s="11">
-        <v>7596.19287109375</v>
+        <v>5465.22412109375</v>
       </c>
     </row>
     <row r="200">
@@ -6017,7 +6017,7 @@
         <v>43696</v>
       </c>
       <c r="D200" s="10">
-        <v>2926.859619140625</v>
+        <v>1241.5211181640625</v>
       </c>
     </row>
     <row r="201">
@@ -6031,7 +6031,7 @@
         <v>43697</v>
       </c>
       <c r="D201" s="11">
-        <v>7550.84326171875</v>
+        <v>3453.072509765625</v>
       </c>
     </row>
     <row r="202">
@@ -6045,7 +6045,7 @@
         <v>43698</v>
       </c>
       <c r="D202" s="10">
-        <v>3473.485107421875</v>
+        <v>7309.33837890625</v>
       </c>
     </row>
     <row r="203">
@@ -6059,7 +6059,7 @@
         <v>43699</v>
       </c>
       <c r="D203" s="11">
-        <v>5864.98291015625</v>
+        <v>6288.72265625</v>
       </c>
     </row>
     <row r="204">
@@ -6073,7 +6073,7 @@
         <v>43700</v>
       </c>
       <c r="D204" s="10">
-        <v>6425.5</v>
+        <v>1469.0341796875</v>
       </c>
     </row>
     <row r="205">
@@ -6087,7 +6087,7 @@
         <v>43701</v>
       </c>
       <c r="D205" s="11">
-        <v>1437.87939453125</v>
+        <v>2342.749755859375</v>
       </c>
     </row>
     <row r="206">
@@ -6101,7 +6101,7 @@
         <v>43702</v>
       </c>
       <c r="D206" s="10">
-        <v>4382.134765625</v>
+        <v>3373.201171875</v>
       </c>
     </row>
     <row r="207">
@@ -6115,7 +6115,7 @@
         <v>43703</v>
       </c>
       <c r="D207" s="11">
-        <v>8328.048828125</v>
+        <v>7875.1962890625</v>
       </c>
     </row>
     <row r="208">
@@ -6129,7 +6129,7 @@
         <v>43704</v>
       </c>
       <c r="D208" s="10">
-        <v>5595.9853515625</v>
+        <v>4660.58837890625</v>
       </c>
     </row>
     <row r="209">
@@ -6143,7 +6143,7 @@
         <v>43705</v>
       </c>
       <c r="D209" s="11">
-        <v>8559.6357421875</v>
+        <v>528.1103515625</v>
       </c>
     </row>
     <row r="210">
@@ -6157,7 +6157,7 @@
         <v>43706</v>
       </c>
       <c r="D210" s="10">
-        <v>184.69993591308594</v>
+        <v>827.3092041015625</v>
       </c>
     </row>
     <row r="211">
@@ -6171,7 +6171,7 @@
         <v>43707</v>
       </c>
       <c r="D211" s="11">
-        <v>5062.07373046875</v>
+        <v>4468.970703125</v>
       </c>
     </row>
     <row r="212">
@@ -6185,7 +6185,7 @@
         <v>43708</v>
       </c>
       <c r="D212" s="10">
-        <v>7297.4189453125</v>
+        <v>4918.66455078125</v>
       </c>
     </row>
     <row r="213">
@@ -6199,7 +6199,7 @@
         <v>43709</v>
       </c>
       <c r="D213" s="11">
-        <v>9745.1611328125</v>
+        <v>4339.0068359375</v>
       </c>
     </row>
     <row r="214">
@@ -6213,7 +6213,7 @@
         <v>43710</v>
       </c>
       <c r="D214" s="10">
-        <v>9026.7880859375</v>
+        <v>3417.322998046875</v>
       </c>
     </row>
     <row r="215">
@@ -6227,7 +6227,7 @@
         <v>43711</v>
       </c>
       <c r="D215" s="11">
-        <v>4798.3896484375</v>
+        <v>5994.873046875</v>
       </c>
     </row>
     <row r="216">
@@ -6241,7 +6241,7 @@
         <v>43712</v>
       </c>
       <c r="D216" s="10">
-        <v>7187.44677734375</v>
+        <v>6119.60498046875</v>
       </c>
     </row>
     <row r="217">
@@ -6255,7 +6255,7 @@
         <v>43713</v>
       </c>
       <c r="D217" s="11">
-        <v>5151.15478515625</v>
+        <v>2561.311279296875</v>
       </c>
     </row>
     <row r="218">
@@ -6269,7 +6269,7 @@
         <v>43714</v>
       </c>
       <c r="D218" s="10">
-        <v>7705.1494140625</v>
+        <v>1841.37158203125</v>
       </c>
     </row>
     <row r="219">
@@ -6283,7 +6283,7 @@
         <v>43715</v>
       </c>
       <c r="D219" s="11">
-        <v>2203.182373046875</v>
+        <v>4846.35595703125</v>
       </c>
     </row>
     <row r="220">
@@ -6297,7 +6297,7 @@
         <v>43716</v>
       </c>
       <c r="D220" s="10">
-        <v>7249.224609375</v>
+        <v>6615.35302734375</v>
       </c>
     </row>
     <row r="221">
@@ -6311,7 +6311,7 @@
         <v>43717</v>
       </c>
       <c r="D221" s="11">
-        <v>8198.8076171875</v>
+        <v>5809.32275390625</v>
       </c>
     </row>
     <row r="222">
@@ -6325,7 +6325,7 @@
         <v>43718</v>
       </c>
       <c r="D222" s="10">
-        <v>7533.09765625</v>
+        <v>7239.060546875</v>
       </c>
     </row>
     <row r="223">
@@ -6339,7 +6339,7 @@
         <v>43719</v>
       </c>
       <c r="D223" s="11">
-        <v>4547.15185546875</v>
+        <v>7520.22119140625</v>
       </c>
     </row>
     <row r="224">
@@ -6353,7 +6353,7 @@
         <v>43720</v>
       </c>
       <c r="D224" s="10">
-        <v>8551.357421875</v>
+        <v>241.34782409667969</v>
       </c>
     </row>
     <row r="225">
@@ -6367,7 +6367,7 @@
         <v>43721</v>
       </c>
       <c r="D225" s="11">
-        <v>1711.055419921875</v>
+        <v>4405.87109375</v>
       </c>
     </row>
     <row r="226">
@@ -6381,7 +6381,7 @@
         <v>43722</v>
       </c>
       <c r="D226" s="10">
-        <v>1575.506103515625</v>
+        <v>8305.0234375</v>
       </c>
     </row>
     <row r="227">
@@ -6395,7 +6395,7 @@
         <v>43723</v>
       </c>
       <c r="D227" s="11">
-        <v>146.22337341308594</v>
+        <v>5390.20703125</v>
       </c>
     </row>
     <row r="228">
@@ -6409,7 +6409,7 @@
         <v>43724</v>
       </c>
       <c r="D228" s="10">
-        <v>400.02362060546875</v>
+        <v>831.90130615234375</v>
       </c>
     </row>
     <row r="229">
@@ -6423,7 +6423,7 @@
         <v>43725</v>
       </c>
       <c r="D229" s="11">
-        <v>5688.98583984375</v>
+        <v>8312.8671875</v>
       </c>
     </row>
     <row r="230">
@@ -6437,7 +6437,7 @@
         <v>43726</v>
       </c>
       <c r="D230" s="10">
-        <v>2177.388671875</v>
+        <v>5795.037109375</v>
       </c>
     </row>
     <row r="231">
@@ -6451,7 +6451,7 @@
         <v>43727</v>
       </c>
       <c r="D231" s="11">
-        <v>424.58880615234375</v>
+        <v>1593.1175537109375</v>
       </c>
     </row>
     <row r="232">
@@ -6465,7 +6465,7 @@
         <v>43728</v>
       </c>
       <c r="D232" s="10">
-        <v>6009.29638671875</v>
+        <v>8608.6328125</v>
       </c>
     </row>
     <row r="233">
@@ -6479,7 +6479,7 @@
         <v>43729</v>
       </c>
       <c r="D233" s="11">
-        <v>5059.080078125</v>
+        <v>1591.0555419921875</v>
       </c>
     </row>
     <row r="234">
@@ -6493,7 +6493,7 @@
         <v>43730</v>
       </c>
       <c r="D234" s="10">
-        <v>3206.103759765625</v>
+        <v>8601.1005859375</v>
       </c>
     </row>
     <row r="235">
@@ -6507,7 +6507,7 @@
         <v>43731</v>
       </c>
       <c r="D235" s="11">
-        <v>564.86895751953125</v>
+        <v>1948.3533935546875</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         <v>43732</v>
       </c>
       <c r="D236" s="10">
-        <v>3438.537841796875</v>
+        <v>4377.59765625</v>
       </c>
     </row>
     <row r="237">
@@ -6535,7 +6535,7 @@
         <v>43733</v>
       </c>
       <c r="D237" s="11">
-        <v>3076.9404296875</v>
+        <v>3421.16650390625</v>
       </c>
     </row>
     <row r="238">
@@ -6549,7 +6549,7 @@
         <v>43734</v>
       </c>
       <c r="D238" s="10">
-        <v>9085.5546875</v>
+        <v>4194.25</v>
       </c>
     </row>
     <row r="239">
@@ -6563,7 +6563,7 @@
         <v>43735</v>
       </c>
       <c r="D239" s="11">
-        <v>6151.3662109375</v>
+        <v>2814.0546875</v>
       </c>
     </row>
     <row r="240">
@@ -6577,7 +6577,7 @@
         <v>43736</v>
       </c>
       <c r="D240" s="10">
-        <v>2519.82275390625</v>
+        <v>9674.595703125</v>
       </c>
     </row>
     <row r="241">
@@ -6591,7 +6591,7 @@
         <v>43737</v>
       </c>
       <c r="D241" s="11">
-        <v>4319.8525390625</v>
+        <v>3258.3837890625</v>
       </c>
     </row>
     <row r="242">
@@ -6605,7 +6605,7 @@
         <v>43738</v>
       </c>
       <c r="D242" s="10">
-        <v>585.63189697265625</v>
+        <v>7661.62158203125</v>
       </c>
     </row>
     <row r="243">
@@ -6619,7 +6619,7 @@
         <v>43739</v>
       </c>
       <c r="D243" s="11">
-        <v>4087.121337890625</v>
+        <v>7112.10888671875</v>
       </c>
     </row>
     <row r="244">
@@ -6633,7 +6633,7 @@
         <v>43740</v>
       </c>
       <c r="D244" s="10">
-        <v>3947.942626953125</v>
+        <v>9389.0546875</v>
       </c>
     </row>
     <row r="245">
@@ -6647,7 +6647,7 @@
         <v>43741</v>
       </c>
       <c r="D245" s="11">
-        <v>2309.09326171875</v>
+        <v>8179.6357421875</v>
       </c>
     </row>
     <row r="246">
@@ -6661,7 +6661,7 @@
         <v>43742</v>
       </c>
       <c r="D246" s="10">
-        <v>4455.59423828125</v>
+        <v>9971.4814453125</v>
       </c>
     </row>
     <row r="247">
@@ -6675,7 +6675,7 @@
         <v>43743</v>
       </c>
       <c r="D247" s="11">
-        <v>2030.0361328125</v>
+        <v>3941.476806640625</v>
       </c>
     </row>
     <row r="248">
@@ -6689,7 +6689,7 @@
         <v>43744</v>
       </c>
       <c r="D248" s="10">
-        <v>2014.4112548828125</v>
+        <v>1004.8753662109375</v>
       </c>
     </row>
     <row r="249">
@@ -6703,7 +6703,7 @@
         <v>43745</v>
       </c>
       <c r="D249" s="11">
-        <v>4131.94384765625</v>
+        <v>4897.744140625</v>
       </c>
     </row>
     <row r="250">
@@ -6717,7 +6717,7 @@
         <v>43746</v>
       </c>
       <c r="D250" s="10">
-        <v>7451.90087890625</v>
+        <v>1892.0177001953125</v>
       </c>
     </row>
     <row r="251">
@@ -6731,7 +6731,7 @@
         <v>43747</v>
       </c>
       <c r="D251" s="11">
-        <v>5691.1962890625</v>
+        <v>5351.41650390625</v>
       </c>
     </row>
     <row r="252">
@@ -6745,7 +6745,7 @@
         <v>43748</v>
       </c>
       <c r="D252" s="10">
-        <v>5981.8447265625</v>
+        <v>2022.0518798828125</v>
       </c>
     </row>
     <row r="253">
@@ -6759,7 +6759,7 @@
         <v>43749</v>
       </c>
       <c r="D253" s="11">
-        <v>4040.71875</v>
+        <v>7177.25830078125</v>
       </c>
     </row>
     <row r="254">
@@ -6773,7 +6773,7 @@
         <v>43750</v>
       </c>
       <c r="D254" s="10">
-        <v>346.96823120117188</v>
+        <v>8849.87109375</v>
       </c>
     </row>
     <row r="255">
@@ -6787,7 +6787,7 @@
         <v>43751</v>
       </c>
       <c r="D255" s="11">
-        <v>4728.0517578125</v>
+        <v>5432.1982421875</v>
       </c>
     </row>
     <row r="256">
@@ -6801,7 +6801,7 @@
         <v>43752</v>
       </c>
       <c r="D256" s="10">
-        <v>17.745532989501953</v>
+        <v>6214.01220703125</v>
       </c>
     </row>
     <row r="257">
@@ -6815,7 +6815,7 @@
         <v>43753</v>
       </c>
       <c r="D257" s="11">
-        <v>8926.333984375</v>
+        <v>9789.1171875</v>
       </c>
     </row>
     <row r="258">
@@ -6829,7 +6829,7 @@
         <v>43754</v>
       </c>
       <c r="D258" s="10">
-        <v>7313.625</v>
+        <v>6047.375</v>
       </c>
     </row>
     <row r="259">
@@ -6843,7 +6843,7 @@
         <v>43755</v>
       </c>
       <c r="D259" s="11">
-        <v>4714.4443359375</v>
+        <v>7063.1630859375</v>
       </c>
     </row>
     <row r="260">
@@ -6857,7 +6857,7 @@
         <v>43756</v>
       </c>
       <c r="D260" s="10">
-        <v>9862.373046875</v>
+        <v>4037.72607421875</v>
       </c>
     </row>
     <row r="261">
@@ -6871,7 +6871,7 @@
         <v>43757</v>
       </c>
       <c r="D261" s="11">
-        <v>4235.91162109375</v>
+        <v>7982.994140625</v>
       </c>
     </row>
     <row r="262">
@@ -6885,7 +6885,7 @@
         <v>43758</v>
       </c>
       <c r="D262" s="10">
-        <v>7928.025390625</v>
+        <v>7043.294921875</v>
       </c>
     </row>
     <row r="263">
@@ -6899,7 +6899,7 @@
         <v>43759</v>
       </c>
       <c r="D263" s="11">
-        <v>9907</v>
+        <v>6347.72119140625</v>
       </c>
     </row>
     <row r="264">
@@ -6913,7 +6913,7 @@
         <v>43760</v>
       </c>
       <c r="D264" s="10">
-        <v>6382.2470703125</v>
+        <v>4733.0732421875</v>
       </c>
     </row>
     <row r="265">
@@ -6927,7 +6927,7 @@
         <v>43761</v>
       </c>
       <c r="D265" s="11">
-        <v>9760.111328125</v>
+        <v>9234.19140625</v>
       </c>
     </row>
     <row r="266">
@@ -6941,7 +6941,7 @@
         <v>43762</v>
       </c>
       <c r="D266" s="10">
-        <v>9052.77734375</v>
+        <v>5860.33740234375</v>
       </c>
     </row>
     <row r="267">
@@ -6955,7 +6955,7 @@
         <v>43763</v>
       </c>
       <c r="D267" s="11">
-        <v>2238.3388671875</v>
+        <v>3327.609130859375</v>
       </c>
     </row>
     <row r="268">
@@ -6969,7 +6969,7 @@
         <v>43764</v>
       </c>
       <c r="D268" s="10">
-        <v>6539.0576171875</v>
+        <v>5737.90673828125</v>
       </c>
     </row>
     <row r="269">
@@ -6983,7 +6983,7 @@
         <v>43765</v>
       </c>
       <c r="D269" s="11">
-        <v>8461.9189453125</v>
+        <v>1468.9696044921875</v>
       </c>
     </row>
     <row r="270">
@@ -6997,7 +6997,7 @@
         <v>43766</v>
       </c>
       <c r="D270" s="10">
-        <v>1359.85205078125</v>
+        <v>1617.275390625</v>
       </c>
     </row>
     <row r="271">
@@ -7011,7 +7011,7 @@
         <v>43767</v>
       </c>
       <c r="D271" s="11">
-        <v>4110.50634765625</v>
+        <v>2698.438232421875</v>
       </c>
     </row>
     <row r="272">
@@ -7025,7 +7025,7 @@
         <v>43768</v>
       </c>
       <c r="D272" s="10">
-        <v>6065.60009765625</v>
+        <v>8367.0615234375</v>
       </c>
     </row>
     <row r="273">
@@ -7039,7 +7039,7 @@
         <v>43769</v>
       </c>
       <c r="D273" s="11">
-        <v>1553.7830810546875</v>
+        <v>9027.31640625</v>
       </c>
     </row>
     <row r="274">
@@ -7053,7 +7053,7 @@
         <v>43770</v>
       </c>
       <c r="D274" s="10">
-        <v>9683.359375</v>
+        <v>5171.759765625</v>
       </c>
     </row>
     <row r="275">
@@ -7067,7 +7067,7 @@
         <v>43771</v>
       </c>
       <c r="D275" s="11">
-        <v>2929.372314453125</v>
+        <v>3356.96923828125</v>
       </c>
     </row>
     <row r="276">
@@ -7081,7 +7081,7 @@
         <v>43772</v>
       </c>
       <c r="D276" s="10">
-        <v>7613.17578125</v>
+        <v>8147.70166015625</v>
       </c>
     </row>
     <row r="277">
@@ -7095,7 +7095,7 @@
         <v>43773</v>
       </c>
       <c r="D277" s="11">
-        <v>3445.976318359375</v>
+        <v>126.95146179199219</v>
       </c>
     </row>
     <row r="278">
@@ -7109,7 +7109,7 @@
         <v>43774</v>
       </c>
       <c r="D278" s="10">
-        <v>599.208984375</v>
+        <v>8131.1669921875</v>
       </c>
     </row>
     <row r="279">
@@ -7123,7 +7123,7 @@
         <v>43775</v>
       </c>
       <c r="D279" s="11">
-        <v>6242.2646484375</v>
+        <v>2061.712158203125</v>
       </c>
     </row>
     <row r="280">
@@ -7137,7 +7137,7 @@
         <v>43776</v>
       </c>
       <c r="D280" s="10">
-        <v>7255.4609375</v>
+        <v>4434.3896484375</v>
       </c>
     </row>
     <row r="281">
@@ -7151,7 +7151,7 @@
         <v>43777</v>
       </c>
       <c r="D281" s="11">
-        <v>9545.4697265625</v>
+        <v>4363.546875</v>
       </c>
     </row>
     <row r="282">
@@ -7165,7 +7165,7 @@
         <v>43778</v>
       </c>
       <c r="D282" s="10">
-        <v>8131.81201171875</v>
+        <v>4385.33154296875</v>
       </c>
     </row>
     <row r="283">
@@ -7179,7 +7179,7 @@
         <v>43779</v>
       </c>
       <c r="D283" s="11">
-        <v>6268.080078125</v>
+        <v>5934.1572265625</v>
       </c>
     </row>
     <row r="284">
@@ -7193,7 +7193,7 @@
         <v>43780</v>
       </c>
       <c r="D284" s="10">
-        <v>8237.0849609375</v>
+        <v>6420.84912109375</v>
       </c>
     </row>
     <row r="285">
@@ -7207,7 +7207,7 @@
         <v>43781</v>
       </c>
       <c r="D285" s="11">
-        <v>6486.1923828125</v>
+        <v>443.62100219726562</v>
       </c>
     </row>
     <row r="286">
@@ -7221,7 +7221,7 @@
         <v>43782</v>
       </c>
       <c r="D286" s="10">
-        <v>4442.744140625</v>
+        <v>9571.0654296875</v>
       </c>
     </row>
     <row r="287">
@@ -7235,7 +7235,7 @@
         <v>43783</v>
       </c>
       <c r="D287" s="11">
-        <v>1968.577880859375</v>
+        <v>1431.374755859375</v>
       </c>
     </row>
     <row r="288">
@@ -7249,7 +7249,7 @@
         <v>43784</v>
       </c>
       <c r="D288" s="10">
-        <v>4712.1123046875</v>
+        <v>2741.1845703125</v>
       </c>
     </row>
     <row r="289">
@@ -7263,7 +7263,7 @@
         <v>43785</v>
       </c>
       <c r="D289" s="11">
-        <v>8478.0517578125</v>
+        <v>3168.902099609375</v>
       </c>
     </row>
     <row r="290">
@@ -7277,7 +7277,7 @@
         <v>43786</v>
       </c>
       <c r="D290" s="10">
-        <v>547.1234130859375</v>
+        <v>5734.34130859375</v>
       </c>
     </row>
     <row r="291">
@@ -7291,7 +7291,7 @@
         <v>43787</v>
       </c>
       <c r="D291" s="11">
-        <v>4512.2041015625</v>
+        <v>4588.48046875</v>
       </c>
     </row>
     <row r="292">
@@ -7305,7 +7305,7 @@
         <v>43788</v>
       </c>
       <c r="D292" s="10">
-        <v>5763.31494140625</v>
+        <v>7373.79150390625</v>
       </c>
     </row>
     <row r="293">
@@ -7319,7 +7319,7 @@
         <v>43789</v>
       </c>
       <c r="D293" s="11">
-        <v>4371.1103515625</v>
+        <v>7131.08740234375</v>
       </c>
     </row>
     <row r="294">
@@ -7333,7 +7333,7 @@
         <v>43790</v>
       </c>
       <c r="D294" s="10">
-        <v>6288.99267578125</v>
+        <v>8776.3291015625</v>
       </c>
     </row>
     <row r="295">
@@ -7347,7 +7347,7 @@
         <v>43791</v>
       </c>
       <c r="D295" s="11">
-        <v>8283.9111328125</v>
+        <v>1691.60205078125</v>
       </c>
     </row>
     <row r="296">
@@ -7361,7 +7361,7 @@
         <v>43792</v>
       </c>
       <c r="D296" s="10">
-        <v>6391.8271484375</v>
+        <v>6215.0888671875</v>
       </c>
     </row>
     <row r="297">
@@ -7375,7 +7375,7 @@
         <v>43793</v>
       </c>
       <c r="D297" s="11">
-        <v>678.63232421875</v>
+        <v>1313.9002685546875</v>
       </c>
     </row>
     <row r="298">
@@ -7389,7 +7389,7 @@
         <v>43794</v>
       </c>
       <c r="D298" s="10">
-        <v>7704.87451171875</v>
+        <v>2379.035888671875</v>
       </c>
     </row>
     <row r="299">
@@ -7403,7 +7403,7 @@
         <v>43795</v>
       </c>
       <c r="D299" s="11">
-        <v>4187.83154296875</v>
+        <v>154.8629150390625</v>
       </c>
     </row>
     <row r="300">
@@ -7417,7 +7417,7 @@
         <v>43796</v>
       </c>
       <c r="D300" s="10">
-        <v>3256.31591796875</v>
+        <v>2319.298095703125</v>
       </c>
     </row>
     <row r="301">
@@ -7431,7 +7431,7 @@
         <v>43797</v>
       </c>
       <c r="D301" s="11">
-        <v>2217.25537109375</v>
+        <v>6643.87255859375</v>
       </c>
     </row>
     <row r="302">
@@ -7445,7 +7445,7 @@
         <v>43798</v>
       </c>
       <c r="D302" s="10">
-        <v>5490.978515625</v>
+        <v>8203.5703125</v>
       </c>
     </row>
     <row r="303">
@@ -7459,7 +7459,7 @@
         <v>43799</v>
       </c>
       <c r="D303" s="11">
-        <v>3552.492431640625</v>
+        <v>9535.90625</v>
       </c>
     </row>
     <row r="304">
@@ -7473,7 +7473,7 @@
         <v>43800</v>
       </c>
       <c r="D304" s="10">
-        <v>2772.091552734375</v>
+        <v>3280.468505859375</v>
       </c>
     </row>
     <row r="305">
@@ -7487,7 +7487,7 @@
         <v>43801</v>
       </c>
       <c r="D305" s="11">
-        <v>3341.39453125</v>
+        <v>9193.5791015625</v>
       </c>
     </row>
     <row r="306">
@@ -7501,7 +7501,7 @@
         <v>43802</v>
       </c>
       <c r="D306" s="10">
-        <v>9625.5966796875</v>
+        <v>6984.35546875</v>
       </c>
     </row>
     <row r="307">
@@ -7515,7 +7515,7 @@
         <v>43803</v>
       </c>
       <c r="D307" s="11">
-        <v>4428.0615234375</v>
+        <v>2994.735107421875</v>
       </c>
     </row>
     <row r="308">
@@ -7529,7 +7529,7 @@
         <v>43804</v>
       </c>
       <c r="D308" s="10">
-        <v>4357.359375</v>
+        <v>2005.4986572265625</v>
       </c>
     </row>
     <row r="309">
@@ -7543,7 +7543,7 @@
         <v>43805</v>
       </c>
       <c r="D309" s="11">
-        <v>7417.595703125</v>
+        <v>5492.90185546875</v>
       </c>
     </row>
     <row r="310">
@@ -7557,7 +7557,7 @@
         <v>43806</v>
       </c>
       <c r="D310" s="10">
-        <v>7114.8759765625</v>
+        <v>7284.49658203125</v>
       </c>
     </row>
     <row r="311">
@@ -7571,7 +7571,7 @@
         <v>43807</v>
       </c>
       <c r="D311" s="11">
-        <v>6571.76904296875</v>
+        <v>6087.060546875</v>
       </c>
     </row>
     <row r="312">
@@ -7585,7 +7585,7 @@
         <v>43808</v>
       </c>
       <c r="D312" s="10">
-        <v>8327.125</v>
+        <v>1657.949951171875</v>
       </c>
     </row>
     <row r="313">
@@ -7599,7 +7599,7 @@
         <v>43809</v>
       </c>
       <c r="D313" s="11">
-        <v>1071.360595703125</v>
+        <v>3985.662841796875</v>
       </c>
     </row>
     <row r="314">
@@ -7613,7 +7613,7 @@
         <v>43810</v>
       </c>
       <c r="D314" s="10">
-        <v>7458.9833984375</v>
+        <v>2628.773193359375</v>
       </c>
     </row>
     <row r="315">
@@ -7627,7 +7627,7 @@
         <v>43811</v>
       </c>
       <c r="D315" s="11">
-        <v>316.9033203125</v>
+        <v>9674.1796875</v>
       </c>
     </row>
     <row r="316">
@@ -7641,7 +7641,7 @@
         <v>43812</v>
       </c>
       <c r="D316" s="10">
-        <v>6104.09912109375</v>
+        <v>3597.66259765625</v>
       </c>
     </row>
     <row r="317">
@@ -7655,7 +7655,7 @@
         <v>43813</v>
       </c>
       <c r="D317" s="11">
-        <v>1659.9453125</v>
+        <v>1109.1376953125</v>
       </c>
     </row>
     <row r="318">
@@ -7669,7 +7669,7 @@
         <v>43814</v>
       </c>
       <c r="D318" s="10">
-        <v>1669.9144287109375</v>
+        <v>9926.8720703125</v>
       </c>
     </row>
     <row r="319">
@@ -7683,7 +7683,7 @@
         <v>43815</v>
       </c>
       <c r="D319" s="11">
-        <v>9896.0546875</v>
+        <v>4289.4521484375</v>
       </c>
     </row>
     <row r="320">
@@ -7697,7 +7697,7 @@
         <v>43816</v>
       </c>
       <c r="D320" s="10">
-        <v>5317.3671875</v>
+        <v>9663.1259765625</v>
       </c>
     </row>
     <row r="321">
@@ -7711,7 +7711,7 @@
         <v>43817</v>
       </c>
       <c r="D321" s="11">
-        <v>7084.19921875</v>
+        <v>4428.962890625</v>
       </c>
     </row>
     <row r="322">
@@ -7725,7 +7725,7 @@
         <v>43818</v>
       </c>
       <c r="D322" s="10">
-        <v>7526.2265625</v>
+        <v>586.42462158203125</v>
       </c>
     </row>
     <row r="323">
@@ -7739,7 +7739,7 @@
         <v>43819</v>
       </c>
       <c r="D323" s="11">
-        <v>8061.005859375</v>
+        <v>2569.004638671875</v>
       </c>
     </row>
     <row r="324">
@@ -7753,7 +7753,7 @@
         <v>43820</v>
       </c>
       <c r="D324" s="10">
-        <v>7914.79541015625</v>
+        <v>5734.62841796875</v>
       </c>
     </row>
     <row r="325">
@@ -7767,7 +7767,7 @@
         <v>43821</v>
       </c>
       <c r="D325" s="11">
-        <v>6847.64794921875</v>
+        <v>7028.794921875</v>
       </c>
     </row>
     <row r="326">
@@ -7781,7 +7781,7 @@
         <v>43822</v>
       </c>
       <c r="D326" s="10">
-        <v>8347.19140625</v>
+        <v>5324.646484375</v>
       </c>
     </row>
     <row r="327">
@@ -7795,7 +7795,7 @@
         <v>43823</v>
       </c>
       <c r="D327" s="11">
-        <v>1694.4898681640625</v>
+        <v>1235.973876953125</v>
       </c>
     </row>
     <row r="328">
@@ -7809,7 +7809,7 @@
         <v>43824</v>
       </c>
       <c r="D328" s="10">
-        <v>5264.79052734375</v>
+        <v>250.9881591796875</v>
       </c>
     </row>
     <row r="329">
@@ -7823,7 +7823,7 @@
         <v>43825</v>
       </c>
       <c r="D329" s="11">
-        <v>1399.4481201171875</v>
+        <v>3480.157958984375</v>
       </c>
     </row>
     <row r="330">
@@ -7837,7 +7837,7 @@
         <v>43826</v>
       </c>
       <c r="D330" s="10">
-        <v>6537.54541015625</v>
+        <v>7141.88037109375</v>
       </c>
     </row>
     <row r="331">
@@ -7851,7 +7851,7 @@
         <v>43827</v>
       </c>
       <c r="D331" s="11">
-        <v>6934.54345703125</v>
+        <v>6833.80126953125</v>
       </c>
     </row>
     <row r="332">
@@ -7865,7 +7865,7 @@
         <v>43828</v>
       </c>
       <c r="D332" s="10">
-        <v>5741.1015625</v>
+        <v>7747.91552734375</v>
       </c>
     </row>
     <row r="333">
@@ -7879,7 +7879,7 @@
         <v>43829</v>
       </c>
       <c r="D333" s="11">
-        <v>6411.37744140625</v>
+        <v>7976.3037109375</v>
       </c>
     </row>
     <row r="334">
@@ -7893,7 +7893,7 @@
         <v>43830</v>
       </c>
       <c r="D334" s="10">
-        <v>2985.948486328125</v>
+        <v>9742.4140625</v>
       </c>
     </row>
     <row r="335">
@@ -7907,7 +7907,7 @@
         <v>43831</v>
       </c>
       <c r="D335" s="11">
-        <v>5038.20556640625</v>
+        <v>7790.51708984375</v>
       </c>
     </row>
     <row r="336">
@@ -7921,7 +7921,7 @@
         <v>43832</v>
       </c>
       <c r="D336" s="10">
-        <v>4054.491455078125</v>
+        <v>6159.9765625</v>
       </c>
     </row>
     <row r="337">
@@ -7935,7 +7935,7 @@
         <v>43833</v>
       </c>
       <c r="D337" s="11">
-        <v>4579.31982421875</v>
+        <v>4849.42578125</v>
       </c>
     </row>
     <row r="338">
@@ -7949,7 +7949,7 @@
         <v>43834</v>
       </c>
       <c r="D338" s="10">
-        <v>3495.988525390625</v>
+        <v>2653.68896484375</v>
       </c>
     </row>
     <row r="339">
@@ -7963,7 +7963,7 @@
         <v>43835</v>
       </c>
       <c r="D339" s="11">
-        <v>4895.6904296875</v>
+        <v>7227.27001953125</v>
       </c>
     </row>
     <row r="340">
@@ -7977,7 +7977,7 @@
         <v>43836</v>
       </c>
       <c r="D340" s="10">
-        <v>6860.59619140625</v>
+        <v>3459.265625</v>
       </c>
     </row>
     <row r="341">
@@ -7991,7 +7991,7 @@
         <v>43837</v>
       </c>
       <c r="D341" s="11">
-        <v>14.682221412658691</v>
+        <v>6576.33056640625</v>
       </c>
     </row>
     <row r="342">
@@ -8005,7 +8005,7 @@
         <v>43838</v>
       </c>
       <c r="D342" s="10">
-        <v>7611.21875</v>
+        <v>9425.8759765625</v>
       </c>
     </row>
     <row r="343">
@@ -8019,7 +8019,7 @@
         <v>43839</v>
       </c>
       <c r="D343" s="11">
-        <v>7294.51611328125</v>
+        <v>7248.28271484375</v>
       </c>
     </row>
     <row r="344">
@@ -8033,7 +8033,7 @@
         <v>43840</v>
       </c>
       <c r="D344" s="10">
-        <v>1363.1756591796875</v>
+        <v>5884.4052734375</v>
       </c>
     </row>
     <row r="345">
@@ -8047,7 +8047,7 @@
         <v>43841</v>
       </c>
       <c r="D345" s="11">
-        <v>3975.354248046875</v>
+        <v>9647.2802734375</v>
       </c>
     </row>
     <row r="346">
@@ -8061,7 +8061,7 @@
         <v>43842</v>
       </c>
       <c r="D346" s="10">
-        <v>6185.07958984375</v>
+        <v>2930.53076171875</v>
       </c>
     </row>
     <row r="347">
@@ -8075,7 +8075,7 @@
         <v>43843</v>
       </c>
       <c r="D347" s="11">
-        <v>4691.95458984375</v>
+        <v>3388.12890625</v>
       </c>
     </row>
     <row r="348">
@@ -8089,7 +8089,7 @@
         <v>43844</v>
       </c>
       <c r="D348" s="10">
-        <v>6912.126953125</v>
+        <v>4502.31396484375</v>
       </c>
     </row>
     <row r="349">
@@ -8103,7 +8103,7 @@
         <v>43845</v>
       </c>
       <c r="D349" s="11">
-        <v>5972.08935546875</v>
+        <v>9102.1494140625</v>
       </c>
     </row>
     <row r="350">
@@ -8117,7 +8117,7 @@
         <v>43846</v>
       </c>
       <c r="D350" s="10">
-        <v>2179.81201171875</v>
+        <v>8093.939453125</v>
       </c>
     </row>
     <row r="351">
@@ -8131,7 +8131,7 @@
         <v>43847</v>
       </c>
       <c r="D351" s="11">
-        <v>4731.8818359375</v>
+        <v>5105.951171875</v>
       </c>
     </row>
     <row r="352">
@@ -8145,7 +8145,7 @@
         <v>43848</v>
       </c>
       <c r="D352" s="10">
-        <v>9008.7177734375</v>
+        <v>1387.028564453125</v>
       </c>
     </row>
     <row r="353">
@@ -8159,7 +8159,7 @@
         <v>43849</v>
       </c>
       <c r="D353" s="11">
-        <v>7808.8203125</v>
+        <v>8089.583984375</v>
       </c>
     </row>
     <row r="354">
@@ -8173,7 +8173,7 @@
         <v>43850</v>
       </c>
       <c r="D354" s="10">
-        <v>8870.4638671875</v>
+        <v>491.73681640625</v>
       </c>
     </row>
     <row r="355">
@@ -8187,7 +8187,7 @@
         <v>43851</v>
       </c>
       <c r="D355" s="11">
-        <v>6172.11669921875</v>
+        <v>7890.33544921875</v>
       </c>
     </row>
     <row r="356">
@@ -8201,7 +8201,7 @@
         <v>43852</v>
       </c>
       <c r="D356" s="10">
-        <v>4691.02880859375</v>
+        <v>6057.44775390625</v>
       </c>
     </row>
     <row r="357">
@@ -8215,7 +8215,7 @@
         <v>43853</v>
       </c>
       <c r="D357" s="11">
-        <v>7429.97265625</v>
+        <v>5634.5654296875</v>
       </c>
     </row>
     <row r="358">
@@ -8229,7 +8229,7 @@
         <v>43854</v>
       </c>
       <c r="D358" s="10">
-        <v>5637.697265625</v>
+        <v>3801.277587890625</v>
       </c>
     </row>
     <row r="359">
@@ -8243,7 +8243,7 @@
         <v>43855</v>
       </c>
       <c r="D359" s="11">
-        <v>5924.44384765625</v>
+        <v>6251.673828125</v>
       </c>
     </row>
     <row r="360">
@@ -8257,7 +8257,7 @@
         <v>43856</v>
       </c>
       <c r="D360" s="10">
-        <v>4994.203125</v>
+        <v>3868.932861328125</v>
       </c>
     </row>
     <row r="361">
@@ -8271,7 +8271,7 @@
         <v>43857</v>
       </c>
       <c r="D361" s="11">
-        <v>7931.1064453125</v>
+        <v>5748.38134765625</v>
       </c>
     </row>
     <row r="362">
@@ -8285,7 +8285,7 @@
         <v>43858</v>
       </c>
       <c r="D362" s="10">
-        <v>9163.271484375</v>
+        <v>2743.746826171875</v>
       </c>
     </row>
     <row r="363">
@@ -8299,7 +8299,7 @@
         <v>43859</v>
       </c>
       <c r="D363" s="11">
-        <v>2957.9111328125</v>
+        <v>8525.3408203125</v>
       </c>
     </row>
     <row r="364">
@@ -8313,7 +8313,7 @@
         <v>43860</v>
       </c>
       <c r="D364" s="10">
-        <v>880.0504150390625</v>
+        <v>8351.021484375</v>
       </c>
     </row>
     <row r="365">
@@ -8327,7 +8327,7 @@
         <v>43861</v>
       </c>
       <c r="D365" s="11">
-        <v>180.33265686035156</v>
+        <v>450.69570922851562</v>
       </c>
     </row>
     <row r="366">
@@ -8341,7 +8341,7 @@
         <v>43862</v>
       </c>
       <c r="D366" s="10">
-        <v>830.66748046875</v>
+        <v>8339.1455078125</v>
       </c>
     </row>
     <row r="367">
@@ -8355,7 +8355,7 @@
         <v>43863</v>
       </c>
       <c r="D367" s="11">
-        <v>1915.7470703125</v>
+        <v>3681.64599609375</v>
       </c>
     </row>
     <row r="368">
@@ -8369,7 +8369,7 @@
         <v>43864</v>
       </c>
       <c r="D368" s="10">
-        <v>8085.412109375</v>
+        <v>4243.2490234375</v>
       </c>
     </row>
     <row r="369">
@@ -8383,7 +8383,7 @@
         <v>43865</v>
       </c>
       <c r="D369" s="11">
-        <v>2420.777587890625</v>
+        <v>4838.255859375</v>
       </c>
     </row>
     <row r="370">
@@ -8397,7 +8397,7 @@
         <v>43866</v>
       </c>
       <c r="D370" s="10">
-        <v>6262.412109375</v>
+        <v>3514.202880859375</v>
       </c>
     </row>
     <row r="371">
@@ -8411,7 +8411,7 @@
         <v>43867</v>
       </c>
       <c r="D371" s="11">
-        <v>1524.7796630859375</v>
+        <v>8748.236328125</v>
       </c>
     </row>
     <row r="372">
@@ -8425,7 +8425,7 @@
         <v>43868</v>
       </c>
       <c r="D372" s="10">
-        <v>8163.95703125</v>
+        <v>8455.4482421875</v>
       </c>
     </row>
     <row r="373">
@@ -8439,7 +8439,7 @@
         <v>43869</v>
       </c>
       <c r="D373" s="11">
-        <v>6774.22412109375</v>
+        <v>2699.601806640625</v>
       </c>
     </row>
     <row r="374">
@@ -8453,7 +8453,7 @@
         <v>43870</v>
       </c>
       <c r="D374" s="10">
-        <v>3035.4580078125</v>
+        <v>830.18634033203125</v>
       </c>
     </row>
     <row r="375">
@@ -8467,7 +8467,7 @@
         <v>43871</v>
       </c>
       <c r="D375" s="11">
-        <v>5302.68505859375</v>
+        <v>3086.795654296875</v>
       </c>
     </row>
     <row r="376">
@@ -8481,7 +8481,7 @@
         <v>43872</v>
       </c>
       <c r="D376" s="10">
-        <v>9472.98046875</v>
+        <v>5003.08642578125</v>
       </c>
     </row>
     <row r="377">
@@ -8495,7 +8495,7 @@
         <v>43873</v>
       </c>
       <c r="D377" s="11">
-        <v>231.71040344238281</v>
+        <v>3338.141845703125</v>
       </c>
     </row>
     <row r="378">
@@ -8509,7 +8509,7 @@
         <v>43874</v>
       </c>
       <c r="D378" s="10">
-        <v>6697.830078125</v>
+        <v>6684.59912109375</v>
       </c>
     </row>
     <row r="379">
@@ -8523,7 +8523,7 @@
         <v>43875</v>
       </c>
       <c r="D379" s="11">
-        <v>3939.441162109375</v>
+        <v>6087.34765625</v>
       </c>
     </row>
     <row r="380">
@@ -8537,7 +8537,7 @@
         <v>43876</v>
       </c>
       <c r="D380" s="10">
-        <v>662.568359375</v>
+        <v>4098.26416015625</v>
       </c>
     </row>
     <row r="381">
@@ -8551,7 +8551,7 @@
         <v>43877</v>
       </c>
       <c r="D381" s="11">
-        <v>3655.23681640625</v>
+        <v>1936.517822265625</v>
       </c>
     </row>
     <row r="382">
@@ -8565,7 +8565,7 @@
         <v>43878</v>
       </c>
       <c r="D382" s="10">
-        <v>4782.36279296875</v>
+        <v>6733.66015625</v>
       </c>
     </row>
     <row r="383">
@@ -8579,7 +8579,7 @@
         <v>43879</v>
       </c>
       <c r="D383" s="11">
-        <v>9292.701171875</v>
+        <v>1148.8388671875</v>
       </c>
     </row>
     <row r="384">
@@ -8593,7 +8593,7 @@
         <v>43880</v>
       </c>
       <c r="D384" s="10">
-        <v>9219.6357421875</v>
+        <v>5386.21826171875</v>
       </c>
     </row>
     <row r="385">
@@ -8607,7 +8607,7 @@
         <v>43881</v>
       </c>
       <c r="D385" s="11">
-        <v>1805.6636962890625</v>
+        <v>2035.92919921875</v>
       </c>
     </row>
     <row r="386">
@@ -8621,7 +8621,7 @@
         <v>43882</v>
       </c>
       <c r="D386" s="10">
-        <v>7925.82568359375</v>
+        <v>5446.7724609375</v>
       </c>
     </row>
     <row r="387">
@@ -8635,7 +8635,7 @@
         <v>43883</v>
       </c>
       <c r="D387" s="11">
-        <v>7932.28125</v>
+        <v>9658.3310546875</v>
       </c>
     </row>
     <row r="388">
@@ -8649,7 +8649,7 @@
         <v>43884</v>
       </c>
       <c r="D388" s="10">
-        <v>7540.9130859375</v>
+        <v>7484.56689453125</v>
       </c>
     </row>
     <row r="389">
@@ -8663,7 +8663,7 @@
         <v>43885</v>
       </c>
       <c r="D389" s="11">
-        <v>6813.83203125</v>
+        <v>1852.07861328125</v>
       </c>
     </row>
     <row r="390">
@@ -8677,7 +8677,7 @@
         <v>43886</v>
       </c>
       <c r="D390" s="10">
-        <v>347.17697143554688</v>
+        <v>1733.0693359375</v>
       </c>
     </row>
     <row r="391">
@@ -8691,7 +8691,7 @@
         <v>43887</v>
       </c>
       <c r="D391" s="11">
-        <v>6624.5185546875</v>
+        <v>525.410888671875</v>
       </c>
     </row>
     <row r="392">
@@ -8705,7 +8705,7 @@
         <v>43888</v>
       </c>
       <c r="D392" s="10">
-        <v>8941.6220703125</v>
+        <v>1048.1483154296875</v>
       </c>
     </row>
     <row r="393">
@@ -8719,7 +8719,7 @@
         <v>43889</v>
       </c>
       <c r="D393" s="11">
-        <v>7571.544921875</v>
+        <v>6402.01513671875</v>
       </c>
     </row>
     <row r="394">
@@ -8733,7 +8733,7 @@
         <v>43890</v>
       </c>
       <c r="D394" s="10">
-        <v>9901.4873046875</v>
+        <v>3358.337158203125</v>
       </c>
     </row>
     <row r="395">
@@ -8747,7 +8747,7 @@
         <v>43891</v>
       </c>
       <c r="D395" s="11">
-        <v>8929.490234375</v>
+        <v>7710.88427734375</v>
       </c>
     </row>
     <row r="396">
@@ -8761,7 +8761,7 @@
         <v>43892</v>
       </c>
       <c r="D396" s="10">
-        <v>851.410888671875</v>
+        <v>3832.583740234375</v>
       </c>
     </row>
     <row r="397">
@@ -8775,7 +8775,7 @@
         <v>43893</v>
       </c>
       <c r="D397" s="11">
-        <v>4653.3076171875</v>
+        <v>900.53546142578125</v>
       </c>
     </row>
     <row r="398">
@@ -8789,7 +8789,7 @@
         <v>43894</v>
       </c>
       <c r="D398" s="10">
-        <v>6414.4658203125</v>
+        <v>8897.2607421875</v>
       </c>
     </row>
     <row r="399">
@@ -8803,7 +8803,7 @@
         <v>43895</v>
       </c>
       <c r="D399" s="11">
-        <v>1182.843017578125</v>
+        <v>5433.70947265625</v>
       </c>
     </row>
     <row r="400">
@@ -8817,7 +8817,7 @@
         <v>43896</v>
       </c>
       <c r="D400" s="10">
-        <v>3144.686767578125</v>
+        <v>1308.135498046875</v>
       </c>
     </row>
     <row r="401">
@@ -8831,7 +8831,7 @@
         <v>43897</v>
       </c>
       <c r="D401" s="11">
-        <v>4269.33251953125</v>
+        <v>9248.884765625</v>
       </c>
     </row>
     <row r="402">
@@ -8845,7 +8845,7 @@
         <v>43898</v>
       </c>
       <c r="D402" s="10">
-        <v>6606.54248046875</v>
+        <v>9144.8798828125</v>
       </c>
     </row>
     <row r="403">
@@ -8859,7 +8859,7 @@
         <v>43899</v>
       </c>
       <c r="D403" s="11">
-        <v>4491.34912109375</v>
+        <v>9664.0576171875</v>
       </c>
     </row>
     <row r="404">
@@ -8873,7 +8873,7 @@
         <v>43900</v>
       </c>
       <c r="D404" s="10">
-        <v>9709.677734375</v>
+        <v>5587.9462890625</v>
       </c>
     </row>
     <row r="405">
@@ -8887,7 +8887,7 @@
         <v>43901</v>
       </c>
       <c r="D405" s="11">
-        <v>655.03240966796875</v>
+        <v>9345.703125</v>
       </c>
     </row>
     <row r="406">
@@ -8901,7 +8901,7 @@
         <v>43902</v>
       </c>
       <c r="D406" s="10">
-        <v>6567.9248046875</v>
+        <v>6650.50244140625</v>
       </c>
     </row>
     <row r="407">
@@ -8915,7 +8915,7 @@
         <v>43903</v>
       </c>
       <c r="D407" s="11">
-        <v>2234.493896484375</v>
+        <v>8687.4267578125</v>
       </c>
     </row>
     <row r="408">
@@ -8929,7 +8929,7 @@
         <v>43904</v>
       </c>
       <c r="D408" s="10">
-        <v>4773.3623046875</v>
+        <v>7259.3974609375</v>
       </c>
     </row>
     <row r="409">
@@ -8943,7 +8943,7 @@
         <v>43905</v>
       </c>
       <c r="D409" s="11">
-        <v>3567.779296875</v>
+        <v>7404.94140625</v>
       </c>
     </row>
     <row r="410">
@@ -8957,7 +8957,7 @@
         <v>43906</v>
       </c>
       <c r="D410" s="10">
-        <v>6699.1357421875</v>
+        <v>2887.248779296875</v>
       </c>
     </row>
     <row r="411">
@@ -8971,7 +8971,7 @@
         <v>43907</v>
       </c>
       <c r="D411" s="11">
-        <v>4459.318359375</v>
+        <v>2719.305908203125</v>
       </c>
     </row>
     <row r="412">
@@ -8985,7 +8985,7 @@
         <v>43908</v>
       </c>
       <c r="D412" s="10">
-        <v>732.1427001953125</v>
+        <v>8949.9658203125</v>
       </c>
     </row>
     <row r="413">
@@ -8999,7 +8999,7 @@
         <v>43909</v>
       </c>
       <c r="D413" s="11">
-        <v>1698.256103515625</v>
+        <v>7713.93017578125</v>
       </c>
     </row>
     <row r="414">
@@ -9013,7 +9013,7 @@
         <v>43910</v>
       </c>
       <c r="D414" s="10">
-        <v>5261.87548828125</v>
+        <v>2153.40966796875</v>
       </c>
     </row>
     <row r="415">
@@ -9027,7 +9027,7 @@
         <v>43911</v>
       </c>
       <c r="D415" s="11">
-        <v>1338.966552734375</v>
+        <v>1932.4149169921875</v>
       </c>
     </row>
     <row r="416">
@@ -9041,7 +9041,7 @@
         <v>43912</v>
       </c>
       <c r="D416" s="10">
-        <v>3148.743408203125</v>
+        <v>9014.7216796875</v>
       </c>
     </row>
     <row r="417">
@@ -9055,7 +9055,7 @@
         <v>43913</v>
       </c>
       <c r="D417" s="11">
-        <v>9870.5703125</v>
+        <v>1594.9080810546875</v>
       </c>
     </row>
     <row r="418">
@@ -9069,7 +9069,7 @@
         <v>43914</v>
       </c>
       <c r="D418" s="10">
-        <v>3738.27490234375</v>
+        <v>3139.122314453125</v>
       </c>
     </row>
     <row r="419">
@@ -9083,7 +9083,7 @@
         <v>43915</v>
       </c>
       <c r="D419" s="11">
-        <v>9074.38671875</v>
+        <v>6315.09228515625</v>
       </c>
     </row>
     <row r="420">
@@ -9097,7 +9097,7 @@
         <v>43916</v>
       </c>
       <c r="D420" s="10">
-        <v>2254.507080078125</v>
+        <v>5003.9228515625</v>
       </c>
     </row>
     <row r="421">
@@ -9111,7 +9111,7 @@
         <v>43917</v>
       </c>
       <c r="D421" s="11">
-        <v>2898.385986328125</v>
+        <v>8680.8134765625</v>
       </c>
     </row>
     <row r="422">
@@ -9125,7 +9125,7 @@
         <v>43918</v>
       </c>
       <c r="D422" s="10">
-        <v>4374.833984375</v>
+        <v>6197.0791015625</v>
       </c>
     </row>
     <row r="423">
@@ -9139,7 +9139,7 @@
         <v>43919</v>
       </c>
       <c r="D423" s="11">
-        <v>1271.580078125</v>
+        <v>2391.170166015625</v>
       </c>
     </row>
     <row r="424">
@@ -9153,7 +9153,7 @@
         <v>43920</v>
       </c>
       <c r="D424" s="10">
-        <v>2073.6005859375</v>
+        <v>3105.186767578125</v>
       </c>
     </row>
     <row r="425">
@@ -9167,7 +9167,7 @@
         <v>43921</v>
       </c>
       <c r="D425" s="11">
-        <v>9637.8935546875</v>
+        <v>2988.7919921875</v>
       </c>
     </row>
     <row r="426">
@@ -9181,7 +9181,7 @@
         <v>43922</v>
       </c>
       <c r="D426" s="10">
-        <v>2583.1572265625</v>
+        <v>7700.08837890625</v>
       </c>
     </row>
     <row r="427">
@@ -9195,7 +9195,7 @@
         <v>43923</v>
       </c>
       <c r="D427" s="11">
-        <v>592.41204833984375</v>
+        <v>2053.433349609375</v>
       </c>
     </row>
     <row r="428">
@@ -9209,7 +9209,7 @@
         <v>43924</v>
       </c>
       <c r="D428" s="10">
-        <v>6872.736328125</v>
+        <v>9341.2646484375</v>
       </c>
     </row>
     <row r="429">
@@ -9223,7 +9223,7 @@
         <v>43925</v>
       </c>
       <c r="D429" s="11">
-        <v>4105.96826171875</v>
+        <v>3119.302001953125</v>
       </c>
     </row>
     <row r="430">
@@ -9237,7 +9237,7 @@
         <v>43926</v>
       </c>
       <c r="D430" s="10">
-        <v>4451.27392578125</v>
+        <v>9254.2119140625</v>
       </c>
     </row>
     <row r="431">
@@ -9251,7 +9251,7 @@
         <v>43927</v>
       </c>
       <c r="D431" s="11">
-        <v>4819.67333984375</v>
+        <v>4102.55126953125</v>
       </c>
     </row>
     <row r="432">
@@ -9265,7 +9265,7 @@
         <v>43928</v>
       </c>
       <c r="D432" s="10">
-        <v>3817.24462890625</v>
+        <v>4440.880859375</v>
       </c>
     </row>
     <row r="433">
@@ -9279,7 +9279,7 @@
         <v>43929</v>
       </c>
       <c r="D433" s="11">
-        <v>5514.9873046875</v>
+        <v>1250.8897705078125</v>
       </c>
     </row>
     <row r="434">
@@ -9293,7 +9293,7 @@
         <v>43930</v>
       </c>
       <c r="D434" s="10">
-        <v>794.75433349609375</v>
+        <v>4779.2119140625</v>
       </c>
     </row>
     <row r="435">
@@ -9307,7 +9307,7 @@
         <v>43931</v>
       </c>
       <c r="D435" s="11">
-        <v>6393.23583984375</v>
+        <v>4849.37939453125</v>
       </c>
     </row>
     <row r="436">
@@ -9321,7 +9321,7 @@
         <v>43932</v>
       </c>
       <c r="D436" s="10">
-        <v>7048.6943359375</v>
+        <v>2791.637939453125</v>
       </c>
     </row>
     <row r="437">
@@ -9335,7 +9335,7 @@
         <v>43933</v>
       </c>
       <c r="D437" s="11">
-        <v>291.01382446289062</v>
+        <v>7069.60205078125</v>
       </c>
     </row>
     <row r="438">
@@ -9349,7 +9349,7 @@
         <v>43934</v>
       </c>
       <c r="D438" s="10">
-        <v>9583.0234375</v>
+        <v>5560.89208984375</v>
       </c>
     </row>
     <row r="439">
@@ -9363,7 +9363,7 @@
         <v>43935</v>
       </c>
       <c r="D439" s="11">
-        <v>8564.603515625</v>
+        <v>6040.515625</v>
       </c>
     </row>
     <row r="440">
@@ -9377,7 +9377,7 @@
         <v>43936</v>
       </c>
       <c r="D440" s="10">
-        <v>5237.73876953125</v>
+        <v>5385.4267578125</v>
       </c>
     </row>
     <row r="441">
@@ -9391,7 +9391,7 @@
         <v>43937</v>
       </c>
       <c r="D441" s="11">
-        <v>5691.33154296875</v>
+        <v>6759.34619140625</v>
       </c>
     </row>
     <row r="442">
@@ -9405,7 +9405,7 @@
         <v>43938</v>
       </c>
       <c r="D442" s="10">
-        <v>3158.919189453125</v>
+        <v>2398.933837890625</v>
       </c>
     </row>
     <row r="443">
@@ -9419,7 +9419,7 @@
         <v>43939</v>
       </c>
       <c r="D443" s="11">
-        <v>3973.134033203125</v>
+        <v>79.625778198242188</v>
       </c>
     </row>
     <row r="444">
@@ -9433,7 +9433,7 @@
         <v>43940</v>
       </c>
       <c r="D444" s="10">
-        <v>114.69619750976563</v>
+        <v>8964.830078125</v>
       </c>
     </row>
     <row r="445">
@@ -9447,7 +9447,7 @@
         <v>43941</v>
       </c>
       <c r="D445" s="11">
-        <v>5887.8583984375</v>
+        <v>9013.763671875</v>
       </c>
     </row>
     <row r="446">
@@ -9461,7 +9461,7 @@
         <v>43942</v>
       </c>
       <c r="D446" s="10">
-        <v>5892.3759765625</v>
+        <v>1575.444580078125</v>
       </c>
     </row>
     <row r="447">
@@ -9475,7 +9475,7 @@
         <v>43943</v>
       </c>
       <c r="D447" s="11">
-        <v>7243.3662109375</v>
+        <v>3334.21826171875</v>
       </c>
     </row>
     <row r="448">
@@ -9489,7 +9489,7 @@
         <v>43944</v>
       </c>
       <c r="D448" s="10">
-        <v>2309.66943359375</v>
+        <v>4248.60546875</v>
       </c>
     </row>
     <row r="449">
@@ -9503,7 +9503,7 @@
         <v>43945</v>
       </c>
       <c r="D449" s="11">
-        <v>8562.5205078125</v>
+        <v>1425.9222412109375</v>
       </c>
     </row>
     <row r="450">
@@ -9517,7 +9517,7 @@
         <v>43946</v>
       </c>
       <c r="D450" s="10">
-        <v>5780.74658203125</v>
+        <v>8696.1630859375</v>
       </c>
     </row>
     <row r="451">
@@ -9531,7 +9531,7 @@
         <v>43947</v>
       </c>
       <c r="D451" s="11">
-        <v>980.84051513671875</v>
+        <v>2237.675537109375</v>
       </c>
     </row>
     <row r="452">
@@ -9545,7 +9545,7 @@
         <v>43948</v>
       </c>
       <c r="D452" s="10">
-        <v>915.03253173828125</v>
+        <v>7761.4130859375</v>
       </c>
     </row>
     <row r="453">
@@ -9559,7 +9559,7 @@
         <v>43949</v>
       </c>
       <c r="D453" s="11">
-        <v>7340.0791015625</v>
+        <v>2582.1689453125</v>
       </c>
     </row>
     <row r="454">
@@ -9573,7 +9573,7 @@
         <v>43950</v>
       </c>
       <c r="D454" s="10">
-        <v>8928.3359375</v>
+        <v>429.78646850585938</v>
       </c>
     </row>
     <row r="455">
@@ -9587,7 +9587,7 @@
         <v>43951</v>
       </c>
       <c r="D455" s="11">
-        <v>246.30068969726563</v>
+        <v>2627.32177734375</v>
       </c>
     </row>
     <row r="456">
@@ -9601,7 +9601,7 @@
         <v>43952</v>
       </c>
       <c r="D456" s="10">
-        <v>9894.4990234375</v>
+        <v>3051.8056640625</v>
       </c>
     </row>
     <row r="457">
@@ -9615,7 +9615,7 @@
         <v>43953</v>
       </c>
       <c r="D457" s="11">
-        <v>5334.96240234375</v>
+        <v>6753.7099609375</v>
       </c>
     </row>
     <row r="458">
@@ -9629,7 +9629,7 @@
         <v>43954</v>
       </c>
       <c r="D458" s="10">
-        <v>2417.74853515625</v>
+        <v>6558.87109375</v>
       </c>
     </row>
     <row r="459">
@@ -9643,7 +9643,7 @@
         <v>43955</v>
       </c>
       <c r="D459" s="11">
-        <v>71.784317016601562</v>
+        <v>2599.154541015625</v>
       </c>
     </row>
     <row r="460">
@@ -9657,7 +9657,7 @@
         <v>43956</v>
       </c>
       <c r="D460" s="10">
-        <v>8071.875</v>
+        <v>1645.6146240234375</v>
       </c>
     </row>
     <row r="461">
@@ -9671,7 +9671,7 @@
         <v>43957</v>
       </c>
       <c r="D461" s="11">
-        <v>5975.5126953125</v>
+        <v>4597.06884765625</v>
       </c>
     </row>
     <row r="462">
@@ -9685,7 +9685,7 @@
         <v>43958</v>
       </c>
       <c r="D462" s="10">
-        <v>5361.75732421875</v>
+        <v>9346.162109375</v>
       </c>
     </row>
     <row r="463">
@@ -9699,7 +9699,7 @@
         <v>43959</v>
       </c>
       <c r="D463" s="11">
-        <v>667.39404296875</v>
+        <v>4140.095703125</v>
       </c>
     </row>
     <row r="464">
@@ -9713,7 +9713,7 @@
         <v>43960</v>
       </c>
       <c r="D464" s="10">
-        <v>9116.5048828125</v>
+        <v>8150.7294921875</v>
       </c>
     </row>
     <row r="465">
@@ -9727,7 +9727,7 @@
         <v>43961</v>
       </c>
       <c r="D465" s="11">
-        <v>1879.46240234375</v>
+        <v>8784.697265625</v>
       </c>
     </row>
     <row r="466">
@@ -9741,7 +9741,7 @@
         <v>43962</v>
       </c>
       <c r="D466" s="10">
-        <v>642.07379150390625</v>
+        <v>8278.42578125</v>
       </c>
     </row>
     <row r="467">
@@ -9755,7 +9755,7 @@
         <v>43963</v>
       </c>
       <c r="D467" s="11">
-        <v>5217.15576171875</v>
+        <v>7699.07666015625</v>
       </c>
     </row>
     <row r="468">
@@ -9769,7 +9769,7 @@
         <v>43964</v>
       </c>
       <c r="D468" s="10">
-        <v>903.50177001953125</v>
+        <v>2934.718017578125</v>
       </c>
     </row>
     <row r="469">
@@ -9783,7 +9783,7 @@
         <v>43965</v>
       </c>
       <c r="D469" s="11">
-        <v>8868.6396484375</v>
+        <v>7304.0302734375</v>
       </c>
     </row>
     <row r="470">
@@ -9797,7 +9797,7 @@
         <v>43966</v>
       </c>
       <c r="D470" s="10">
-        <v>4290.27197265625</v>
+        <v>9140.77734375</v>
       </c>
     </row>
     <row r="471">
@@ -9811,7 +9811,7 @@
         <v>43967</v>
       </c>
       <c r="D471" s="11">
-        <v>2857.7294921875</v>
+        <v>1945.119140625</v>
       </c>
     </row>
     <row r="472">
@@ -9825,7 +9825,7 @@
         <v>43968</v>
       </c>
       <c r="D472" s="10">
-        <v>287.54696655273438</v>
+        <v>6034.015625</v>
       </c>
     </row>
     <row r="473">
@@ -9839,7 +9839,7 @@
         <v>43969</v>
       </c>
       <c r="D473" s="11">
-        <v>5173.67138671875</v>
+        <v>7098.60693359375</v>
       </c>
     </row>
     <row r="474">
@@ -9853,7 +9853,7 @@
         <v>43970</v>
       </c>
       <c r="D474" s="10">
-        <v>3836.64794921875</v>
+        <v>929.6654052734375</v>
       </c>
     </row>
     <row r="475">
@@ -9867,7 +9867,7 @@
         <v>43971</v>
       </c>
       <c r="D475" s="11">
-        <v>6563.17529296875</v>
+        <v>8244.5771484375</v>
       </c>
     </row>
     <row r="476">
@@ -9881,7 +9881,7 @@
         <v>43972</v>
       </c>
       <c r="D476" s="10">
-        <v>9739.466796875</v>
+        <v>6281.8798828125</v>
       </c>
     </row>
     <row r="477">
@@ -9895,7 +9895,7 @@
         <v>43973</v>
       </c>
       <c r="D477" s="11">
-        <v>401.69979858398438</v>
+        <v>6117.453125</v>
       </c>
     </row>
     <row r="478">
@@ -9909,7 +9909,7 @@
         <v>43974</v>
       </c>
       <c r="D478" s="10">
-        <v>1156.8839111328125</v>
+        <v>3426.340576171875</v>
       </c>
     </row>
     <row r="479">
@@ -9923,7 +9923,7 @@
         <v>43975</v>
       </c>
       <c r="D479" s="11">
-        <v>6185.7421875</v>
+        <v>4091.42333984375</v>
       </c>
     </row>
     <row r="480">
@@ -9937,7 +9937,7 @@
         <v>43976</v>
       </c>
       <c r="D480" s="10">
-        <v>3745.517333984375</v>
+        <v>1413.347412109375</v>
       </c>
     </row>
     <row r="481">
@@ -9951,7 +9951,7 @@
         <v>43977</v>
       </c>
       <c r="D481" s="11">
-        <v>5339.791015625</v>
+        <v>4365.8701171875</v>
       </c>
     </row>
     <row r="482">
@@ -9965,7 +9965,7 @@
         <v>43978</v>
       </c>
       <c r="D482" s="10">
-        <v>8282.7421875</v>
+        <v>7804.82763671875</v>
       </c>
     </row>
     <row r="483">
@@ -9979,7 +9979,7 @@
         <v>43979</v>
       </c>
       <c r="D483" s="11">
-        <v>8310.2158203125</v>
+        <v>7915.34228515625</v>
       </c>
     </row>
     <row r="484">
@@ -9993,7 +9993,7 @@
         <v>43980</v>
       </c>
       <c r="D484" s="10">
-        <v>8325.2216796875</v>
+        <v>4423.13916015625</v>
       </c>
     </row>
     <row r="485">
@@ -10007,7 +10007,7 @@
         <v>43981</v>
       </c>
       <c r="D485" s="11">
-        <v>3470.43359375</v>
+        <v>7016.5361328125</v>
       </c>
     </row>
     <row r="486">
@@ -10021,7 +10021,7 @@
         <v>43982</v>
       </c>
       <c r="D486" s="10">
-        <v>3904.640869140625</v>
+        <v>6341.13818359375</v>
       </c>
     </row>
     <row r="487">
@@ -10035,7 +10035,7 @@
         <v>43983</v>
       </c>
       <c r="D487" s="11">
-        <v>6477.16552734375</v>
+        <v>1858.711669921875</v>
       </c>
     </row>
     <row r="488">
@@ -10049,7 +10049,7 @@
         <v>43984</v>
       </c>
       <c r="D488" s="10">
-        <v>6586.6513671875</v>
+        <v>821.103271484375</v>
       </c>
     </row>
     <row r="489">
@@ -10063,7 +10063,7 @@
         <v>43985</v>
       </c>
       <c r="D489" s="11">
-        <v>548.45367431640625</v>
+        <v>2151.89013671875</v>
       </c>
     </row>
     <row r="490">
@@ -10077,7 +10077,7 @@
         <v>43986</v>
       </c>
       <c r="D490" s="10">
-        <v>6498.73681640625</v>
+        <v>1797.573974609375</v>
       </c>
     </row>
     <row r="491">
@@ -10091,7 +10091,7 @@
         <v>43987</v>
       </c>
       <c r="D491" s="11">
-        <v>1713.7320556640625</v>
+        <v>6037.92822265625</v>
       </c>
     </row>
     <row r="492">
@@ -10105,7 +10105,7 @@
         <v>43988</v>
       </c>
       <c r="D492" s="10">
-        <v>7873.265625</v>
+        <v>510.73098754882812</v>
       </c>
     </row>
     <row r="493">
@@ -10119,7 +10119,7 @@
         <v>43989</v>
       </c>
       <c r="D493" s="11">
-        <v>9511.2392578125</v>
+        <v>2961.73779296875</v>
       </c>
     </row>
     <row r="494">
@@ -10133,7 +10133,7 @@
         <v>43990</v>
       </c>
       <c r="D494" s="10">
-        <v>492.72848510742188</v>
+        <v>4394.90087890625</v>
       </c>
     </row>
     <row r="495">
@@ -10147,7 +10147,7 @@
         <v>43991</v>
       </c>
       <c r="D495" s="11">
-        <v>9262.2255859375</v>
+        <v>788.35791015625</v>
       </c>
     </row>
     <row r="496">
@@ -10161,7 +10161,7 @@
         <v>43992</v>
       </c>
       <c r="D496" s="10">
-        <v>329.57421875</v>
+        <v>7413.18408203125</v>
       </c>
     </row>
     <row r="497">
@@ -10175,7 +10175,7 @@
         <v>43993</v>
       </c>
       <c r="D497" s="11">
-        <v>2491.525146484375</v>
+        <v>8258.837890625</v>
       </c>
     </row>
     <row r="498">
@@ -10189,7 +10189,7 @@
         <v>43994</v>
       </c>
       <c r="D498" s="10">
-        <v>4856.62890625</v>
+        <v>1928.8963623046875</v>
       </c>
     </row>
     <row r="499">
@@ -10203,7 +10203,7 @@
         <v>43995</v>
       </c>
       <c r="D499" s="11">
-        <v>8235.2333984375</v>
+        <v>180.13212585449219</v>
       </c>
     </row>
     <row r="500">
@@ -10217,7 +10217,7 @@
         <v>43996</v>
       </c>
       <c r="D500" s="10">
-        <v>5245.78466796875</v>
+        <v>735.33807373046875</v>
       </c>
     </row>
     <row r="501">
@@ -10231,7 +10231,7 @@
         <v>43997</v>
       </c>
       <c r="D501" s="11">
-        <v>675.2203369140625</v>
+        <v>3876.367919921875</v>
       </c>
     </row>
     <row r="502">
@@ -10245,7 +10245,7 @@
         <v>43998</v>
       </c>
       <c r="D502" s="10">
-        <v>6339.86474609375</v>
+        <v>399.50039672851562</v>
       </c>
     </row>
     <row r="503">
@@ -10259,7 +10259,7 @@
         <v>43999</v>
       </c>
       <c r="D503" s="11">
-        <v>3441.030029296875</v>
+        <v>6944.57568359375</v>
       </c>
     </row>
     <row r="504">
@@ -10273,7 +10273,7 @@
         <v>44000</v>
       </c>
       <c r="D504" s="10">
-        <v>4272.24853515625</v>
+        <v>2285.145263671875</v>
       </c>
     </row>
     <row r="505">
@@ -10287,7 +10287,7 @@
         <v>44001</v>
       </c>
       <c r="D505" s="11">
-        <v>2923.01708984375</v>
+        <v>6751.0439453125</v>
       </c>
     </row>
     <row r="506">
@@ -10301,7 +10301,7 @@
         <v>44002</v>
       </c>
       <c r="D506" s="10">
-        <v>693.29351806640625</v>
+        <v>6203.65966796875</v>
       </c>
     </row>
     <row r="507">
@@ -10315,7 +10315,7 @@
         <v>44003</v>
       </c>
       <c r="D507" s="11">
-        <v>5741.361328125</v>
+        <v>662.80609130859375</v>
       </c>
     </row>
     <row r="508">
@@ -10329,7 +10329,7 @@
         <v>44004</v>
       </c>
       <c r="D508" s="10">
-        <v>3503.43115234375</v>
+        <v>1652.5035400390625</v>
       </c>
     </row>
     <row r="509">
@@ -10343,7 +10343,7 @@
         <v>44005</v>
       </c>
       <c r="D509" s="11">
-        <v>2365.16064453125</v>
+        <v>2185.20947265625</v>
       </c>
     </row>
     <row r="510">
@@ -10357,7 +10357,7 @@
         <v>44006</v>
       </c>
       <c r="D510" s="10">
-        <v>506.83383178710938</v>
+        <v>6345.44189453125</v>
       </c>
     </row>
     <row r="511">
@@ -10371,7 +10371,7 @@
         <v>44007</v>
       </c>
       <c r="D511" s="11">
-        <v>9492.798828125</v>
+        <v>6934.3525390625</v>
       </c>
     </row>
     <row r="512">
@@ -10385,7 +10385,7 @@
         <v>44008</v>
       </c>
       <c r="D512" s="10">
-        <v>4178.078125</v>
+        <v>3327.369140625</v>
       </c>
     </row>
     <row r="513">
@@ -10399,7 +10399,7 @@
         <v>44009</v>
       </c>
       <c r="D513" s="11">
-        <v>6232.00634765625</v>
+        <v>2467.447998046875</v>
       </c>
     </row>
     <row r="514">
@@ -10413,7 +10413,7 @@
         <v>44010</v>
       </c>
       <c r="D514" s="10">
-        <v>6326.26708984375</v>
+        <v>1185.80712890625</v>
       </c>
     </row>
     <row r="515">
@@ -10427,7 +10427,7 @@
         <v>44011</v>
       </c>
       <c r="D515" s="11">
-        <v>2732.084228515625</v>
+        <v>7279.74462890625</v>
       </c>
     </row>
     <row r="516">
@@ -10441,7 +10441,7 @@
         <v>44012</v>
       </c>
       <c r="D516" s="10">
-        <v>7692.7705078125</v>
+        <v>6792.2412109375</v>
       </c>
     </row>
     <row r="517">
@@ -10455,7 +10455,7 @@
         <v>44013</v>
       </c>
       <c r="D517" s="11">
-        <v>7051.54150390625</v>
+        <v>1430.8194580078125</v>
       </c>
     </row>
     <row r="518">
@@ -10469,7 +10469,7 @@
         <v>44014</v>
       </c>
       <c r="D518" s="10">
-        <v>2342.17236328125</v>
+        <v>9716.95703125</v>
       </c>
     </row>
     <row r="519">
@@ -10483,7 +10483,7 @@
         <v>44015</v>
       </c>
       <c r="D519" s="11">
-        <v>5646.07177734375</v>
+        <v>1134.1929931640625</v>
       </c>
     </row>
     <row r="520">
@@ -10497,7 +10497,7 @@
         <v>44016</v>
       </c>
       <c r="D520" s="10">
-        <v>7974.82177734375</v>
+        <v>2443.5595703125</v>
       </c>
     </row>
     <row r="521">
@@ -10511,7 +10511,7 @@
         <v>44017</v>
       </c>
       <c r="D521" s="11">
-        <v>4164.908203125</v>
+        <v>6419.71337890625</v>
       </c>
     </row>
     <row r="522">
@@ -10525,7 +10525,7 @@
         <v>44018</v>
       </c>
       <c r="D522" s="10">
-        <v>8630.5048828125</v>
+        <v>6877.97314453125</v>
       </c>
     </row>
     <row r="523">
@@ -10539,7 +10539,7 @@
         <v>44019</v>
       </c>
       <c r="D523" s="11">
-        <v>355.04812622070312</v>
+        <v>782.827880859375</v>
       </c>
     </row>
     <row r="524">
@@ -10553,7 +10553,7 @@
         <v>44020</v>
       </c>
       <c r="D524" s="10">
-        <v>2369.90234375</v>
+        <v>5506.4560546875</v>
       </c>
     </row>
     <row r="525">
@@ -10567,7 +10567,7 @@
         <v>44021</v>
       </c>
       <c r="D525" s="11">
-        <v>2576.5400390625</v>
+        <v>3102.848876953125</v>
       </c>
     </row>
     <row r="526">
@@ -10581,7 +10581,7 @@
         <v>44022</v>
       </c>
       <c r="D526" s="10">
-        <v>4984.46435546875</v>
+        <v>1434.38818359375</v>
       </c>
     </row>
     <row r="527">
@@ -10595,7 +10595,7 @@
         <v>44023</v>
       </c>
       <c r="D527" s="11">
-        <v>776.307861328125</v>
+        <v>3072.278076171875</v>
       </c>
     </row>
     <row r="528">
@@ -10609,7 +10609,7 @@
         <v>44024</v>
       </c>
       <c r="D528" s="10">
-        <v>4680.94287109375</v>
+        <v>2703.7060546875</v>
       </c>
     </row>
     <row r="529">
@@ -10623,7 +10623,7 @@
         <v>44025</v>
       </c>
       <c r="D529" s="11">
-        <v>4574.421875</v>
+        <v>141.30754089355469</v>
       </c>
     </row>
     <row r="530">
@@ -10637,7 +10637,7 @@
         <v>44026</v>
       </c>
       <c r="D530" s="10">
-        <v>6233.60107421875</v>
+        <v>831.39306640625</v>
       </c>
     </row>
     <row r="531">
@@ -10651,7 +10651,7 @@
         <v>44027</v>
       </c>
       <c r="D531" s="11">
-        <v>7247.94189453125</v>
+        <v>8023.04150390625</v>
       </c>
     </row>
     <row r="532">
@@ -10665,7 +10665,7 @@
         <v>44028</v>
       </c>
       <c r="D532" s="10">
-        <v>5545.07080078125</v>
+        <v>4188.556640625</v>
       </c>
     </row>
     <row r="533">
@@ -10679,7 +10679,7 @@
         <v>44029</v>
       </c>
       <c r="D533" s="11">
-        <v>2921.650146484375</v>
+        <v>3246.208251953125</v>
       </c>
     </row>
     <row r="534">
@@ -10693,7 +10693,7 @@
         <v>44030</v>
       </c>
       <c r="D534" s="10">
-        <v>939.957275390625</v>
+        <v>3356.085205078125</v>
       </c>
     </row>
     <row r="535">
@@ -10707,7 +10707,7 @@
         <v>44031</v>
       </c>
       <c r="D535" s="11">
-        <v>3070.296875</v>
+        <v>7536.9794921875</v>
       </c>
     </row>
     <row r="536">
@@ -10721,7 +10721,7 @@
         <v>44032</v>
       </c>
       <c r="D536" s="10">
-        <v>8999.9267578125</v>
+        <v>3966.36962890625</v>
       </c>
     </row>
     <row r="537">
@@ -10735,7 +10735,7 @@
         <v>44033</v>
       </c>
       <c r="D537" s="11">
-        <v>4841.71240234375</v>
+        <v>860.2520751953125</v>
       </c>
     </row>
     <row r="538">
@@ -10749,7 +10749,7 @@
         <v>44034</v>
       </c>
       <c r="D538" s="10">
-        <v>4037.96728515625</v>
+        <v>5630.197265625</v>
       </c>
     </row>
     <row r="539">
@@ -10763,7 +10763,7 @@
         <v>44035</v>
       </c>
       <c r="D539" s="11">
-        <v>5402.20458984375</v>
+        <v>7672.09521484375</v>
       </c>
     </row>
     <row r="540">
@@ -10777,7 +10777,7 @@
         <v>44036</v>
       </c>
       <c r="D540" s="10">
-        <v>2777.14013671875</v>
+        <v>812.8765869140625</v>
       </c>
     </row>
     <row r="541">
@@ -10791,7 +10791,7 @@
         <v>44037</v>
       </c>
       <c r="D541" s="11">
-        <v>8163.27978515625</v>
+        <v>5678.33203125</v>
       </c>
     </row>
     <row r="542">
@@ -10805,7 +10805,7 @@
         <v>44038</v>
       </c>
       <c r="D542" s="10">
-        <v>2973.734375</v>
+        <v>206.20820617675781</v>
       </c>
     </row>
     <row r="543">
@@ -10819,7 +10819,7 @@
         <v>44039</v>
       </c>
       <c r="D543" s="11">
-        <v>4221.49072265625</v>
+        <v>8635.8935546875</v>
       </c>
     </row>
     <row r="544">
@@ -10833,7 +10833,7 @@
         <v>44040</v>
       </c>
       <c r="D544" s="10">
-        <v>41.619815826416016</v>
+        <v>5806.4482421875</v>
       </c>
     </row>
     <row r="545">
@@ -10847,7 +10847,7 @@
         <v>44041</v>
       </c>
       <c r="D545" s="11">
-        <v>7005.93798828125</v>
+        <v>4863.2216796875</v>
       </c>
     </row>
     <row r="546">
@@ -10861,7 +10861,7 @@
         <v>44042</v>
       </c>
       <c r="D546" s="10">
-        <v>7535.65380859375</v>
+        <v>2710.558837890625</v>
       </c>
     </row>
     <row r="547">
@@ -10875,7 +10875,7 @@
         <v>44043</v>
       </c>
       <c r="D547" s="11">
-        <v>1641.259033203125</v>
+        <v>8043.283203125</v>
       </c>
     </row>
     <row r="548">
@@ -10889,7 +10889,7 @@
         <v>44044</v>
       </c>
       <c r="D548" s="10">
-        <v>3184.97216796875</v>
+        <v>1775.9306640625</v>
       </c>
     </row>
     <row r="549">
@@ -10903,7 +10903,7 @@
         <v>44045</v>
       </c>
       <c r="D549" s="11">
-        <v>7760.64404296875</v>
+        <v>7115.15625</v>
       </c>
     </row>
     <row r="550">
@@ -10917,7 +10917,7 @@
         <v>44046</v>
       </c>
       <c r="D550" s="10">
-        <v>1569.45556640625</v>
+        <v>3996.11669921875</v>
       </c>
     </row>
     <row r="551">
@@ -10931,7 +10931,7 @@
         <v>44047</v>
       </c>
       <c r="D551" s="11">
-        <v>3278.03271484375</v>
+        <v>5982.36474609375</v>
       </c>
     </row>
     <row r="552">
@@ -10945,7 +10945,7 @@
         <v>44048</v>
       </c>
       <c r="D552" s="10">
-        <v>149.35275268554688</v>
+        <v>8541.8818359375</v>
       </c>
     </row>
     <row r="553">
@@ -10959,7 +10959,7 @@
         <v>44049</v>
       </c>
       <c r="D553" s="11">
-        <v>9210.5576171875</v>
+        <v>794.70343017578125</v>
       </c>
     </row>
     <row r="554">
@@ -10973,7 +10973,7 @@
         <v>44050</v>
       </c>
       <c r="D554" s="10">
-        <v>260.4122314453125</v>
+        <v>7736.57275390625</v>
       </c>
     </row>
     <row r="555">
@@ -10987,7 +10987,7 @@
         <v>44051</v>
       </c>
       <c r="D555" s="11">
-        <v>1080.87646484375</v>
+        <v>4315.62451171875</v>
       </c>
     </row>
     <row r="556">
@@ -11001,7 +11001,7 @@
         <v>44052</v>
       </c>
       <c r="D556" s="10">
-        <v>2044.7158203125</v>
+        <v>6998.39453125</v>
       </c>
     </row>
     <row r="557">
@@ -11015,7 +11015,7 @@
         <v>44053</v>
       </c>
       <c r="D557" s="11">
-        <v>5984.81640625</v>
+        <v>9616.6728515625</v>
       </c>
     </row>
     <row r="558">
@@ -11029,7 +11029,7 @@
         <v>44054</v>
       </c>
       <c r="D558" s="10">
-        <v>1071.1275634765625</v>
+        <v>1438.1195068359375</v>
       </c>
     </row>
     <row r="559">
@@ -11043,7 +11043,7 @@
         <v>44055</v>
       </c>
       <c r="D559" s="11">
-        <v>1695.7083740234375</v>
+        <v>9182.2958984375</v>
       </c>
     </row>
     <row r="560">
@@ -11057,7 +11057,7 @@
         <v>44056</v>
       </c>
       <c r="D560" s="10">
-        <v>7938.552734375</v>
+        <v>5316.65576171875</v>
       </c>
     </row>
     <row r="561">
@@ -11071,7 +11071,7 @@
         <v>44057</v>
       </c>
       <c r="D561" s="11">
-        <v>9916.9853515625</v>
+        <v>3131.3818359375</v>
       </c>
     </row>
     <row r="562">
@@ -11085,7 +11085,7 @@
         <v>44058</v>
       </c>
       <c r="D562" s="10">
-        <v>1060.41845703125</v>
+        <v>7959.10009765625</v>
       </c>
     </row>
     <row r="563">
@@ -11099,7 +11099,7 @@
         <v>44059</v>
       </c>
       <c r="D563" s="11">
-        <v>8929.0087890625</v>
+        <v>1511.196044921875</v>
       </c>
     </row>
     <row r="564">
@@ -11113,7 +11113,7 @@
         <v>44060</v>
       </c>
       <c r="D564" s="10">
-        <v>6131.5595703125</v>
+        <v>1353.8162841796875</v>
       </c>
     </row>
     <row r="565">
@@ -11127,7 +11127,7 @@
         <v>44061</v>
       </c>
       <c r="D565" s="11">
-        <v>3258.89208984375</v>
+        <v>8322.400390625</v>
       </c>
     </row>
     <row r="566">
@@ -11141,7 +11141,7 @@
         <v>44062</v>
       </c>
       <c r="D566" s="10">
-        <v>3947.72802734375</v>
+        <v>2745.79541015625</v>
       </c>
     </row>
     <row r="567">
@@ -11155,7 +11155,7 @@
         <v>44063</v>
       </c>
       <c r="D567" s="11">
-        <v>1256.42822265625</v>
+        <v>81.160896301269531</v>
       </c>
     </row>
     <row r="568">
@@ -11169,7 +11169,7 @@
         <v>44064</v>
       </c>
       <c r="D568" s="10">
-        <v>5292.048828125</v>
+        <v>9111.3623046875</v>
       </c>
     </row>
     <row r="569">
@@ -11183,7 +11183,7 @@
         <v>44065</v>
       </c>
       <c r="D569" s="11">
-        <v>3255.969970703125</v>
+        <v>3648.82763671875</v>
       </c>
     </row>
     <row r="570">
@@ -11197,7 +11197,7 @@
         <v>44066</v>
       </c>
       <c r="D570" s="10">
-        <v>3732.157958984375</v>
+        <v>3313.375244140625</v>
       </c>
     </row>
     <row r="571">
@@ -11211,7 +11211,7 @@
         <v>44067</v>
       </c>
       <c r="D571" s="11">
-        <v>2851.057861328125</v>
+        <v>5931.9892578125</v>
       </c>
     </row>
     <row r="572">
@@ -11225,7 +11225,7 @@
         <v>44068</v>
       </c>
       <c r="D572" s="10">
-        <v>3013.574462890625</v>
+        <v>5800.6220703125</v>
       </c>
     </row>
     <row r="573">
@@ -11239,7 +11239,7 @@
         <v>44069</v>
       </c>
       <c r="D573" s="11">
-        <v>6939.9677734375</v>
+        <v>2044.8616943359375</v>
       </c>
     </row>
     <row r="574">
@@ -11253,7 +11253,7 @@
         <v>44070</v>
       </c>
       <c r="D574" s="10">
-        <v>2868.931640625</v>
+        <v>321.31640625</v>
       </c>
     </row>
     <row r="575">
@@ -11267,7 +11267,7 @@
         <v>44071</v>
       </c>
       <c r="D575" s="11">
-        <v>9811.5419921875</v>
+        <v>6765.2275390625</v>
       </c>
     </row>
     <row r="576">
@@ -11281,7 +11281,7 @@
         <v>44072</v>
       </c>
       <c r="D576" s="10">
-        <v>1191.174072265625</v>
+        <v>6213.50537109375</v>
       </c>
     </row>
     <row r="577">
@@ -11295,7 +11295,7 @@
         <v>44073</v>
       </c>
       <c r="D577" s="11">
-        <v>4409.013671875</v>
+        <v>8242.0791015625</v>
       </c>
     </row>
     <row r="578">
@@ -11309,7 +11309,7 @@
         <v>44074</v>
       </c>
       <c r="D578" s="10">
-        <v>313.42831420898438</v>
+        <v>4976.3798828125</v>
       </c>
     </row>
     <row r="579">
@@ -11323,7 +11323,7 @@
         <v>44075</v>
       </c>
       <c r="D579" s="11">
-        <v>5363.96435546875</v>
+        <v>643.23455810546875</v>
       </c>
     </row>
     <row r="580">
@@ -11337,7 +11337,7 @@
         <v>44076</v>
       </c>
       <c r="D580" s="10">
-        <v>5040.88623046875</v>
+        <v>392.29010009765625</v>
       </c>
     </row>
     <row r="581">
@@ -11351,7 +11351,7 @@
         <v>44077</v>
       </c>
       <c r="D581" s="11">
-        <v>3343.205078125</v>
+        <v>3391.10498046875</v>
       </c>
     </row>
     <row r="582">
@@ -11365,7 +11365,7 @@
         <v>44078</v>
       </c>
       <c r="D582" s="10">
-        <v>7591.3359375</v>
+        <v>1296.3472900390625</v>
       </c>
     </row>
     <row r="583">
@@ -11379,7 +11379,7 @@
         <v>44079</v>
       </c>
       <c r="D583" s="11">
-        <v>6920.298828125</v>
+        <v>5588.5498046875</v>
       </c>
     </row>
     <row r="584">
@@ -11393,7 +11393,7 @@
         <v>44080</v>
       </c>
       <c r="D584" s="10">
-        <v>3004.96630859375</v>
+        <v>6145.19091796875</v>
       </c>
     </row>
     <row r="585">
@@ -11407,7 +11407,7 @@
         <v>44081</v>
       </c>
       <c r="D585" s="11">
-        <v>2955.568603515625</v>
+        <v>4849.0283203125</v>
       </c>
     </row>
     <row r="586">
@@ -11421,7 +11421,7 @@
         <v>44082</v>
       </c>
       <c r="D586" s="10">
-        <v>7098.5888671875</v>
+        <v>9481.16015625</v>
       </c>
     </row>
     <row r="587">
@@ -11435,7 +11435,7 @@
         <v>44083</v>
       </c>
       <c r="D587" s="11">
-        <v>6334.513671875</v>
+        <v>3393.853515625</v>
       </c>
     </row>
     <row r="588">
@@ -11449,7 +11449,7 @@
         <v>44084</v>
       </c>
       <c r="D588" s="10">
-        <v>2661.23779296875</v>
+        <v>5509.6357421875</v>
       </c>
     </row>
     <row r="589">
@@ -11463,7 +11463,7 @@
         <v>44085</v>
       </c>
       <c r="D589" s="11">
-        <v>9859.0810546875</v>
+        <v>9040.4609375</v>
       </c>
     </row>
     <row r="590">
@@ -11477,7 +11477,7 @@
         <v>44086</v>
       </c>
       <c r="D590" s="10">
-        <v>1025.5810546875</v>
+        <v>538.5845947265625</v>
       </c>
     </row>
     <row r="591">
@@ -11491,7 +11491,7 @@
         <v>44087</v>
       </c>
       <c r="D591" s="11">
-        <v>3015.10986328125</v>
+        <v>4349.69677734375</v>
       </c>
     </row>
     <row r="592">
@@ -11505,7 +11505,7 @@
         <v>44088</v>
       </c>
       <c r="D592" s="10">
-        <v>3770.5849609375</v>
+        <v>9422.1328125</v>
       </c>
     </row>
     <row r="593">
@@ -11519,7 +11519,7 @@
         <v>44089</v>
       </c>
       <c r="D593" s="11">
-        <v>2342.2587890625</v>
+        <v>6447.90087890625</v>
       </c>
     </row>
     <row r="594">
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="D594" s="10">
-        <v>7463.65185546875</v>
+        <v>2355.439453125</v>
       </c>
     </row>
     <row r="595">
@@ -11547,7 +11547,7 @@
         <v>44091</v>
       </c>
       <c r="D595" s="11">
-        <v>2860.154296875</v>
+        <v>7681.49462890625</v>
       </c>
     </row>
     <row r="596">
@@ -11561,7 +11561,7 @@
         <v>44092</v>
       </c>
       <c r="D596" s="10">
-        <v>7102.861328125</v>
+        <v>7719.23193359375</v>
       </c>
     </row>
     <row r="597">
@@ -11575,7 +11575,7 @@
         <v>44093</v>
       </c>
       <c r="D597" s="11">
-        <v>4044.72509765625</v>
+        <v>8695.0126953125</v>
       </c>
     </row>
     <row r="598">
@@ -11589,7 +11589,7 @@
         <v>44094</v>
       </c>
       <c r="D598" s="10">
-        <v>8089.93115234375</v>
+        <v>7282.07763671875</v>
       </c>
     </row>
     <row r="599">
@@ -11603,7 +11603,7 @@
         <v>44095</v>
       </c>
       <c r="D599" s="11">
-        <v>6782.7275390625</v>
+        <v>7484.0478515625</v>
       </c>
     </row>
     <row r="600">
@@ -11617,7 +11617,7 @@
         <v>44096</v>
       </c>
       <c r="D600" s="10">
-        <v>3058.2099609375</v>
+        <v>2117.426025390625</v>
       </c>
     </row>
     <row r="601">
@@ -11631,7 +11631,7 @@
         <v>44097</v>
       </c>
       <c r="D601" s="11">
-        <v>6279.2255859375</v>
+        <v>2629.39794921875</v>
       </c>
     </row>
     <row r="602">
@@ -11645,7 +11645,7 @@
         <v>44098</v>
       </c>
       <c r="D602" s="10">
-        <v>6349.2099609375</v>
+        <v>8931.919921875</v>
       </c>
     </row>
     <row r="603">
@@ -11659,7 +11659,7 @@
         <v>44099</v>
       </c>
       <c r="D603" s="11">
-        <v>9929.001953125</v>
+        <v>8127.10302734375</v>
       </c>
     </row>
     <row r="604">
@@ -11673,7 +11673,7 @@
         <v>44100</v>
       </c>
       <c r="D604" s="10">
-        <v>4028.486328125</v>
+        <v>3801.781005859375</v>
       </c>
     </row>
     <row r="605">
@@ -11687,7 +11687,7 @@
         <v>44101</v>
       </c>
       <c r="D605" s="11">
-        <v>8718.3974609375</v>
+        <v>8064.12744140625</v>
       </c>
     </row>
     <row r="606">
@@ -11701,7 +11701,7 @@
         <v>44102</v>
       </c>
       <c r="D606" s="10">
-        <v>264.45822143554688</v>
+        <v>181.74232482910156</v>
       </c>
     </row>
     <row r="607">
@@ -11715,7 +11715,7 @@
         <v>44103</v>
       </c>
       <c r="D607" s="11">
-        <v>3209.385009765625</v>
+        <v>6497.01953125</v>
       </c>
     </row>
     <row r="608">
@@ -11729,7 +11729,7 @@
         <v>44104</v>
       </c>
       <c r="D608" s="10">
-        <v>6341.62548828125</v>
+        <v>473.38705444335938</v>
       </c>
     </row>
     <row r="609">
@@ -11743,7 +11743,7 @@
         <v>44105</v>
       </c>
       <c r="D609" s="11">
-        <v>448.87020874023438</v>
+        <v>971.3450927734375</v>
       </c>
     </row>
     <row r="610">
@@ -11757,7 +11757,7 @@
         <v>44106</v>
       </c>
       <c r="D610" s="10">
-        <v>9889.7021484375</v>
+        <v>8102.119140625</v>
       </c>
     </row>
     <row r="611">
@@ -11771,7 +11771,7 @@
         <v>44107</v>
       </c>
       <c r="D611" s="11">
-        <v>7635.7021484375</v>
+        <v>8756.3154296875</v>
       </c>
     </row>
     <row r="612">
@@ -11785,7 +11785,7 @@
         <v>44108</v>
       </c>
       <c r="D612" s="10">
-        <v>5671.38818359375</v>
+        <v>4640.29296875</v>
       </c>
     </row>
     <row r="613">
@@ -11799,7 +11799,7 @@
         <v>44109</v>
       </c>
       <c r="D613" s="11">
-        <v>5707.1630859375</v>
+        <v>794.88494873046875</v>
       </c>
     </row>
     <row r="614">
@@ -11813,7 +11813,7 @@
         <v>44110</v>
       </c>
       <c r="D614" s="10">
-        <v>6654.82177734375</v>
+        <v>8790.005859375</v>
       </c>
     </row>
     <row r="615">
@@ -11827,7 +11827,7 @@
         <v>44111</v>
       </c>
       <c r="D615" s="11">
-        <v>4595.34765625</v>
+        <v>1925.5506591796875</v>
       </c>
     </row>
     <row r="616">
@@ -11841,7 +11841,7 @@
         <v>44112</v>
       </c>
       <c r="D616" s="10">
-        <v>2325.64990234375</v>
+        <v>1835.0345458984375</v>
       </c>
     </row>
     <row r="617">
@@ -11855,7 +11855,7 @@
         <v>44113</v>
       </c>
       <c r="D617" s="11">
-        <v>4140.11962890625</v>
+        <v>2370.55029296875</v>
       </c>
     </row>
     <row r="618">
@@ -11869,7 +11869,7 @@
         <v>44114</v>
       </c>
       <c r="D618" s="10">
-        <v>5924.04296875</v>
+        <v>5366.0048828125</v>
       </c>
     </row>
     <row r="619">
@@ -11883,7 +11883,7 @@
         <v>44115</v>
       </c>
       <c r="D619" s="11">
-        <v>3175.99072265625</v>
+        <v>6504.78759765625</v>
       </c>
     </row>
     <row r="620">
@@ -11897,7 +11897,7 @@
         <v>44116</v>
       </c>
       <c r="D620" s="10">
-        <v>6160.30322265625</v>
+        <v>8841.240234375</v>
       </c>
     </row>
     <row r="621">
@@ -11911,7 +11911,7 @@
         <v>44117</v>
       </c>
       <c r="D621" s="11">
-        <v>7613.2138671875</v>
+        <v>9351.9423828125</v>
       </c>
     </row>
     <row r="622">
@@ -11925,7 +11925,7 @@
         <v>44118</v>
       </c>
       <c r="D622" s="10">
-        <v>8595.1904296875</v>
+        <v>4571.525390625</v>
       </c>
     </row>
     <row r="623">
@@ -11939,7 +11939,7 @@
         <v>44119</v>
       </c>
       <c r="D623" s="11">
-        <v>5432.96826171875</v>
+        <v>70.902145385742188</v>
       </c>
     </row>
     <row r="624">
@@ -11953,7 +11953,7 @@
         <v>44120</v>
       </c>
       <c r="D624" s="10">
-        <v>2230.388916015625</v>
+        <v>3110.2431640625</v>
       </c>
     </row>
     <row r="625">
@@ -11967,7 +11967,7 @@
         <v>44121</v>
       </c>
       <c r="D625" s="11">
-        <v>717.04803466796875</v>
+        <v>8963.677734375</v>
       </c>
     </row>
     <row r="626">
@@ -11981,7 +11981,7 @@
         <v>44122</v>
       </c>
       <c r="D626" s="10">
-        <v>9080.47265625</v>
+        <v>6509.8564453125</v>
       </c>
     </row>
     <row r="627">
@@ -11995,7 +11995,7 @@
         <v>44123</v>
       </c>
       <c r="D627" s="11">
-        <v>671.3155517578125</v>
+        <v>9352.720703125</v>
       </c>
     </row>
     <row r="628">
@@ -12009,7 +12009,7 @@
         <v>44124</v>
       </c>
       <c r="D628" s="10">
-        <v>9476.3154296875</v>
+        <v>9689.421875</v>
       </c>
     </row>
     <row r="629">
@@ -12023,7 +12023,7 @@
         <v>44125</v>
       </c>
       <c r="D629" s="11">
-        <v>8.7771568298339844</v>
+        <v>2639.821533203125</v>
       </c>
     </row>
     <row r="630">
@@ -12037,7 +12037,7 @@
         <v>44126</v>
       </c>
       <c r="D630" s="10">
-        <v>2708.680908203125</v>
+        <v>9045.9951171875</v>
       </c>
     </row>
     <row r="631">
@@ -12051,7 +12051,7 @@
         <v>44127</v>
       </c>
       <c r="D631" s="11">
-        <v>7146.44873046875</v>
+        <v>7518.4931640625</v>
       </c>
     </row>
     <row r="632">
@@ -12065,7 +12065,7 @@
         <v>44128</v>
       </c>
       <c r="D632" s="10">
-        <v>6319.08251953125</v>
+        <v>960.00177001953125</v>
       </c>
     </row>
     <row r="633">
@@ -12079,7 +12079,7 @@
         <v>44129</v>
       </c>
       <c r="D633" s="11">
-        <v>3530.70068359375</v>
+        <v>7492.33203125</v>
       </c>
     </row>
     <row r="634">
@@ -12093,7 +12093,7 @@
         <v>44130</v>
       </c>
       <c r="D634" s="10">
-        <v>2305.75439453125</v>
+        <v>8525.80859375</v>
       </c>
     </row>
     <row r="635">
@@ -12107,7 +12107,7 @@
         <v>44131</v>
       </c>
       <c r="D635" s="11">
-        <v>8761.6611328125</v>
+        <v>7762.89208984375</v>
       </c>
     </row>
     <row r="636">
@@ -12121,7 +12121,7 @@
         <v>44132</v>
       </c>
       <c r="D636" s="10">
-        <v>6993.9951171875</v>
+        <v>4459.1845703125</v>
       </c>
     </row>
     <row r="637">
@@ -12135,7 +12135,7 @@
         <v>44133</v>
       </c>
       <c r="D637" s="11">
-        <v>7662.333984375</v>
+        <v>3169.244384765625</v>
       </c>
     </row>
     <row r="638">
@@ -12149,7 +12149,7 @@
         <v>44134</v>
       </c>
       <c r="D638" s="10">
-        <v>2891.812255859375</v>
+        <v>1786.7686767578125</v>
       </c>
     </row>
     <row r="639">
@@ -12163,7 +12163,7 @@
         <v>44135</v>
       </c>
       <c r="D639" s="11">
-        <v>4286.568359375</v>
+        <v>8081.0634765625</v>
       </c>
     </row>
     <row r="640">
@@ -12177,7 +12177,7 @@
         <v>44136</v>
       </c>
       <c r="D640" s="10">
-        <v>2691.1103515625</v>
+        <v>4667.2861328125</v>
       </c>
     </row>
     <row r="641">
@@ -12191,7 +12191,7 @@
         <v>44137</v>
       </c>
       <c r="D641" s="11">
-        <v>3889.203857421875</v>
+        <v>2984.140625</v>
       </c>
     </row>
     <row r="642">
@@ -12205,7 +12205,7 @@
         <v>44138</v>
       </c>
       <c r="D642" s="10">
-        <v>9992.888671875</v>
+        <v>2920.46630859375</v>
       </c>
     </row>
     <row r="643">
@@ -12219,7 +12219,7 @@
         <v>44139</v>
       </c>
       <c r="D643" s="11">
-        <v>2212.36767578125</v>
+        <v>4538.29052734375</v>
       </c>
     </row>
     <row r="644">
@@ -12233,7 +12233,7 @@
         <v>44140</v>
       </c>
       <c r="D644" s="10">
-        <v>9969.37890625</v>
+        <v>938.34149169921875</v>
       </c>
     </row>
     <row r="645">
@@ -12247,7 +12247,7 @@
         <v>44141</v>
       </c>
       <c r="D645" s="11">
-        <v>3389.879150390625</v>
+        <v>1782.2691650390625</v>
       </c>
     </row>
     <row r="646">
@@ -12261,7 +12261,7 @@
         <v>44142</v>
       </c>
       <c r="D646" s="10">
-        <v>7343.7216796875</v>
+        <v>9709.404296875</v>
       </c>
     </row>
     <row r="647">
@@ -12275,7 +12275,7 @@
         <v>44143</v>
       </c>
       <c r="D647" s="11">
-        <v>8063.421875</v>
+        <v>8627.248046875</v>
       </c>
     </row>
     <row r="648">
@@ -12289,7 +12289,7 @@
         <v>44144</v>
       </c>
       <c r="D648" s="10">
-        <v>5687.43701171875</v>
+        <v>7657.89501953125</v>
       </c>
     </row>
     <row r="649">
@@ -12303,7 +12303,7 @@
         <v>44145</v>
       </c>
       <c r="D649" s="11">
-        <v>2868.30419921875</v>
+        <v>429.88876342773438</v>
       </c>
     </row>
     <row r="650">
@@ -12317,7 +12317,7 @@
         <v>44146</v>
       </c>
       <c r="D650" s="10">
-        <v>534.5045166015625</v>
+        <v>5846.46044921875</v>
       </c>
     </row>
     <row r="651">
@@ -12331,7 +12331,7 @@
         <v>44147</v>
       </c>
       <c r="D651" s="11">
-        <v>2962.7412109375</v>
+        <v>5348.681640625</v>
       </c>
     </row>
     <row r="652">
@@ -12345,7 +12345,7 @@
         <v>44148</v>
       </c>
       <c r="D652" s="10">
-        <v>8120.68212890625</v>
+        <v>3329.007080078125</v>
       </c>
     </row>
     <row r="653">
@@ -12359,7 +12359,7 @@
         <v>44149</v>
       </c>
       <c r="D653" s="11">
-        <v>4913.9404296875</v>
+        <v>777.2899169921875</v>
       </c>
     </row>
     <row r="654">
@@ -12373,7 +12373,7 @@
         <v>44150</v>
       </c>
       <c r="D654" s="10">
-        <v>622.4244384765625</v>
+        <v>8642.8076171875</v>
       </c>
     </row>
     <row r="655">
@@ -12387,7 +12387,7 @@
         <v>44151</v>
       </c>
       <c r="D655" s="11">
-        <v>5444.99609375</v>
+        <v>2765.484130859375</v>
       </c>
     </row>
     <row r="656">
@@ -12401,7 +12401,7 @@
         <v>44152</v>
       </c>
       <c r="D656" s="10">
-        <v>7684.03515625</v>
+        <v>8057.873046875</v>
       </c>
     </row>
     <row r="657">
@@ -12415,7 +12415,7 @@
         <v>44153</v>
       </c>
       <c r="D657" s="11">
-        <v>916.24176025390625</v>
+        <v>8861.0185546875</v>
       </c>
     </row>
     <row r="658">
@@ -12429,7 +12429,7 @@
         <v>44154</v>
       </c>
       <c r="D658" s="10">
-        <v>7698.61328125</v>
+        <v>5016.85986328125</v>
       </c>
     </row>
     <row r="659">
@@ -12443,7 +12443,7 @@
         <v>44155</v>
       </c>
       <c r="D659" s="11">
-        <v>3311.438232421875</v>
+        <v>4838.10302734375</v>
       </c>
     </row>
     <row r="660">
@@ -12457,7 +12457,7 @@
         <v>44156</v>
       </c>
       <c r="D660" s="10">
-        <v>9637.9248046875</v>
+        <v>1554.2708740234375</v>
       </c>
     </row>
     <row r="661">
@@ -12471,7 +12471,7 @@
         <v>44157</v>
       </c>
       <c r="D661" s="11">
-        <v>9593.142578125</v>
+        <v>829.021240234375</v>
       </c>
     </row>
     <row r="662">
@@ -12485,7 +12485,7 @@
         <v>44158</v>
       </c>
       <c r="D662" s="10">
-        <v>3733.069091796875</v>
+        <v>6807.59716796875</v>
       </c>
     </row>
     <row r="663">
@@ -12499,7 +12499,7 @@
         <v>44159</v>
       </c>
       <c r="D663" s="11">
-        <v>6332.8486328125</v>
+        <v>7833.5654296875</v>
       </c>
     </row>
     <row r="664">
@@ -12513,7 +12513,7 @@
         <v>44160</v>
       </c>
       <c r="D664" s="10">
-        <v>7740.189453125</v>
+        <v>1925.349609375</v>
       </c>
     </row>
     <row r="665">
@@ -12527,7 +12527,7 @@
         <v>44161</v>
       </c>
       <c r="D665" s="11">
-        <v>2743.25341796875</v>
+        <v>583.62603759765625</v>
       </c>
     </row>
     <row r="666">
@@ -12541,7 +12541,7 @@
         <v>44162</v>
       </c>
       <c r="D666" s="10">
-        <v>1316.6192626953125</v>
+        <v>7796.3134765625</v>
       </c>
     </row>
     <row r="667">
@@ -12555,7 +12555,7 @@
         <v>44163</v>
       </c>
       <c r="D667" s="11">
-        <v>2140.6875</v>
+        <v>7147.9609375</v>
       </c>
     </row>
     <row r="668">
@@ -12569,7 +12569,7 @@
         <v>44164</v>
       </c>
       <c r="D668" s="10">
-        <v>3401.40869140625</v>
+        <v>2269.07666015625</v>
       </c>
     </row>
     <row r="669">
@@ -12583,7 +12583,7 @@
         <v>44165</v>
       </c>
       <c r="D669" s="11">
-        <v>7893.1611328125</v>
+        <v>1027.114013671875</v>
       </c>
     </row>
     <row r="670">
@@ -12597,7 +12597,7 @@
         <v>44166</v>
       </c>
       <c r="D670" s="10">
-        <v>7601.3525390625</v>
+        <v>7466.36572265625</v>
       </c>
     </row>
     <row r="671">
@@ -12611,7 +12611,7 @@
         <v>44167</v>
       </c>
       <c r="D671" s="11">
-        <v>4663.31591796875</v>
+        <v>8665.7900390625</v>
       </c>
     </row>
     <row r="672">
@@ -12625,7 +12625,7 @@
         <v>44168</v>
       </c>
       <c r="D672" s="10">
-        <v>1248.3074951171875</v>
+        <v>583.7816162109375</v>
       </c>
     </row>
     <row r="673">
@@ -12639,7 +12639,7 @@
         <v>44169</v>
       </c>
       <c r="D673" s="11">
-        <v>1637.4742431640625</v>
+        <v>7284.94189453125</v>
       </c>
     </row>
     <row r="674">
@@ -12653,7 +12653,7 @@
         <v>44170</v>
       </c>
       <c r="D674" s="10">
-        <v>484.88043212890625</v>
+        <v>1837.50146484375</v>
       </c>
     </row>
     <row r="675">
@@ -12667,7 +12667,7 @@
         <v>44171</v>
       </c>
       <c r="D675" s="11">
-        <v>2271.099365234375</v>
+        <v>5857.09912109375</v>
       </c>
     </row>
     <row r="676">
@@ -12681,7 +12681,7 @@
         <v>44172</v>
       </c>
       <c r="D676" s="10">
-        <v>7620.32568359375</v>
+        <v>6431.4755859375</v>
       </c>
     </row>
     <row r="677">
@@ -12695,7 +12695,7 @@
         <v>44173</v>
       </c>
       <c r="D677" s="11">
-        <v>6382.82275390625</v>
+        <v>33.234519958496094</v>
       </c>
     </row>
     <row r="678">
@@ -12709,7 +12709,7 @@
         <v>44174</v>
       </c>
       <c r="D678" s="10">
-        <v>5463.58984375</v>
+        <v>9132.560546875</v>
       </c>
     </row>
     <row r="679">
@@ -12723,7 +12723,7 @@
         <v>44175</v>
       </c>
       <c r="D679" s="11">
-        <v>8840.509765625</v>
+        <v>1327.9739990234375</v>
       </c>
     </row>
     <row r="680">
@@ -12737,7 +12737,7 @@
         <v>44176</v>
       </c>
       <c r="D680" s="10">
-        <v>3373.326171875</v>
+        <v>9254.2744140625</v>
       </c>
     </row>
     <row r="681">
@@ -12751,7 +12751,7 @@
         <v>44177</v>
       </c>
       <c r="D681" s="11">
-        <v>1017.051025390625</v>
+        <v>7882.60888671875</v>
       </c>
     </row>
     <row r="682">
@@ -12765,7 +12765,7 @@
         <v>44178</v>
       </c>
       <c r="D682" s="10">
-        <v>4983.87841796875</v>
+        <v>1694.826171875</v>
       </c>
     </row>
     <row r="683">
@@ -12779,7 +12779,7 @@
         <v>44179</v>
       </c>
       <c r="D683" s="11">
-        <v>6608.01171875</v>
+        <v>9259.533203125</v>
       </c>
     </row>
     <row r="684">
@@ -12793,7 +12793,7 @@
         <v>44180</v>
       </c>
       <c r="D684" s="10">
-        <v>9474.2724609375</v>
+        <v>6793.361328125</v>
       </c>
     </row>
     <row r="685">
@@ -12807,7 +12807,7 @@
         <v>44181</v>
       </c>
       <c r="D685" s="11">
-        <v>9745.939453125</v>
+        <v>3697.313720703125</v>
       </c>
     </row>
     <row r="686">
@@ -12821,7 +12821,7 @@
         <v>44182</v>
       </c>
       <c r="D686" s="10">
-        <v>9025.7666015625</v>
+        <v>4189.48583984375</v>
       </c>
     </row>
     <row r="687">
@@ -12835,7 +12835,7 @@
         <v>44183</v>
       </c>
       <c r="D687" s="11">
-        <v>1405.142333984375</v>
+        <v>182.71183776855469</v>
       </c>
     </row>
     <row r="688">
@@ -12849,7 +12849,7 @@
         <v>44184</v>
       </c>
       <c r="D688" s="10">
-        <v>2908.276123046875</v>
+        <v>8849.5244140625</v>
       </c>
     </row>
     <row r="689">
@@ -12863,7 +12863,7 @@
         <v>44185</v>
       </c>
       <c r="D689" s="11">
-        <v>6860.75830078125</v>
+        <v>5760.32421875</v>
       </c>
     </row>
     <row r="690">
@@ -12877,7 +12877,7 @@
         <v>44186</v>
       </c>
       <c r="D690" s="10">
-        <v>1077.6258544921875</v>
+        <v>9705.01953125</v>
       </c>
     </row>
     <row r="691">
@@ -12891,7 +12891,7 @@
         <v>44187</v>
       </c>
       <c r="D691" s="11">
-        <v>6077.75341796875</v>
+        <v>5598.16650390625</v>
       </c>
     </row>
     <row r="692">
@@ -12905,7 +12905,7 @@
         <v>44188</v>
       </c>
       <c r="D692" s="10">
-        <v>9963.720703125</v>
+        <v>8152.384765625</v>
       </c>
     </row>
     <row r="693">
@@ -12919,7 +12919,7 @@
         <v>44189</v>
       </c>
       <c r="D693" s="11">
-        <v>9580.3740234375</v>
+        <v>6948.66552734375</v>
       </c>
     </row>
     <row r="694">
@@ -12933,7 +12933,7 @@
         <v>44190</v>
       </c>
       <c r="D694" s="10">
-        <v>4648.6435546875</v>
+        <v>6526.79248046875</v>
       </c>
     </row>
     <row r="695">
@@ -12947,7 +12947,7 @@
         <v>44191</v>
       </c>
       <c r="D695" s="11">
-        <v>3097.9677734375</v>
+        <v>3838.26513671875</v>
       </c>
     </row>
     <row r="696">
@@ -12961,7 +12961,7 @@
         <v>44192</v>
       </c>
       <c r="D696" s="10">
-        <v>156.13485717773438</v>
+        <v>6176.54345703125</v>
       </c>
     </row>
     <row r="697">
@@ -12975,7 +12975,7 @@
         <v>44193</v>
       </c>
       <c r="D697" s="11">
-        <v>3660.039794921875</v>
+        <v>5086.90087890625</v>
       </c>
     </row>
     <row r="698">
@@ -12989,7 +12989,7 @@
         <v>44194</v>
       </c>
       <c r="D698" s="10">
-        <v>4472.17822265625</v>
+        <v>2612.94091796875</v>
       </c>
     </row>
     <row r="699">
@@ -13003,7 +13003,7 @@
         <v>44195</v>
       </c>
       <c r="D699" s="11">
-        <v>7226.125</v>
+        <v>354.7154541015625</v>
       </c>
     </row>
     <row r="700">
@@ -13017,7 +13017,7 @@
         <v>44196</v>
       </c>
       <c r="D700" s="10">
-        <v>2073.259765625</v>
+        <v>3985.95556640625</v>
       </c>
     </row>
     <row r="701">
@@ -13031,7 +13031,7 @@
         <v>44197</v>
       </c>
       <c r="D701" s="11">
-        <v>5203.0341796875</v>
+        <v>2561.443359375</v>
       </c>
     </row>
     <row r="702">
@@ -13045,7 +13045,7 @@
         <v>44198</v>
       </c>
       <c r="D702" s="10">
-        <v>4662.01318359375</v>
+        <v>6358.1708984375</v>
       </c>
     </row>
     <row r="703">
@@ -13059,7 +13059,7 @@
         <v>44199</v>
       </c>
       <c r="D703" s="11">
-        <v>7794.27587890625</v>
+        <v>6630.78076171875</v>
       </c>
     </row>
     <row r="704">
@@ -13073,7 +13073,7 @@
         <v>44200</v>
       </c>
       <c r="D704" s="10">
-        <v>5266.95166015625</v>
+        <v>2963.52294921875</v>
       </c>
     </row>
     <row r="705">
@@ -13087,7 +13087,7 @@
         <v>44201</v>
       </c>
       <c r="D705" s="11">
-        <v>5871.1884765625</v>
+        <v>7180.669921875</v>
       </c>
     </row>
     <row r="706">
@@ -13101,7 +13101,7 @@
         <v>44202</v>
       </c>
       <c r="D706" s="10">
-        <v>1714.4337158203125</v>
+        <v>4764.89990234375</v>
       </c>
     </row>
     <row r="707">
@@ -13115,7 +13115,7 @@
         <v>44203</v>
       </c>
       <c r="D707" s="11">
-        <v>6483.2080078125</v>
+        <v>6044.0654296875</v>
       </c>
     </row>
     <row r="708">
@@ -13129,7 +13129,7 @@
         <v>44204</v>
       </c>
       <c r="D708" s="10">
-        <v>4429.06005859375</v>
+        <v>8939.7880859375</v>
       </c>
     </row>
     <row r="709">
@@ -13143,7 +13143,7 @@
         <v>44205</v>
       </c>
       <c r="D709" s="11">
-        <v>8351.3251953125</v>
+        <v>2785.70849609375</v>
       </c>
     </row>
     <row r="710">
@@ -13157,7 +13157,7 @@
         <v>44206</v>
       </c>
       <c r="D710" s="10">
-        <v>7824.67041015625</v>
+        <v>6334.00830078125</v>
       </c>
     </row>
     <row r="711">
@@ -13171,7 +13171,7 @@
         <v>44207</v>
       </c>
       <c r="D711" s="11">
-        <v>1301.2125244140625</v>
+        <v>8024.63818359375</v>
       </c>
     </row>
     <row r="712">
@@ -13185,7 +13185,7 @@
         <v>44208</v>
       </c>
       <c r="D712" s="10">
-        <v>5452.65234375</v>
+        <v>9728.45703125</v>
       </c>
     </row>
     <row r="713">
@@ -13199,7 +13199,7 @@
         <v>44209</v>
       </c>
       <c r="D713" s="11">
-        <v>8858.103515625</v>
+        <v>3688.8857421875</v>
       </c>
     </row>
     <row r="714">
@@ -13213,7 +13213,7 @@
         <v>44210</v>
       </c>
       <c r="D714" s="10">
-        <v>9938.1123046875</v>
+        <v>5583.8291015625</v>
       </c>
     </row>
     <row r="715">
@@ -13227,7 +13227,7 @@
         <v>44211</v>
       </c>
       <c r="D715" s="11">
-        <v>8620.8740234375</v>
+        <v>3671.661865234375</v>
       </c>
     </row>
     <row r="716">
@@ -13241,7 +13241,7 @@
         <v>44212</v>
       </c>
       <c r="D716" s="10">
-        <v>4609.26416015625</v>
+        <v>9134.1953125</v>
       </c>
     </row>
     <row r="717">
@@ -13255,7 +13255,7 @@
         <v>44213</v>
       </c>
       <c r="D717" s="11">
-        <v>7125.05712890625</v>
+        <v>7548.06396484375</v>
       </c>
     </row>
     <row r="718">
@@ -13269,7 +13269,7 @@
         <v>44214</v>
       </c>
       <c r="D718" s="10">
-        <v>6858.57568359375</v>
+        <v>1040.2039794921875</v>
       </c>
     </row>
     <row r="719">
@@ -13283,7 +13283,7 @@
         <v>44215</v>
       </c>
       <c r="D719" s="11">
-        <v>7994.24951171875</v>
+        <v>8228.0361328125</v>
       </c>
     </row>
     <row r="720">
@@ -13297,7 +13297,7 @@
         <v>44216</v>
       </c>
       <c r="D720" s="10">
-        <v>3717.48681640625</v>
+        <v>6394.14013671875</v>
       </c>
     </row>
     <row r="721">
@@ -13311,7 +13311,7 @@
         <v>44217</v>
       </c>
       <c r="D721" s="11">
-        <v>9911.4765625</v>
+        <v>7613.60205078125</v>
       </c>
     </row>
     <row r="722">
@@ -13325,7 +13325,7 @@
         <v>44218</v>
       </c>
       <c r="D722" s="10">
-        <v>9232.4111328125</v>
+        <v>8298.4365234375</v>
       </c>
     </row>
     <row r="723">
@@ -13339,7 +13339,7 @@
         <v>44219</v>
       </c>
       <c r="D723" s="11">
-        <v>6540.650390625</v>
+        <v>6508.75244140625</v>
       </c>
     </row>
     <row r="724">
@@ -13353,7 +13353,7 @@
         <v>44220</v>
       </c>
       <c r="D724" s="10">
-        <v>6815.53515625</v>
+        <v>1322.0947265625</v>
       </c>
     </row>
     <row r="725">
@@ -13367,7 +13367,7 @@
         <v>44221</v>
       </c>
       <c r="D725" s="11">
-        <v>1523.59912109375</v>
+        <v>1868.19921875</v>
       </c>
     </row>
     <row r="726">
@@ -13381,7 +13381,7 @@
         <v>44222</v>
       </c>
       <c r="D726" s="10">
-        <v>4699.595703125</v>
+        <v>513.4056396484375</v>
       </c>
     </row>
     <row r="727">
@@ -13395,7 +13395,7 @@
         <v>44223</v>
       </c>
       <c r="D727" s="11">
-        <v>1667.933349609375</v>
+        <v>3635.115966796875</v>
       </c>
     </row>
     <row r="728">
@@ -13409,7 +13409,7 @@
         <v>44224</v>
       </c>
       <c r="D728" s="10">
-        <v>6988.83056640625</v>
+        <v>758.1492919921875</v>
       </c>
     </row>
     <row r="729">
@@ -13423,7 +13423,7 @@
         <v>44225</v>
       </c>
       <c r="D729" s="11">
-        <v>7386.91259765625</v>
+        <v>7999.236328125</v>
       </c>
     </row>
     <row r="730">
@@ -13437,7 +13437,7 @@
         <v>44226</v>
       </c>
       <c r="D730" s="10">
-        <v>2114.96435546875</v>
+        <v>9680.5556640625</v>
       </c>
     </row>
     <row r="731">
@@ -13451,7 +13451,7 @@
         <v>44227</v>
       </c>
       <c r="D731" s="11">
-        <v>3960.285888671875</v>
+        <v>1344.5748291015625</v>
       </c>
     </row>
     <row r="732">
@@ -13465,7 +13465,7 @@
         <v>44228</v>
       </c>
       <c r="D732" s="10">
-        <v>1910.644287109375</v>
+        <v>7420.29345703125</v>
       </c>
     </row>
     <row r="733">
@@ -13479,7 +13479,7 @@
         <v>44229</v>
       </c>
       <c r="D733" s="11">
-        <v>8237.46484375</v>
+        <v>8777.8447265625</v>
       </c>
     </row>
     <row r="734">
@@ -13493,7 +13493,7 @@
         <v>44230</v>
       </c>
       <c r="D734" s="10">
-        <v>6767.25</v>
+        <v>7342.0185546875</v>
       </c>
     </row>
     <row r="735">
@@ -13507,7 +13507,7 @@
         <v>44231</v>
       </c>
       <c r="D735" s="11">
-        <v>8170.2919921875</v>
+        <v>6692.83056640625</v>
       </c>
     </row>
     <row r="736">
@@ -13521,7 +13521,7 @@
         <v>44232</v>
       </c>
       <c r="D736" s="10">
-        <v>6355.0380859375</v>
+        <v>1524.4378662109375</v>
       </c>
     </row>
     <row r="737">
@@ -13535,7 +13535,7 @@
         <v>44233</v>
       </c>
       <c r="D737" s="11">
-        <v>7189.6025390625</v>
+        <v>5064.044921875</v>
       </c>
     </row>
     <row r="738">
@@ -13549,7 +13549,7 @@
         <v>44234</v>
       </c>
       <c r="D738" s="10">
-        <v>1341.0601806640625</v>
+        <v>6296.0107421875</v>
       </c>
     </row>
     <row r="739">
@@ -13563,7 +13563,7 @@
         <v>44235</v>
       </c>
       <c r="D739" s="11">
-        <v>3603.084228515625</v>
+        <v>9612.69140625</v>
       </c>
     </row>
     <row r="740">
@@ -13577,7 +13577,7 @@
         <v>44236</v>
       </c>
       <c r="D740" s="10">
-        <v>8031.505859375</v>
+        <v>8932.4140625</v>
       </c>
     </row>
     <row r="741">
@@ -13591,7 +13591,7 @@
         <v>44237</v>
       </c>
       <c r="D741" s="11">
-        <v>2542.558349609375</v>
+        <v>8145.42041015625</v>
       </c>
     </row>
     <row r="742">
@@ -13605,7 +13605,7 @@
         <v>44238</v>
       </c>
       <c r="D742" s="10">
-        <v>6976.08251953125</v>
+        <v>1242.9234619140625</v>
       </c>
     </row>
     <row r="743">
@@ -13619,7 +13619,7 @@
         <v>44239</v>
       </c>
       <c r="D743" s="11">
-        <v>4556.951171875</v>
+        <v>6063.81591796875</v>
       </c>
     </row>
     <row r="744">
@@ -13633,7 +13633,7 @@
         <v>44240</v>
       </c>
       <c r="D744" s="10">
-        <v>9036.087890625</v>
+        <v>9426.31640625</v>
       </c>
     </row>
     <row r="745">
@@ -13647,7 +13647,7 @@
         <v>44241</v>
       </c>
       <c r="D745" s="11">
-        <v>9776.4130859375</v>
+        <v>1680.3809814453125</v>
       </c>
     </row>
     <row r="746">
@@ -13661,7 +13661,7 @@
         <v>44242</v>
       </c>
       <c r="D746" s="10">
-        <v>625.10125732421875</v>
+        <v>5869.708984375</v>
       </c>
     </row>
     <row r="747">
@@ -13675,7 +13675,7 @@
         <v>44243</v>
       </c>
       <c r="D747" s="11">
-        <v>1105.617431640625</v>
+        <v>4463.49853515625</v>
       </c>
     </row>
     <row r="748">
@@ -13689,7 +13689,7 @@
         <v>44244</v>
       </c>
       <c r="D748" s="10">
-        <v>9642.26171875</v>
+        <v>1364.836669921875</v>
       </c>
     </row>
     <row r="749">
@@ -13703,7 +13703,7 @@
         <v>44245</v>
       </c>
       <c r="D749" s="11">
-        <v>6027.76953125</v>
+        <v>2855.13037109375</v>
       </c>
     </row>
     <row r="750">
@@ -13717,7 +13717,7 @@
         <v>44246</v>
       </c>
       <c r="D750" s="10">
-        <v>8488.703125</v>
+        <v>4704.06982421875</v>
       </c>
     </row>
     <row r="751">
@@ -13731,7 +13731,7 @@
         <v>44247</v>
       </c>
       <c r="D751" s="11">
-        <v>3031.07763671875</v>
+        <v>8628.4794921875</v>
       </c>
     </row>
     <row r="752">
@@ -13745,7 +13745,7 @@
         <v>44248</v>
       </c>
       <c r="D752" s="10">
-        <v>6801.4638671875</v>
+        <v>4046.697021484375</v>
       </c>
     </row>
     <row r="753">
@@ -13759,7 +13759,7 @@
         <v>44249</v>
       </c>
       <c r="D753" s="11">
-        <v>6477.9287109375</v>
+        <v>4384.9052734375</v>
       </c>
     </row>
     <row r="754">
@@ -13773,7 +13773,7 @@
         <v>44250</v>
       </c>
       <c r="D754" s="10">
-        <v>3508.638427734375</v>
+        <v>3960.575439453125</v>
       </c>
     </row>
     <row r="755">
@@ -13787,7 +13787,7 @@
         <v>44251</v>
       </c>
       <c r="D755" s="11">
-        <v>2161.782958984375</v>
+        <v>6372.353515625</v>
       </c>
     </row>
     <row r="756">
@@ -13801,7 +13801,7 @@
         <v>44252</v>
       </c>
       <c r="D756" s="10">
-        <v>5970.623046875</v>
+        <v>4263.0068359375</v>
       </c>
     </row>
     <row r="757">
@@ -13815,7 +13815,7 @@
         <v>44253</v>
       </c>
       <c r="D757" s="11">
-        <v>8121.36279296875</v>
+        <v>9849.4189453125</v>
       </c>
     </row>
     <row r="758">
@@ -13829,7 +13829,7 @@
         <v>44254</v>
       </c>
       <c r="D758" s="10">
-        <v>978.7408447265625</v>
+        <v>5308.6865234375</v>
       </c>
     </row>
     <row r="759">
@@ -13843,7 +13843,7 @@
         <v>44255</v>
       </c>
       <c r="D759" s="11">
-        <v>3743.352294921875</v>
+        <v>1095.32373046875</v>
       </c>
     </row>
     <row r="760">
@@ -13857,7 +13857,7 @@
         <v>44256</v>
       </c>
       <c r="D760" s="10">
-        <v>1171.5928955078125</v>
+        <v>6667.26416015625</v>
       </c>
     </row>
     <row r="761">
@@ -13871,7 +13871,7 @@
         <v>44257</v>
       </c>
       <c r="D761" s="11">
-        <v>46.500373840332031</v>
+        <v>1129.7841796875</v>
       </c>
     </row>
     <row r="762">
@@ -13885,7 +13885,7 @@
         <v>44258</v>
       </c>
       <c r="D762" s="10">
-        <v>9494.3779296875</v>
+        <v>5285.916015625</v>
       </c>
     </row>
     <row r="763">
@@ -13899,7 +13899,7 @@
         <v>44259</v>
       </c>
       <c r="D763" s="11">
-        <v>7042.14697265625</v>
+        <v>940.55194091796875</v>
       </c>
     </row>
     <row r="764">
@@ -13913,7 +13913,7 @@
         <v>44260</v>
       </c>
       <c r="D764" s="10">
-        <v>6236.36083984375</v>
+        <v>3105.15234375</v>
       </c>
     </row>
     <row r="765">
@@ -13927,7 +13927,7 @@
         <v>44261</v>
       </c>
       <c r="D765" s="11">
-        <v>3864.38427734375</v>
+        <v>4989.43359375</v>
       </c>
     </row>
     <row r="766">
@@ -13941,7 +13941,7 @@
         <v>44262</v>
       </c>
       <c r="D766" s="10">
-        <v>9390.568359375</v>
+        <v>604.34478759765625</v>
       </c>
     </row>
     <row r="767">
@@ -13955,7 +13955,7 @@
         <v>44263</v>
       </c>
       <c r="D767" s="11">
-        <v>7215.1875</v>
+        <v>950.61224365234375</v>
       </c>
     </row>
     <row r="768">
@@ -13969,7 +13969,7 @@
         <v>44264</v>
       </c>
       <c r="D768" s="10">
-        <v>2090.853271484375</v>
+        <v>6346.86767578125</v>
       </c>
     </row>
     <row r="769">
@@ -13983,7 +13983,7 @@
         <v>44265</v>
       </c>
       <c r="D769" s="11">
-        <v>1767.820068359375</v>
+        <v>8890.998046875</v>
       </c>
     </row>
     <row r="770">
@@ -13997,7 +13997,7 @@
         <v>44266</v>
       </c>
       <c r="D770" s="10">
-        <v>2265.8359375</v>
+        <v>2147.22412109375</v>
       </c>
     </row>
     <row r="771">
@@ -14011,7 +14011,7 @@
         <v>44267</v>
       </c>
       <c r="D771" s="11">
-        <v>7419.66162109375</v>
+        <v>4070.14990234375</v>
       </c>
     </row>
     <row r="772">
@@ -14025,7 +14025,7 @@
         <v>44268</v>
       </c>
       <c r="D772" s="10">
-        <v>5783.9970703125</v>
+        <v>1252.0531005859375</v>
       </c>
     </row>
     <row r="773">
@@ -14039,7 +14039,7 @@
         <v>44269</v>
       </c>
       <c r="D773" s="11">
-        <v>3255.491455078125</v>
+        <v>1427.5125732421875</v>
       </c>
     </row>
     <row r="774">
@@ -14053,7 +14053,7 @@
         <v>44270</v>
       </c>
       <c r="D774" s="10">
-        <v>9962.744140625</v>
+        <v>9295.6220703125</v>
       </c>
     </row>
     <row r="775">
@@ -14067,7 +14067,7 @@
         <v>44271</v>
       </c>
       <c r="D775" s="11">
-        <v>1174.928466796875</v>
+        <v>8248.7197265625</v>
       </c>
     </row>
     <row r="776">
@@ -14081,7 +14081,7 @@
         <v>44272</v>
       </c>
       <c r="D776" s="10">
-        <v>2935.39453125</v>
+        <v>6370.67822265625</v>
       </c>
     </row>
     <row r="777">
@@ -14095,7 +14095,7 @@
         <v>44273</v>
       </c>
       <c r="D777" s="11">
-        <v>4675.4599609375</v>
+        <v>2234.620849609375</v>
       </c>
     </row>
     <row r="778">
@@ -14109,7 +14109,7 @@
         <v>44274</v>
       </c>
       <c r="D778" s="10">
-        <v>7504.56201171875</v>
+        <v>7082.43603515625</v>
       </c>
     </row>
     <row r="779">
@@ -14123,7 +14123,7 @@
         <v>44275</v>
       </c>
       <c r="D779" s="11">
-        <v>7039.12158203125</v>
+        <v>9641.7138671875</v>
       </c>
     </row>
     <row r="780">
@@ -14137,7 +14137,7 @@
         <v>44276</v>
       </c>
       <c r="D780" s="10">
-        <v>898.4979248046875</v>
+        <v>5998.490234375</v>
       </c>
     </row>
     <row r="781">
@@ -14151,7 +14151,7 @@
         <v>44277</v>
       </c>
       <c r="D781" s="11">
-        <v>3593.97802734375</v>
+        <v>6049.90673828125</v>
       </c>
     </row>
     <row r="782">
@@ -14165,7 +14165,7 @@
         <v>44278</v>
       </c>
       <c r="D782" s="10">
-        <v>2025.6712646484375</v>
+        <v>2270.279296875</v>
       </c>
     </row>
     <row r="783">
@@ -14179,7 +14179,7 @@
         <v>44279</v>
       </c>
       <c r="D783" s="11">
-        <v>961.06085205078125</v>
+        <v>7903.0185546875</v>
       </c>
     </row>
     <row r="784">
@@ -14193,7 +14193,7 @@
         <v>44280</v>
       </c>
       <c r="D784" s="10">
-        <v>8898.208984375</v>
+        <v>3295.16650390625</v>
       </c>
     </row>
     <row r="785">
@@ -14207,7 +14207,7 @@
         <v>44281</v>
       </c>
       <c r="D785" s="11">
-        <v>9083.88671875</v>
+        <v>1052.0765380859375</v>
       </c>
     </row>
     <row r="786">
@@ -14221,7 +14221,7 @@
         <v>44282</v>
       </c>
       <c r="D786" s="10">
-        <v>7158.82177734375</v>
+        <v>7297.8779296875</v>
       </c>
     </row>
     <row r="787">
@@ -14235,7 +14235,7 @@
         <v>44283</v>
       </c>
       <c r="D787" s="11">
-        <v>5432.71533203125</v>
+        <v>3035.38818359375</v>
       </c>
     </row>
     <row r="788">
@@ -14249,7 +14249,7 @@
         <v>44284</v>
       </c>
       <c r="D788" s="10">
-        <v>4728.826171875</v>
+        <v>4817.26953125</v>
       </c>
     </row>
     <row r="789">
@@ -14263,7 +14263,7 @@
         <v>44285</v>
       </c>
       <c r="D789" s="11">
-        <v>4605.466796875</v>
+        <v>969.66461181640625</v>
       </c>
     </row>
     <row r="790">
@@ -14277,7 +14277,7 @@
         <v>44286</v>
       </c>
       <c r="D790" s="10">
-        <v>2199.6689453125</v>
+        <v>2429.82373046875</v>
       </c>
     </row>
     <row r="791">
@@ -14291,7 +14291,7 @@
         <v>44287</v>
       </c>
       <c r="D791" s="11">
-        <v>8233.6748046875</v>
+        <v>1675.01904296875</v>
       </c>
     </row>
     <row r="792">
@@ -14305,7 +14305,7 @@
         <v>44288</v>
       </c>
       <c r="D792" s="10">
-        <v>6210.86181640625</v>
+        <v>9755.3583984375</v>
       </c>
     </row>
     <row r="793">
@@ -14319,7 +14319,7 @@
         <v>44289</v>
       </c>
       <c r="D793" s="11">
-        <v>7597.7080078125</v>
+        <v>5200.68701171875</v>
       </c>
     </row>
     <row r="794">
@@ -14333,7 +14333,7 @@
         <v>44290</v>
       </c>
       <c r="D794" s="10">
-        <v>2431.491455078125</v>
+        <v>2945.427001953125</v>
       </c>
     </row>
     <row r="795">
@@ -14347,7 +14347,7 @@
         <v>44291</v>
       </c>
       <c r="D795" s="11">
-        <v>7985.00537109375</v>
+        <v>7802.62939453125</v>
       </c>
     </row>
     <row r="796">
@@ -14361,7 +14361,7 @@
         <v>44292</v>
       </c>
       <c r="D796" s="10">
-        <v>3048.180908203125</v>
+        <v>2859.50439453125</v>
       </c>
     </row>
     <row r="797">
@@ -14375,7 +14375,7 @@
         <v>44293</v>
       </c>
       <c r="D797" s="11">
-        <v>9933.935546875</v>
+        <v>302.37149047851562</v>
       </c>
     </row>
     <row r="798">
@@ -14389,7 +14389,7 @@
         <v>44294</v>
       </c>
       <c r="D798" s="10">
-        <v>8320.5908203125</v>
+        <v>2958.663330078125</v>
       </c>
     </row>
     <row r="799">
@@ -14403,7 +14403,7 @@
         <v>44295</v>
       </c>
       <c r="D799" s="11">
-        <v>5171.70361328125</v>
+        <v>4436.88232421875</v>
       </c>
     </row>
     <row r="800">
@@ -14417,7 +14417,7 @@
         <v>44296</v>
       </c>
       <c r="D800" s="10">
-        <v>385.84512329101562</v>
+        <v>1076.0361328125</v>
       </c>
     </row>
     <row r="801">
@@ -14431,7 +14431,7 @@
         <v>44297</v>
       </c>
       <c r="D801" s="11">
-        <v>3409.91357421875</v>
+        <v>4919.0966796875</v>
       </c>
     </row>
     <row r="802">
@@ -14445,7 +14445,7 @@
         <v>44298</v>
       </c>
       <c r="D802" s="10">
-        <v>9014.763671875</v>
+        <v>8116.63134765625</v>
       </c>
     </row>
     <row r="803">
@@ -14459,7 +14459,7 @@
         <v>44299</v>
       </c>
       <c r="D803" s="11">
-        <v>7874.44189453125</v>
+        <v>2473.838134765625</v>
       </c>
     </row>
     <row r="804">
@@ -14473,7 +14473,7 @@
         <v>44300</v>
       </c>
       <c r="D804" s="10">
-        <v>3761.933837890625</v>
+        <v>707.9063720703125</v>
       </c>
     </row>
     <row r="805">
@@ -14487,7 +14487,7 @@
         <v>44301</v>
       </c>
       <c r="D805" s="11">
-        <v>1069.0421142578125</v>
+        <v>633.91998291015625</v>
       </c>
     </row>
     <row r="806">
@@ -14501,7 +14501,7 @@
         <v>44302</v>
       </c>
       <c r="D806" s="10">
-        <v>7247.08056640625</v>
+        <v>7376.42626953125</v>
       </c>
     </row>
     <row r="807">
@@ -14515,7 +14515,7 @@
         <v>44303</v>
       </c>
       <c r="D807" s="11">
-        <v>3545.97265625</v>
+        <v>2619.184326171875</v>
       </c>
     </row>
     <row r="808">
@@ -14529,7 +14529,7 @@
         <v>44304</v>
       </c>
       <c r="D808" s="10">
-        <v>6515.18505859375</v>
+        <v>5089.283203125</v>
       </c>
     </row>
     <row r="809">
@@ -14543,7 +14543,7 @@
         <v>44305</v>
       </c>
       <c r="D809" s="11">
-        <v>2333.7099609375</v>
+        <v>5711.85595703125</v>
       </c>
     </row>
     <row r="810">
@@ -14557,7 +14557,7 @@
         <v>44306</v>
       </c>
       <c r="D810" s="10">
-        <v>9226.388671875</v>
+        <v>1.6753561496734619</v>
       </c>
     </row>
     <row r="811">
@@ -14571,7 +14571,7 @@
         <v>44307</v>
       </c>
       <c r="D811" s="11">
-        <v>1295.1629638671875</v>
+        <v>2028.3858642578125</v>
       </c>
     </row>
     <row r="812">
@@ -14585,7 +14585,7 @@
         <v>44308</v>
       </c>
       <c r="D812" s="10">
-        <v>616.8004150390625</v>
+        <v>2766.982666015625</v>
       </c>
     </row>
     <row r="813">
@@ -14599,7 +14599,7 @@
         <v>44309</v>
       </c>
       <c r="D813" s="11">
-        <v>3939.619140625</v>
+        <v>5666.97265625</v>
       </c>
     </row>
     <row r="814">
@@ -14613,7 +14613,7 @@
         <v>44310</v>
       </c>
       <c r="D814" s="10">
-        <v>2844.8544921875</v>
+        <v>5096.83349609375</v>
       </c>
     </row>
     <row r="815">
@@ -14627,7 +14627,7 @@
         <v>44311</v>
       </c>
       <c r="D815" s="11">
-        <v>7577.61474609375</v>
+        <v>617.357421875</v>
       </c>
     </row>
     <row r="816">
@@ -14641,7 +14641,7 @@
         <v>44312</v>
       </c>
       <c r="D816" s="10">
-        <v>8020.8291015625</v>
+        <v>8859.5048828125</v>
       </c>
     </row>
     <row r="817">
@@ -14655,7 +14655,7 @@
         <v>44313</v>
       </c>
       <c r="D817" s="11">
-        <v>8533.31640625</v>
+        <v>7382.8974609375</v>
       </c>
     </row>
     <row r="818">
@@ -14669,7 +14669,7 @@
         <v>44314</v>
       </c>
       <c r="D818" s="10">
-        <v>8143.93798828125</v>
+        <v>7645.38525390625</v>
       </c>
     </row>
     <row r="819">
@@ -14683,7 +14683,7 @@
         <v>44315</v>
       </c>
       <c r="D819" s="11">
-        <v>7152.4736328125</v>
+        <v>2053.07568359375</v>
       </c>
     </row>
     <row r="820">
@@ -14697,7 +14697,7 @@
         <v>44316</v>
       </c>
       <c r="D820" s="10">
-        <v>6705.5625</v>
+        <v>7691.5556640625</v>
       </c>
     </row>
     <row r="821">
@@ -14711,7 +14711,7 @@
         <v>44317</v>
       </c>
       <c r="D821" s="11">
-        <v>3957.852783203125</v>
+        <v>7568.95654296875</v>
       </c>
     </row>
     <row r="822">
@@ -14725,7 +14725,7 @@
         <v>44318</v>
       </c>
       <c r="D822" s="10">
-        <v>2486.361328125</v>
+        <v>6133.3427734375</v>
       </c>
     </row>
     <row r="823">
@@ -14739,7 +14739,7 @@
         <v>44319</v>
       </c>
       <c r="D823" s="11">
-        <v>7485.38623046875</v>
+        <v>5377.20263671875</v>
       </c>
     </row>
     <row r="824">
@@ -14753,7 +14753,7 @@
         <v>44320</v>
       </c>
       <c r="D824" s="10">
-        <v>9568.1513671875</v>
+        <v>6461.1748046875</v>
       </c>
     </row>
     <row r="825">
@@ -14767,7 +14767,7 @@
         <v>44321</v>
       </c>
       <c r="D825" s="11">
-        <v>4032.16064453125</v>
+        <v>472.20501708984375</v>
       </c>
     </row>
     <row r="826">
@@ -14781,7 +14781,7 @@
         <v>44322</v>
       </c>
       <c r="D826" s="10">
-        <v>1208.7996826171875</v>
+        <v>4314.791015625</v>
       </c>
     </row>
     <row r="827">
@@ -14795,7 +14795,7 @@
         <v>44323</v>
       </c>
       <c r="D827" s="11">
-        <v>8186.28955078125</v>
+        <v>6051.3662109375</v>
       </c>
     </row>
     <row r="828">
@@ -14809,7 +14809,7 @@
         <v>44324</v>
       </c>
       <c r="D828" s="10">
-        <v>824.00018310546875</v>
+        <v>8482.0859375</v>
       </c>
     </row>
     <row r="829">
@@ -14823,7 +14823,7 @@
         <v>44325</v>
       </c>
       <c r="D829" s="11">
-        <v>1977.73828125</v>
+        <v>1492.9925537109375</v>
       </c>
     </row>
     <row r="830">
@@ -14837,7 +14837,7 @@
         <v>44326</v>
       </c>
       <c r="D830" s="10">
-        <v>8126.74755859375</v>
+        <v>5389.21484375</v>
       </c>
     </row>
     <row r="831">
@@ -14851,7 +14851,7 @@
         <v>44327</v>
       </c>
       <c r="D831" s="11">
-        <v>3001.459228515625</v>
+        <v>6068.30712890625</v>
       </c>
     </row>
     <row r="832">
@@ -14865,7 +14865,7 @@
         <v>44328</v>
       </c>
       <c r="D832" s="10">
-        <v>6354.86962890625</v>
+        <v>9275.95703125</v>
       </c>
     </row>
     <row r="833">
@@ -14879,7 +14879,7 @@
         <v>44329</v>
       </c>
       <c r="D833" s="11">
-        <v>2332.8583984375</v>
+        <v>2645.5537109375</v>
       </c>
     </row>
     <row r="834">
@@ -14893,7 +14893,7 @@
         <v>44330</v>
       </c>
       <c r="D834" s="10">
-        <v>6653.27685546875</v>
+        <v>8565.677734375</v>
       </c>
     </row>
     <row r="835">
@@ -14907,7 +14907,7 @@
         <v>44331</v>
       </c>
       <c r="D835" s="11">
-        <v>7488.58447265625</v>
+        <v>1079.3931884765625</v>
       </c>
     </row>
     <row r="836">
@@ -14921,7 +14921,7 @@
         <v>44332</v>
       </c>
       <c r="D836" s="10">
-        <v>4579.2138671875</v>
+        <v>7933.27587890625</v>
       </c>
     </row>
     <row r="837">
@@ -14935,7 +14935,7 @@
         <v>44333</v>
       </c>
       <c r="D837" s="11">
-        <v>4151.22900390625</v>
+        <v>9796.44140625</v>
       </c>
     </row>
     <row r="838">
@@ -14949,7 +14949,7 @@
         <v>44334</v>
       </c>
       <c r="D838" s="10">
-        <v>7199.126953125</v>
+        <v>7195.1123046875</v>
       </c>
     </row>
     <row r="839">
@@ -14963,7 +14963,7 @@
         <v>44335</v>
       </c>
       <c r="D839" s="11">
-        <v>7829.1669921875</v>
+        <v>2661.24658203125</v>
       </c>
     </row>
     <row r="840">
@@ -14977,7 +14977,7 @@
         <v>44336</v>
       </c>
       <c r="D840" s="10">
-        <v>1836.806396484375</v>
+        <v>3675.650146484375</v>
       </c>
     </row>
     <row r="841">
@@ -14991,7 +14991,7 @@
         <v>44337</v>
       </c>
       <c r="D841" s="11">
-        <v>3612.849365234375</v>
+        <v>4678.693359375</v>
       </c>
     </row>
     <row r="842">
@@ -15005,7 +15005,7 @@
         <v>44338</v>
       </c>
       <c r="D842" s="10">
-        <v>8917.5302734375</v>
+        <v>7946.10498046875</v>
       </c>
     </row>
     <row r="843">
@@ -15019,7 +15019,7 @@
         <v>44339</v>
       </c>
       <c r="D843" s="11">
-        <v>2395.1162109375</v>
+        <v>9105.4140625</v>
       </c>
     </row>
     <row r="844">
@@ -15033,7 +15033,7 @@
         <v>44340</v>
       </c>
       <c r="D844" s="10">
-        <v>5379.07861328125</v>
+        <v>967.9892578125</v>
       </c>
     </row>
     <row r="845">
@@ -15047,7 +15047,7 @@
         <v>44341</v>
       </c>
       <c r="D845" s="11">
-        <v>904.5059814453125</v>
+        <v>401.43795776367188</v>
       </c>
     </row>
     <row r="846">
@@ -15061,7 +15061,7 @@
         <v>44342</v>
       </c>
       <c r="D846" s="10">
-        <v>7616.875</v>
+        <v>8908.0361328125</v>
       </c>
     </row>
     <row r="847">
@@ -15075,7 +15075,7 @@
         <v>44343</v>
       </c>
       <c r="D847" s="11">
-        <v>2271.24267578125</v>
+        <v>4088.38623046875</v>
       </c>
     </row>
     <row r="848">
@@ -15089,7 +15089,7 @@
         <v>44344</v>
       </c>
       <c r="D848" s="10">
-        <v>4752.853515625</v>
+        <v>103.85317993164063</v>
       </c>
     </row>
     <row r="849">
@@ -15103,7 +15103,7 @@
         <v>44345</v>
       </c>
       <c r="D849" s="11">
-        <v>4853.87646484375</v>
+        <v>2328.069580078125</v>
       </c>
     </row>
     <row r="850">
@@ -15117,7 +15117,7 @@
         <v>44346</v>
       </c>
       <c r="D850" s="10">
-        <v>9964.1767578125</v>
+        <v>8943.125</v>
       </c>
     </row>
     <row r="851">
@@ -15131,7 +15131,7 @@
         <v>44347</v>
       </c>
       <c r="D851" s="11">
-        <v>4514.8642578125</v>
+        <v>5476.60693359375</v>
       </c>
     </row>
     <row r="852">
@@ -15145,7 +15145,7 @@
         <v>44348</v>
       </c>
       <c r="D852" s="10">
-        <v>1789.997314453125</v>
+        <v>2656.986083984375</v>
       </c>
     </row>
     <row r="853">
@@ -15159,7 +15159,7 @@
         <v>44349</v>
       </c>
       <c r="D853" s="11">
-        <v>1168.1165771484375</v>
+        <v>905.587646484375</v>
       </c>
     </row>
     <row r="854">
@@ -15173,7 +15173,7 @@
         <v>44350</v>
       </c>
       <c r="D854" s="10">
-        <v>8466.1416015625</v>
+        <v>6745.32666015625</v>
       </c>
     </row>
     <row r="855">
@@ -15187,7 +15187,7 @@
         <v>44351</v>
       </c>
       <c r="D855" s="11">
-        <v>6427.9921875</v>
+        <v>3507.07958984375</v>
       </c>
     </row>
     <row r="856">
@@ -15201,7 +15201,7 @@
         <v>44352</v>
       </c>
       <c r="D856" s="10">
-        <v>923.55218505859375</v>
+        <v>8785.75390625</v>
       </c>
     </row>
     <row r="857">
@@ -15215,7 +15215,7 @@
         <v>44353</v>
       </c>
       <c r="D857" s="11">
-        <v>1529.377685546875</v>
+        <v>2739.428466796875</v>
       </c>
     </row>
     <row r="858">
@@ -15229,7 +15229,7 @@
         <v>44354</v>
       </c>
       <c r="D858" s="10">
-        <v>8306.291015625</v>
+        <v>6012.66357421875</v>
       </c>
     </row>
     <row r="859">
@@ -15243,7 +15243,7 @@
         <v>44355</v>
       </c>
       <c r="D859" s="11">
-        <v>9729.7734375</v>
+        <v>235.70137023925781</v>
       </c>
     </row>
     <row r="860">
@@ -15257,7 +15257,7 @@
         <v>44356</v>
       </c>
       <c r="D860" s="10">
-        <v>9860.2421875</v>
+        <v>6319.12890625</v>
       </c>
     </row>
     <row r="861">
@@ -15271,7 +15271,7 @@
         <v>44357</v>
       </c>
       <c r="D861" s="11">
-        <v>9060.791015625</v>
+        <v>1325.0601806640625</v>
       </c>
     </row>
     <row r="862">
@@ -15285,7 +15285,7 @@
         <v>44358</v>
       </c>
       <c r="D862" s="10">
-        <v>2721.972412109375</v>
+        <v>4137.0986328125</v>
       </c>
     </row>
     <row r="863">
@@ -15299,7 +15299,7 @@
         <v>44359</v>
       </c>
       <c r="D863" s="11">
-        <v>4537.44677734375</v>
+        <v>3596.29052734375</v>
       </c>
     </row>
     <row r="864">
@@ -15313,7 +15313,7 @@
         <v>44360</v>
       </c>
       <c r="D864" s="10">
-        <v>4206.96240234375</v>
+        <v>322.64132690429688</v>
       </c>
     </row>
     <row r="865">
@@ -15327,7 +15327,7 @@
         <v>44361</v>
       </c>
       <c r="D865" s="11">
-        <v>6224.92919921875</v>
+        <v>3933.368408203125</v>
       </c>
     </row>
     <row r="866">
@@ -15341,7 +15341,7 @@
         <v>44362</v>
       </c>
       <c r="D866" s="10">
-        <v>4940.29296875</v>
+        <v>2752.428466796875</v>
       </c>
     </row>
     <row r="867">
@@ -15355,7 +15355,7 @@
         <v>44363</v>
       </c>
       <c r="D867" s="11">
-        <v>8283.9423828125</v>
+        <v>121.42900085449219</v>
       </c>
     </row>
     <row r="868">
@@ -15369,7 +15369,7 @@
         <v>44364</v>
       </c>
       <c r="D868" s="10">
-        <v>7286.34228515625</v>
+        <v>7101.294921875</v>
       </c>
     </row>
     <row r="869">
@@ -15383,7 +15383,7 @@
         <v>44365</v>
       </c>
       <c r="D869" s="11">
-        <v>5356.27001953125</v>
+        <v>4017.440673828125</v>
       </c>
     </row>
     <row r="870">
@@ -15397,7 +15397,7 @@
         <v>44366</v>
       </c>
       <c r="D870" s="10">
-        <v>2998.400634765625</v>
+        <v>2684.081787109375</v>
       </c>
     </row>
     <row r="871">
@@ -15411,7 +15411,7 @@
         <v>44367</v>
       </c>
       <c r="D871" s="11">
-        <v>3869.599853515625</v>
+        <v>9063.0634765625</v>
       </c>
     </row>
     <row r="872">
@@ -15425,7 +15425,7 @@
         <v>44368</v>
       </c>
       <c r="D872" s="10">
-        <v>1334.1895751953125</v>
+        <v>187.784912109375</v>
       </c>
     </row>
     <row r="873">
@@ -15439,7 +15439,7 @@
         <v>44369</v>
       </c>
       <c r="D873" s="11">
-        <v>314.77090454101562</v>
+        <v>4984.138671875</v>
       </c>
     </row>
     <row r="874">
@@ -15453,7 +15453,7 @@
         <v>44370</v>
       </c>
       <c r="D874" s="10">
-        <v>5315.66748046875</v>
+        <v>8377.42578125</v>
       </c>
     </row>
     <row r="875">
@@ -15467,7 +15467,7 @@
         <v>44371</v>
       </c>
       <c r="D875" s="11">
-        <v>3092.713134765625</v>
+        <v>3012.862060546875</v>
       </c>
     </row>
     <row r="876">
@@ -15481,7 +15481,7 @@
         <v>44372</v>
       </c>
       <c r="D876" s="10">
-        <v>5040.322265625</v>
+        <v>9622.8515625</v>
       </c>
     </row>
     <row r="877">
@@ -15495,7 +15495,7 @@
         <v>44373</v>
       </c>
       <c r="D877" s="11">
-        <v>91.24517822265625</v>
+        <v>7027.92919921875</v>
       </c>
     </row>
     <row r="878">
@@ -15509,7 +15509,7 @@
         <v>44374</v>
       </c>
       <c r="D878" s="10">
-        <v>2106.307861328125</v>
+        <v>4409.21337890625</v>
       </c>
     </row>
     <row r="879">
@@ -15523,7 +15523,7 @@
         <v>44375</v>
       </c>
       <c r="D879" s="11">
-        <v>8663.6455078125</v>
+        <v>6059.73681640625</v>
       </c>
     </row>
     <row r="880">
@@ -15537,7 +15537,7 @@
         <v>44376</v>
       </c>
       <c r="D880" s="10">
-        <v>6415.28564453125</v>
+        <v>1564.1685791015625</v>
       </c>
     </row>
     <row r="881">
@@ -15551,7 +15551,7 @@
         <v>44377</v>
       </c>
       <c r="D881" s="11">
-        <v>8937.556640625</v>
+        <v>226.40483093261719</v>
       </c>
     </row>
     <row r="882">
@@ -15565,7 +15565,7 @@
         <v>44378</v>
       </c>
       <c r="D882" s="10">
-        <v>3433.43603515625</v>
+        <v>5947.51318359375</v>
       </c>
     </row>
     <row r="883">
@@ -15579,7 +15579,7 @@
         <v>44379</v>
       </c>
       <c r="D883" s="11">
-        <v>5970.12353515625</v>
+        <v>6154.015625</v>
       </c>
     </row>
     <row r="884">
@@ -15593,7 +15593,7 @@
         <v>44380</v>
       </c>
       <c r="D884" s="10">
-        <v>2013.5618896484375</v>
+        <v>2549.867919921875</v>
       </c>
     </row>
     <row r="885">
@@ -15607,7 +15607,7 @@
         <v>44381</v>
       </c>
       <c r="D885" s="11">
-        <v>3611.883544921875</v>
+        <v>9912.607421875</v>
       </c>
     </row>
     <row r="886">
@@ -15621,7 +15621,7 @@
         <v>44382</v>
       </c>
       <c r="D886" s="10">
-        <v>1211.4617919921875</v>
+        <v>3411.32080078125</v>
       </c>
     </row>
     <row r="887">
@@ -15635,7 +15635,7 @@
         <v>44383</v>
       </c>
       <c r="D887" s="11">
-        <v>5186.7529296875</v>
+        <v>8370.3701171875</v>
       </c>
     </row>
     <row r="888">
@@ -15649,7 +15649,7 @@
         <v>44384</v>
       </c>
       <c r="D888" s="10">
-        <v>3866.717041015625</v>
+        <v>5900.2265625</v>
       </c>
     </row>
     <row r="889">
@@ -15663,7 +15663,7 @@
         <v>44385</v>
       </c>
       <c r="D889" s="11">
-        <v>225.28425598144531</v>
+        <v>5058.59814453125</v>
       </c>
     </row>
     <row r="890">
@@ -15677,7 +15677,7 @@
         <v>44386</v>
       </c>
       <c r="D890" s="10">
-        <v>6565.0322265625</v>
+        <v>2293.638916015625</v>
       </c>
     </row>
     <row r="891">
@@ -15691,7 +15691,7 @@
         <v>44387</v>
       </c>
       <c r="D891" s="11">
-        <v>3049.83642578125</v>
+        <v>5193.84716796875</v>
       </c>
     </row>
     <row r="892">
@@ -15705,7 +15705,7 @@
         <v>44388</v>
       </c>
       <c r="D892" s="10">
-        <v>5844.9384765625</v>
+        <v>3783.777587890625</v>
       </c>
     </row>
     <row r="893">
@@ -15719,7 +15719,7 @@
         <v>44389</v>
       </c>
       <c r="D893" s="11">
-        <v>7469.35400390625</v>
+        <v>6959.4111328125</v>
       </c>
     </row>
     <row r="894">
@@ -15733,7 +15733,7 @@
         <v>44390</v>
       </c>
       <c r="D894" s="10">
-        <v>7968.92431640625</v>
+        <v>6342.11767578125</v>
       </c>
     </row>
     <row r="895">
@@ -15747,7 +15747,7 @@
         <v>44391</v>
       </c>
       <c r="D895" s="11">
-        <v>2776.015380859375</v>
+        <v>2350.590087890625</v>
       </c>
     </row>
     <row r="896">
@@ -15761,7 +15761,7 @@
         <v>44392</v>
       </c>
       <c r="D896" s="10">
-        <v>890.87689208984375</v>
+        <v>541.59466552734375</v>
       </c>
     </row>
     <row r="897">
@@ -15775,7 +15775,7 @@
         <v>44393</v>
       </c>
       <c r="D897" s="11">
-        <v>4380.083984375</v>
+        <v>4349.814453125</v>
       </c>
     </row>
     <row r="898">
@@ -15789,7 +15789,7 @@
         <v>44394</v>
       </c>
       <c r="D898" s="10">
-        <v>8188.15380859375</v>
+        <v>8782.7724609375</v>
       </c>
     </row>
     <row r="899">
@@ -15803,7 +15803,7 @@
         <v>44395</v>
       </c>
       <c r="D899" s="11">
-        <v>9154.1494140625</v>
+        <v>7034.62060546875</v>
       </c>
     </row>
     <row r="900">
@@ -15817,7 +15817,7 @@
         <v>44396</v>
       </c>
       <c r="D900" s="10">
-        <v>5964.212890625</v>
+        <v>7649.009765625</v>
       </c>
     </row>
     <row r="901">
@@ -15831,7 +15831,7 @@
         <v>44397</v>
       </c>
       <c r="D901" s="11">
-        <v>9332.9326171875</v>
+        <v>8786.607421875</v>
       </c>
     </row>
     <row r="902">
@@ -15845,7 +15845,7 @@
         <v>44398</v>
       </c>
       <c r="D902" s="10">
-        <v>4984.89990234375</v>
+        <v>6987.09130859375</v>
       </c>
     </row>
     <row r="903">
@@ -15859,7 +15859,7 @@
         <v>44399</v>
       </c>
       <c r="D903" s="11">
-        <v>9396.5830078125</v>
+        <v>6086.41259765625</v>
       </c>
     </row>
     <row r="904">
@@ -15873,7 +15873,7 @@
         <v>44400</v>
       </c>
       <c r="D904" s="10">
-        <v>1855.475830078125</v>
+        <v>9643.98828125</v>
       </c>
     </row>
     <row r="905">
@@ -15887,7 +15887,7 @@
         <v>44401</v>
       </c>
       <c r="D905" s="11">
-        <v>6094.57666015625</v>
+        <v>9880.060546875</v>
       </c>
     </row>
     <row r="906">
@@ -15901,7 +15901,7 @@
         <v>44402</v>
       </c>
       <c r="D906" s="10">
-        <v>3180.67431640625</v>
+        <v>5288.822265625</v>
       </c>
     </row>
     <row r="907">
@@ -15915,7 +15915,7 @@
         <v>44403</v>
       </c>
       <c r="D907" s="11">
-        <v>1475.2264404296875</v>
+        <v>7672.84716796875</v>
       </c>
     </row>
     <row r="908">
@@ -15929,7 +15929,7 @@
         <v>44404</v>
       </c>
       <c r="D908" s="10">
-        <v>5852.44921875</v>
+        <v>2528.162109375</v>
       </c>
     </row>
     <row r="909">
@@ -15943,7 +15943,7 @@
         <v>44405</v>
       </c>
       <c r="D909" s="11">
-        <v>5373.42822265625</v>
+        <v>3732.464599609375</v>
       </c>
     </row>
     <row r="910">
@@ -15957,7 +15957,7 @@
         <v>44406</v>
       </c>
       <c r="D910" s="10">
-        <v>1387.670166015625</v>
+        <v>3884.228271484375</v>
       </c>
     </row>
     <row r="911">
@@ -15971,7 +15971,7 @@
         <v>44407</v>
       </c>
       <c r="D911" s="11">
-        <v>832.3070068359375</v>
+        <v>1757.8253173828125</v>
       </c>
     </row>
     <row r="912">
@@ -15985,7 +15985,7 @@
         <v>44408</v>
       </c>
       <c r="D912" s="10">
-        <v>9423.0693359375</v>
+        <v>8330.21484375</v>
       </c>
     </row>
     <row r="913">
@@ -15999,7 +15999,7 @@
         <v>44409</v>
       </c>
       <c r="D913" s="11">
-        <v>9642.6455078125</v>
+        <v>9952.9267578125</v>
       </c>
     </row>
     <row r="914">
@@ -16013,7 +16013,7 @@
         <v>44410</v>
       </c>
       <c r="D914" s="10">
-        <v>3314.4873046875</v>
+        <v>8671.533203125</v>
       </c>
     </row>
     <row r="915">
@@ -16027,7 +16027,7 @@
         <v>44411</v>
       </c>
       <c r="D915" s="11">
-        <v>922.68548583984375</v>
+        <v>6092.72412109375</v>
       </c>
     </row>
     <row r="916">
@@ -16041,7 +16041,7 @@
         <v>44412</v>
       </c>
       <c r="D916" s="10">
-        <v>5627.35498046875</v>
+        <v>5377.546875</v>
       </c>
     </row>
     <row r="917">
@@ -16055,7 +16055,7 @@
         <v>44413</v>
       </c>
       <c r="D917" s="11">
-        <v>6751.8486328125</v>
+        <v>7983.0830078125</v>
       </c>
     </row>
     <row r="918">
@@ -16069,7 +16069,7 @@
         <v>44414</v>
       </c>
       <c r="D918" s="10">
-        <v>2523.885009765625</v>
+        <v>1046.422607421875</v>
       </c>
     </row>
     <row r="919">
@@ -16083,7 +16083,7 @@
         <v>44415</v>
       </c>
       <c r="D919" s="11">
-        <v>595.07879638671875</v>
+        <v>410.03366088867188</v>
       </c>
     </row>
     <row r="920">
@@ -16097,7 +16097,7 @@
         <v>44416</v>
       </c>
       <c r="D920" s="10">
-        <v>5013.4677734375</v>
+        <v>522.047607421875</v>
       </c>
     </row>
     <row r="921">
@@ -16111,7 +16111,7 @@
         <v>44417</v>
       </c>
       <c r="D921" s="11">
-        <v>9753.5400390625</v>
+        <v>4382.05859375</v>
       </c>
     </row>
     <row r="922">
@@ -16125,7 +16125,7 @@
         <v>44418</v>
       </c>
       <c r="D922" s="10">
-        <v>4417.22509765625</v>
+        <v>4221.2021484375</v>
       </c>
     </row>
     <row r="923">
@@ -16139,7 +16139,7 @@
         <v>44419</v>
       </c>
       <c r="D923" s="11">
-        <v>7061.05810546875</v>
+        <v>2042.697021484375</v>
       </c>
     </row>
     <row r="924">
@@ -16153,7 +16153,7 @@
         <v>44420</v>
       </c>
       <c r="D924" s="10">
-        <v>8791.23828125</v>
+        <v>1723.8017578125</v>
       </c>
     </row>
     <row r="925">
@@ -16167,7 +16167,7 @@
         <v>44421</v>
       </c>
       <c r="D925" s="11">
-        <v>9948.564453125</v>
+        <v>7490.234375</v>
       </c>
     </row>
     <row r="926">
@@ -16181,7 +16181,7 @@
         <v>44422</v>
       </c>
       <c r="D926" s="10">
-        <v>8024.66162109375</v>
+        <v>5279.2861328125</v>
       </c>
     </row>
     <row r="927">
@@ -16195,7 +16195,7 @@
         <v>44423</v>
       </c>
       <c r="D927" s="11">
-        <v>3864.835693359375</v>
+        <v>3228.373779296875</v>
       </c>
     </row>
     <row r="928">
@@ -16209,7 +16209,7 @@
         <v>44424</v>
       </c>
       <c r="D928" s="10">
-        <v>2345.846435546875</v>
+        <v>8642.021484375</v>
       </c>
     </row>
     <row r="929">
@@ -16223,7 +16223,7 @@
         <v>44425</v>
       </c>
       <c r="D929" s="11">
-        <v>2539.652099609375</v>
+        <v>6026.83544921875</v>
       </c>
     </row>
     <row r="930">
@@ -16237,7 +16237,7 @@
         <v>44426</v>
       </c>
       <c r="D930" s="10">
-        <v>2201.83642578125</v>
+        <v>2471.267578125</v>
       </c>
     </row>
     <row r="931">
@@ -16251,7 +16251,7 @@
         <v>44427</v>
       </c>
       <c r="D931" s="11">
-        <v>660.2384033203125</v>
+        <v>5273.03662109375</v>
       </c>
     </row>
     <row r="932">
@@ -16265,7 +16265,7 @@
         <v>44428</v>
       </c>
       <c r="D932" s="10">
-        <v>1903.0911865234375</v>
+        <v>8245.15625</v>
       </c>
     </row>
     <row r="933">
@@ -16279,7 +16279,7 @@
         <v>44429</v>
       </c>
       <c r="D933" s="11">
-        <v>2952.158935546875</v>
+        <v>7374.5927734375</v>
       </c>
     </row>
     <row r="934">
@@ -16293,7 +16293,7 @@
         <v>44430</v>
       </c>
       <c r="D934" s="10">
-        <v>2699.432373046875</v>
+        <v>8410.7275390625</v>
       </c>
     </row>
     <row r="935">
@@ -16307,7 +16307,7 @@
         <v>44431</v>
       </c>
       <c r="D935" s="11">
-        <v>7082.35302734375</v>
+        <v>2777.561279296875</v>
       </c>
     </row>
     <row r="936">
@@ -16321,7 +16321,7 @@
         <v>44432</v>
       </c>
       <c r="D936" s="10">
-        <v>3952.656982421875</v>
+        <v>3239.3134765625</v>
       </c>
     </row>
     <row r="937">
@@ -16335,7 +16335,7 @@
         <v>44433</v>
       </c>
       <c r="D937" s="11">
-        <v>4036.85302734375</v>
+        <v>9861.1005859375</v>
       </c>
     </row>
     <row r="938">
@@ -16349,7 +16349,7 @@
         <v>44434</v>
       </c>
       <c r="D938" s="10">
-        <v>4114.6474609375</v>
+        <v>6510.02783203125</v>
       </c>
     </row>
     <row r="939">
@@ -16363,7 +16363,7 @@
         <v>44435</v>
       </c>
       <c r="D939" s="11">
-        <v>5918.9853515625</v>
+        <v>2669.80712890625</v>
       </c>
     </row>
     <row r="940">
@@ -16377,7 +16377,7 @@
         <v>44436</v>
       </c>
       <c r="D940" s="10">
-        <v>431.2091064453125</v>
+        <v>4623.78515625</v>
       </c>
     </row>
     <row r="941">
@@ -16391,7 +16391,7 @@
         <v>44437</v>
       </c>
       <c r="D941" s="11">
-        <v>9736.2353515625</v>
+        <v>5738.4736328125</v>
       </c>
     </row>
     <row r="942">
@@ -16405,7 +16405,7 @@
         <v>44438</v>
       </c>
       <c r="D942" s="10">
-        <v>9334.3037109375</v>
+        <v>5842.2080078125</v>
       </c>
     </row>
     <row r="943">
@@ -16419,7 +16419,7 @@
         <v>44439</v>
       </c>
       <c r="D943" s="11">
-        <v>8493.2890625</v>
+        <v>2167.761962890625</v>
       </c>
     </row>
     <row r="944">
@@ -16433,7 +16433,7 @@
         <v>44440</v>
       </c>
       <c r="D944" s="10">
-        <v>8837.6142578125</v>
+        <v>1174.3697509765625</v>
       </c>
     </row>
     <row r="945">
@@ -16447,7 +16447,7 @@
         <v>44441</v>
       </c>
       <c r="D945" s="11">
-        <v>5732.72509765625</v>
+        <v>535.8134765625</v>
       </c>
     </row>
     <row r="946">
@@ -16461,7 +16461,7 @@
         <v>44442</v>
       </c>
       <c r="D946" s="10">
-        <v>3626.7666015625</v>
+        <v>6863.63232421875</v>
       </c>
     </row>
     <row r="947">
@@ -16475,7 +16475,7 @@
         <v>44443</v>
       </c>
       <c r="D947" s="11">
-        <v>6202.29248046875</v>
+        <v>3830.8505859375</v>
       </c>
     </row>
     <row r="948">
@@ -16489,7 +16489,7 @@
         <v>44444</v>
       </c>
       <c r="D948" s="10">
-        <v>4154.86669921875</v>
+        <v>8287.8779296875</v>
       </c>
     </row>
     <row r="949">
@@ -16503,7 +16503,7 @@
         <v>44445</v>
       </c>
       <c r="D949" s="11">
-        <v>7046.2392578125</v>
+        <v>249.39373779296875</v>
       </c>
     </row>
     <row r="950">
@@ -16517,7 +16517,7 @@
         <v>44446</v>
       </c>
       <c r="D950" s="10">
-        <v>7148.66015625</v>
+        <v>6973.04296875</v>
       </c>
     </row>
     <row r="951">
@@ -16531,7 +16531,7 @@
         <v>44447</v>
       </c>
       <c r="D951" s="11">
-        <v>4139.02783203125</v>
+        <v>2558.51171875</v>
       </c>
     </row>
     <row r="952">
@@ -16545,7 +16545,7 @@
         <v>44448</v>
       </c>
       <c r="D952" s="10">
-        <v>1856.1988525390625</v>
+        <v>3303.391845703125</v>
       </c>
     </row>
     <row r="953">
@@ -16559,7 +16559,7 @@
         <v>44449</v>
       </c>
       <c r="D953" s="11">
-        <v>7593.0751953125</v>
+        <v>8372.73828125</v>
       </c>
     </row>
     <row r="954">
@@ -16573,7 +16573,7 @@
         <v>44450</v>
       </c>
       <c r="D954" s="10">
-        <v>4140.681640625</v>
+        <v>6512.5732421875</v>
       </c>
     </row>
     <row r="955">
@@ -16587,7 +16587,7 @@
         <v>44451</v>
       </c>
       <c r="D955" s="11">
-        <v>6210.6728515625</v>
+        <v>3266.950927734375</v>
       </c>
     </row>
     <row r="956">
@@ -16601,7 +16601,7 @@
         <v>44452</v>
       </c>
       <c r="D956" s="10">
-        <v>4915.7080078125</v>
+        <v>4565.4052734375</v>
       </c>
     </row>
     <row r="957">
@@ -16615,7 +16615,7 @@
         <v>44453</v>
       </c>
       <c r="D957" s="11">
-        <v>7923.841796875</v>
+        <v>4944.39404296875</v>
       </c>
     </row>
     <row r="958">
@@ -16629,7 +16629,7 @@
         <v>44454</v>
       </c>
       <c r="D958" s="10">
-        <v>605.34503173828125</v>
+        <v>4362.61083984375</v>
       </c>
     </row>
     <row r="959">
@@ -16643,7 +16643,7 @@
         <v>44455</v>
       </c>
       <c r="D959" s="11">
-        <v>1906.9114990234375</v>
+        <v>2153.75341796875</v>
       </c>
     </row>
     <row r="960">
@@ -16657,7 +16657,7 @@
         <v>44456</v>
       </c>
       <c r="D960" s="10">
-        <v>8069.9150390625</v>
+        <v>4600.77490234375</v>
       </c>
     </row>
     <row r="961">
@@ -16671,7 +16671,7 @@
         <v>44457</v>
       </c>
       <c r="D961" s="11">
-        <v>9315.8388671875</v>
+        <v>2060.448486328125</v>
       </c>
     </row>
     <row r="962">
@@ -16685,7 +16685,7 @@
         <v>44458</v>
       </c>
       <c r="D962" s="10">
-        <v>9129.3798828125</v>
+        <v>9030.826171875</v>
       </c>
     </row>
     <row r="963">
@@ -16699,7 +16699,7 @@
         <v>44459</v>
       </c>
       <c r="D963" s="11">
-        <v>3312.797119140625</v>
+        <v>6501.32666015625</v>
       </c>
     </row>
     <row r="964">
@@ -16713,7 +16713,7 @@
         <v>44460</v>
       </c>
       <c r="D964" s="10">
-        <v>3171.591796875</v>
+        <v>1261.197265625</v>
       </c>
     </row>
     <row r="965">
@@ -16727,7 +16727,7 @@
         <v>44461</v>
       </c>
       <c r="D965" s="11">
-        <v>727.4317626953125</v>
+        <v>8611.19140625</v>
       </c>
     </row>
     <row r="966">
@@ -16741,7 +16741,7 @@
         <v>44462</v>
       </c>
       <c r="D966" s="10">
-        <v>8929.2158203125</v>
+        <v>3512.668701171875</v>
       </c>
     </row>
     <row r="967">
@@ -16755,7 +16755,7 @@
         <v>44463</v>
       </c>
       <c r="D967" s="11">
-        <v>6470.91064453125</v>
+        <v>955.62213134765625</v>
       </c>
     </row>
     <row r="968">
@@ -16769,7 +16769,7 @@
         <v>44464</v>
       </c>
       <c r="D968" s="10">
-        <v>6943.212890625</v>
+        <v>1542.1998291015625</v>
       </c>
     </row>
     <row r="969">
@@ -16783,7 +16783,7 @@
         <v>44465</v>
       </c>
       <c r="D969" s="11">
-        <v>6232.13427734375</v>
+        <v>5893.9716796875</v>
       </c>
     </row>
     <row r="970">
@@ -16797,7 +16797,7 @@
         <v>44466</v>
       </c>
       <c r="D970" s="10">
-        <v>6970.0283203125</v>
+        <v>2853.410400390625</v>
       </c>
     </row>
     <row r="971">
@@ -16811,7 +16811,7 @@
         <v>44467</v>
       </c>
       <c r="D971" s="11">
-        <v>1590.5020751953125</v>
+        <v>5516.44677734375</v>
       </c>
     </row>
     <row r="972">
@@ -16825,7 +16825,7 @@
         <v>44468</v>
       </c>
       <c r="D972" s="10">
-        <v>2637.201171875</v>
+        <v>1473.0550537109375</v>
       </c>
     </row>
     <row r="973">
@@ -16839,7 +16839,7 @@
         <v>44469</v>
       </c>
       <c r="D973" s="11">
-        <v>6604.8994140625</v>
+        <v>8376.615234375</v>
       </c>
     </row>
     <row r="974">
@@ -16853,7 +16853,7 @@
         <v>44470</v>
       </c>
       <c r="D974" s="10">
-        <v>163.86967468261719</v>
+        <v>5786.248046875</v>
       </c>
     </row>
     <row r="975">
@@ -16867,7 +16867,7 @@
         <v>44471</v>
       </c>
       <c r="D975" s="11">
-        <v>5277.232421875</v>
+        <v>4783.57421875</v>
       </c>
     </row>
     <row r="976">
@@ -16881,7 +16881,7 @@
         <v>44472</v>
       </c>
       <c r="D976" s="10">
-        <v>419.236083984375</v>
+        <v>8539.8505859375</v>
       </c>
     </row>
     <row r="977">
@@ -16895,7 +16895,7 @@
         <v>44473</v>
       </c>
       <c r="D977" s="11">
-        <v>5923.93603515625</v>
+        <v>2053.440185546875</v>
       </c>
     </row>
     <row r="978">
@@ -16909,7 +16909,7 @@
         <v>44474</v>
       </c>
       <c r="D978" s="10">
-        <v>8223.4443359375</v>
+        <v>868.3272705078125</v>
       </c>
     </row>
     <row r="979">
@@ -16923,7 +16923,7 @@
         <v>44475</v>
       </c>
       <c r="D979" s="11">
-        <v>3058.512939453125</v>
+        <v>1187.98828125</v>
       </c>
     </row>
     <row r="980">
@@ -16937,7 +16937,7 @@
         <v>44476</v>
       </c>
       <c r="D980" s="10">
-        <v>6321.7978515625</v>
+        <v>626.6021728515625</v>
       </c>
     </row>
     <row r="981">
@@ -16951,7 +16951,7 @@
         <v>44477</v>
       </c>
       <c r="D981" s="11">
-        <v>1822.368896484375</v>
+        <v>1448.435546875</v>
       </c>
     </row>
     <row r="982">
@@ -16965,7 +16965,7 @@
         <v>44478</v>
       </c>
       <c r="D982" s="10">
-        <v>9709.96875</v>
+        <v>4940.49560546875</v>
       </c>
     </row>
     <row r="983">
@@ -16979,7 +16979,7 @@
         <v>44479</v>
       </c>
       <c r="D983" s="11">
-        <v>5299.607421875</v>
+        <v>8392.626953125</v>
       </c>
     </row>
     <row r="984">
@@ -16993,7 +16993,7 @@
         <v>44480</v>
       </c>
       <c r="D984" s="10">
-        <v>5390.99169921875</v>
+        <v>9053.79296875</v>
       </c>
     </row>
     <row r="985">
@@ -17007,7 +17007,7 @@
         <v>44481</v>
       </c>
       <c r="D985" s="11">
-        <v>8062.80810546875</v>
+        <v>9912.755859375</v>
       </c>
     </row>
     <row r="986">
@@ -17021,7 +17021,7 @@
         <v>44482</v>
       </c>
       <c r="D986" s="10">
-        <v>8804.0390625</v>
+        <v>1969.6448974609375</v>
       </c>
     </row>
     <row r="987">
@@ -17035,7 +17035,7 @@
         <v>44483</v>
       </c>
       <c r="D987" s="11">
-        <v>4310.01611328125</v>
+        <v>9872.41796875</v>
       </c>
     </row>
     <row r="988">
@@ -17049,7 +17049,7 @@
         <v>44484</v>
       </c>
       <c r="D988" s="10">
-        <v>8811.4775390625</v>
+        <v>862.01947021484375</v>
       </c>
     </row>
     <row r="989">
@@ -17063,7 +17063,7 @@
         <v>44485</v>
       </c>
       <c r="D989" s="11">
-        <v>6488.759765625</v>
+        <v>5143.77587890625</v>
       </c>
     </row>
     <row r="990">
@@ -17077,7 +17077,7 @@
         <v>44486</v>
       </c>
       <c r="D990" s="10">
-        <v>2166.645263671875</v>
+        <v>8212.15625</v>
       </c>
     </row>
     <row r="991">
@@ -17091,7 +17091,7 @@
         <v>44487</v>
       </c>
       <c r="D991" s="11">
-        <v>6028.81494140625</v>
+        <v>8294.9189453125</v>
       </c>
     </row>
     <row r="992">
@@ -17105,7 +17105,7 @@
         <v>44488</v>
       </c>
       <c r="D992" s="10">
-        <v>3431.5078125</v>
+        <v>5498.48974609375</v>
       </c>
     </row>
     <row r="993">
@@ -17119,7 +17119,7 @@
         <v>44489</v>
       </c>
       <c r="D993" s="11">
-        <v>2207.736083984375</v>
+        <v>4356.2744140625</v>
       </c>
     </row>
     <row r="994">
@@ -17133,7 +17133,7 @@
         <v>44490</v>
       </c>
       <c r="D994" s="10">
-        <v>7849.07080078125</v>
+        <v>8069.0322265625</v>
       </c>
     </row>
     <row r="995">
@@ -17147,7 +17147,7 @@
         <v>44491</v>
       </c>
       <c r="D995" s="11">
-        <v>1115.3702392578125</v>
+        <v>2563.3369140625</v>
       </c>
     </row>
     <row r="996">
@@ -17161,7 +17161,7 @@
         <v>44492</v>
       </c>
       <c r="D996" s="10">
-        <v>606.85528564453125</v>
+        <v>6707.6474609375</v>
       </c>
     </row>
     <row r="997">
@@ -17175,7 +17175,7 @@
         <v>44493</v>
       </c>
       <c r="D997" s="11">
-        <v>6021.5068359375</v>
+        <v>9340.8818359375</v>
       </c>
     </row>
     <row r="998">
@@ -17189,7 +17189,7 @@
         <v>44494</v>
       </c>
       <c r="D998" s="10">
-        <v>5321.69677734375</v>
+        <v>906.5648193359375</v>
       </c>
     </row>
     <row r="999">
@@ -17203,7 +17203,7 @@
         <v>44495</v>
       </c>
       <c r="D999" s="11">
-        <v>8110.18212890625</v>
+        <v>2563.178466796875</v>
       </c>
     </row>
     <row r="1000">
@@ -17217,7 +17217,7 @@
         <v>44496</v>
       </c>
       <c r="D1000" s="10">
-        <v>6803.50927734375</v>
+        <v>7023.14501953125</v>
       </c>
     </row>
     <row r="1001">
@@ -17231,7 +17231,7 @@
         <v>44497</v>
       </c>
       <c r="D1001" s="11">
-        <v>7155.85595703125</v>
+        <v>5908.01025390625</v>
       </c>
     </row>
     <row r="1002">
